--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658620F0-86EB-4710-978A-BABFD81CE86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED81ACA-F085-44E0-8756-1F4BE6F8DB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7284" uniqueCount="2399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7304" uniqueCount="2407">
   <si>
     <t>County/Parish</t>
   </si>
@@ -7333,6 +7333,30 @@
     <t>16777 S. Howland Road  Lathrop CA 95330</t>
   </si>
   <si>
+    <t>Kohana Coffee Company</t>
+  </si>
+  <si>
+    <t>514 West Ohio Avenue  Richmond CA 94804</t>
+  </si>
+  <si>
+    <t>Firebaugh Facility of Olam Americas</t>
+  </si>
+  <si>
+    <t>4761 West Nees Avenue  Firebaugh CA 93622</t>
+  </si>
+  <si>
+    <t>CI Office</t>
+  </si>
+  <si>
+    <t>10630 Mather Blvd, Suite 200  Mather CA 95655</t>
+  </si>
+  <si>
+    <t>CI Manufacturing Facility</t>
+  </si>
+  <si>
+    <t>8825 Elder Creek Road, Suite 600  Sacramento CA 95828</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -7344,7 +7368,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/23 to 06/26/24</t>
+      <t>07/01/23 to 06/30/24</t>
     </r>
     <r>
       <rPr>
@@ -7364,7 +7388,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H1811.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H1816.</t>
     </r>
   </si>
 </sst>
@@ -7588,9 +7612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FFA9A9A9"/>
@@ -7607,7 +7633,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7702,11 +7728,17 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8140,8 +8172,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8181,8 +8213,8 @@
       <numFmt numFmtId="164" formatCode="[$-10436]#,##0;\(#,##0\)"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8221,8 +8253,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8261,8 +8293,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8302,8 +8334,8 @@
       <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8343,8 +8375,8 @@
       <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8384,8 +8416,8 @@
       <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8424,8 +8456,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF0F0F0"/>
-          <bgColor rgb="FFF0F0F0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -8618,8 +8650,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H1811" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:H1811" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H1816" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:H1816" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -8972,7 +9004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9024,7 +9056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9051,7 +9083,7 @@
       </c>
       <c r="B3" s="14">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>93630</v>
+        <v>94189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -9060,7 +9092,7 @@
       </c>
       <c r="B4" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -9069,7 +9101,7 @@
       </c>
       <c r="B5" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -9086,7 +9118,7 @@
       </c>
       <c r="B7" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -9118,11 +9150,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I1811"/>
+  <dimension ref="A1:I1816"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="8" bestFit="1" customWidth="1"/>
@@ -9136,11 +9168,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>2398</v>
+        <v>2406</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -52556,7 +52588,7 @@
       <c r="G1671" s="6">
         <v>14</v>
       </c>
-      <c r="H1671" s="7" t="s">
+      <c r="H1671" s="36" t="s">
         <v>2232</v>
       </c>
     </row>
@@ -52582,7 +52614,7 @@
       <c r="G1672" s="32">
         <v>13</v>
       </c>
-      <c r="H1672" s="33" t="s">
+      <c r="H1672" s="37" t="s">
         <v>2233</v>
       </c>
     </row>
@@ -52608,7 +52640,7 @@
       <c r="G1673" s="6">
         <v>26</v>
       </c>
-      <c r="H1673" s="7" t="s">
+      <c r="H1673" s="36" t="s">
         <v>2234</v>
       </c>
     </row>
@@ -52634,10 +52666,10 @@
       <c r="G1674" s="32">
         <v>30</v>
       </c>
-      <c r="H1674" s="33" t="s">
+      <c r="H1674" s="37" t="s">
         <v>2252</v>
       </c>
-      <c r="I1674" s="34"/>
+      <c r="I1674" s="35"/>
     </row>
     <row r="1675" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1675" s="4" t="s">
@@ -52661,10 +52693,10 @@
       <c r="G1675" s="6">
         <v>201</v>
       </c>
-      <c r="H1675" s="7" t="s">
+      <c r="H1675" s="36" t="s">
         <v>2253</v>
       </c>
-      <c r="I1675" s="34"/>
+      <c r="I1675" s="35"/>
     </row>
     <row r="1676" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1676" s="29" t="s">
@@ -52688,10 +52720,10 @@
       <c r="G1676" s="32">
         <v>82</v>
       </c>
-      <c r="H1676" s="33" t="s">
+      <c r="H1676" s="37" t="s">
         <v>2254</v>
       </c>
-      <c r="I1676" s="34"/>
+      <c r="I1676" s="35"/>
     </row>
     <row r="1677" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1677" s="4" t="s">
@@ -52715,10 +52747,10 @@
       <c r="G1677" s="6">
         <v>123</v>
       </c>
-      <c r="H1677" s="7" t="s">
+      <c r="H1677" s="36" t="s">
         <v>2255</v>
       </c>
-      <c r="I1677" s="34"/>
+      <c r="I1677" s="35"/>
     </row>
     <row r="1678" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1678" s="29" t="s">
@@ -52742,10 +52774,10 @@
       <c r="G1678" s="32">
         <v>118</v>
       </c>
-      <c r="H1678" s="33" t="s">
+      <c r="H1678" s="37" t="s">
         <v>2255</v>
       </c>
-      <c r="I1678" s="34"/>
+      <c r="I1678" s="35"/>
     </row>
     <row r="1679" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1679" s="4" t="s">
@@ -52769,10 +52801,10 @@
       <c r="G1679" s="6">
         <v>14</v>
       </c>
-      <c r="H1679" s="7" t="s">
+      <c r="H1679" s="36" t="s">
         <v>2255</v>
       </c>
-      <c r="I1679" s="34"/>
+      <c r="I1679" s="35"/>
     </row>
     <row r="1680" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1680" s="29" t="s">
@@ -52796,10 +52828,10 @@
       <c r="G1680" s="32">
         <v>42</v>
       </c>
-      <c r="H1680" s="33" t="s">
+      <c r="H1680" s="37" t="s">
         <v>2255</v>
       </c>
-      <c r="I1680" s="34"/>
+      <c r="I1680" s="35"/>
     </row>
     <row r="1681" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1681" s="4" t="s">
@@ -52823,10 +52855,10 @@
       <c r="G1681" s="6">
         <v>6</v>
       </c>
-      <c r="H1681" s="7" t="s">
+      <c r="H1681" s="36" t="s">
         <v>2255</v>
       </c>
-      <c r="I1681" s="34"/>
+      <c r="I1681" s="35"/>
     </row>
     <row r="1682" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1682" s="29" t="s">
@@ -52850,10 +52882,10 @@
       <c r="G1682" s="32">
         <v>6</v>
       </c>
-      <c r="H1682" s="33" t="s">
+      <c r="H1682" s="37" t="s">
         <v>2255</v>
       </c>
-      <c r="I1682" s="34"/>
+      <c r="I1682" s="35"/>
     </row>
     <row r="1683" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1683" s="4" t="s">
@@ -52877,10 +52909,10 @@
       <c r="G1683" s="6">
         <v>38</v>
       </c>
-      <c r="H1683" s="7" t="s">
+      <c r="H1683" s="36" t="s">
         <v>2256</v>
       </c>
-      <c r="I1683" s="34"/>
+      <c r="I1683" s="35"/>
     </row>
     <row r="1684" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1684" s="29" t="s">
@@ -52904,10 +52936,10 @@
       <c r="G1684" s="32">
         <v>15</v>
       </c>
-      <c r="H1684" s="33" t="s">
+      <c r="H1684" s="37" t="s">
         <v>2257</v>
       </c>
-      <c r="I1684" s="34"/>
+      <c r="I1684" s="35"/>
     </row>
     <row r="1685" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1685" s="4" t="s">
@@ -52931,10 +52963,10 @@
       <c r="G1685" s="6">
         <v>12</v>
       </c>
-      <c r="H1685" s="7" t="s">
+      <c r="H1685" s="36" t="s">
         <v>2258</v>
       </c>
-      <c r="I1685" s="34"/>
+      <c r="I1685" s="35"/>
     </row>
     <row r="1686" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1686" s="29" t="s">
@@ -52958,10 +52990,10 @@
       <c r="G1686" s="32">
         <v>16</v>
       </c>
-      <c r="H1686" s="33" t="s">
+      <c r="H1686" s="37" t="s">
         <v>2259</v>
       </c>
-      <c r="I1686" s="34"/>
+      <c r="I1686" s="35"/>
     </row>
     <row r="1687" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1687" s="4" t="s">
@@ -52985,10 +53017,10 @@
       <c r="G1687" s="6">
         <v>7</v>
       </c>
-      <c r="H1687" s="7" t="s">
+      <c r="H1687" s="36" t="s">
         <v>2260</v>
       </c>
-      <c r="I1687" s="34"/>
+      <c r="I1687" s="35"/>
     </row>
     <row r="1688" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1688" s="29" t="s">
@@ -53012,10 +53044,10 @@
       <c r="G1688" s="32">
         <v>14</v>
       </c>
-      <c r="H1688" s="33" t="s">
+      <c r="H1688" s="37" t="s">
         <v>2261</v>
       </c>
-      <c r="I1688" s="34"/>
+      <c r="I1688" s="35"/>
     </row>
     <row r="1689" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1689" s="4" t="s">
@@ -53039,10 +53071,10 @@
       <c r="G1689" s="6">
         <v>11</v>
       </c>
-      <c r="H1689" s="7" t="s">
+      <c r="H1689" s="36" t="s">
         <v>2262</v>
       </c>
-      <c r="I1689" s="34"/>
+      <c r="I1689" s="35"/>
     </row>
     <row r="1690" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1690" s="29" t="s">
@@ -53066,10 +53098,10 @@
       <c r="G1690" s="32">
         <v>11</v>
       </c>
-      <c r="H1690" s="33" t="s">
+      <c r="H1690" s="37" t="s">
         <v>2263</v>
       </c>
-      <c r="I1690" s="34"/>
+      <c r="I1690" s="35"/>
     </row>
     <row r="1691" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1691" s="4" t="s">
@@ -53093,10 +53125,10 @@
       <c r="G1691" s="6">
         <v>7</v>
       </c>
-      <c r="H1691" s="7" t="s">
+      <c r="H1691" s="36" t="s">
         <v>2264</v>
       </c>
-      <c r="I1691" s="34"/>
+      <c r="I1691" s="35"/>
     </row>
     <row r="1692" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1692" s="29" t="s">
@@ -53120,10 +53152,10 @@
       <c r="G1692" s="32">
         <v>5</v>
       </c>
-      <c r="H1692" s="33" t="s">
+      <c r="H1692" s="37" t="s">
         <v>2265</v>
       </c>
-      <c r="I1692" s="34"/>
+      <c r="I1692" s="35"/>
     </row>
     <row r="1693" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1693" s="4" t="s">
@@ -53147,10 +53179,10 @@
       <c r="G1693" s="6">
         <v>61</v>
       </c>
-      <c r="H1693" s="7" t="s">
+      <c r="H1693" s="36" t="s">
         <v>2266</v>
       </c>
-      <c r="I1693" s="34"/>
+      <c r="I1693" s="35"/>
     </row>
     <row r="1694" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1694" s="29" t="s">
@@ -53174,10 +53206,10 @@
       <c r="G1694" s="32">
         <v>3</v>
       </c>
-      <c r="H1694" s="33" t="s">
+      <c r="H1694" s="37" t="s">
         <v>757</v>
       </c>
-      <c r="I1694" s="34"/>
+      <c r="I1694" s="35"/>
     </row>
     <row r="1695" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1695" s="4" t="s">
@@ -53201,10 +53233,10 @@
       <c r="G1695" s="6">
         <v>168</v>
       </c>
-      <c r="H1695" s="7" t="s">
+      <c r="H1695" s="36" t="s">
         <v>2267</v>
       </c>
-      <c r="I1695" s="34"/>
+      <c r="I1695" s="35"/>
     </row>
     <row r="1696" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1696" s="29" t="s">
@@ -53228,10 +53260,10 @@
       <c r="G1696" s="32">
         <v>27</v>
       </c>
-      <c r="H1696" s="33" t="s">
+      <c r="H1696" s="37" t="s">
         <v>2268</v>
       </c>
-      <c r="I1696" s="34"/>
+      <c r="I1696" s="35"/>
     </row>
     <row r="1697" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1697" s="4" t="s">
@@ -53255,10 +53287,10 @@
       <c r="G1697" s="6">
         <v>76</v>
       </c>
-      <c r="H1697" s="7" t="s">
+      <c r="H1697" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="I1697" s="34"/>
+      <c r="I1697" s="35"/>
     </row>
     <row r="1698" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1698" s="29" t="s">
@@ -53282,10 +53314,10 @@
       <c r="G1698" s="32">
         <v>53</v>
       </c>
-      <c r="H1698" s="33" t="s">
+      <c r="H1698" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="I1698" s="34"/>
+      <c r="I1698" s="35"/>
     </row>
     <row r="1699" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1699" s="4" t="s">
@@ -53309,10 +53341,10 @@
       <c r="G1699" s="6">
         <v>62</v>
       </c>
-      <c r="H1699" s="7" t="s">
+      <c r="H1699" s="36" t="s">
         <v>2269</v>
       </c>
-      <c r="I1699" s="34"/>
+      <c r="I1699" s="35"/>
     </row>
     <row r="1700" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1700" s="29" t="s">
@@ -53336,10 +53368,10 @@
       <c r="G1700" s="32">
         <v>250</v>
       </c>
-      <c r="H1700" s="33" t="s">
+      <c r="H1700" s="37" t="s">
         <v>2270</v>
       </c>
-      <c r="I1700" s="34"/>
+      <c r="I1700" s="35"/>
     </row>
     <row r="1701" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1701" s="4" t="s">
@@ -53363,10 +53395,10 @@
       <c r="G1701" s="6">
         <v>11</v>
       </c>
-      <c r="H1701" s="7" t="s">
+      <c r="H1701" s="36" t="s">
         <v>2344</v>
       </c>
-      <c r="I1701" s="34"/>
+      <c r="I1701" s="35"/>
     </row>
     <row r="1702" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1702" s="29" t="s">
@@ -53390,10 +53422,10 @@
       <c r="G1702" s="32">
         <v>34</v>
       </c>
-      <c r="H1702" s="33" t="s">
+      <c r="H1702" s="37" t="s">
         <v>2271</v>
       </c>
-      <c r="I1702" s="34"/>
+      <c r="I1702" s="35"/>
     </row>
     <row r="1703" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1703" s="4" t="s">
@@ -53417,7 +53449,7 @@
       <c r="G1703" s="6">
         <v>30</v>
       </c>
-      <c r="H1703" s="7" t="s">
+      <c r="H1703" s="36" t="s">
         <v>2272</v>
       </c>
     </row>
@@ -53443,7 +53475,7 @@
       <c r="G1704" s="32">
         <v>7</v>
       </c>
-      <c r="H1704" s="33" t="s">
+      <c r="H1704" s="37" t="s">
         <v>2345</v>
       </c>
     </row>
@@ -53469,7 +53501,7 @@
       <c r="G1705" s="6">
         <v>16</v>
       </c>
-      <c r="H1705" s="7" t="s">
+      <c r="H1705" s="36" t="s">
         <v>2346</v>
       </c>
     </row>
@@ -56227,6 +56259,136 @@
       </c>
       <c r="H1811" s="7" t="s">
         <v>2397</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1812" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1812" s="30">
+        <v>45470</v>
+      </c>
+      <c r="C1812" s="30">
+        <v>45470</v>
+      </c>
+      <c r="D1812" s="30">
+        <v>45533</v>
+      </c>
+      <c r="E1812" s="31" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F1812" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1812" s="32">
+        <v>68</v>
+      </c>
+      <c r="H1812" s="33" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1813" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1813" s="28">
+        <v>45471</v>
+      </c>
+      <c r="C1813" s="28">
+        <v>45471</v>
+      </c>
+      <c r="D1813" s="28">
+        <v>45534</v>
+      </c>
+      <c r="E1813" s="5" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F1813" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1813" s="6">
+        <v>51</v>
+      </c>
+      <c r="H1813" s="7" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1814" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1814" s="30">
+        <v>45471</v>
+      </c>
+      <c r="C1814" s="30">
+        <v>45471</v>
+      </c>
+      <c r="D1814" s="30">
+        <v>45534</v>
+      </c>
+      <c r="E1814" s="31" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F1814" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1814" s="32">
+        <v>275</v>
+      </c>
+      <c r="H1814" s="33" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1815" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1815" s="28">
+        <v>45463</v>
+      </c>
+      <c r="C1815" s="28">
+        <v>45471</v>
+      </c>
+      <c r="D1815" s="28">
+        <v>45524</v>
+      </c>
+      <c r="E1815" s="5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F1815" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1815" s="6">
+        <v>12</v>
+      </c>
+      <c r="H1815" s="7" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1816" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1816" s="30">
+        <v>45463</v>
+      </c>
+      <c r="C1816" s="30">
+        <v>45471</v>
+      </c>
+      <c r="D1816" s="30">
+        <v>45524</v>
+      </c>
+      <c r="E1816" s="31" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F1816" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1816" s="32">
+        <v>153</v>
+      </c>
+      <c r="H1816" s="33" t="s">
+        <v>2405</v>
       </c>
     </row>
   </sheetData>
@@ -56357,7 +56519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>2377</v>
       </c>
       <c r="E1"/>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC2322C-4773-4F0E-A49D-788333D63D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E1039-6438-45A4-BAA3-D9BC0840A253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>County/Parish</t>
   </si>
@@ -301,9 +301,6 @@
     <t>14549 Manzanita Dr.  Fontana CA 92335</t>
   </si>
   <si>
-    <t>Motorcar Parts Of America, Inc.</t>
-  </si>
-  <si>
     <t>2929 California Street  Torrance CA 90503</t>
   </si>
   <si>
@@ -311,6 +308,39 @@
   </si>
   <si>
     <t>10210 Campus Point Dr. #350  San Diego CA 92121</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/10/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Motorcar Parts of America, Inc.</t>
+  </si>
+  <si>
+    <t>Santa Clara County</t>
+  </si>
+  <si>
+    <t>Intuit Inc.</t>
+  </si>
+  <si>
+    <t>2700 Coast Ave.  Mountain View CA 94043</t>
+  </si>
+  <si>
+    <t>6060 Business Center Ct  San Diego CA 92154</t>
+  </si>
+  <si>
+    <t>7535 Torrey Santa Fe Rd  San Diego CA 92129</t>
   </si>
   <si>
     <r>
@@ -324,7 +354,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 07/08/24</t>
+      <t>07/01/24 to 07/10/24</t>
     </r>
     <r>
       <rPr>
@@ -344,22 +374,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through F15.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/08/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H18.</t>
     </r>
   </si>
 </sst>
@@ -1241,7 +1256,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFA9A9A9"/>
         </left>
@@ -1254,6 +1269,8 @@
         <bottom style="thin">
           <color rgb="FFA9A9A9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1280,7 +1297,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFA9A9A9"/>
         </left>
@@ -1293,6 +1310,8 @@
         <bottom style="thin">
           <color rgb="FFA9A9A9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1319,7 +1338,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFA9A9A9"/>
         </left>
@@ -1332,6 +1351,8 @@
         <bottom style="thin">
           <color rgb="FFA9A9A9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1358,7 +1379,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFA9A9A9"/>
         </left>
@@ -1371,6 +1392,8 @@
         <bottom style="thin">
           <color rgb="FFA9A9A9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1396,7 +1419,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1409,6 +1432,8 @@
         <bottom style="thin">
           <color rgb="FFA9A9A9"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1583,8 +1608,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H15" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:H15" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H18" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:H18" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2016,7 +2041,7 @@
       </c>
       <c r="B3" s="14">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>340</v>
+        <v>961</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2050,7 @@
       </c>
       <c r="B4" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2051,7 +2076,7 @@
       </c>
       <c r="B7" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2083,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2101,11 +2126,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2430,7 @@
         <v>45470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -2414,7 +2439,7 @@
         <v>94</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2457,7 +2482,7 @@
         <v>45541</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>8</v>
@@ -2466,7 +2491,85 @@
         <v>29</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="30">
+        <v>45483</v>
+      </c>
+      <c r="C16" s="30">
+        <v>45483</v>
+      </c>
+      <c r="D16" s="30">
+        <v>45544</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="32">
+        <v>384</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="28">
+        <v>45482</v>
+      </c>
+      <c r="C17" s="28">
+        <v>45483</v>
+      </c>
+      <c r="D17" s="28">
+        <v>45541</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="30">
+        <v>45483</v>
+      </c>
+      <c r="C18" s="30">
+        <v>45483</v>
+      </c>
+      <c r="D18" s="30">
+        <v>45544</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="32">
+        <v>215</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2692,7 @@
     <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -2598,7 +2701,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E1039-6438-45A4-BAA3-D9BC0840A253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE8EA4D-FCA2-4D95-901A-D008289B28B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>County/Parish</t>
   </si>
@@ -310,8 +310,26 @@
     <t>10210 Campus Point Dr. #350  San Diego CA 92121</t>
   </si>
   <si>
+    <t>Motorcar Parts of America, Inc.</t>
+  </si>
+  <si>
+    <t>Santa Clara County</t>
+  </si>
+  <si>
+    <t>Intuit Inc.</t>
+  </si>
+  <si>
+    <t>2700 Coast Ave.  Mountain View CA 94043</t>
+  </si>
+  <si>
+    <t>6060 Business Center Ct  San Diego CA 92154</t>
+  </si>
+  <si>
+    <t>7535 Torrey Santa Fe Rd  San Diego CA 92129</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/10/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/15/2024
 </t>
     </r>
     <r>
@@ -325,22 +343,40 @@
     </r>
   </si>
   <si>
-    <t>Motorcar Parts of America, Inc.</t>
-  </si>
-  <si>
-    <t>Santa Clara County</t>
-  </si>
-  <si>
-    <t>Intuit Inc.</t>
-  </si>
-  <si>
-    <t>2700 Coast Ave.  Mountain View CA 94043</t>
-  </si>
-  <si>
-    <t>6060 Business Center Ct  San Diego CA 92154</t>
-  </si>
-  <si>
-    <t>7535 Torrey Santa Fe Rd  San Diego CA 92129</t>
+    <t>Amador County</t>
+  </si>
+  <si>
+    <t>Sang-Hai Corporation</t>
+  </si>
+  <si>
+    <t>1000 Castle Oaks Dr.  Ione CA 95640</t>
+  </si>
+  <si>
+    <t>TRM Gamma Aerospace Acquisition, LLC</t>
+  </si>
+  <si>
+    <t>1461 S Balboa Avenue  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>US Foods, Inc.</t>
+  </si>
+  <si>
+    <t>1201 Park Center Drive  Vista CA 92081</t>
+  </si>
+  <si>
+    <t>TuSimple, Inc.</t>
+  </si>
+  <si>
+    <t>9191 Towne Centre Drive  San Diego CA 92122</t>
+  </si>
+  <si>
+    <t>City National Bank</t>
+  </si>
+  <si>
+    <t>350 S. Grand Avenue  Los Angeles CA 90003</t>
+  </si>
+  <si>
+    <t>555 S. Flower Street  Los Angeles CA 90012</t>
   </si>
   <si>
     <r>
@@ -354,7 +390,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 07/10/24</t>
+      <t>07/01/24 to 07/15/24</t>
     </r>
     <r>
       <rPr>
@@ -374,7 +410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H18.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H24.</t>
     </r>
   </si>
 </sst>
@@ -1130,8 +1166,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1171,8 +1207,8 @@
       <numFmt numFmtId="164" formatCode="[$-10436]#,##0;\(#,##0\)"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1211,8 +1247,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1251,8 +1287,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1292,8 +1328,8 @@
       <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1333,8 +1369,8 @@
       <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1374,8 +1410,8 @@
       <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1414,8 +1450,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF0F0F0"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
@@ -1608,8 +1644,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H18" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:H18" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H24" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:H24" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2041,7 +2077,7 @@
       </c>
       <c r="B3" s="14">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>961</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2050,7 +2086,7 @@
       </c>
       <c r="B4" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2076,7 +2112,7 @@
       </c>
       <c r="B7" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2108,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2126,11 +2162,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2466,7 @@
         <v>45470</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -2496,7 +2532,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="30">
         <v>45483</v>
@@ -2508,7 +2544,7 @@
         <v>45544</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>9</v>
@@ -2517,7 +2553,7 @@
         <v>384</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2543,7 +2579,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2560,7 +2596,7 @@
         <v>45544</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>9</v>
@@ -2569,7 +2605,163 @@
         <v>215</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="28">
+        <v>45483</v>
+      </c>
+      <c r="C19" s="28">
+        <v>45484</v>
+      </c>
+      <c r="D19" s="28">
+        <v>45544</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6">
+        <v>56</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="30">
+        <v>45484</v>
+      </c>
+      <c r="C20" s="30">
+        <v>45484</v>
+      </c>
+      <c r="D20" s="30">
+        <v>45544</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="32">
+        <v>24</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="28">
+        <v>45484</v>
+      </c>
+      <c r="C21" s="28">
+        <v>45484</v>
+      </c>
+      <c r="D21" s="28">
+        <v>45549</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6">
+        <v>97</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="30">
+        <v>45485</v>
+      </c>
+      <c r="C22" s="30">
+        <v>45485</v>
+      </c>
+      <c r="D22" s="30">
+        <v>45545</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="28">
+        <v>45488</v>
+      </c>
+      <c r="C23" s="28">
+        <v>45488</v>
+      </c>
+      <c r="D23" s="28">
+        <v>45548</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="30">
+        <v>45488</v>
+      </c>
+      <c r="C24" s="30">
+        <v>45488</v>
+      </c>
+      <c r="D24" s="30">
+        <v>45548</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="32">
+        <v>2</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2884,7 @@
     <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -2701,7 +2893,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE8EA4D-FCA2-4D95-901A-D008289B28B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EEDE2C-9EC5-4B52-8552-F6A4D0346BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>County/Parish</t>
   </si>
@@ -328,21 +328,6 @@
     <t>7535 Torrey Santa Fe Rd  San Diego CA 92129</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/15/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>Amador County</t>
   </si>
   <si>
@@ -377,6 +362,48 @@
   </si>
   <si>
     <t>555 S. Flower Street  Los Angeles CA 90012</t>
+  </si>
+  <si>
+    <t>Contra Costa County</t>
+  </si>
+  <si>
+    <t>Rodan &amp; Fields, LLC</t>
+  </si>
+  <si>
+    <t>3001 Bishop Drive, Suite 450  San Ramon CA 94583</t>
+  </si>
+  <si>
+    <t>UKG Inc.</t>
+  </si>
+  <si>
+    <t>5 Hutton Centre Dr # 1100  Santa Ana CA 92707</t>
+  </si>
+  <si>
+    <t>San Francisco County</t>
+  </si>
+  <si>
+    <t>55 2nd St Suite #2300  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>San Mateo County</t>
+  </si>
+  <si>
+    <t>Exabeam, Inc.</t>
+  </si>
+  <si>
+    <t>1051 E Hillsdale Blvd 4th Floor  Foster City CA 94404</t>
+  </si>
+  <si>
+    <t>Southwire Company, LLC</t>
+  </si>
+  <si>
+    <t>9199 Cleveland Avenue, Suite 100  Rancho Cucamonga CA 91730</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc.</t>
+  </si>
+  <si>
+    <t>100 S. California Street  Burbank CA 91505</t>
   </si>
   <si>
     <r>
@@ -390,7 +417,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 07/15/24</t>
+      <t>07/01/24 to 07/17/24</t>
     </r>
     <r>
       <rPr>
@@ -410,7 +437,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H24.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H30.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/17/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
     </r>
   </si>
 </sst>
@@ -541,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -629,6 +671,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -636,7 +717,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,6 +814,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1644,8 +1740,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H24" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:H24" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H30" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:H30" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1998,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2050,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2076,8 +2172,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="14">
-        <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>1147</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2085,8 +2180,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="14">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2094,7 +2188,6 @@
         <v>14</v>
       </c>
       <c r="B5" s="14">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
         <v>1</v>
       </c>
     </row>
@@ -2103,7 +2196,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,8 +2204,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="14">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2120,7 +2212,6 @@
         <v>17</v>
       </c>
       <c r="B8" s="14">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
         <v>0</v>
       </c>
     </row>
@@ -2129,7 +2220,6 @@
         <v>18</v>
       </c>
       <c r="B9" s="14">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Not Identified")</f>
         <v>0</v>
       </c>
     </row>
@@ -2144,29 +2234,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="26.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +2700,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="28">
         <v>45483</v>
@@ -2622,7 +2712,7 @@
         <v>45544</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>9</v>
@@ -2631,7 +2721,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2648,7 +2738,7 @@
         <v>45544</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>8</v>
@@ -2657,7 +2747,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2674,7 +2764,7 @@
         <v>45549</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>9</v>
@@ -2683,7 +2773,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2700,7 +2790,7 @@
         <v>45545</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>9</v>
@@ -2709,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2726,7 +2816,7 @@
         <v>45548</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>9</v>
@@ -2735,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2752,7 +2842,7 @@
         <v>45548</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>9</v>
@@ -2761,7 +2851,163 @@
         <v>2</v>
       </c>
       <c r="H24" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="B25" s="28">
+        <v>45488</v>
+      </c>
+      <c r="C25" s="28">
+        <v>45489</v>
+      </c>
+      <c r="D25" s="28">
+        <v>45548</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6">
+        <v>78</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="30">
+        <v>45484</v>
+      </c>
+      <c r="C26" s="30">
+        <v>45489</v>
+      </c>
+      <c r="D26" s="30">
+        <v>45544</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="32">
+        <v>195</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="28">
+        <v>45484</v>
+      </c>
+      <c r="C27" s="28">
+        <v>45489</v>
+      </c>
+      <c r="D27" s="28">
+        <v>45544</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="30">
+        <v>45489</v>
+      </c>
+      <c r="C28" s="30">
+        <v>45490</v>
+      </c>
+      <c r="D28" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="32">
+        <v>43</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="28">
+        <v>45490</v>
+      </c>
+      <c r="C29" s="28">
+        <v>45490</v>
+      </c>
+      <c r="D29" s="28">
+        <v>45566</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="6">
+        <v>95</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="36">
+        <v>45490</v>
+      </c>
+      <c r="C30" s="36">
+        <v>45490</v>
+      </c>
+      <c r="D30" s="36">
+        <v>45535</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="38">
+        <v>270</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +3029,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
@@ -2881,19 +3127,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EEDE2C-9EC5-4B52-8552-F6A4D0346BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4DEC6F-81B2-4F4F-B6B3-F98F75FD4005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>County/Parish</t>
   </si>
@@ -364,6 +364,21 @@
     <t>555 S. Flower Street  Los Angeles CA 90012</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/22/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
     <t>Contra Costa County</t>
   </si>
   <si>
@@ -404,6 +419,93 @@
   </si>
   <si>
     <t>100 S. California Street  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Pixar</t>
+  </si>
+  <si>
+    <t>1200 Park Avenue  Emeryville CA 94608</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>26243 Research Road  Hayward CA 94545</t>
+  </si>
+  <si>
+    <t>1365 S Grand Avenue  Glendora CA 91740</t>
+  </si>
+  <si>
+    <t>2603 Via Campo  Montbello CA 90640</t>
+  </si>
+  <si>
+    <t>420 W Rowland Street  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>797 S Fair Oaks Ave  Pasadena CA 91105</t>
+  </si>
+  <si>
+    <t>2600 Redondo Ave, 100, 200, 402  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>2699 Atlantic Ave  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>1120 W Washington Blvd  Los Angeles CA 90015</t>
+  </si>
+  <si>
+    <t>1122 W Washington Blvd  Los Angeles CA 90015</t>
+  </si>
+  <si>
+    <t>2300 Main Street  Irvine CA 92614</t>
+  </si>
+  <si>
+    <t>Riverside County</t>
+  </si>
+  <si>
+    <t>839 Highland Springs Avenue  Beaumont CA 92223</t>
+  </si>
+  <si>
+    <t>81 S Highland Springs Ave, Ste 101  Beaumont CA 92223</t>
+  </si>
+  <si>
+    <t>2 W Fern Avenue  Redlands CA 92373</t>
+  </si>
+  <si>
+    <t>7000 Boulder Ave  Highland CA 92346</t>
+  </si>
+  <si>
+    <t>245 Terracina Blvd, Ste 100, 105, 106A, 106B  Redlands CA 92373</t>
+  </si>
+  <si>
+    <t>Pitney Bowes Inc.</t>
+  </si>
+  <si>
+    <t>11260 Cedar Avenue  Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>San Joaquin County</t>
+  </si>
+  <si>
+    <t>4733 Newcastle Road, Bldg. 3  Stockton CA 95215</t>
+  </si>
+  <si>
+    <t>2175 Park Place  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>12750 Center Court, Ste 650  Cerritos CA 90703</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>2000 E El Segundo Blvd  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>MoreFlavor, Inc.</t>
+  </si>
+  <si>
+    <t>701 Willow Pass Rd, Ste 1  Pittsburg CA 94565</t>
   </si>
   <si>
     <r>
@@ -417,7 +519,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 07/17/24</t>
+      <t>07/01/24 to 07/22/24</t>
     </r>
     <r>
       <rPr>
@@ -437,22 +539,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H30.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/17/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H52.</t>
     </r>
   </si>
 </sst>
@@ -583,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -671,45 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA9A9A9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA9A9A9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA9A9A9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA9A9A9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -717,7 +765,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -814,21 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1740,8 +1773,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H30" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:H30" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H52" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:H52" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2094,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2146,7 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2172,7 +2205,8 @@
         <v>24</v>
       </c>
       <c r="B3" s="14">
-        <v>1840</v>
+        <f>SUM('Detailed WARN Report '!G:G)</f>
+        <v>2559</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2180,7 +2214,8 @@
         <v>13</v>
       </c>
       <c r="B4" s="14">
-        <v>17</v>
+        <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2188,6 +2223,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="14">
+        <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
         <v>1</v>
       </c>
     </row>
@@ -2196,7 +2232,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2204,7 +2240,8 @@
         <v>16</v>
       </c>
       <c r="B7" s="14">
-        <v>10</v>
+        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2212,6 +2249,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="14">
+        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
         <v>0</v>
       </c>
     </row>
@@ -2220,6 +2258,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="14">
+        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Not Identified")</f>
         <v>0</v>
       </c>
     </row>
@@ -2234,29 +2273,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2895,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="28">
         <v>45488</v>
@@ -2868,7 +2907,7 @@
         <v>45548</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -2877,7 +2916,7 @@
         <v>78</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2894,7 +2933,7 @@
         <v>45544</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>9</v>
@@ -2903,12 +2942,12 @@
         <v>195</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="28">
         <v>45484</v>
@@ -2920,7 +2959,7 @@
         <v>45544</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -2929,12 +2968,12 @@
         <v>12</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="30">
         <v>45489</v>
@@ -2946,7 +2985,7 @@
         <v>45551</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>9</v>
@@ -2955,10 +2994,10 @@
         <v>43</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
@@ -2972,7 +3011,7 @@
         <v>45566</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
@@ -2981,33 +3020,605 @@
         <v>95</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="30">
         <v>45490</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="30">
         <v>45490</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="30">
         <v>45535</v>
       </c>
-      <c r="E30" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="E30" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="32">
         <v>270</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>92</v>
+      <c r="H30" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="28">
+        <v>45490</v>
+      </c>
+      <c r="C31" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D31" s="28">
+        <v>45555</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C32" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D32" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C33" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D33" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>21</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C34" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D34" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="32">
+        <v>28</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C35" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D35" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6">
+        <v>18</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C36" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D36" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="32">
+        <v>55</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C37" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D37" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="6">
+        <v>37</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C38" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D38" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="32">
+        <v>9</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C39" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D39" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6">
+        <v>25</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C40" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D40" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C41" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D41" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="6">
+        <v>12</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C42" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D42" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="32">
+        <v>21</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C43" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D43" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C44" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D44" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="32">
+        <v>10</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C45" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D45" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="6">
+        <v>26</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C46" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D46" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="32">
+        <v>35</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="28">
+        <v>45490</v>
+      </c>
+      <c r="C47" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D47" s="28">
+        <v>45552</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="30">
+        <v>45490</v>
+      </c>
+      <c r="C48" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D48" s="30">
+        <v>45552</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="32">
+        <v>1</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C49" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D49" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="6">
+        <v>64</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="30">
+        <v>45491</v>
+      </c>
+      <c r="C50" s="30">
+        <v>45491</v>
+      </c>
+      <c r="D50" s="30">
+        <v>45551</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="32">
+        <v>157</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="28">
+        <v>45491</v>
+      </c>
+      <c r="C51" s="28">
+        <v>45491</v>
+      </c>
+      <c r="D51" s="28">
+        <v>45551</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="6">
+        <v>137</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="30">
+        <v>45492</v>
+      </c>
+      <c r="C52" s="30">
+        <v>45492</v>
+      </c>
+      <c r="D52" s="30">
+        <v>45585</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="32">
+        <v>51</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3640,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
@@ -3127,19 +3738,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4DEC6F-81B2-4F4F-B6B3-F98F75FD4005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90758C07-D5F2-47C6-BA2A-C805029EFF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="153">
   <si>
     <t>County/Parish</t>
   </si>
@@ -364,8 +364,137 @@
     <t>555 S. Flower Street  Los Angeles CA 90012</t>
   </si>
   <si>
+    <t>Contra Costa County</t>
+  </si>
+  <si>
+    <t>Rodan &amp; Fields, LLC</t>
+  </si>
+  <si>
+    <t>3001 Bishop Drive, Suite 450  San Ramon CA 94583</t>
+  </si>
+  <si>
+    <t>UKG Inc.</t>
+  </si>
+  <si>
+    <t>5 Hutton Centre Dr # 1100  Santa Ana CA 92707</t>
+  </si>
+  <si>
+    <t>San Francisco County</t>
+  </si>
+  <si>
+    <t>55 2nd St Suite #2300  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>San Mateo County</t>
+  </si>
+  <si>
+    <t>Exabeam, Inc.</t>
+  </si>
+  <si>
+    <t>1051 E Hillsdale Blvd 4th Floor  Foster City CA 94404</t>
+  </si>
+  <si>
+    <t>Southwire Company, LLC</t>
+  </si>
+  <si>
+    <t>9199 Cleveland Avenue, Suite 100  Rancho Cucamonga CA 91730</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc.</t>
+  </si>
+  <si>
+    <t>100 S. California Street  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Pixar</t>
+  </si>
+  <si>
+    <t>1200 Park Avenue  Emeryville CA 94608</t>
+  </si>
+  <si>
+    <t>Optum</t>
+  </si>
+  <si>
+    <t>26243 Research Road  Hayward CA 94545</t>
+  </si>
+  <si>
+    <t>1365 S Grand Avenue  Glendora CA 91740</t>
+  </si>
+  <si>
+    <t>2603 Via Campo  Montbello CA 90640</t>
+  </si>
+  <si>
+    <t>420 W Rowland Street  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>797 S Fair Oaks Ave  Pasadena CA 91105</t>
+  </si>
+  <si>
+    <t>2600 Redondo Ave, 100, 200, 402  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>2699 Atlantic Ave  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>1120 W Washington Blvd  Los Angeles CA 90015</t>
+  </si>
+  <si>
+    <t>1122 W Washington Blvd  Los Angeles CA 90015</t>
+  </si>
+  <si>
+    <t>2300 Main Street  Irvine CA 92614</t>
+  </si>
+  <si>
+    <t>Riverside County</t>
+  </si>
+  <si>
+    <t>839 Highland Springs Avenue  Beaumont CA 92223</t>
+  </si>
+  <si>
+    <t>81 S Highland Springs Ave, Ste 101  Beaumont CA 92223</t>
+  </si>
+  <si>
+    <t>2 W Fern Avenue  Redlands CA 92373</t>
+  </si>
+  <si>
+    <t>7000 Boulder Ave  Highland CA 92346</t>
+  </si>
+  <si>
+    <t>245 Terracina Blvd, Ste 100, 105, 106A, 106B  Redlands CA 92373</t>
+  </si>
+  <si>
+    <t>Pitney Bowes Inc.</t>
+  </si>
+  <si>
+    <t>11260 Cedar Avenue  Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>San Joaquin County</t>
+  </si>
+  <si>
+    <t>4733 Newcastle Road, Bldg. 3  Stockton CA 95215</t>
+  </si>
+  <si>
+    <t>2175 Park Place  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>12750 Center Court, Ste 650  Cerritos CA 90703</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>2000 E El Segundo Blvd  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>MoreFlavor, Inc.</t>
+  </si>
+  <si>
+    <t>701 Willow Pass Rd, Ste 1  Pittsburg CA 94565</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/22/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/24/2024
 </t>
     </r>
     <r>
@@ -379,133 +508,91 @@
     </r>
   </si>
   <si>
-    <t>Contra Costa County</t>
-  </si>
-  <si>
-    <t>Rodan &amp; Fields, LLC</t>
-  </si>
-  <si>
-    <t>3001 Bishop Drive, Suite 450  San Ramon CA 94583</t>
-  </si>
-  <si>
-    <t>UKG Inc.</t>
-  </si>
-  <si>
-    <t>5 Hutton Centre Dr # 1100  Santa Ana CA 92707</t>
-  </si>
-  <si>
-    <t>San Francisco County</t>
-  </si>
-  <si>
-    <t>55 2nd St Suite #2300  San Francisco CA 94105</t>
-  </si>
-  <si>
-    <t>San Mateo County</t>
-  </si>
-  <si>
-    <t>Exabeam, Inc.</t>
-  </si>
-  <si>
-    <t>1051 E Hillsdale Blvd 4th Floor  Foster City CA 94404</t>
-  </si>
-  <si>
-    <t>Southwire Company, LLC</t>
-  </si>
-  <si>
-    <t>9199 Cleveland Avenue, Suite 100  Rancho Cucamonga CA 91730</t>
-  </si>
-  <si>
-    <t>Warner Bros. Discovery, Inc.</t>
-  </si>
-  <si>
-    <t>100 S. California Street  Burbank CA 91505</t>
-  </si>
-  <si>
-    <t>Pixar</t>
-  </si>
-  <si>
-    <t>1200 Park Avenue  Emeryville CA 94608</t>
-  </si>
-  <si>
-    <t>Optum</t>
-  </si>
-  <si>
-    <t>26243 Research Road  Hayward CA 94545</t>
-  </si>
-  <si>
-    <t>1365 S Grand Avenue  Glendora CA 91740</t>
-  </si>
-  <si>
-    <t>2603 Via Campo  Montbello CA 90640</t>
-  </si>
-  <si>
-    <t>420 W Rowland Street  Covina CA 91723</t>
-  </si>
-  <si>
-    <t>797 S Fair Oaks Ave  Pasadena CA 91105</t>
-  </si>
-  <si>
-    <t>2600 Redondo Ave, 100, 200, 402  Long Beach CA 90806</t>
-  </si>
-  <si>
-    <t>2699 Atlantic Ave  Long Beach CA 90806</t>
-  </si>
-  <si>
-    <t>1120 W Washington Blvd  Los Angeles CA 90015</t>
-  </si>
-  <si>
-    <t>1122 W Washington Blvd  Los Angeles CA 90015</t>
-  </si>
-  <si>
-    <t>2300 Main Street  Irvine CA 92614</t>
-  </si>
-  <si>
-    <t>Riverside County</t>
-  </si>
-  <si>
-    <t>839 Highland Springs Avenue  Beaumont CA 92223</t>
-  </si>
-  <si>
-    <t>81 S Highland Springs Ave, Ste 101  Beaumont CA 92223</t>
-  </si>
-  <si>
-    <t>2 W Fern Avenue  Redlands CA 92373</t>
-  </si>
-  <si>
-    <t>7000 Boulder Ave  Highland CA 92346</t>
-  </si>
-  <si>
-    <t>245 Terracina Blvd, Ste 100, 105, 106A, 106B  Redlands CA 92373</t>
-  </si>
-  <si>
-    <t>Pitney Bowes Inc.</t>
-  </si>
-  <si>
-    <t>11260 Cedar Avenue  Bloomington CA 92316</t>
-  </si>
-  <si>
-    <t>San Joaquin County</t>
-  </si>
-  <si>
-    <t>4733 Newcastle Road, Bldg. 3  Stockton CA 95215</t>
-  </si>
-  <si>
-    <t>2175 Park Place  El Segundo CA 90245</t>
-  </si>
-  <si>
-    <t>12750 Center Court, Ste 650  Cerritos CA 90703</t>
-  </si>
-  <si>
-    <t>Raytheon</t>
-  </si>
-  <si>
-    <t>2000 E El Segundo Blvd  El Segundo CA 90245</t>
-  </si>
-  <si>
-    <t>MoreFlavor, Inc.</t>
-  </si>
-  <si>
-    <t>701 Willow Pass Rd, Ste 1  Pittsburg CA 94565</t>
+    <t>Moxion Power, Inc.</t>
+  </si>
+  <si>
+    <t>1414 Harbour Way S #1901  Richmond CA 94804</t>
+  </si>
+  <si>
+    <t>8563 San Fernando Rd.  Sun Valley CA 91352</t>
+  </si>
+  <si>
+    <t>4441 E. 52nd St.  Vernon CA 90058</t>
+  </si>
+  <si>
+    <t>Kimura Enterprise, Inc.</t>
+  </si>
+  <si>
+    <t>11283 Santa Monica Blvd.  Los Angeles CA 90025</t>
+  </si>
+  <si>
+    <t>Bellota</t>
+  </si>
+  <si>
+    <t>Closure Not known at this time</t>
+  </si>
+  <si>
+    <t>888 Brannan Street  San Francisco CA 94103</t>
+  </si>
+  <si>
+    <t>Cohere Beauty</t>
+  </si>
+  <si>
+    <t>8339 Allport Avenue  Santa Fe Springs CA 90670</t>
+  </si>
+  <si>
+    <t>Athletics Investment Group LLC</t>
+  </si>
+  <si>
+    <t>7000 Coliseum Way  Oakland CA 94621</t>
+  </si>
+  <si>
+    <t>55 Harrison Street Suite 300  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>Bay Area Sports Catering</t>
+  </si>
+  <si>
+    <t>Vintage Wine Estates, Inc</t>
+  </si>
+  <si>
+    <t>13300 Buckman Dr.  Hopland CA 95449</t>
+  </si>
+  <si>
+    <t>Napa County</t>
+  </si>
+  <si>
+    <t>1060 Dunaweal Lane  Calistoga CA 94515</t>
+  </si>
+  <si>
+    <t>1077 Dunaweal Ln  Calistoga CA 94515</t>
+  </si>
+  <si>
+    <t>San Luis Obispo County</t>
+  </si>
+  <si>
+    <t>453 Laetitia Vineyard Dr.  Arroyo Grande CA 93420</t>
+  </si>
+  <si>
+    <t>Sonoma County</t>
+  </si>
+  <si>
+    <t>205 Concourse Blvd  Santa Rosa CA 95403</t>
+  </si>
+  <si>
+    <t>2064 Gravenstein Hwy N Ste 4  Sebastopol CA 95472</t>
+  </si>
+  <si>
+    <t>15000 Sonoma Hwy  Glen Ellen CA 95442</t>
+  </si>
+  <si>
+    <t>9825 Sonoma Hwy  Kenwood CA 95452</t>
+  </si>
+  <si>
+    <t>555 South Highway 1  Bodega Bay CA 94923</t>
+  </si>
+  <si>
+    <t>25200 Arnold Dr  Sonoma CA 95476</t>
   </si>
   <si>
     <r>
@@ -519,7 +606,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 07/22/24</t>
+      <t>07/01/24 to 07/24/24</t>
     </r>
     <r>
       <rPr>
@@ -539,7 +626,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H52.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H72.</t>
     </r>
   </si>
 </sst>
@@ -1773,8 +1860,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H52" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:H52" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:H72" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:H72" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2206,7 +2293,7 @@
       </c>
       <c r="B3" s="14">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>2559</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2215,7 +2302,7 @@
       </c>
       <c r="B4" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2241,7 +2328,7 @@
       </c>
       <c r="B7" s="14">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2273,7 +2360,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2284,18 +2371,18 @@
     <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2982,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="28">
         <v>45488</v>
@@ -2907,7 +2994,7 @@
         <v>45548</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>9</v>
@@ -2916,7 +3003,7 @@
         <v>78</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2933,7 +3020,7 @@
         <v>45544</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>9</v>
@@ -2942,12 +3029,12 @@
         <v>195</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="28">
         <v>45484</v>
@@ -2959,7 +3046,7 @@
         <v>45544</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
@@ -2968,12 +3055,12 @@
         <v>12</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="30">
         <v>45489</v>
@@ -2985,7 +3072,7 @@
         <v>45551</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>9</v>
@@ -2994,7 +3081,7 @@
         <v>43</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -3011,7 +3098,7 @@
         <v>45566</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
@@ -3020,7 +3107,7 @@
         <v>95</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -3037,7 +3124,7 @@
         <v>45535</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>9</v>
@@ -3046,7 +3133,7 @@
         <v>270</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -3063,7 +3150,7 @@
         <v>45555</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>9</v>
@@ -3072,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -3089,7 +3176,7 @@
         <v>45551</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>8</v>
@@ -3098,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -3115,7 +3202,7 @@
         <v>45551</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>8</v>
@@ -3124,7 +3211,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -3141,7 +3228,7 @@
         <v>45551</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>8</v>
@@ -3150,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -3167,7 +3254,7 @@
         <v>45551</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>8</v>
@@ -3176,7 +3263,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -3193,7 +3280,7 @@
         <v>45551</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>8</v>
@@ -3202,7 +3289,7 @@
         <v>55</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -3219,7 +3306,7 @@
         <v>45551</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>8</v>
@@ -3228,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -3245,7 +3332,7 @@
         <v>45551</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>8</v>
@@ -3254,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -3271,7 +3358,7 @@
         <v>45551</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>8</v>
@@ -3280,7 +3367,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3297,7 +3384,7 @@
         <v>45551</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>8</v>
@@ -3306,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3323,7 +3410,7 @@
         <v>45551</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>
@@ -3332,12 +3419,12 @@
         <v>12</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="30">
         <v>45491</v>
@@ -3349,7 +3436,7 @@
         <v>45551</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>8</v>
@@ -3358,12 +3445,12 @@
         <v>21</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="28">
         <v>45491</v>
@@ -3375,7 +3462,7 @@
         <v>45551</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>8</v>
@@ -3384,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -3401,7 +3488,7 @@
         <v>45551</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>8</v>
@@ -3410,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -3427,7 +3514,7 @@
         <v>45551</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>8</v>
@@ -3436,7 +3523,7 @@
         <v>26</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3453,7 +3540,7 @@
         <v>45551</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>8</v>
@@ -3462,7 +3549,7 @@
         <v>35</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3479,7 +3566,7 @@
         <v>45552</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>9</v>
@@ -3488,12 +3575,12 @@
         <v>2</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="30">
         <v>45490</v>
@@ -3505,7 +3592,7 @@
         <v>45552</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>9</v>
@@ -3514,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -3531,7 +3618,7 @@
         <v>45551</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>9</v>
@@ -3540,7 +3627,7 @@
         <v>64</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -3557,7 +3644,7 @@
         <v>45551</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>9</v>
@@ -3566,7 +3653,7 @@
         <v>157</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3583,7 +3670,7 @@
         <v>45551</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>9</v>
@@ -3592,12 +3679,12 @@
         <v>137</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="30">
         <v>45492</v>
@@ -3609,7 +3696,7 @@
         <v>45585</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>8</v>
@@ -3618,7 +3705,527 @@
         <v>51</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="28">
+        <v>45492</v>
+      </c>
+      <c r="C53" s="28">
+        <v>45496</v>
+      </c>
+      <c r="D53" s="28">
+        <v>45509</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="6">
+        <v>247</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="30">
+        <v>45492</v>
+      </c>
+      <c r="C54" s="30">
+        <v>45496</v>
+      </c>
+      <c r="D54" s="30">
+        <v>45509</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="32">
+        <v>1</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="28">
+        <v>45492</v>
+      </c>
+      <c r="C55" s="28">
+        <v>45496</v>
+      </c>
+      <c r="D55" s="28">
+        <v>45509</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="30">
+        <v>45495</v>
+      </c>
+      <c r="C56" s="30">
+        <v>45496</v>
+      </c>
+      <c r="D56" s="30">
+        <v>45557</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="32">
+        <v>15</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="28">
+        <v>45495</v>
+      </c>
+      <c r="C57" s="28">
+        <v>45496</v>
+      </c>
+      <c r="D57" s="28">
+        <v>45555</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="6">
+        <v>33</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="30">
+        <v>45497</v>
+      </c>
+      <c r="C58" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D58" s="30">
+        <v>45626</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="32">
+        <v>20</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="28">
+        <v>45496</v>
+      </c>
+      <c r="C59" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D59" s="28">
+        <v>45567</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="6">
+        <v>14</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="30">
+        <v>45496</v>
+      </c>
+      <c r="C60" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D60" s="30">
+        <v>45567</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="32">
+        <v>358</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="28">
+        <v>45496</v>
+      </c>
+      <c r="C61" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D61" s="28">
+        <v>45567</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="6">
+        <v>43</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="30">
+        <v>45496</v>
+      </c>
+      <c r="C62" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D62" s="30">
+        <v>45567</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="32">
+        <v>176</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="28">
+        <v>45497</v>
+      </c>
+      <c r="C63" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D63" s="28">
+        <v>45562</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="6">
+        <v>124</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="30">
+        <v>45497</v>
+      </c>
+      <c r="C64" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D64" s="30">
+        <v>45562</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="32">
+        <v>17</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="28">
+        <v>45497</v>
+      </c>
+      <c r="C65" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D65" s="28">
+        <v>45562</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="6">
+        <v>10</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="30">
+        <v>45497</v>
+      </c>
+      <c r="C66" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D66" s="30">
+        <v>45562</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="32">
+        <v>20</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="28">
+        <v>45497</v>
+      </c>
+      <c r="C67" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D67" s="28">
+        <v>45562</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="6">
+        <v>101</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="30">
+        <v>45497</v>
+      </c>
+      <c r="C68" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D68" s="30">
+        <v>45562</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="32">
+        <v>19</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="28">
+        <v>45497</v>
+      </c>
+      <c r="C69" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D69" s="28">
+        <v>45562</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="6">
+        <v>11</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="30">
+        <v>45497</v>
+      </c>
+      <c r="C70" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D70" s="30">
+        <v>45562</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="32">
+        <v>37</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="28">
+        <v>45497</v>
+      </c>
+      <c r="C71" s="28">
+        <v>45497</v>
+      </c>
+      <c r="D71" s="28">
+        <v>45562</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="6">
+        <v>5</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="30">
+        <v>45497</v>
+      </c>
+      <c r="C72" s="30">
+        <v>45497</v>
+      </c>
+      <c r="D72" s="30">
+        <v>45562</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="32">
+        <v>33</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74B2776-3F8E-45AD-9913-8EA51813F2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2834C986-BCCF-41F0-8C3F-8AB83976D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11265" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="261">
   <si>
     <t>County/Parish</t>
   </si>
@@ -869,6 +869,57 @@
     <t>409 Illinois Street  San Francisco CA 94158</t>
   </si>
   <si>
+    <t>Placer County</t>
+  </si>
+  <si>
+    <t>Save Mart Supermarkets LLC dba Roseville Distribution Center</t>
+  </si>
+  <si>
+    <t>Distribution Alternatives, Inc.</t>
+  </si>
+  <si>
+    <t>9999 Niblick Drive  Roseville CA 95678</t>
+  </si>
+  <si>
+    <t>17820 Slover Ave  Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>Ventura County</t>
+  </si>
+  <si>
+    <t>Farmers Group, Inc.</t>
+  </si>
+  <si>
+    <t>Velo3D, Inc.</t>
+  </si>
+  <si>
+    <t>Mosaic Culver, LLC</t>
+  </si>
+  <si>
+    <t>Fastly, Inc.</t>
+  </si>
+  <si>
+    <t>Adventist Health Simi Valley</t>
+  </si>
+  <si>
+    <t>6303 Owensmouth Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>2710 Lakeview Court  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>8801 Washington Blvd  Culver City CA 90232</t>
+  </si>
+  <si>
+    <t>4733 Newcastle Rd. Bldg. 3  Stockton CA 95215</t>
+  </si>
+  <si>
+    <t>475 Brannan Street, Ste 300  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>2975 Sycamore Drive  Simi Valley CA 93065</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -880,7 +931,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/05/24</t>
+      <t>07/01/24 to 08/12/24</t>
     </r>
     <r>
       <rPr>
@@ -900,7 +951,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I116.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I125.</t>
     </r>
   </si>
 </sst>
@@ -912,7 +963,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-10436]#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -997,6 +1048,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1200,9 +1252,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1214,6 +1263,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1768,14 +1820,14 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
+      <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <font>
@@ -1793,14 +1845,14 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
+      <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <font>
@@ -1818,14 +1870,14 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-10409]mm/dd/yyyy"/>
+      <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <font>
@@ -2006,8 +2058,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I116" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I116" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I125" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I125" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2441,7 +2493,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>5853</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2502,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2528,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +2560,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2527,36 +2579,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2564,13 +2616,13 @@
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="31">
         <v>45474</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="31">
         <v>45474</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="31">
         <v>45473</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -2579,13 +2631,13 @@
       <c r="F3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>57</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2593,13 +2645,13 @@
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="31">
         <v>45473</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="31">
         <v>45474</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="31">
         <v>45533</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -2608,13 +2660,13 @@
       <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>5</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2622,13 +2674,13 @@
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="31">
         <v>45475</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="31">
         <v>45475</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="31">
         <v>45536</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -2637,13 +2689,13 @@
       <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>20</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2651,13 +2703,13 @@
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="31">
         <v>45471</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="31">
         <v>45475</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="31">
         <v>45534</v>
       </c>
       <c r="E6" s="26" t="s">
@@ -2666,13 +2718,13 @@
       <c r="F6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>36</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2680,13 +2732,13 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="31">
         <v>45474</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="31">
         <v>45475</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="31">
         <v>45535</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -2695,13 +2747,13 @@
       <c r="F7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>8</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2709,13 +2761,13 @@
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="31">
         <v>45474</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="31">
         <v>45475</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="31">
         <v>45535</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -2724,13 +2776,13 @@
       <c r="F8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>19</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2738,13 +2790,13 @@
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="31">
         <v>45475</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="31">
         <v>45475</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="31">
         <v>45535</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -2753,13 +2805,13 @@
       <c r="F9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>6</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2767,13 +2819,13 @@
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="31">
         <v>45474</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="31">
         <v>45476</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="31">
         <v>45535</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -2782,13 +2834,13 @@
       <c r="F10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>8</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2796,13 +2848,13 @@
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="31">
         <v>45476</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="31">
         <v>45476</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="31">
         <v>45540</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -2811,13 +2863,13 @@
       <c r="F11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>26</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2825,13 +2877,13 @@
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="31">
         <v>45475</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="31">
         <v>45476</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="31">
         <v>45536</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -2840,13 +2892,13 @@
       <c r="F12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>8</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2854,13 +2906,13 @@
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="31">
         <v>45470</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="31">
         <v>45476</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="31">
         <v>45470</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -2869,13 +2921,13 @@
       <c r="F13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>94</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2883,13 +2935,13 @@
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="31">
         <v>45481</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="31">
         <v>45481</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="31">
         <v>45541</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -2898,13 +2950,13 @@
       <c r="F14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>24</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2912,13 +2964,13 @@
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="31">
         <v>45478</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="31">
         <v>45481</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="31">
         <v>45541</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -2927,13 +2979,13 @@
       <c r="F15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>29</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2941,13 +2993,13 @@
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="31">
         <v>45483</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="31">
         <v>45483</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="31">
         <v>45544</v>
       </c>
       <c r="E16" s="26" t="s">
@@ -2956,13 +3008,13 @@
       <c r="F16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>384</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2970,13 +3022,13 @@
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="31">
         <v>45482</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="31">
         <v>45483</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="31">
         <v>45541</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -2985,13 +3037,13 @@
       <c r="F17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>22</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2999,13 +3051,13 @@
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="31">
         <v>45483</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="31">
         <v>45483</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="31">
         <v>45544</v>
       </c>
       <c r="E18" s="26" t="s">
@@ -3014,13 +3066,13 @@
       <c r="F18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>215</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3028,13 +3080,13 @@
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="31">
         <v>45483</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="31">
         <v>45484</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="31">
         <v>45544</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -3043,13 +3095,13 @@
       <c r="F19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>56</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3057,13 +3109,13 @@
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="31">
         <v>45484</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="31">
         <v>45484</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="31">
         <v>45544</v>
       </c>
       <c r="E20" s="26" t="s">
@@ -3072,13 +3124,13 @@
       <c r="F20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>24</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3086,13 +3138,13 @@
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="31">
         <v>45484</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="31">
         <v>45484</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="31">
         <v>45549</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -3101,13 +3153,13 @@
       <c r="F21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>97</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3115,13 +3167,13 @@
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="31">
         <v>45485</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="31">
         <v>45485</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="31">
         <v>45545</v>
       </c>
       <c r="E22" s="26" t="s">
@@ -3130,13 +3182,13 @@
       <c r="F22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>1</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3144,13 +3196,13 @@
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="31">
         <v>45488</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="31">
         <v>45488</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="31">
         <v>45548</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -3159,13 +3211,13 @@
       <c r="F23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>6</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="28" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3173,13 +3225,13 @@
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="31">
         <v>45488</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="31">
         <v>45488</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="31">
         <v>45548</v>
       </c>
       <c r="E24" s="26" t="s">
@@ -3188,13 +3240,13 @@
       <c r="F24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>2</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="28" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3202,13 +3254,13 @@
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="31">
         <v>45488</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="31">
         <v>45489</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="31">
         <v>45548</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -3217,13 +3269,13 @@
       <c r="F25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>78</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3231,13 +3283,13 @@
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="31">
         <v>45484</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="31">
         <v>45489</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="31">
         <v>45544</v>
       </c>
       <c r="E26" s="26" t="s">
@@ -3246,13 +3298,13 @@
       <c r="F26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <v>195</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3260,13 +3312,13 @@
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="31">
         <v>45484</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="31">
         <v>45489</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="31">
         <v>45544</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -3275,13 +3327,13 @@
       <c r="F27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>12</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3289,13 +3341,13 @@
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="31">
         <v>45489</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="31">
         <v>45490</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="31">
         <v>45551</v>
       </c>
       <c r="E28" s="26" t="s">
@@ -3304,13 +3356,13 @@
       <c r="F28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>43</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3318,13 +3370,13 @@
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="31">
         <v>45490</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="31">
         <v>45490</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="31">
         <v>45566</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -3333,13 +3385,13 @@
       <c r="F29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>95</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3347,13 +3399,13 @@
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="31">
         <v>45490</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="31">
         <v>45490</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="31">
         <v>45535</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -3362,13 +3414,13 @@
       <c r="F30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>81</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3376,13 +3428,13 @@
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="31">
         <v>45490</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="31">
         <v>45490</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="31">
         <v>45535</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -3391,13 +3443,13 @@
       <c r="F31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <v>62</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3405,13 +3457,13 @@
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="31">
         <v>45490</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="31">
         <v>45490</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="31">
         <v>45535</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -3420,13 +3472,13 @@
       <c r="F32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <v>121</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3434,13 +3486,13 @@
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="31">
         <v>45490</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="31">
         <v>45491</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="31">
         <v>45555</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -3449,13 +3501,13 @@
       <c r="F33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="27">
         <v>4</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3463,13 +3515,13 @@
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="31">
         <v>45491</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="31">
         <v>45491</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="31">
         <v>45551</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -3478,13 +3530,13 @@
       <c r="F34" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <v>3</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3492,13 +3544,13 @@
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="31">
         <v>45491</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="31">
         <v>45491</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="31">
         <v>45551</v>
       </c>
       <c r="E35" s="26" t="s">
@@ -3507,13 +3559,13 @@
       <c r="F35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="27">
         <v>21</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3521,13 +3573,13 @@
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="31">
         <v>45491</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="31">
         <v>45491</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="31">
         <v>45551</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -3536,13 +3588,13 @@
       <c r="F36" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="27">
         <v>28</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3550,13 +3602,13 @@
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="31">
         <v>45491</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="31">
         <v>45491</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="31">
         <v>45551</v>
       </c>
       <c r="E37" s="26" t="s">
@@ -3565,13 +3617,13 @@
       <c r="F37" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="27">
         <v>18</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3579,13 +3631,13 @@
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="31">
         <v>45491</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="31">
         <v>45491</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="31">
         <v>45551</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -3594,13 +3646,13 @@
       <c r="F38" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="27">
         <v>55</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3608,13 +3660,13 @@
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="31">
         <v>45491</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="31">
         <v>45491</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="31">
         <v>45551</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -3623,13 +3675,13 @@
       <c r="F39" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="27">
         <v>37</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3637,13 +3689,13 @@
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="31">
         <v>45491</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="31">
         <v>45491</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="31">
         <v>45551</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -3652,13 +3704,13 @@
       <c r="F40" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="27">
         <v>9</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3666,13 +3718,13 @@
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="31">
         <v>45491</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="31">
         <v>45491</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="31">
         <v>45551</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -3681,13 +3733,13 @@
       <c r="F41" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="27">
         <v>25</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="29" t="s">
+      <c r="I41" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3695,13 +3747,13 @@
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="31">
         <v>45491</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="31">
         <v>45491</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="31">
         <v>45551</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3710,13 +3762,13 @@
       <c r="F42" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="27">
         <v>1</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3724,13 +3776,13 @@
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="31">
         <v>45491</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="31">
         <v>45491</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="31">
         <v>45551</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -3739,13 +3791,13 @@
       <c r="F43" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="27">
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3753,13 +3805,13 @@
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="31">
         <v>45491</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="31">
         <v>45491</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="31">
         <v>45551</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3768,13 +3820,13 @@
       <c r="F44" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="27">
         <v>21</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="29" t="s">
+      <c r="I44" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3782,13 +3834,13 @@
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="31">
         <v>45491</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="31">
         <v>45491</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="31">
         <v>45551</v>
       </c>
       <c r="E45" s="26" t="s">
@@ -3797,13 +3849,13 @@
       <c r="F45" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="27">
         <v>2</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3811,13 +3863,13 @@
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="31">
         <v>45491</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="31">
         <v>45491</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="31">
         <v>45551</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -3826,13 +3878,13 @@
       <c r="F46" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="27">
         <v>10</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3840,13 +3892,13 @@
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="31">
         <v>45491</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="31">
         <v>45491</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="31">
         <v>45551</v>
       </c>
       <c r="E47" s="26" t="s">
@@ -3855,13 +3907,13 @@
       <c r="F47" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="27">
         <v>26</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="29" t="s">
+      <c r="I47" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3869,13 +3921,13 @@
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="31">
         <v>45491</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="31">
         <v>45491</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="31">
         <v>45551</v>
       </c>
       <c r="E48" s="26" t="s">
@@ -3884,13 +3936,13 @@
       <c r="F48" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="27">
         <v>35</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3898,13 +3950,13 @@
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="31">
         <v>45490</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="31">
         <v>45491</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="31">
         <v>45552</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -3913,13 +3965,13 @@
       <c r="F49" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="27">
         <v>2</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3927,13 +3979,13 @@
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="31">
         <v>45490</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="31">
         <v>45491</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="31">
         <v>45552</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -3942,13 +3994,13 @@
       <c r="F50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="27">
         <v>1</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I50" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3956,13 +4008,13 @@
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="31">
         <v>45491</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="31">
         <v>45491</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="31">
         <v>45551</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -3971,13 +4023,13 @@
       <c r="F51" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="27">
         <v>64</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I51" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3985,13 +4037,13 @@
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="31">
         <v>45491</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="31">
         <v>45491</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="31">
         <v>45551</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -4000,13 +4052,13 @@
       <c r="F52" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="27">
         <v>157</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="29" t="s">
+      <c r="I52" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4014,13 +4066,13 @@
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="31">
         <v>45491</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="31">
         <v>45491</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="31">
         <v>45551</v>
       </c>
       <c r="E53" s="26" t="s">
@@ -4029,13 +4081,13 @@
       <c r="F53" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="27">
         <v>137</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4043,13 +4095,13 @@
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="31">
         <v>45492</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="31">
         <v>45492</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="31">
         <v>45585</v>
       </c>
       <c r="E54" s="26" t="s">
@@ -4058,13 +4110,13 @@
       <c r="F54" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="27">
         <v>51</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="28" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4072,13 +4124,13 @@
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="31">
         <v>45492</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="31">
         <v>45496</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="31">
         <v>45509</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4087,13 +4139,13 @@
       <c r="F55" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="27">
         <v>244</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4101,13 +4153,13 @@
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="31">
         <v>45492</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="31">
         <v>45496</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="31">
         <v>45509</v>
       </c>
       <c r="E56" s="26" t="s">
@@ -4116,13 +4168,13 @@
       <c r="F56" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="27">
         <v>3</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4130,13 +4182,13 @@
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="31">
         <v>45492</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="31">
         <v>45496</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="31">
         <v>45509</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4145,13 +4197,13 @@
       <c r="F57" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="27">
         <v>1</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4159,13 +4211,13 @@
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="31">
         <v>45495</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="31">
         <v>45496</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="31">
         <v>45557</v>
       </c>
       <c r="E58" s="26" t="s">
@@ -4174,13 +4226,13 @@
       <c r="F58" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="27">
         <v>15</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4188,13 +4240,13 @@
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="31">
         <v>45495</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="31">
         <v>45496</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="31">
         <v>45555</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4203,13 +4255,13 @@
       <c r="F59" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="27">
         <v>33</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="28" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4217,13 +4269,13 @@
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="31">
         <v>45497</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="31">
         <v>45497</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="31">
         <v>45626</v>
       </c>
       <c r="E60" s="26" t="s">
@@ -4232,13 +4284,13 @@
       <c r="F60" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="27">
         <v>20</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4246,13 +4298,13 @@
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="31">
         <v>45496</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="31">
         <v>45497</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="31">
         <v>45567</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4261,13 +4313,13 @@
       <c r="F61" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="27">
         <v>14</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4275,13 +4327,13 @@
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="31">
         <v>45496</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="31">
         <v>45497</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="31">
         <v>45567</v>
       </c>
       <c r="E62" s="26" t="s">
@@ -4290,13 +4342,13 @@
       <c r="F62" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="27">
         <v>358</v>
       </c>
       <c r="H62" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4304,13 +4356,13 @@
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="31">
         <v>45496</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="31">
         <v>45497</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="31">
         <v>45567</v>
       </c>
       <c r="E63" s="26" t="s">
@@ -4319,13 +4371,13 @@
       <c r="F63" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="27">
         <v>43</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="28" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4333,13 +4385,13 @@
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="31">
         <v>45496</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="31">
         <v>45497</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="31">
         <v>45567</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4348,13 +4400,13 @@
       <c r="F64" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="27">
         <v>176</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="28" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4362,13 +4414,13 @@
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="31">
         <v>45497</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="31">
         <v>45497</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="31">
         <v>45562</v>
       </c>
       <c r="E65" s="26" t="s">
@@ -4377,13 +4429,13 @@
       <c r="F65" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="27">
         <v>124</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4391,13 +4443,13 @@
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="31">
         <v>45497</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66" s="31">
         <v>45497</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="31">
         <v>45562</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4406,13 +4458,13 @@
       <c r="F66" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="27">
         <v>17</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I66" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4420,13 +4472,13 @@
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="31">
         <v>45497</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="31">
         <v>45497</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="31">
         <v>45562</v>
       </c>
       <c r="E67" s="26" t="s">
@@ -4435,13 +4487,13 @@
       <c r="F67" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="27">
         <v>10</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4449,13 +4501,13 @@
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="31">
         <v>45497</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="31">
         <v>45497</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="31">
         <v>45562</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4464,13 +4516,13 @@
       <c r="F68" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="27">
         <v>20</v>
       </c>
       <c r="H68" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="29" t="s">
+      <c r="I68" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4478,13 +4530,13 @@
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="31">
         <v>45497</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="31">
         <v>45497</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="31">
         <v>45562</v>
       </c>
       <c r="E69" s="26" t="s">
@@ -4493,13 +4545,13 @@
       <c r="F69" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="27">
         <v>101</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4507,13 +4559,13 @@
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="31">
         <v>45497</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="31">
         <v>45497</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="31">
         <v>45562</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -4522,13 +4574,13 @@
       <c r="F70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="27">
         <v>19</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4536,13 +4588,13 @@
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71" s="31">
         <v>45497</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71" s="31">
         <v>45497</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="31">
         <v>45562</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4551,13 +4603,13 @@
       <c r="F71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="27">
         <v>11</v>
       </c>
       <c r="H71" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4565,13 +4617,13 @@
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="31">
         <v>45497</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="31">
         <v>45497</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="31">
         <v>45562</v>
       </c>
       <c r="E72" s="26" t="s">
@@ -4580,13 +4632,13 @@
       <c r="F72" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="27">
         <v>37</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4594,13 +4646,13 @@
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B73" s="31">
         <v>45497</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="31">
         <v>45497</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="31">
         <v>45562</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4609,13 +4661,13 @@
       <c r="F73" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="27">
         <v>5</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4623,13 +4675,13 @@
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74" s="31">
         <v>45497</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="31">
         <v>45497</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="31">
         <v>45562</v>
       </c>
       <c r="E74" s="26" t="s">
@@ -4638,13 +4690,13 @@
       <c r="F74" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="27">
         <v>33</v>
       </c>
       <c r="H74" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="I74" s="29" t="s">
+      <c r="I74" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4652,13 +4704,13 @@
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75" s="31">
         <v>45497</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75" s="31">
         <v>45498</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="31">
         <v>45562</v>
       </c>
       <c r="E75" s="26" t="s">
@@ -4667,13 +4719,13 @@
       <c r="F75" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="27">
         <v>11</v>
       </c>
       <c r="H75" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4681,13 +4733,13 @@
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="31">
         <v>45495</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76" s="31">
         <v>45498</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="31">
         <v>45555</v>
       </c>
       <c r="E76" s="26" t="s">
@@ -4696,13 +4748,13 @@
       <c r="F76" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="27">
         <v>31</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="I76" s="29" t="s">
+      <c r="I76" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4710,13 +4762,13 @@
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="31">
         <v>45499</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="31">
         <v>45499</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D77" s="31">
         <v>45561</v>
       </c>
       <c r="E77" s="26" t="s">
@@ -4725,13 +4777,13 @@
       <c r="F77" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="27">
         <v>80</v>
       </c>
       <c r="H77" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="28" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4739,13 +4791,13 @@
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="31">
         <v>45502</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="31">
         <v>45502</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="31">
         <v>45562</v>
       </c>
       <c r="E78" s="26" t="s">
@@ -4754,13 +4806,13 @@
       <c r="F78" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="27">
         <v>43</v>
       </c>
       <c r="H78" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="I78" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4768,13 +4820,13 @@
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B79" s="31">
         <v>45499</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="31">
         <v>45502</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="31">
         <v>45559</v>
       </c>
       <c r="E79" s="26" t="s">
@@ -4783,13 +4835,13 @@
       <c r="F79" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="27">
         <v>20</v>
       </c>
       <c r="H79" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="I79" s="29" t="s">
+      <c r="I79" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4797,13 +4849,13 @@
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="31">
         <v>45499</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="31">
         <v>45502</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80" s="31">
         <v>45559</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -4812,13 +4864,13 @@
       <c r="F80" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="27">
         <v>182</v>
       </c>
       <c r="H80" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="I80" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4826,13 +4878,13 @@
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="31">
         <v>45499</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="31">
         <v>45502</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="31">
         <v>45559</v>
       </c>
       <c r="E81" s="26" t="s">
@@ -4841,13 +4893,13 @@
       <c r="F81" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="28">
+      <c r="G81" s="27">
         <v>19</v>
       </c>
       <c r="H81" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="I81" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4855,13 +4907,13 @@
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="31">
         <v>45499</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="31">
         <v>45502</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="31">
         <v>45559</v>
       </c>
       <c r="E82" s="26" t="s">
@@ -4870,13 +4922,13 @@
       <c r="F82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="27">
         <v>11</v>
       </c>
       <c r="H82" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="I82" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4884,13 +4936,13 @@
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="31">
         <v>45499</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="31">
         <v>45502</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="31">
         <v>45559</v>
       </c>
       <c r="E83" s="26" t="s">
@@ -4899,13 +4951,13 @@
       <c r="F83" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G83" s="27">
         <v>16</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="I83" s="29" t="s">
+      <c r="I83" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4913,13 +4965,13 @@
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="31">
         <v>45499</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="31">
         <v>45502</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84" s="31">
         <v>45559</v>
       </c>
       <c r="E84" s="26" t="s">
@@ -4928,13 +4980,13 @@
       <c r="F84" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="27">
         <v>18</v>
       </c>
       <c r="H84" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4942,13 +4994,13 @@
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="31">
         <v>45499</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="31">
         <v>45502</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D85" s="31">
         <v>45559</v>
       </c>
       <c r="E85" s="26" t="s">
@@ -4957,13 +5009,13 @@
       <c r="F85" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="27">
         <v>13</v>
       </c>
       <c r="H85" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="I85" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4971,13 +5023,13 @@
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="31">
         <v>45499</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="31">
         <v>45502</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86" s="31">
         <v>45559</v>
       </c>
       <c r="E86" s="26" t="s">
@@ -4986,13 +5038,13 @@
       <c r="F86" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="28">
+      <c r="G86" s="27">
         <v>11</v>
       </c>
       <c r="H86" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="I86" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5000,13 +5052,13 @@
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="31">
         <v>45502</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="31">
         <v>45502</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="31">
         <v>45566</v>
       </c>
       <c r="E87" s="26" t="s">
@@ -5015,13 +5067,13 @@
       <c r="F87" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G87" s="27">
         <v>72</v>
       </c>
       <c r="H87" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="I87" s="29" t="s">
+      <c r="I87" s="28" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5029,13 +5081,13 @@
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="31">
         <v>45495</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88" s="31">
         <v>45503</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="31">
         <v>45565</v>
       </c>
       <c r="E88" s="26" t="s">
@@ -5044,13 +5096,13 @@
       <c r="F88" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="27">
         <v>60</v>
       </c>
       <c r="H88" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="I88" s="29" t="s">
+      <c r="I88" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5058,13 +5110,13 @@
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="31">
         <v>45411</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="31">
         <v>45503</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="31">
         <v>45471</v>
       </c>
       <c r="E89" s="26" t="s">
@@ -5073,13 +5125,13 @@
       <c r="F89" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="27">
         <v>12</v>
       </c>
       <c r="H89" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="I89" s="29" t="s">
+      <c r="I89" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5087,13 +5139,13 @@
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="31">
         <v>45499</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="31">
         <v>45503</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="31">
         <v>45565</v>
       </c>
       <c r="E90" s="26" t="s">
@@ -5102,13 +5154,13 @@
       <c r="F90" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="27">
         <v>17</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="28" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5116,13 +5168,13 @@
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="31">
         <v>45499</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91" s="31">
         <v>45504</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91" s="31">
         <v>45559</v>
       </c>
       <c r="E91" s="26" t="s">
@@ -5131,13 +5183,13 @@
       <c r="F91" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="27">
         <v>3</v>
       </c>
       <c r="H91" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I91" s="29" t="s">
+      <c r="I91" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5145,13 +5197,13 @@
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="31">
         <v>45499</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="31">
         <v>45504</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D92" s="31">
         <v>45559</v>
       </c>
       <c r="E92" s="26" t="s">
@@ -5160,13 +5212,13 @@
       <c r="F92" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="28">
+      <c r="G92" s="27">
         <v>5</v>
       </c>
       <c r="H92" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="I92" s="29" t="s">
+      <c r="I92" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5174,13 +5226,13 @@
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93" s="31">
         <v>45503</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93" s="31">
         <v>45504</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="31">
         <v>45565</v>
       </c>
       <c r="E93" s="26" t="s">
@@ -5189,13 +5241,13 @@
       <c r="F93" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="27">
         <v>2</v>
       </c>
       <c r="H93" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="I93" s="29" t="s">
+      <c r="I93" s="28" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5203,13 +5255,13 @@
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="31">
         <v>45499</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="31">
         <v>45504</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="31">
         <v>45566</v>
       </c>
       <c r="E94" s="26" t="s">
@@ -5218,13 +5270,13 @@
       <c r="F94" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G94" s="27">
         <v>14</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="I94" s="29" t="s">
+      <c r="I94" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5232,13 +5284,13 @@
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="31">
         <v>45499</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="31">
         <v>45504</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="31">
         <v>45566</v>
       </c>
       <c r="E95" s="26" t="s">
@@ -5247,13 +5299,13 @@
       <c r="F95" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="27">
         <v>3</v>
       </c>
       <c r="H95" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="I95" s="29" t="s">
+      <c r="I95" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5261,13 +5313,13 @@
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="31">
         <v>45499</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="31">
         <v>45504</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D96" s="31">
         <v>45566</v>
       </c>
       <c r="E96" s="26" t="s">
@@ -5276,13 +5328,13 @@
       <c r="F96" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="27">
         <v>3</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="I96" s="29" t="s">
+      <c r="I96" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5290,13 +5342,13 @@
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="31">
         <v>45499</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="31">
         <v>45504</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97" s="31">
         <v>45566</v>
       </c>
       <c r="E97" s="26" t="s">
@@ -5305,13 +5357,13 @@
       <c r="F97" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="28">
+      <c r="G97" s="27">
         <v>3</v>
       </c>
       <c r="H97" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="I97" s="29" t="s">
+      <c r="I97" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5319,13 +5371,13 @@
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="31">
         <v>45499</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="31">
         <v>45504</v>
       </c>
-      <c r="D98" s="27">
+      <c r="D98" s="31">
         <v>45566</v>
       </c>
       <c r="E98" s="26" t="s">
@@ -5334,13 +5386,13 @@
       <c r="F98" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="27">
         <v>2</v>
       </c>
       <c r="H98" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="I98" s="29" t="s">
+      <c r="I98" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5348,13 +5400,13 @@
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="31">
         <v>45499</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="31">
         <v>45504</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="31">
         <v>45566</v>
       </c>
       <c r="E99" s="26" t="s">
@@ -5363,13 +5415,13 @@
       <c r="F99" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G99" s="28">
+      <c r="G99" s="27">
         <v>1</v>
       </c>
       <c r="H99" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I99" s="29" t="s">
+      <c r="I99" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5377,13 +5429,13 @@
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100" s="31">
         <v>45499</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="31">
         <v>45504</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="31">
         <v>45566</v>
       </c>
       <c r="E100" s="26" t="s">
@@ -5392,13 +5444,13 @@
       <c r="F100" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="27">
         <v>3</v>
       </c>
       <c r="H100" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="I100" s="29" t="s">
+      <c r="I100" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5406,13 +5458,13 @@
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B101" s="31">
         <v>45502</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="31">
         <v>45504</v>
       </c>
-      <c r="D101" s="27">
+      <c r="D101" s="31">
         <v>45565</v>
       </c>
       <c r="E101" s="26" t="s">
@@ -5421,13 +5473,13 @@
       <c r="F101" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="28">
+      <c r="G101" s="27">
         <v>20</v>
       </c>
       <c r="H101" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="I101" s="29" t="s">
+      <c r="I101" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5435,13 +5487,13 @@
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B102" s="31">
         <v>45497</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="31">
         <v>45504</v>
       </c>
-      <c r="D102" s="27">
+      <c r="D102" s="31">
         <v>45562</v>
       </c>
       <c r="E102" s="26" t="s">
@@ -5450,13 +5502,13 @@
       <c r="F102" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="28">
+      <c r="G102" s="27">
         <v>622</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="I102" s="29" t="s">
+      <c r="I102" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5464,13 +5516,13 @@
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103" s="31">
         <v>45497</v>
       </c>
-      <c r="C103" s="27">
+      <c r="C103" s="31">
         <v>45504</v>
       </c>
-      <c r="D103" s="27">
+      <c r="D103" s="31">
         <v>45562</v>
       </c>
       <c r="E103" s="26" t="s">
@@ -5479,13 +5531,13 @@
       <c r="F103" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="28">
+      <c r="G103" s="27">
         <v>2</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="I103" s="29" t="s">
+      <c r="I103" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5493,13 +5545,13 @@
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B104" s="31">
         <v>45497</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="31">
         <v>45504</v>
       </c>
-      <c r="D104" s="27">
+      <c r="D104" s="31">
         <v>45562</v>
       </c>
       <c r="E104" s="26" t="s">
@@ -5508,13 +5560,13 @@
       <c r="F104" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="27">
         <v>2</v>
       </c>
       <c r="H104" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="I104" s="29" t="s">
+      <c r="I104" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5522,13 +5574,13 @@
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B105" s="27">
+      <c r="B105" s="31">
         <v>45502</v>
       </c>
-      <c r="C105" s="27">
+      <c r="C105" s="31">
         <v>45504</v>
       </c>
-      <c r="D105" s="27">
+      <c r="D105" s="31">
         <v>45563</v>
       </c>
       <c r="E105" s="26" t="s">
@@ -5537,13 +5589,13 @@
       <c r="F105" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="28">
+      <c r="G105" s="27">
         <v>85</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5551,13 +5603,13 @@
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="31">
         <v>45499</v>
       </c>
-      <c r="C106" s="27">
+      <c r="C106" s="31">
         <v>45504</v>
       </c>
-      <c r="D106" s="27">
+      <c r="D106" s="31">
         <v>45502</v>
       </c>
       <c r="E106" s="26" t="s">
@@ -5566,13 +5618,13 @@
       <c r="F106" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="28">
+      <c r="G106" s="27">
         <v>46</v>
       </c>
       <c r="H106" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I106" s="29" t="s">
+      <c r="I106" s="28" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5580,13 +5632,13 @@
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="31">
         <v>45504</v>
       </c>
-      <c r="C107" s="27">
+      <c r="C107" s="31">
         <v>45504</v>
       </c>
-      <c r="D107" s="27">
+      <c r="D107" s="31">
         <v>45495</v>
       </c>
       <c r="E107" s="26" t="s">
@@ -5595,13 +5647,13 @@
       <c r="F107" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G107" s="28">
+      <c r="G107" s="27">
         <v>34</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="I107" s="29" t="s">
+      <c r="I107" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5609,13 +5661,13 @@
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="31">
         <v>45504</v>
       </c>
-      <c r="C108" s="27">
+      <c r="C108" s="31">
         <v>45504</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108" s="31">
         <v>45495</v>
       </c>
       <c r="E108" s="26" t="s">
@@ -5624,13 +5676,13 @@
       <c r="F108" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G108" s="27">
         <v>83</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="H108" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="I108" s="29" t="s">
+      <c r="I108" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5638,13 +5690,13 @@
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109" s="31">
         <v>45504</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109" s="31">
         <v>45504</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109" s="31">
         <v>45565</v>
       </c>
       <c r="E109" s="26" t="s">
@@ -5653,13 +5705,13 @@
       <c r="F109" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="28">
+      <c r="G109" s="27">
         <v>4</v>
       </c>
-      <c r="H109" s="28" t="s">
+      <c r="H109" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="I109" s="29" t="s">
+      <c r="I109" s="28" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5667,13 +5719,13 @@
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="31">
         <v>45504</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110" s="31">
         <v>45505</v>
       </c>
-      <c r="D110" s="27">
+      <c r="D110" s="31">
         <v>45566</v>
       </c>
       <c r="E110" s="26" t="s">
@@ -5682,13 +5734,13 @@
       <c r="F110" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="27">
         <v>49</v>
       </c>
-      <c r="H110" s="28" t="s">
+      <c r="H110" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="I110" s="29" t="s">
+      <c r="I110" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5696,13 +5748,13 @@
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111" s="31">
         <v>45505</v>
       </c>
-      <c r="C111" s="27">
+      <c r="C111" s="31">
         <v>45505</v>
       </c>
-      <c r="D111" s="27">
+      <c r="D111" s="31">
         <v>45565</v>
       </c>
       <c r="E111" s="26" t="s">
@@ -5711,13 +5763,13 @@
       <c r="F111" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="28">
+      <c r="G111" s="27">
         <v>71</v>
       </c>
-      <c r="H111" s="28" t="s">
+      <c r="H111" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="I111" s="29" t="s">
+      <c r="I111" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5725,13 +5777,13 @@
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="31">
         <v>45504</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C112" s="31">
         <v>45505</v>
       </c>
-      <c r="D112" s="27">
+      <c r="D112" s="31">
         <v>45565</v>
       </c>
       <c r="E112" s="26" t="s">
@@ -5740,13 +5792,13 @@
       <c r="F112" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="28">
+      <c r="G112" s="27">
         <v>141</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="I112" s="29" t="s">
+      <c r="I112" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5754,13 +5806,13 @@
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B113" s="31">
         <v>45505</v>
       </c>
-      <c r="C113" s="27">
+      <c r="C113" s="31">
         <v>45505</v>
       </c>
-      <c r="D113" s="27">
+      <c r="D113" s="31">
         <v>45506</v>
       </c>
       <c r="E113" s="26" t="s">
@@ -5769,13 +5821,13 @@
       <c r="F113" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="27">
         <v>33</v>
       </c>
-      <c r="H113" s="28" t="s">
+      <c r="H113" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I113" s="29" t="s">
+      <c r="I113" s="28" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5783,13 +5835,13 @@
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="31">
         <v>45498</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="31">
         <v>45506</v>
       </c>
-      <c r="D114" s="27">
+      <c r="D114" s="31">
         <v>45565</v>
       </c>
       <c r="E114" s="26" t="s">
@@ -5798,13 +5850,13 @@
       <c r="F114" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="28">
+      <c r="G114" s="27">
         <v>23</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="I114" s="29" t="s">
+      <c r="I114" s="28" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5812,13 +5864,13 @@
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="31">
         <v>45506</v>
       </c>
-      <c r="C115" s="27">
+      <c r="C115" s="31">
         <v>45506</v>
       </c>
-      <c r="D115" s="27">
+      <c r="D115" s="31">
         <v>45506</v>
       </c>
       <c r="E115" s="26" t="s">
@@ -5827,13 +5879,13 @@
       <c r="F115" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G115" s="27">
         <v>127</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="I115" s="29" t="s">
+      <c r="I115" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5841,13 +5893,13 @@
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="31">
         <v>45509</v>
       </c>
-      <c r="C116" s="27">
+      <c r="C116" s="31">
         <v>45509</v>
       </c>
-      <c r="D116" s="27">
+      <c r="D116" s="31">
         <v>45569</v>
       </c>
       <c r="E116" s="26" t="s">
@@ -5856,14 +5908,275 @@
       <c r="F116" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="28">
+      <c r="G116" s="27">
         <v>19</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="H116" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I116" s="29" t="s">
+      <c r="I116" s="28" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="31">
+        <v>45510</v>
+      </c>
+      <c r="C117" s="31">
+        <v>45510</v>
+      </c>
+      <c r="D117" s="31">
+        <v>45577</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="27">
+        <v>273</v>
+      </c>
+      <c r="H117" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="31">
+        <v>45510</v>
+      </c>
+      <c r="C118" s="31">
+        <v>45510</v>
+      </c>
+      <c r="D118" s="31">
+        <v>45566</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="27">
+        <v>1</v>
+      </c>
+      <c r="H118" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="I118" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="31">
+        <v>45511</v>
+      </c>
+      <c r="C119" s="31">
+        <v>45512</v>
+      </c>
+      <c r="D119" s="31">
+        <v>45572</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="27">
+        <v>84</v>
+      </c>
+      <c r="H119" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="31">
+        <v>45513</v>
+      </c>
+      <c r="C120" s="31">
+        <v>45513</v>
+      </c>
+      <c r="D120" s="31">
+        <v>45573</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="27">
+        <v>42</v>
+      </c>
+      <c r="H120" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="31">
+        <v>45512</v>
+      </c>
+      <c r="C121" s="31">
+        <v>45513</v>
+      </c>
+      <c r="D121" s="31">
+        <v>45535</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="27">
+        <v>16</v>
+      </c>
+      <c r="H121" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="31">
+        <v>45513</v>
+      </c>
+      <c r="C122" s="31">
+        <v>45516</v>
+      </c>
+      <c r="D122" s="31">
+        <v>45573</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="27">
+        <v>236</v>
+      </c>
+      <c r="H122" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="31">
+        <v>45513</v>
+      </c>
+      <c r="C123" s="31">
+        <v>45516</v>
+      </c>
+      <c r="D123" s="31">
+        <v>45573</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="27">
+        <v>112</v>
+      </c>
+      <c r="H123" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="I123" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="31">
+        <v>45516</v>
+      </c>
+      <c r="C124" s="31">
+        <v>45516</v>
+      </c>
+      <c r="D124" s="31">
+        <v>45576</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="27">
+        <v>52</v>
+      </c>
+      <c r="H124" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="31">
+        <v>45516</v>
+      </c>
+      <c r="C125" s="31">
+        <v>45516</v>
+      </c>
+      <c r="D125" s="31">
+        <v>45535</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="27">
+        <v>1</v>
+      </c>
+      <c r="H125" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="I125" s="26" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5880,7 +6193,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I116</xm:sqref>
+          <xm:sqref>I3:I125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2834C986-BCCF-41F0-8C3F-8AB83976D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A5A7D-2153-43C1-88E8-22DDA7BAFDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="271">
   <si>
     <t>County/Parish</t>
   </si>
@@ -920,6 +920,36 @@
     <t>2975 Sycamore Drive  Simi Valley CA 93065</t>
   </si>
   <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>GRAIL, Inc.</t>
+  </si>
+  <si>
+    <t>AppLovin Corporation</t>
+  </si>
+  <si>
+    <t>VSP Optical Group, Inc.</t>
+  </si>
+  <si>
+    <t>Volunteers of America Southwest</t>
+  </si>
+  <si>
+    <t>1 Space Park Drive  Redondo Beach CA 90278</t>
+  </si>
+  <si>
+    <t>1525 O&amp;rsquo;Brien Drive  Menlo Park CA 94025</t>
+  </si>
+  <si>
+    <t>1100 Page Mill Road  Palo Alto CA 94304</t>
+  </si>
+  <si>
+    <t>151 Blue Ravine Road  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>9980 Hawley Road  El Cajon CA 92021</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -931,7 +961,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/12/24</t>
+      <t>07/01/24 to 08/14/24</t>
     </r>
     <r>
       <rPr>
@@ -951,7 +981,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I125.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I131.</t>
     </r>
   </si>
 </sst>
@@ -965,7 +995,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,8 +1092,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1082,8 +1117,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFF0F0F0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1171,6 +1212,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1178,7 +1245,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1266,6 +1333,33 @@
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2058,8 +2152,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I125" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I125" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I131" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I131" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2416,37 +2510,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2468,18 +2562,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2487,25 +2581,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>6670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2522,16 +2616,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2540,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2560,30 +2654,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2706,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2641,7 +2735,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -2670,7 +2764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +2822,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2851,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -2786,7 +2880,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -2815,7 +2909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2844,7 +2938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -2873,7 +2967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -2902,7 +2996,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -2931,7 +3025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -2960,7 +3054,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +3083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3018,7 +3112,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3047,7 +3141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3170,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3105,7 +3199,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3134,7 +3228,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3257,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3192,7 +3286,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3315,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3250,7 +3344,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3279,7 +3373,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3308,7 +3402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3337,7 +3431,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3366,7 +3460,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3395,7 +3489,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3424,7 +3518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3453,7 +3547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -3482,7 +3576,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -3511,7 +3605,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -3540,7 +3634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -3598,7 +3692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -3627,7 +3721,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -3656,7 +3750,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -3685,7 +3779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -3714,7 +3808,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3837,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -3772,7 +3866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -3801,7 +3895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -3830,7 +3924,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -3859,7 +3953,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -3888,7 +3982,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -3917,7 +4011,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -3946,7 +4040,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -3975,7 +4069,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4004,7 +4098,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4033,7 +4127,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4062,7 +4156,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4091,7 +4185,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4120,7 +4214,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4149,7 +4243,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4178,7 +4272,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4207,7 +4301,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4236,7 +4330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4265,7 +4359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4294,7 +4388,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4323,7 +4417,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +4446,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4381,7 +4475,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4410,7 +4504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4439,7 +4533,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4468,7 +4562,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -4497,7 +4591,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -4526,7 +4620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -4555,7 +4649,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -4584,7 +4678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -4613,7 +4707,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -4642,7 +4736,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -4671,7 +4765,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -4700,7 +4794,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -4729,7 +4823,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -4758,7 +4852,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -4787,7 +4881,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -4816,7 +4910,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -4845,7 +4939,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -4874,7 +4968,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +4997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -4932,7 +5026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -4961,7 +5055,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -4990,7 +5084,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5019,7 +5113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5048,7 +5142,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5077,7 +5171,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5106,7 +5200,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5135,7 +5229,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5164,7 +5258,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5193,7 +5287,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5222,7 +5316,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5251,7 +5345,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5280,7 +5374,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5309,7 +5403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5338,7 +5432,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5367,7 +5461,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5396,7 +5490,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5425,7 +5519,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5454,7 +5548,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -5483,7 +5577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -5512,7 +5606,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -5541,7 +5635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -5570,7 +5664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -5599,7 +5693,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -5628,7 +5722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -5657,7 +5751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -5686,7 +5780,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -5715,7 +5809,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -5744,7 +5838,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -5773,7 +5867,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -5802,7 +5896,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -5831,7 +5925,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -5860,7 +5954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -5889,7 +5983,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +6012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>243</v>
       </c>
@@ -5947,7 +6041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -5976,7 +6070,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6005,7 +6099,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6034,7 +6128,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6063,7 +6157,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6092,7 +6186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6121,7 +6215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6150,7 +6244,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>248</v>
       </c>
@@ -6177,6 +6271,180 @@
       </c>
       <c r="I125" s="26" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="35">
+        <v>45516</v>
+      </c>
+      <c r="C126" s="35">
+        <v>45517</v>
+      </c>
+      <c r="D126" s="35">
+        <v>45579</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="37">
+        <v>430</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I126" s="40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="36">
+        <v>45517</v>
+      </c>
+      <c r="C127" s="36">
+        <v>45518</v>
+      </c>
+      <c r="D127" s="36">
+        <v>45579</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="38">
+        <v>179</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I127" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="35">
+        <v>45518</v>
+      </c>
+      <c r="C128" s="35">
+        <v>45518</v>
+      </c>
+      <c r="D128" s="35">
+        <v>45519</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="37">
+        <v>61</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I128" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" s="36">
+        <v>45518</v>
+      </c>
+      <c r="C129" s="36">
+        <v>45518</v>
+      </c>
+      <c r="D129" s="36">
+        <v>45659</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="38">
+        <v>186</v>
+      </c>
+      <c r="H129" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="I129" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="35">
+        <v>45517</v>
+      </c>
+      <c r="C130" s="35">
+        <v>45518</v>
+      </c>
+      <c r="D130" s="35">
+        <v>45577</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="37">
+        <v>11</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I130" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="36">
+        <v>45518</v>
+      </c>
+      <c r="C131" s="36">
+        <v>45518</v>
+      </c>
+      <c r="D131" s="36">
+        <v>45579</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="38">
+        <v>9</v>
+      </c>
+      <c r="H131" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I131" s="40" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6193,7 +6461,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I125</xm:sqref>
+          <xm:sqref>I3:I131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6207,18 +6475,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -6226,7 +6494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -6235,7 +6503,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -6244,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -6253,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -6262,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -6271,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -6280,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -6306,25 +6574,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>228</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -6350,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6392,117 +6660,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A5A7D-2153-43C1-88E8-22DDA7BAFDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A0BCD-C0DC-4D25-B4E2-F596DCFD046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="278">
   <si>
     <t>County/Parish</t>
   </si>
@@ -812,21 +812,6 @@
     <t>536 Mission Street  San Francisco CA 94105</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/05/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>200 S. California Street  Burbank CA 91505</t>
   </si>
   <si>
@@ -961,7 +946,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/14/24</t>
+      <t>07/01/24 to 08/19/24</t>
     </r>
     <r>
       <rPr>
@@ -984,6 +969,42 @@
       <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I131.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/19/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>NFI National Distribution Centers LLC</t>
+  </si>
+  <si>
+    <t>1820 N. MacArthur Drive, Suite 200  Tracy CA 95376</t>
+  </si>
+  <si>
+    <t>Canoo</t>
+  </si>
+  <si>
+    <t>19951 Mariner Avenue  Torrance CA 90503</t>
+  </si>
+  <si>
+    <t>Paramount Global</t>
+  </si>
+  <si>
+    <t>1575 N. Gower Street  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>5555 Melrose Avenue  Los Angeles CA 90038</t>
+  </si>
 </sst>
 </file>
 
@@ -995,7 +1016,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1117,11 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1226,10 +1252,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FFA9A9A9"/>
       </top>
@@ -1245,7 +1271,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1349,17 +1375,29 @@
     <xf numFmtId="166" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2152,8 +2190,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I131" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I131" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I136" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I136" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2510,37 +2548,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2562,18 +2600,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2581,25 +2619,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2608,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2616,16 +2654,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2634,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2654,30 +2692,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2735,7 +2773,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2802,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -2793,7 +2831,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2860,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2889,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +2918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -2909,7 +2947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2938,7 +2976,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -2967,7 +3005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -2996,7 +3034,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3025,7 +3063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3054,7 +3092,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3083,7 +3121,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3112,7 +3150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +3179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3208,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3199,7 +3237,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3228,7 +3266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3295,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3286,7 +3324,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3315,7 +3353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3344,7 +3382,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3373,7 +3411,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3402,7 +3440,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3431,7 +3469,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3460,7 +3498,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3489,7 +3527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3556,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3541,13 +3579,13 @@
         <v>62</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -3570,13 +3608,13 @@
         <v>121</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -3605,7 +3643,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -3634,7 +3672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3701,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -3692,7 +3730,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3817,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -3808,7 +3846,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -3837,7 +3875,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -3895,7 +3933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -3924,7 +3962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -3953,7 +3991,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -3982,7 +4020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4011,7 +4049,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4040,7 +4078,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4069,7 +4107,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4098,7 +4136,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4194,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4185,7 +4223,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4214,7 +4252,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4243,7 +4281,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4272,7 +4310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4339,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4330,7 +4368,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4359,7 +4397,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4388,7 +4426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4417,7 +4455,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4446,7 +4484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4475,7 +4513,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4504,7 +4542,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4533,7 +4571,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4562,7 +4600,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -4591,7 +4629,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -4620,7 +4658,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -4649,7 +4687,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -4678,7 +4716,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -4707,7 +4745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -4736,7 +4774,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -4765,7 +4803,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -4794,7 +4832,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -4823,7 +4861,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -4852,7 +4890,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -4881,7 +4919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +4948,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -4939,7 +4977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -4968,7 +5006,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -4997,7 +5035,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5026,7 +5064,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5055,7 +5093,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5084,7 +5122,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5113,7 +5151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5142,7 +5180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5171,7 +5209,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5200,7 +5238,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5229,7 +5267,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5258,7 +5296,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5287,7 +5325,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5316,7 +5354,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5412,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5403,7 +5441,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +5470,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5461,7 +5499,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5490,7 +5528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5519,7 +5557,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5548,7 +5586,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -5577,7 +5615,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -5606,7 +5644,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -5635,7 +5673,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -5664,7 +5702,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -5693,7 +5731,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -5722,7 +5760,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -5751,7 +5789,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -5780,7 +5818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -5809,7 +5847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -5823,7 +5861,7 @@
         <v>45566</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F110" s="26" t="s">
         <v>9</v>
@@ -5832,13 +5870,13 @@
         <v>49</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I110" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -5852,7 +5890,7 @@
         <v>45565</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F111" s="26" t="s">
         <v>9</v>
@@ -5861,13 +5899,13 @@
         <v>71</v>
       </c>
       <c r="H111" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -5881,7 +5919,7 @@
         <v>45565</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F112" s="26" t="s">
         <v>9</v>
@@ -5890,13 +5928,13 @@
         <v>141</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5948,7 @@
         <v>45506</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F113" s="26" t="s">
         <v>8</v>
@@ -5919,13 +5957,13 @@
         <v>33</v>
       </c>
       <c r="H113" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I113" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -5939,7 +5977,7 @@
         <v>45565</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F114" s="26" t="s">
         <v>8</v>
@@ -5948,13 +5986,13 @@
         <v>23</v>
       </c>
       <c r="H114" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I114" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -5968,7 +6006,7 @@
         <v>45506</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F115" s="26" t="s">
         <v>9</v>
@@ -5977,13 +6015,13 @@
         <v>127</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I115" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6012,9 +6050,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B117" s="31">
         <v>45510</v>
@@ -6026,7 +6064,7 @@
         <v>45577</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F117" s="27" t="s">
         <v>8</v>
@@ -6035,13 +6073,13 @@
         <v>273</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I117" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6055,7 +6093,7 @@
         <v>45566</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F118" s="27" t="s">
         <v>9</v>
@@ -6064,13 +6102,13 @@
         <v>1</v>
       </c>
       <c r="H118" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I118" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6084,7 +6122,7 @@
         <v>45572</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F119" s="26" t="s">
         <v>9</v>
@@ -6093,13 +6131,13 @@
         <v>84</v>
       </c>
       <c r="H119" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I119" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6113,7 +6151,7 @@
         <v>45573</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F120" s="26" t="s">
         <v>9</v>
@@ -6122,13 +6160,13 @@
         <v>42</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I120" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +6180,7 @@
         <v>45535</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F121" s="26" t="s">
         <v>9</v>
@@ -6151,13 +6189,13 @@
         <v>16</v>
       </c>
       <c r="H121" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I121" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6186,7 +6224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6209,13 +6247,13 @@
         <v>112</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I123" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6229,7 +6267,7 @@
         <v>45576</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F124" s="26" t="s">
         <v>9</v>
@@ -6238,15 +6276,15 @@
         <v>52</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I124" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B125" s="31">
         <v>45516</v>
@@ -6258,7 +6296,7 @@
         <v>45535</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>9</v>
@@ -6267,13 +6305,13 @@
         <v>1</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I125" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6287,22 +6325,22 @@
         <v>45579</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="37">
+      <c r="G126" s="42">
         <v>430</v>
       </c>
-      <c r="H126" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I126" s="40" t="s">
+      <c r="H126" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I126" s="38" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6316,22 +6354,22 @@
         <v>45579</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F127" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G127" s="38">
+      <c r="G127" s="43">
         <v>179</v>
       </c>
-      <c r="H127" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="I127" s="40" t="s">
+      <c r="H127" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="I127" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6345,22 +6383,22 @@
         <v>45519</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="37">
+      <c r="G128" s="42">
         <v>61</v>
       </c>
-      <c r="H128" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I128" s="40" t="s">
+      <c r="H128" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="I128" s="38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6374,22 +6412,22 @@
         <v>45659</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F129" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="38">
+      <c r="G129" s="43">
         <v>186</v>
       </c>
-      <c r="H129" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="I129" s="40" t="s">
+      <c r="H129" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="I129" s="38" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6408,17 +6446,17 @@
       <c r="F130" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="37">
+      <c r="G130" s="42">
         <v>11</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I130" s="40" t="s">
+      <c r="I130" s="38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6432,19 +6470,164 @@
         <v>45579</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F131" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="38">
-        <v>9</v>
-      </c>
-      <c r="H131" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="I131" s="40" t="s">
+      <c r="G131" s="43">
+        <v>9</v>
+      </c>
+      <c r="H131" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I131" s="38" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="40">
+        <v>45512</v>
+      </c>
+      <c r="C132" s="40">
+        <v>45519</v>
+      </c>
+      <c r="D132" s="40">
+        <v>45565</v>
+      </c>
+      <c r="E132" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="F132" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="41">
+        <v>40</v>
+      </c>
+      <c r="H132" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="I132" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="40">
+        <v>45518</v>
+      </c>
+      <c r="C133" s="40">
+        <v>45519</v>
+      </c>
+      <c r="D133" s="40">
+        <v>45580</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="41">
+        <v>185</v>
+      </c>
+      <c r="H133" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="I133" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="40">
+        <v>45520</v>
+      </c>
+      <c r="C134" s="40">
+        <v>45520</v>
+      </c>
+      <c r="D134" s="40">
+        <v>45577</v>
+      </c>
+      <c r="E134" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="41">
+        <v>95</v>
+      </c>
+      <c r="H134" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="I134" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="40">
+        <v>45520</v>
+      </c>
+      <c r="C135" s="40">
+        <v>45520</v>
+      </c>
+      <c r="D135" s="40">
+        <v>45577</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F135" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="41">
+        <v>193</v>
+      </c>
+      <c r="H135" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="I135" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="40">
+        <v>45523</v>
+      </c>
+      <c r="C136" s="40">
+        <v>45523</v>
+      </c>
+      <c r="D136" s="40">
+        <v>45583</v>
+      </c>
+      <c r="E136" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="41">
+        <v>31</v>
+      </c>
+      <c r="H136" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I136" s="26" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6461,7 +6644,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I131</xm:sqref>
+          <xm:sqref>I3:I136</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6475,18 +6658,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -6494,7 +6677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -6503,7 +6686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -6512,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -6521,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -6530,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -6539,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -6548,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -6574,25 +6757,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -6618,7 +6801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6660,117 +6843,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A0BCD-C0DC-4D25-B4E2-F596DCFD046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDA8CF4-4E2D-4FF0-8B78-18D973FE5BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11325" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="294">
   <si>
     <t>County/Parish</t>
   </si>
@@ -935,6 +935,90 @@
     <t>9980 Hawley Road  El Cajon CA 92021</t>
   </si>
   <si>
+    <t>NFI National Distribution Centers LLC</t>
+  </si>
+  <si>
+    <t>1820 N. MacArthur Drive, Suite 200  Tracy CA 95376</t>
+  </si>
+  <si>
+    <t>Canoo</t>
+  </si>
+  <si>
+    <t>19951 Mariner Avenue  Torrance CA 90503</t>
+  </si>
+  <si>
+    <t>Paramount Global</t>
+  </si>
+  <si>
+    <t>1575 N. Gower Street  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>5555 Melrose Avenue  Los Angeles CA 90038</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/21/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cuberg, Inc.</t>
+  </si>
+  <si>
+    <t>2020 Williams Street, #E  San Leandro CA 94577</t>
+  </si>
+  <si>
+    <t>Penumbra, Inc.</t>
+  </si>
+  <si>
+    <t>One Penumbra Place  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Nordson Corporation</t>
+  </si>
+  <si>
+    <t>2765 Loker Avenue West  Carlsbad CA 92010</t>
+  </si>
+  <si>
+    <t>Five9, Inc.</t>
+  </si>
+  <si>
+    <t>3001 Bishop Dr., Ste. 350  San Ramon CA 94583</t>
+  </si>
+  <si>
+    <t>60 Mission Street, Suite 2170  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>V2X dba Vertex Aerospace, LLC</t>
+  </si>
+  <si>
+    <t>9470 Pless Rd  San Diego CA 92145</t>
+  </si>
+  <si>
+    <t>Cisco Systems, Inc.</t>
+  </si>
+  <si>
+    <t>170 West Tasman Drive  San Jose CA 95134</t>
+  </si>
+  <si>
+    <t>Stanislaus County</t>
+  </si>
+  <si>
+    <t>Silgan Containers</t>
+  </si>
+  <si>
+    <t>567 S Riverside Drive  Modesto CA 95354</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -946,7 +1030,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/19/24</t>
+      <t>07/01/24 to 08/21/24</t>
     </r>
     <r>
       <rPr>
@@ -966,44 +1050,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I131.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I144.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/19/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
-    <t>NFI National Distribution Centers LLC</t>
-  </si>
-  <si>
-    <t>1820 N. MacArthur Drive, Suite 200  Tracy CA 95376</t>
-  </si>
-  <si>
-    <t>Canoo</t>
-  </si>
-  <si>
-    <t>19951 Mariner Avenue  Torrance CA 90503</t>
-  </si>
-  <si>
-    <t>Paramount Global</t>
-  </si>
-  <si>
-    <t>1575 N. Gower Street  Los Angeles CA 90028</t>
-  </si>
-  <si>
-    <t>5555 Melrose Avenue  Los Angeles CA 90038</t>
   </si>
 </sst>
 </file>
@@ -2190,8 +2238,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I136" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I136" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I144" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I144" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2548,37 +2596,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2600,18 +2648,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2619,34 +2667,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2654,16 +2702,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2672,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2692,30 +2740,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2792,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2773,7 +2821,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -2802,7 +2850,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2879,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2860,7 +2908,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +2937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -2918,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -2947,7 +2995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2976,7 +3024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3005,7 +3053,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3034,7 +3082,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3111,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3092,7 +3140,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3169,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3150,7 +3198,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3227,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3208,7 +3256,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3237,7 +3285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3266,7 +3314,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3295,7 +3343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3324,7 +3372,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3353,7 +3401,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3382,7 +3430,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3411,7 +3459,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3469,7 +3517,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3498,7 +3546,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3527,7 +3575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3556,7 +3604,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3633,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -3614,7 +3662,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -3643,7 +3691,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -3672,7 +3720,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -3701,7 +3749,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -3730,7 +3778,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -3759,7 +3807,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -3788,7 +3836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -3817,7 +3865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -3846,7 +3894,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -3875,7 +3923,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +3981,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -3962,7 +4010,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -3991,7 +4039,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4020,7 +4068,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4049,7 +4097,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4078,7 +4126,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4107,7 +4155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4136,7 +4184,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4165,7 +4213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4242,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4223,7 +4271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4252,7 +4300,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4281,7 +4329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4310,7 +4358,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4339,7 +4387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4368,7 +4416,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4397,7 +4445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4426,7 +4474,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4455,7 +4503,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4484,7 +4532,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4513,7 +4561,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4542,7 +4590,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4571,7 +4619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4600,7 +4648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -4629,7 +4677,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -4658,7 +4706,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -4687,7 +4735,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -4716,7 +4764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -4745,7 +4793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -4774,7 +4822,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -4803,7 +4851,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -4832,7 +4880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -4861,7 +4909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -4890,7 +4938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -4919,7 +4967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -4948,7 +4996,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -4977,7 +5025,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5006,7 +5054,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5035,7 +5083,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5064,7 +5112,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5093,7 +5141,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5122,7 +5170,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5151,7 +5199,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5180,7 +5228,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5209,7 +5257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5238,7 +5286,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5315,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5296,7 +5344,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5325,7 +5373,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5354,7 +5402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5383,7 +5431,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5412,7 +5460,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +5489,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +5518,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5499,7 +5547,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5528,7 +5576,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5557,7 +5605,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5586,7 +5634,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -5615,7 +5663,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -5644,7 +5692,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -5673,7 +5721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -5702,7 +5750,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -5731,7 +5779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -5760,7 +5808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -5789,7 +5837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -5818,7 +5866,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -5847,7 +5895,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -5876,7 +5924,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -5905,7 +5953,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -5934,7 +5982,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +6011,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -5992,7 +6040,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6021,7 +6069,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6050,7 +6098,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6079,7 +6127,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6108,7 +6156,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6137,7 +6185,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6166,7 +6214,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6195,7 +6243,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6224,7 +6272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6253,7 +6301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6282,7 +6330,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6311,7 +6359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6340,7 +6388,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6369,7 +6417,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6398,7 +6446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6427,7 +6475,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6456,7 +6504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6485,7 +6533,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -6499,7 +6547,7 @@
         <v>45565</v>
       </c>
       <c r="E132" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F132" s="39" t="s">
         <v>8</v>
@@ -6508,13 +6556,13 @@
         <v>40</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I132" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -6528,7 +6576,7 @@
         <v>45580</v>
       </c>
       <c r="E133" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F133" s="39" t="s">
         <v>9</v>
@@ -6537,13 +6585,13 @@
         <v>185</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I133" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -6557,7 +6605,7 @@
         <v>45577</v>
       </c>
       <c r="E134" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F134" s="39" t="s">
         <v>9</v>
@@ -6566,13 +6614,13 @@
         <v>95</v>
       </c>
       <c r="H134" s="41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I134" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -6586,7 +6634,7 @@
         <v>45577</v>
       </c>
       <c r="E135" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F135" s="39" t="s">
         <v>9</v>
@@ -6595,13 +6643,13 @@
         <v>193</v>
       </c>
       <c r="H135" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I135" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -6627,6 +6675,238 @@
         <v>154</v>
       </c>
       <c r="I136" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="40">
+        <v>45524</v>
+      </c>
+      <c r="C137" s="40">
+        <v>45524</v>
+      </c>
+      <c r="D137" s="40">
+        <v>45584</v>
+      </c>
+      <c r="E137" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="41">
+        <v>196</v>
+      </c>
+      <c r="H137" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="I137" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="40">
+        <v>45524</v>
+      </c>
+      <c r="C138" s="40">
+        <v>45524</v>
+      </c>
+      <c r="D138" s="40">
+        <v>45597</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="F138" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="41">
+        <v>71</v>
+      </c>
+      <c r="H138" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="I138" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="40">
+        <v>45524</v>
+      </c>
+      <c r="C139" s="40">
+        <v>45524</v>
+      </c>
+      <c r="D139" s="40">
+        <v>45590</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F139" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="41">
+        <v>11</v>
+      </c>
+      <c r="H139" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B140" s="40">
+        <v>45524</v>
+      </c>
+      <c r="C140" s="40">
+        <v>45524</v>
+      </c>
+      <c r="D140" s="40">
+        <v>45524</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F140" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="41">
+        <v>30</v>
+      </c>
+      <c r="H140" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="I140" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="40">
+        <v>45524</v>
+      </c>
+      <c r="C141" s="40">
+        <v>45524</v>
+      </c>
+      <c r="D141" s="40">
+        <v>45524</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F141" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="41">
+        <v>3</v>
+      </c>
+      <c r="H141" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="I141" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="40">
+        <v>45524</v>
+      </c>
+      <c r="C142" s="40">
+        <v>45525</v>
+      </c>
+      <c r="D142" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="F142" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="41">
+        <v>46</v>
+      </c>
+      <c r="H142" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B143" s="40">
+        <v>45525</v>
+      </c>
+      <c r="C143" s="40">
+        <v>45525</v>
+      </c>
+      <c r="D143" s="40">
+        <v>45583</v>
+      </c>
+      <c r="E143" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="41">
+        <v>53</v>
+      </c>
+      <c r="H143" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="40">
+        <v>45517</v>
+      </c>
+      <c r="C144" s="40">
+        <v>45525</v>
+      </c>
+      <c r="D144" s="40">
+        <v>45578</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F144" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="41">
+        <v>72</v>
+      </c>
+      <c r="H144" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="I144" s="26" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6644,7 +6924,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I136</xm:sqref>
+          <xm:sqref>I3:I144</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6658,18 +6938,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -6677,7 +6957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -6686,7 +6966,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -6695,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -6704,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -6713,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -6722,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -6731,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -6757,25 +7037,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +7081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6843,117 +7123,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDA8CF4-4E2D-4FF0-8B78-18D973FE5BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB84A16-B2C2-4651-A34E-D76D59D96632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11325" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="313">
   <si>
     <t>County/Parish</t>
   </si>
@@ -956,21 +956,6 @@
     <t>5555 Melrose Avenue  Los Angeles CA 90038</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/21/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>Cuberg, Inc.</t>
   </si>
   <si>
@@ -1017,6 +1002,63 @@
   </si>
   <si>
     <t>567 S Riverside Drive  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>Kern County</t>
+  </si>
+  <si>
+    <t>California Resources Corporation</t>
+  </si>
+  <si>
+    <t>9600 and 10000 Ming Avenue  Bakersfield CA 93311</t>
+  </si>
+  <si>
+    <t>FS - Precision Tech. Co., LLC</t>
+  </si>
+  <si>
+    <t>3025 E Victoria Street  Compton CA 90221</t>
+  </si>
+  <si>
+    <t>Genentech, Inc.</t>
+  </si>
+  <si>
+    <t>1 DNA Way  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>430 Doherty Avenue  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>Menzies Aviation</t>
+  </si>
+  <si>
+    <t>1 World Way  Los Angeles CA 90045</t>
+  </si>
+  <si>
+    <t>Mama's Ladera Ranch, LP</t>
+  </si>
+  <si>
+    <t>25606 Crown Valley Parkway, Suite K-2  Ladera Ranch CA 92694</t>
+  </si>
+  <si>
+    <t>2200 Wilbur Avenue  Antioch CA 94509</t>
+  </si>
+  <si>
+    <t>5001 Executive Parkway  San Ramon CA 94583</t>
+  </si>
+  <si>
+    <t>5005 Executive Parkway  San Ramon CA 94583</t>
+  </si>
+  <si>
+    <t>Shadow Holdings, LLC dba Bright Innovation Labs</t>
+  </si>
+  <si>
+    <t>26455 Ruether Avenue  Santa Clarita CA 91350</t>
+  </si>
+  <si>
+    <t>Fermented Sciences II, Inc.</t>
+  </si>
+  <si>
+    <t>3200 Golf Course Drive  Ventura CA 93003</t>
   </si>
   <si>
     <r>
@@ -1030,7 +1072,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/21/24</t>
+      <t>07/01/24 to 08/26/24</t>
     </r>
     <r>
       <rPr>
@@ -1050,7 +1092,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I144.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I155.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/26/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
     </r>
   </si>
 </sst>
@@ -2238,8 +2295,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I144" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I144" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I155" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I155" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2596,37 +2653,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2648,18 +2705,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2667,34 +2724,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>8572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2702,16 +2759,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2720,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2740,30 +2797,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="42.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2849,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2821,7 +2878,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2907,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -2879,7 +2936,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +2965,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -2937,7 +2994,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +3023,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -2995,7 +3052,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3024,7 +3081,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3053,7 +3110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3082,7 +3139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3169,7 +3226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3198,7 +3255,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +3284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3256,7 +3313,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3285,7 +3342,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3314,7 +3371,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3400,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3372,7 +3429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +3487,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3459,7 +3516,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3488,7 +3545,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3517,7 +3574,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3546,7 +3603,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3575,7 +3632,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3604,7 +3661,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3633,7 +3690,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -3662,7 +3719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +3748,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3777,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -3749,7 +3806,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -3778,7 +3835,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -3807,7 +3864,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -3836,7 +3893,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -3865,7 +3922,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3951,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -3923,7 +3980,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +4009,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +4038,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4010,7 +4067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4039,7 +4096,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4068,7 +4125,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4097,7 +4154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4126,7 +4183,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4155,7 +4212,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4184,7 +4241,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4213,7 +4270,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4242,7 +4299,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4271,7 +4328,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4300,7 +4357,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4329,7 +4386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4358,7 +4415,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4387,7 +4444,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4416,7 +4473,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4445,7 +4502,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4474,7 +4531,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4503,7 +4560,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4532,7 +4589,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4618,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4590,7 +4647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4619,7 +4676,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4648,7 +4705,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -4677,7 +4734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -4706,7 +4763,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -4735,7 +4792,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -4764,7 +4821,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -4793,7 +4850,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -4822,7 +4879,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -4851,7 +4908,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -4880,7 +4937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -4909,7 +4966,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -4938,7 +4995,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -4967,7 +5024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -4996,7 +5053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5025,7 +5082,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5054,7 +5111,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5083,7 +5140,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5112,7 +5169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5141,7 +5198,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5170,7 +5227,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5199,7 +5256,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5228,7 +5285,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5257,7 +5314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5286,7 +5343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5315,7 +5372,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5344,7 +5401,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5373,7 +5430,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5402,7 +5459,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5431,7 +5488,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5460,7 +5517,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5489,7 +5546,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5518,7 +5575,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5547,7 +5604,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5576,7 +5633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5605,7 +5662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5634,7 +5691,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -5663,7 +5720,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -5692,7 +5749,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -5721,7 +5778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -5750,7 +5807,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -5779,7 +5836,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -5808,7 +5865,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -5837,7 +5894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -5866,7 +5923,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -5895,7 +5952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -5924,7 +5981,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -5953,7 +6010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -5982,7 +6039,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6011,7 +6068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6040,7 +6097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6069,7 +6126,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6098,7 +6155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6127,7 +6184,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6156,7 +6213,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6185,7 +6242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6214,7 +6271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6243,7 +6300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6272,7 +6329,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6301,7 +6358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6330,7 +6387,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6359,7 +6416,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6388,7 +6445,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6417,7 +6474,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6446,7 +6503,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6475,7 +6532,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6504,7 +6561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6533,7 +6590,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -6562,7 +6619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -6591,7 +6648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -6620,7 +6677,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -6649,7 +6706,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -6678,7 +6735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -6692,7 +6749,7 @@
         <v>45584</v>
       </c>
       <c r="E137" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F137" s="39" t="s">
         <v>8</v>
@@ -6701,13 +6758,13 @@
         <v>196</v>
       </c>
       <c r="H137" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I137" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -6721,7 +6778,7 @@
         <v>45597</v>
       </c>
       <c r="E138" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F138" s="39" t="s">
         <v>9</v>
@@ -6730,13 +6787,13 @@
         <v>71</v>
       </c>
       <c r="H138" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I138" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -6750,7 +6807,7 @@
         <v>45590</v>
       </c>
       <c r="E139" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F139" s="39" t="s">
         <v>9</v>
@@ -6759,13 +6816,13 @@
         <v>11</v>
       </c>
       <c r="H139" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I139" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -6779,7 +6836,7 @@
         <v>45524</v>
       </c>
       <c r="E140" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F140" s="39" t="s">
         <v>9</v>
@@ -6788,13 +6845,13 @@
         <v>30</v>
       </c>
       <c r="H140" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I140" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -6808,7 +6865,7 @@
         <v>45524</v>
       </c>
       <c r="E141" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F141" s="39" t="s">
         <v>9</v>
@@ -6817,13 +6874,13 @@
         <v>3</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I141" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -6837,7 +6894,7 @@
         <v>45596</v>
       </c>
       <c r="E142" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F142" s="39" t="s">
         <v>8</v>
@@ -6846,13 +6903,13 @@
         <v>46</v>
       </c>
       <c r="H142" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I142" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -6866,7 +6923,7 @@
         <v>45583</v>
       </c>
       <c r="E143" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F143" s="39" t="s">
         <v>9</v>
@@ -6875,15 +6932,15 @@
         <v>53</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I143" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B144" s="40">
         <v>45517</v>
@@ -6895,7 +6952,7 @@
         <v>45578</v>
       </c>
       <c r="E144" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F144" s="39" t="s">
         <v>10</v>
@@ -6904,10 +6961,329 @@
         <v>72</v>
       </c>
       <c r="H144" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I144" s="26" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" s="40">
+        <v>45525</v>
+      </c>
+      <c r="C145" s="40">
+        <v>45526</v>
+      </c>
+      <c r="D145" s="40">
+        <v>45526</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F145" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="41">
+        <v>69</v>
+      </c>
+      <c r="H145" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I145" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="40">
+        <v>45526</v>
+      </c>
+      <c r="C146" s="40">
+        <v>45526</v>
+      </c>
+      <c r="D146" s="40">
+        <v>45562</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F146" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="41">
+        <v>100</v>
+      </c>
+      <c r="H146" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="40">
+        <v>45526</v>
+      </c>
+      <c r="C147" s="40">
+        <v>45526</v>
+      </c>
+      <c r="D147" s="40">
+        <v>45573</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="F147" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="41">
+        <v>93</v>
+      </c>
+      <c r="H147" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I147" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" s="40">
+        <v>45517</v>
+      </c>
+      <c r="C148" s="40">
+        <v>45526</v>
+      </c>
+      <c r="D148" s="40">
+        <v>45585</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="41">
+        <v>70</v>
+      </c>
+      <c r="H148" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="40">
+        <v>45527</v>
+      </c>
+      <c r="C149" s="40">
+        <v>45527</v>
+      </c>
+      <c r="D149" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F149" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="41">
+        <v>91</v>
+      </c>
+      <c r="H149" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I149" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" s="40">
+        <v>45527</v>
+      </c>
+      <c r="C150" s="40">
+        <v>45527</v>
+      </c>
+      <c r="D150" s="40">
+        <v>45587</v>
+      </c>
+      <c r="E150" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="F150" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="41">
+        <v>42</v>
+      </c>
+      <c r="H150" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="I150" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="40">
+        <v>45517</v>
+      </c>
+      <c r="C151" s="40">
+        <v>45530</v>
+      </c>
+      <c r="D151" s="40">
+        <v>45579</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="41">
+        <v>44</v>
+      </c>
+      <c r="H151" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="I151" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C152" s="40">
+        <v>45530</v>
+      </c>
+      <c r="D152" s="40">
+        <v>45590</v>
+      </c>
+      <c r="E152" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F152" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="41">
+        <v>10</v>
+      </c>
+      <c r="H152" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C153" s="40">
+        <v>45530</v>
+      </c>
+      <c r="D153" s="40">
+        <v>45590</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F153" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="41">
+        <v>10</v>
+      </c>
+      <c r="H153" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="I153" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="40">
+        <v>45527</v>
+      </c>
+      <c r="C154" s="40">
+        <v>45530</v>
+      </c>
+      <c r="D154" s="40">
+        <v>45590</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="41">
+        <v>8</v>
+      </c>
+      <c r="H154" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="I154" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B155" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C155" s="40">
+        <v>45530</v>
+      </c>
+      <c r="D155" s="40">
+        <v>45590</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F155" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="41">
+        <v>50</v>
+      </c>
+      <c r="H155" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="I155" s="26" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6924,7 +7300,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I144</xm:sqref>
+          <xm:sqref>I3:I155</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6938,18 +7314,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -6957,7 +7333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -6966,7 +7342,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -6975,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -6984,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -6993,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -7002,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -7011,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -7037,25 +7413,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -7081,7 +7457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -7123,117 +7499,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swright3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB84A16-B2C2-4651-A34E-D76D59D96632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17BD543-0A83-4907-AAB2-492754893B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="326">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1062,6 +1062,60 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/28/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shake Shack Enterprises, LLC</t>
+  </si>
+  <si>
+    <t>1954 Telegraph Avenue  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>330 S Hope Street, Suite 223  Los Angeles CA 90071</t>
+  </si>
+  <si>
+    <t>9341 Culver Blvd  Culver City CA 90232</t>
+  </si>
+  <si>
+    <t>3785 Wilshire Blvd  Los Angeles CA 90010</t>
+  </si>
+  <si>
+    <t>3903 W. Sunset Blvd  Los Angeles CA 90029</t>
+  </si>
+  <si>
+    <t>6600 CA-27 Space FC10  Canoga Park CA 91303</t>
+  </si>
+  <si>
+    <t>730 N McDonnell Road  San Francisco CA 94128</t>
+  </si>
+  <si>
+    <t>Astellas Gene Therapies, Inc.</t>
+  </si>
+  <si>
+    <t>534 Eccles Avenue  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Jabil Inc.</t>
+  </si>
+  <si>
+    <t>Closure Temporary</t>
+  </si>
+  <si>
+    <t>30 Great Oaks Blvd  San Jose CA 95119</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
     <r>
@@ -1072,7 +1126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/26/24</t>
+      <t>07/01/24 to 08/28/24</t>
     </r>
     <r>
       <rPr>
@@ -1092,22 +1146,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I155.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/26/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I164.</t>
     </r>
   </si>
 </sst>
@@ -2295,8 +2334,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I155" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I155" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I164" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I164" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2730,7 +2769,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>9159</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2739,7 +2778,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2804,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2813,7 @@
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2836,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2816,7 +2855,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -7284,6 +7323,267 @@
       </c>
       <c r="I155" s="26" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C156" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D156" s="40">
+        <v>45531</v>
+      </c>
+      <c r="E156" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F156" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="41">
+        <v>32</v>
+      </c>
+      <c r="H156" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I156" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C157" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D157" s="40">
+        <v>45531</v>
+      </c>
+      <c r="E157" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="41">
+        <v>18</v>
+      </c>
+      <c r="H157" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C158" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D158" s="40">
+        <v>45531</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="41">
+        <v>24</v>
+      </c>
+      <c r="H158" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C159" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D159" s="40">
+        <v>45531</v>
+      </c>
+      <c r="E159" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="41">
+        <v>20</v>
+      </c>
+      <c r="H159" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I159" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C160" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D160" s="40">
+        <v>45531</v>
+      </c>
+      <c r="E160" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="41">
+        <v>18</v>
+      </c>
+      <c r="H160" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I160" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C161" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D161" s="40">
+        <v>45531</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="41">
+        <v>24</v>
+      </c>
+      <c r="H161" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="I161" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" s="40">
+        <v>45526</v>
+      </c>
+      <c r="C162" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D162" s="40">
+        <v>45587</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F162" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="41">
+        <v>124</v>
+      </c>
+      <c r="H162" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I162" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B163" s="40">
+        <v>45531</v>
+      </c>
+      <c r="C163" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D163" s="40">
+        <v>45586</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="41">
+        <v>7</v>
+      </c>
+      <c r="H163" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I163" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" s="40">
+        <v>45530</v>
+      </c>
+      <c r="C164" s="40">
+        <v>45531</v>
+      </c>
+      <c r="D164" s="40">
+        <v>45621</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G164" s="41">
+        <v>472</v>
+      </c>
+      <c r="H164" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7300,7 +7600,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I155</xm:sqref>
+          <xm:sqref>I3:I164</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7427,7 +7727,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swright3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17BD543-0A83-4907-AAB2-492754893B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE620190-918E-474A-8C88-50046190AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="346">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1061,21 +1061,6 @@
     <t>3200 Golf Course Drive  Ventura CA 93003</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/28/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>Shake Shack Enterprises, LLC</t>
   </si>
   <si>
@@ -1113,6 +1098,66 @@
   </si>
   <si>
     <t>30 Great Oaks Blvd  San Jose CA 95119</t>
+  </si>
+  <si>
+    <t>Schlumberger Technology Corporation</t>
+  </si>
+  <si>
+    <t>6120 Snow Road  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>Fisker Group, Inc.</t>
+  </si>
+  <si>
+    <t>1888 Rosecrans Avenue  Manhattan Beach CA 90266</t>
+  </si>
+  <si>
+    <t>14 Centerpointe Drive  La Palma CA 90623</t>
+  </si>
+  <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
+    <t>2200 Mission College Blvd  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>3601 Juliette Lane  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>2191 Laurelwood Road  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>3600 Juliette Lane  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>DermTech</t>
+  </si>
+  <si>
+    <t>12340 El Camino Real #100  San Diego CA 92130</t>
+  </si>
+  <si>
+    <t>ImmunityBio, Inc.</t>
+  </si>
+  <si>
+    <t>2040 E Mariposa Avenue  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>2024 E Mariposa Avenue  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>605 S Douglas Street  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>430 Duley Road  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>9920 Jefferson Blvd  Culver City CA 90232</t>
+  </si>
+  <si>
+    <t>Elaine Bell Catering Company</t>
+  </si>
+  <si>
+    <t>776 Technology Way  Napa CA 94558</t>
   </si>
   <si>
     <r>
@@ -1126,7 +1171,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 08/28/24</t>
+      <t>07/01/24 to 09/02/24</t>
     </r>
     <r>
       <rPr>
@@ -1146,7 +1191,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I164.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I178.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/02/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
     </r>
   </si>
 </sst>
@@ -2334,8 +2394,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I164" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I164" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I178" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I178" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2769,7 +2829,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>9898</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2838,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2864,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2896,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2855,7 +2915,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -7339,7 +7399,7 @@
         <v>45531</v>
       </c>
       <c r="E156" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F156" s="39" t="s">
         <v>8</v>
@@ -7348,7 +7408,7 @@
         <v>32</v>
       </c>
       <c r="H156" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I156" s="26" t="s">
         <v>190</v>
@@ -7368,7 +7428,7 @@
         <v>45531</v>
       </c>
       <c r="E157" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F157" s="39" t="s">
         <v>8</v>
@@ -7377,7 +7437,7 @@
         <v>18</v>
       </c>
       <c r="H157" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I157" s="26" t="s">
         <v>190</v>
@@ -7397,7 +7457,7 @@
         <v>45531</v>
       </c>
       <c r="E158" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F158" s="39" t="s">
         <v>8</v>
@@ -7406,7 +7466,7 @@
         <v>24</v>
       </c>
       <c r="H158" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I158" s="26" t="s">
         <v>190</v>
@@ -7426,7 +7486,7 @@
         <v>45531</v>
       </c>
       <c r="E159" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F159" s="39" t="s">
         <v>8</v>
@@ -7435,7 +7495,7 @@
         <v>20</v>
       </c>
       <c r="H159" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I159" s="26" t="s">
         <v>190</v>
@@ -7455,7 +7515,7 @@
         <v>45531</v>
       </c>
       <c r="E160" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F160" s="39" t="s">
         <v>8</v>
@@ -7464,7 +7524,7 @@
         <v>18</v>
       </c>
       <c r="H160" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I160" s="26" t="s">
         <v>189</v>
@@ -7484,7 +7544,7 @@
         <v>45531</v>
       </c>
       <c r="E161" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F161" s="39" t="s">
         <v>8</v>
@@ -7493,7 +7553,7 @@
         <v>24</v>
       </c>
       <c r="H161" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I161" s="26" t="s">
         <v>190</v>
@@ -7522,7 +7582,7 @@
         <v>124</v>
       </c>
       <c r="H162" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I162" s="26" t="s">
         <v>180</v>
@@ -7542,7 +7602,7 @@
         <v>45586</v>
       </c>
       <c r="E163" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F163" s="39" t="s">
         <v>9</v>
@@ -7551,7 +7611,7 @@
         <v>7</v>
       </c>
       <c r="H163" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I163" s="26" t="s">
         <v>177</v>
@@ -7571,19 +7631,425 @@
         <v>45621</v>
       </c>
       <c r="E164" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F164" s="39" t="s">
         <v>322</v>
-      </c>
-      <c r="F164" s="39" t="s">
-        <v>323</v>
       </c>
       <c r="G164" s="41">
         <v>472</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I164" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" s="40">
+        <v>45531</v>
+      </c>
+      <c r="C165" s="40">
+        <v>45533</v>
+      </c>
+      <c r="D165" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="41">
+        <v>28</v>
+      </c>
+      <c r="H165" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="I165" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="40">
+        <v>45531</v>
+      </c>
+      <c r="C166" s="40">
+        <v>45533</v>
+      </c>
+      <c r="D166" s="40">
+        <v>45566</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="41">
+        <v>43</v>
+      </c>
+      <c r="H166" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="I166" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="40">
+        <v>45531</v>
+      </c>
+      <c r="C167" s="40">
+        <v>45533</v>
+      </c>
+      <c r="D167" s="40">
+        <v>45566</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="41">
+        <v>8</v>
+      </c>
+      <c r="H167" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I167" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C168" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D168" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E168" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F168" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="41">
+        <v>12</v>
+      </c>
+      <c r="H168" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="I168" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B169" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C169" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D169" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E169" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F169" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="41">
+        <v>4</v>
+      </c>
+      <c r="H169" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I169" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C170" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D170" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="41">
+        <v>15</v>
+      </c>
+      <c r="H170" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I170" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B171" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C171" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D171" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E171" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F171" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="41">
+        <v>23</v>
+      </c>
+      <c r="H171" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="I171" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C172" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D172" s="40">
+        <v>45541</v>
+      </c>
+      <c r="E172" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="41">
+        <v>51</v>
+      </c>
+      <c r="H172" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="I172" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C173" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D173" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E173" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="41">
+        <v>6</v>
+      </c>
+      <c r="H173" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="I173" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C174" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D174" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="41">
+        <v>1</v>
+      </c>
+      <c r="H174" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="I174" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C175" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D175" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E175" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="41">
+        <v>3</v>
+      </c>
+      <c r="H175" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="I175" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C176" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D176" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="41">
+        <v>1</v>
+      </c>
+      <c r="H176" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I176" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C177" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D177" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E177" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F177" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="41">
+        <v>5</v>
+      </c>
+      <c r="H177" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="I177" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B178" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C178" s="40">
+        <v>45534</v>
+      </c>
+      <c r="D178" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E178" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="41">
+        <v>164</v>
+      </c>
+      <c r="H178" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="I178" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7600,7 +8066,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I164</xm:sqref>
+          <xm:sqref>I3:I178</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7718,7 +8184,7 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
@@ -7727,7 +8193,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE620190-918E-474A-8C88-50046190AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AA2E77-E94D-4BCA-A565-563A65451BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="368">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1161,6 +1161,87 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/04/2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Merced County</t>
+  </si>
+  <si>
+    <t>Save Mart Supermarkets LLC dba Yosemite Wholesale Company</t>
+  </si>
+  <si>
+    <t>2674 East Vassar Avenue  Merced CA 95341</t>
+  </si>
+  <si>
+    <t>Johns Manville</t>
+  </si>
+  <si>
+    <t>5916 County Road 49  Willows CA 95988</t>
+  </si>
+  <si>
+    <t>Hogan Personnel, LLC</t>
+  </si>
+  <si>
+    <t>15060 Ceres Avenue  Fontana CA 92335</t>
+  </si>
+  <si>
+    <t>Hogan Services, Inc.</t>
+  </si>
+  <si>
+    <t>Marin County</t>
+  </si>
+  <si>
+    <t>BioMarin Pharmaceutical Inc.</t>
+  </si>
+  <si>
+    <t>770 Lindaro Street  San Rafael CA 94901</t>
+  </si>
+  <si>
+    <t>105 Digital Drive  Novato CA 94949</t>
+  </si>
+  <si>
+    <t>1600 Fisher Dr.  Petaluma CA 94954</t>
+  </si>
+  <si>
+    <t>Enervenue</t>
+  </si>
+  <si>
+    <t>3500 Gateway Blvd  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences LLC</t>
+  </si>
+  <si>
+    <t>One Edwards Way  Irvine CA 92614</t>
+  </si>
+  <si>
+    <t>East Alton Pkwy  Santa Ana CA 92705</t>
+  </si>
+  <si>
+    <t>Planet Labs PBC</t>
+  </si>
+  <si>
+    <t>645 Harrison Street, 4th Floor  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>ChargePoint, Inc.</t>
+  </si>
+  <si>
+    <t>240 E. Hacienda Avenue  Campbell CA 95008</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
     <r>
@@ -1171,7 +1252,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/02/24</t>
+      <t>07/01/24 to 09/04/24</t>
     </r>
     <r>
       <rPr>
@@ -1191,22 +1272,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I178.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/02/2024
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I192.</t>
     </r>
   </si>
 </sst>
@@ -2394,8 +2460,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I178" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I178" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I192" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I192" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2829,7 +2895,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>10262</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +2904,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2913,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2930,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2915,7 +2981,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -6535,7 +6601,7 @@
         <v>9</v>
       </c>
       <c r="G126" s="42">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="H126" s="44" t="s">
         <v>264</v>
@@ -8050,6 +8116,412 @@
       </c>
       <c r="I178" s="26" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="40">
+        <v>45538</v>
+      </c>
+      <c r="C179" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D179" s="40">
+        <v>45599</v>
+      </c>
+      <c r="E179" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="41">
+        <v>254</v>
+      </c>
+      <c r="H179" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="I179" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C180" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D180" s="40">
+        <v>45599</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="41">
+        <v>100</v>
+      </c>
+      <c r="H180" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="I180" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" s="40">
+        <v>45538</v>
+      </c>
+      <c r="C181" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D181" s="40">
+        <v>45598</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="41">
+        <v>98</v>
+      </c>
+      <c r="H181" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="I181" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" s="40">
+        <v>45538</v>
+      </c>
+      <c r="C182" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D182" s="40">
+        <v>45598</v>
+      </c>
+      <c r="E182" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="41">
+        <v>14</v>
+      </c>
+      <c r="H182" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="I182" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="40">
+        <v>45535</v>
+      </c>
+      <c r="C183" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D183" s="40">
+        <v>45595</v>
+      </c>
+      <c r="E183" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F183" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="41">
+        <v>1</v>
+      </c>
+      <c r="H183" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="40">
+        <v>45532</v>
+      </c>
+      <c r="C184" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D184" s="40">
+        <v>45597</v>
+      </c>
+      <c r="E184" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="41">
+        <v>94</v>
+      </c>
+      <c r="H184" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="I184" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" s="40">
+        <v>45532</v>
+      </c>
+      <c r="C185" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D185" s="40">
+        <v>45597</v>
+      </c>
+      <c r="E185" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="41">
+        <v>52</v>
+      </c>
+      <c r="H185" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="I185" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" s="40">
+        <v>45532</v>
+      </c>
+      <c r="C186" s="40">
+        <v>45538</v>
+      </c>
+      <c r="D186" s="40">
+        <v>45597</v>
+      </c>
+      <c r="E186" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="41">
+        <v>1</v>
+      </c>
+      <c r="H186" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="I186" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="40">
+        <v>45539</v>
+      </c>
+      <c r="C187" s="40">
+        <v>45539</v>
+      </c>
+      <c r="D187" s="40">
+        <v>45604</v>
+      </c>
+      <c r="E187" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="41">
+        <v>65</v>
+      </c>
+      <c r="H187" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="I187" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C188" s="40">
+        <v>45539</v>
+      </c>
+      <c r="D188" s="40">
+        <v>45533</v>
+      </c>
+      <c r="E188" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F188" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="41">
+        <v>2</v>
+      </c>
+      <c r="H188" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I188" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="40">
+        <v>45538</v>
+      </c>
+      <c r="C189" s="40">
+        <v>45539</v>
+      </c>
+      <c r="D189" s="40">
+        <v>45604</v>
+      </c>
+      <c r="E189" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="41">
+        <v>192</v>
+      </c>
+      <c r="H189" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="I189" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" s="40">
+        <v>45538</v>
+      </c>
+      <c r="C190" s="40">
+        <v>45539</v>
+      </c>
+      <c r="D190" s="40">
+        <v>45604</v>
+      </c>
+      <c r="E190" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" s="41">
+        <v>1</v>
+      </c>
+      <c r="H190" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="I190" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B191" s="40">
+        <v>45534</v>
+      </c>
+      <c r="C191" s="40">
+        <v>45539</v>
+      </c>
+      <c r="D191" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E191" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F191" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="41">
+        <v>1</v>
+      </c>
+      <c r="H191" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="I191" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" s="40">
+        <v>45539</v>
+      </c>
+      <c r="C192" s="40">
+        <v>45539</v>
+      </c>
+      <c r="D192" s="40">
+        <v>45600</v>
+      </c>
+      <c r="E192" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="F192" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="41">
+        <v>64</v>
+      </c>
+      <c r="H192" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="I192" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8538,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I178</xm:sqref>
+          <xm:sqref>I3:I192</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8193,7 +8665,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AA2E77-E94D-4BCA-A565-563A65451BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA7901-CF35-43A0-8029-A4B7A5EDFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="732" yWindow="1512" windowWidth="17280" windowHeight="8964" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="388">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1160,8 +1160,74 @@
     <t>776 Technology Way  Napa CA 94558</t>
   </si>
   <si>
+    <t>Merced County</t>
+  </si>
+  <si>
+    <t>Save Mart Supermarkets LLC dba Yosemite Wholesale Company</t>
+  </si>
+  <si>
+    <t>2674 East Vassar Avenue  Merced CA 95341</t>
+  </si>
+  <si>
+    <t>Johns Manville</t>
+  </si>
+  <si>
+    <t>5916 County Road 49  Willows CA 95988</t>
+  </si>
+  <si>
+    <t>Hogan Personnel, LLC</t>
+  </si>
+  <si>
+    <t>15060 Ceres Avenue  Fontana CA 92335</t>
+  </si>
+  <si>
+    <t>Hogan Services, Inc.</t>
+  </si>
+  <si>
+    <t>Marin County</t>
+  </si>
+  <si>
+    <t>BioMarin Pharmaceutical Inc.</t>
+  </si>
+  <si>
+    <t>770 Lindaro Street  San Rafael CA 94901</t>
+  </si>
+  <si>
+    <t>105 Digital Drive  Novato CA 94949</t>
+  </si>
+  <si>
+    <t>1600 Fisher Dr.  Petaluma CA 94954</t>
+  </si>
+  <si>
+    <t>Enervenue</t>
+  </si>
+  <si>
+    <t>3500 Gateway Blvd  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences LLC</t>
+  </si>
+  <si>
+    <t>One Edwards Way  Irvine CA 92614</t>
+  </si>
+  <si>
+    <t>East Alton Pkwy  Santa Ana CA 92705</t>
+  </si>
+  <si>
+    <t>Planet Labs PBC</t>
+  </si>
+  <si>
+    <t>645 Harrison Street, 4th Floor  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>ChargePoint, Inc.</t>
+  </si>
+  <si>
+    <t>240 E. Hacienda Avenue  Campbell CA 95008</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/04/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/09/2024
 </t>
     </r>
     <r>
@@ -1175,70 +1241,64 @@
     </r>
   </si>
   <si>
-    <t>Merced County</t>
-  </si>
-  <si>
-    <t>Save Mart Supermarkets LLC dba Yosemite Wholesale Company</t>
-  </si>
-  <si>
-    <t>2674 East Vassar Avenue  Merced CA 95341</t>
-  </si>
-  <si>
-    <t>Johns Manville</t>
-  </si>
-  <si>
-    <t>5916 County Road 49  Willows CA 95988</t>
-  </si>
-  <si>
-    <t>Hogan Personnel, LLC</t>
-  </si>
-  <si>
-    <t>15060 Ceres Avenue  Fontana CA 92335</t>
-  </si>
-  <si>
-    <t>Hogan Services, Inc.</t>
-  </si>
-  <si>
-    <t>Marin County</t>
-  </si>
-  <si>
-    <t>BioMarin Pharmaceutical Inc.</t>
-  </si>
-  <si>
-    <t>770 Lindaro Street  San Rafael CA 94901</t>
-  </si>
-  <si>
-    <t>105 Digital Drive  Novato CA 94949</t>
-  </si>
-  <si>
-    <t>1600 Fisher Dr.  Petaluma CA 94954</t>
-  </si>
-  <si>
-    <t>Enervenue</t>
-  </si>
-  <si>
-    <t>3500 Gateway Blvd  Fremont CA 94538</t>
-  </si>
-  <si>
-    <t>Edwards Lifesciences LLC</t>
-  </si>
-  <si>
-    <t>One Edwards Way  Irvine CA 92614</t>
-  </si>
-  <si>
-    <t>East Alton Pkwy  Santa Ana CA 92705</t>
-  </si>
-  <si>
-    <t>Planet Labs PBC</t>
-  </si>
-  <si>
-    <t>645 Harrison Street, 4th Floor  San Francisco CA 94107</t>
-  </si>
-  <si>
-    <t>ChargePoint, Inc.</t>
-  </si>
-  <si>
-    <t>240 E. Hacienda Avenue  Campbell CA 95008</t>
+    <t>Big Lots, Inc.</t>
+  </si>
+  <si>
+    <t>18880 Navajo Road  Apple Valley CA 92307</t>
+  </si>
+  <si>
+    <t>PerfectVision Manufacturing, Inc.</t>
+  </si>
+  <si>
+    <t>10837-A Commerce Way  Fontana CA 92337</t>
+  </si>
+  <si>
+    <t>Stanislaus Surgical Hospital</t>
+  </si>
+  <si>
+    <t>1421 Oakdale Road  Modesto CA 95355</t>
+  </si>
+  <si>
+    <t>18012 Slover Avenue  Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals</t>
+  </si>
+  <si>
+    <t>1440 168th Avenue  San Leandro CA 94578</t>
+  </si>
+  <si>
+    <t>Commerce Distribution Center, LLC</t>
+  </si>
+  <si>
+    <t>5500 Sheila Street  Commerce CA 90040</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>2006 McGaw Avenue  Irvine CA 92614</t>
+  </si>
+  <si>
+    <t>MMT Craft, LLC, dba Modern Times Beer &amp; Coffee</t>
+  </si>
+  <si>
+    <t>3725 Greenwood Street  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>3612 Kurtz Street  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>3000 Upas Street  San Diego CA 92104</t>
+  </si>
+  <si>
+    <t>470 S. Coast Highway 101  Encinitas, CA 92024</t>
+  </si>
+  <si>
+    <t>Yolo County</t>
+  </si>
+  <si>
+    <t>3640 Ramos Dr Suite 110  West Sacramento CA 95691</t>
   </si>
   <si>
     <r>
@@ -1252,7 +1312,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/04/24</t>
+      <t>07/01/24 to 09/09/24</t>
     </r>
     <r>
       <rPr>
@@ -1272,7 +1332,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I192.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I205.</t>
     </r>
   </si>
 </sst>
@@ -2460,8 +2520,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I192" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I192" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I205" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I205" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2818,37 +2878,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2870,18 +2930,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2889,34 +2949,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>11271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2924,16 +2984,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2942,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2962,30 +3022,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +3074,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3103,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3072,7 +3132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3190,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3159,7 +3219,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +3248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3217,7 +3277,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3246,7 +3306,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3275,7 +3335,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3304,7 +3364,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3393,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3362,7 +3422,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3391,7 +3451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3420,7 +3480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3449,7 +3509,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3478,7 +3538,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3507,7 +3567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3536,7 +3596,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3565,7 +3625,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3654,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3623,7 +3683,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3652,7 +3712,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3681,7 +3741,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3710,7 +3770,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3739,7 +3799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3768,7 +3828,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3797,7 +3857,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3826,7 +3886,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +3915,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -3913,7 +3973,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -3942,7 +4002,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -3971,7 +4031,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4000,7 +4060,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4029,7 +4089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4058,7 +4118,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4087,7 +4147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4116,7 +4176,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4145,7 +4205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4234,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4203,7 +4263,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4232,7 +4292,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4261,7 +4321,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4290,7 +4350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4319,7 +4379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4348,7 +4408,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4377,7 +4437,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4406,7 +4466,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +4495,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4464,7 +4524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4493,7 +4553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4522,7 +4582,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4551,7 +4611,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4580,7 +4640,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4609,7 +4669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4638,7 +4698,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4667,7 +4727,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4696,7 +4756,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4725,7 +4785,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4754,7 +4814,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4783,7 +4843,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4812,7 +4872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4841,7 +4901,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4870,7 +4930,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -4899,7 +4959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -4928,7 +4988,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -4957,7 +5017,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -4986,7 +5046,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5015,7 +5075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5044,7 +5104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5073,7 +5133,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5102,7 +5162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5131,7 +5191,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5160,7 +5220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5189,7 +5249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5218,7 +5278,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5247,7 +5307,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5276,7 +5336,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +5365,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5334,7 +5394,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5363,7 +5423,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5392,7 +5452,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5421,7 +5481,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5450,7 +5510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5479,7 +5539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5508,7 +5568,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5537,7 +5597,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5566,7 +5626,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5595,7 +5655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5624,7 +5684,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5653,7 +5713,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5682,7 +5742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5711,7 +5771,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5740,7 +5800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5769,7 +5829,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5798,7 +5858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5827,7 +5887,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5856,7 +5916,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -5885,7 +5945,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -5914,7 +5974,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -5943,7 +6003,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -5972,7 +6032,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6001,7 +6061,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6030,7 +6090,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6059,7 +6119,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6088,7 +6148,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6117,7 +6177,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6146,7 +6206,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6175,7 +6235,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6204,7 +6264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6233,7 +6293,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6262,7 +6322,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6291,7 +6351,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6320,7 +6380,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6349,7 +6409,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6378,7 +6438,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6407,7 +6467,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6436,7 +6496,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6465,7 +6525,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6494,7 +6554,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6523,7 +6583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6552,7 +6612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6581,7 +6641,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6610,7 +6670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6639,7 +6699,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6668,7 +6728,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6697,7 +6757,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6726,7 +6786,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6755,7 +6815,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -6784,7 +6844,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -6813,7 +6873,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -6842,7 +6902,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -6871,7 +6931,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -6900,7 +6960,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -6929,7 +6989,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -6958,7 +7018,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -6987,7 +7047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7016,7 +7076,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7045,7 +7105,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7074,7 +7134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7103,7 +7163,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7132,7 +7192,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7161,7 +7221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7190,7 +7250,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7219,7 +7279,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7248,7 +7308,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7277,7 +7337,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7306,7 +7366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7335,7 +7395,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7364,7 +7424,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7393,7 +7453,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7422,7 +7482,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7451,7 +7511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7480,7 +7540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7509,7 +7569,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7538,7 +7598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -7567,7 +7627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -7596,7 +7656,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -7625,7 +7685,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -7654,7 +7714,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -7683,7 +7743,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -7712,7 +7772,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -7741,7 +7801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -7770,7 +7830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -7799,7 +7859,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -7828,7 +7888,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -7857,7 +7917,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -7886,7 +7946,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -7915,7 +7975,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -7944,7 +8004,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -7973,7 +8033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8002,7 +8062,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8031,7 +8091,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8060,7 +8120,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8089,7 +8149,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8118,9 +8178,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B179" s="40">
         <v>45538</v>
@@ -8132,7 +8192,7 @@
         <v>45599</v>
       </c>
       <c r="E179" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F179" s="39" t="s">
         <v>8</v>
@@ -8141,13 +8201,13 @@
         <v>254</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I179" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8161,7 +8221,7 @@
         <v>45599</v>
       </c>
       <c r="E180" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F180" s="39" t="s">
         <v>10</v>
@@ -8170,13 +8230,13 @@
         <v>100</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I180" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8190,7 +8250,7 @@
         <v>45598</v>
       </c>
       <c r="E181" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F181" s="39" t="s">
         <v>8</v>
@@ -8199,13 +8259,13 @@
         <v>98</v>
       </c>
       <c r="H181" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I181" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8219,7 +8279,7 @@
         <v>45598</v>
       </c>
       <c r="E182" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F182" s="39" t="s">
         <v>8</v>
@@ -8228,13 +8288,13 @@
         <v>14</v>
       </c>
       <c r="H182" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I182" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8263,9 +8323,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B184" s="40">
         <v>45532</v>
@@ -8277,7 +8337,7 @@
         <v>45597</v>
       </c>
       <c r="E184" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F184" s="39" t="s">
         <v>9</v>
@@ -8286,15 +8346,15 @@
         <v>94</v>
       </c>
       <c r="H184" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I184" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B185" s="40">
         <v>45532</v>
@@ -8306,7 +8366,7 @@
         <v>45597</v>
       </c>
       <c r="E185" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F185" s="39" t="s">
         <v>9</v>
@@ -8315,13 +8375,13 @@
         <v>52</v>
       </c>
       <c r="H185" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I185" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8335,7 +8395,7 @@
         <v>45597</v>
       </c>
       <c r="E186" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F186" s="39" t="s">
         <v>9</v>
@@ -8344,13 +8404,13 @@
         <v>1</v>
       </c>
       <c r="H186" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I186" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8364,7 +8424,7 @@
         <v>45604</v>
       </c>
       <c r="E187" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F187" s="39" t="s">
         <v>9</v>
@@ -8373,13 +8433,13 @@
         <v>65</v>
       </c>
       <c r="H187" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I187" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8408,7 +8468,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8422,7 +8482,7 @@
         <v>45604</v>
       </c>
       <c r="E189" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F189" s="39" t="s">
         <v>9</v>
@@ -8431,13 +8491,13 @@
         <v>192</v>
       </c>
       <c r="H189" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I189" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8451,7 +8511,7 @@
         <v>45604</v>
       </c>
       <c r="E190" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F190" s="39" t="s">
         <v>9</v>
@@ -8460,13 +8520,13 @@
         <v>1</v>
       </c>
       <c r="H190" s="41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I190" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8480,7 +8540,7 @@
         <v>45596</v>
       </c>
       <c r="E191" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F191" s="39" t="s">
         <v>9</v>
@@ -8489,13 +8549,13 @@
         <v>1</v>
       </c>
       <c r="H191" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I191" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8509,7 +8569,7 @@
         <v>45600</v>
       </c>
       <c r="E192" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F192" s="39" t="s">
         <v>9</v>
@@ -8518,10 +8578,387 @@
         <v>64</v>
       </c>
       <c r="H192" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I192" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="40">
+        <v>45539</v>
+      </c>
+      <c r="C193" s="40">
+        <v>45540</v>
+      </c>
+      <c r="D193" s="40">
+        <v>45596</v>
+      </c>
+      <c r="E193" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="F193" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="41">
+        <v>349</v>
+      </c>
+      <c r="H193" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I193" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="40">
+        <v>45540</v>
+      </c>
+      <c r="C194" s="40">
+        <v>45540</v>
+      </c>
+      <c r="D194" s="40">
+        <v>45600</v>
+      </c>
+      <c r="E194" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F194" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="41">
+        <v>6</v>
+      </c>
+      <c r="H194" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="I194" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="40">
+        <v>45539</v>
+      </c>
+      <c r="C195" s="40">
+        <v>45540</v>
+      </c>
+      <c r="D195" s="40">
+        <v>45602</v>
+      </c>
+      <c r="E195" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="41">
+        <v>3</v>
+      </c>
+      <c r="H195" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I195" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B196" s="40">
+        <v>45540</v>
+      </c>
+      <c r="C196" s="40">
+        <v>45540</v>
+      </c>
+      <c r="D196" s="40">
+        <v>45539</v>
+      </c>
+      <c r="E196" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="F196" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="41">
+        <v>164</v>
+      </c>
+      <c r="H196" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="I196" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C197" s="40">
+        <v>45541</v>
+      </c>
+      <c r="D197" s="40">
+        <v>45601</v>
+      </c>
+      <c r="E197" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F197" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="41">
+        <v>1</v>
+      </c>
+      <c r="H197" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="I197" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C198" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D198" s="40">
+        <v>45601</v>
+      </c>
+      <c r="E198" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="41">
+        <v>249</v>
+      </c>
+      <c r="H198" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="I198" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="40">
+        <v>45544</v>
+      </c>
+      <c r="C199" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D199" s="40">
+        <v>45607</v>
+      </c>
+      <c r="E199" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="F199" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="41">
+        <v>294</v>
+      </c>
+      <c r="H199" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="I199" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C200" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D200" s="40">
+        <v>45603</v>
+      </c>
+      <c r="E200" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="F200" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="41">
+        <v>162</v>
+      </c>
+      <c r="H200" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="I200" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C201" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D201" s="40">
+        <v>45602</v>
+      </c>
+      <c r="E201" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F201" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="41">
+        <v>47</v>
+      </c>
+      <c r="H201" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="I201" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C202" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D202" s="40">
+        <v>45602</v>
+      </c>
+      <c r="E202" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F202" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="41">
+        <v>7</v>
+      </c>
+      <c r="H202" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="I202" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C203" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D203" s="40">
+        <v>45602</v>
+      </c>
+      <c r="E203" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F203" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="41">
+        <v>8</v>
+      </c>
+      <c r="H203" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="I203" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C204" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D204" s="40">
+        <v>45602</v>
+      </c>
+      <c r="E204" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F204" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="41">
+        <v>15</v>
+      </c>
+      <c r="H204" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="I204" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B205" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C205" s="40">
+        <v>45544</v>
+      </c>
+      <c r="D205" s="40">
+        <v>45595</v>
+      </c>
+      <c r="E205" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="F205" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="41">
+        <v>159</v>
+      </c>
+      <c r="H205" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="I205" s="26" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8538,7 +8975,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I192</xm:sqref>
+          <xm:sqref>I3:I205</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8552,18 +8989,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -8571,7 +9008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -8580,7 +9017,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -8589,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -8598,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -8607,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -8616,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -8625,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -8651,25 +9088,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -8695,7 +9132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8737,117 +9174,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA7901-CF35-43A0-8029-A4B7A5EDFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FA9135-3D9F-474D-BE40-479EA6D1D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1512" windowWidth="17280" windowHeight="8964" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="399">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1226,8 +1226,68 @@
     <t>240 E. Hacienda Avenue  Campbell CA 95008</t>
   </si>
   <si>
+    <t>Big Lots, Inc.</t>
+  </si>
+  <si>
+    <t>18880 Navajo Road  Apple Valley CA 92307</t>
+  </si>
+  <si>
+    <t>PerfectVision Manufacturing, Inc.</t>
+  </si>
+  <si>
+    <t>10837-A Commerce Way  Fontana CA 92337</t>
+  </si>
+  <si>
+    <t>Stanislaus Surgical Hospital</t>
+  </si>
+  <si>
+    <t>1421 Oakdale Road  Modesto CA 95355</t>
+  </si>
+  <si>
+    <t>18012 Slover Avenue  Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals</t>
+  </si>
+  <si>
+    <t>1440 168th Avenue  San Leandro CA 94578</t>
+  </si>
+  <si>
+    <t>Commerce Distribution Center, LLC</t>
+  </si>
+  <si>
+    <t>5500 Sheila Street  Commerce CA 90040</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>2006 McGaw Avenue  Irvine CA 92614</t>
+  </si>
+  <si>
+    <t>MMT Craft, LLC, dba Modern Times Beer &amp; Coffee</t>
+  </si>
+  <si>
+    <t>3725 Greenwood Street  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>3612 Kurtz Street  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>3000 Upas Street  San Diego CA 92104</t>
+  </si>
+  <si>
+    <t>470 S. Coast Highway 101  Encinitas, CA 92024</t>
+  </si>
+  <si>
+    <t>Yolo County</t>
+  </si>
+  <si>
+    <t>3640 Ramos Dr Suite 110  West Sacramento CA 95691</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/09/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/11/2024
 </t>
     </r>
     <r>
@@ -1241,64 +1301,37 @@
     </r>
   </si>
   <si>
-    <t>Big Lots, Inc.</t>
-  </si>
-  <si>
-    <t>18880 Navajo Road  Apple Valley CA 92307</t>
-  </si>
-  <si>
-    <t>PerfectVision Manufacturing, Inc.</t>
-  </si>
-  <si>
-    <t>10837-A Commerce Way  Fontana CA 92337</t>
-  </si>
-  <si>
-    <t>Stanislaus Surgical Hospital</t>
-  </si>
-  <si>
-    <t>1421 Oakdale Road  Modesto CA 95355</t>
-  </si>
-  <si>
-    <t>18012 Slover Avenue  Bloomington CA 92316</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals</t>
-  </si>
-  <si>
-    <t>1440 168th Avenue  San Leandro CA 94578</t>
-  </si>
-  <si>
-    <t>Commerce Distribution Center, LLC</t>
-  </si>
-  <si>
-    <t>5500 Sheila Street  Commerce CA 90040</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>2006 McGaw Avenue  Irvine CA 92614</t>
-  </si>
-  <si>
-    <t>MMT Craft, LLC, dba Modern Times Beer &amp; Coffee</t>
-  </si>
-  <si>
-    <t>3725 Greenwood Street  San Diego CA 92110</t>
-  </si>
-  <si>
-    <t>3612 Kurtz Street  San Diego CA 92110</t>
-  </si>
-  <si>
-    <t>3000 Upas Street  San Diego CA 92104</t>
-  </si>
-  <si>
-    <t>470 S. Coast Highway 101  Encinitas, CA 92024</t>
-  </si>
-  <si>
-    <t>Yolo County</t>
-  </si>
-  <si>
-    <t>3640 Ramos Dr Suite 110  West Sacramento CA 95691</t>
+    <t>Conrad Employer LLC</t>
+  </si>
+  <si>
+    <t>100 South Grand Avenue, Suite 1 Los Angeles CA 90012</t>
+  </si>
+  <si>
+    <t>18012 Slover Avenue Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>Qualcomm Incorporated</t>
+  </si>
+  <si>
+    <t>5775 Morehouse Drive San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>Snohetta Architecture Landscape Architecture PC</t>
+  </si>
+  <si>
+    <t>632 Commercial St 4th Floor San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>Biosense Webster Inc.</t>
+  </si>
+  <si>
+    <t>140 Knowles Drive Los Gatos CA 95032</t>
+  </si>
+  <si>
+    <t>Field Controls, LLC</t>
+  </si>
+  <si>
+    <t>9154 Stellar Court Corona CA 92883</t>
   </si>
   <si>
     <r>
@@ -1312,7 +1345,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/09/24</t>
+      <t>07/01/24 to 09/11/24</t>
     </r>
     <r>
       <rPr>
@@ -1332,7 +1365,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I205.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I211.</t>
     </r>
   </si>
 </sst>
@@ -1452,9 +1485,10 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1511,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
         <bgColor rgb="FFF0F0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1601,7 +1647,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1728,6 +1774,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2520,8 +2578,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I205" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I205" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I211" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I211" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2878,37 +2936,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2930,18 +2988,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -2949,25 +3007,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>12735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2976,7 +3034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2984,16 +3042,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3002,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3022,30 +3080,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="42.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3132,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3103,7 +3161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3132,7 +3190,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3219,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3190,7 +3248,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3219,7 +3277,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3248,7 +3306,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3277,7 +3335,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3306,7 +3364,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3335,7 +3393,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3364,7 +3422,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3451,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3480,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3451,7 +3509,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3480,7 +3538,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3509,7 +3567,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3538,7 +3596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3567,7 +3625,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3596,7 +3654,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3625,7 +3683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3654,7 +3712,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3683,7 +3741,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3712,7 +3770,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3741,7 +3799,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +3828,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3799,7 +3857,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3828,7 +3886,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3857,7 +3915,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +3944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3915,7 +3973,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +4002,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -3973,7 +4031,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4002,7 +4060,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4031,7 +4089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4060,7 +4118,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4089,7 +4147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4118,7 +4176,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4176,7 +4234,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4205,7 +4263,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4292,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4263,7 +4321,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4292,7 +4350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4321,7 +4379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4350,7 +4408,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4379,7 +4437,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4408,7 +4466,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4437,7 +4495,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4466,7 +4524,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4495,7 +4553,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4524,7 +4582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4611,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4582,7 +4640,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4611,7 +4669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4640,7 +4698,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4669,7 +4727,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4698,7 +4756,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4727,7 +4785,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4756,7 +4814,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4785,7 +4843,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4814,7 +4872,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4843,7 +4901,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4872,7 +4930,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4901,7 +4959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4930,7 +4988,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -4959,7 +5017,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -4988,7 +5046,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5017,7 +5075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5046,7 +5104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5075,7 +5133,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5104,7 +5162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5133,7 +5191,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5162,7 +5220,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5191,7 +5249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +5278,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5249,7 +5307,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5278,7 +5336,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5307,7 +5365,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5336,7 +5394,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5365,7 +5423,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5394,7 +5452,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5423,7 +5481,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5452,7 +5510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5481,7 +5539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5510,7 +5568,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5539,7 +5597,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5568,7 +5626,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5597,7 +5655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5626,7 +5684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5655,7 +5713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5684,7 +5742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5713,7 +5771,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5742,7 +5800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5771,7 +5829,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5800,7 +5858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5887,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5858,7 +5916,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5887,7 +5945,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5916,7 +5974,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -5945,7 +6003,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -5974,7 +6032,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6003,7 +6061,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6032,7 +6090,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6061,7 +6119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6090,7 +6148,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6119,7 +6177,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6148,7 +6206,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6177,7 +6235,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6206,7 +6264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6235,7 +6293,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6264,7 +6322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6293,7 +6351,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6322,7 +6380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6351,7 +6409,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6380,7 +6438,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6409,7 +6467,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6438,7 +6496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6467,7 +6525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6496,7 +6554,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +6583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6554,7 +6612,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6583,7 +6641,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6612,7 +6670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6641,7 +6699,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6670,7 +6728,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6699,7 +6757,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6728,7 +6786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6757,7 +6815,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6786,7 +6844,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6815,7 +6873,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -6844,7 +6902,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -6873,7 +6931,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -6902,7 +6960,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -6931,7 +6989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -6960,7 +7018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -6989,7 +7047,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7018,7 +7076,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7047,7 +7105,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7076,7 +7134,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7105,7 +7163,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7134,7 +7192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7163,7 +7221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7192,7 +7250,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7221,7 +7279,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7250,7 +7308,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7279,7 +7337,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7308,7 +7366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7337,7 +7395,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7366,7 +7424,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7395,7 +7453,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7424,7 +7482,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7453,7 +7511,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7482,7 +7540,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7511,7 +7569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7540,7 +7598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7569,7 +7627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7598,7 +7656,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -7627,7 +7685,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -7656,7 +7714,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -7685,7 +7743,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -7714,7 +7772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -7743,7 +7801,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -7772,7 +7830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -7801,7 +7859,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -7830,7 +7888,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -7859,7 +7917,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -7888,7 +7946,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -7917,7 +7975,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -7946,7 +8004,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -7975,7 +8033,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8004,7 +8062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8033,7 +8091,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8062,7 +8120,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8091,7 +8149,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8120,7 +8178,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +8207,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8178,7 +8236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8207,7 +8265,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8236,7 +8294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8265,7 +8323,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8294,7 +8352,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8323,7 +8381,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8352,7 +8410,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8381,7 +8439,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8410,7 +8468,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8439,7 +8497,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8468,7 +8526,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8497,7 +8555,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8526,7 +8584,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8555,7 +8613,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8584,7 +8642,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -8598,7 +8656,7 @@
         <v>45596</v>
       </c>
       <c r="E193" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F193" s="39" t="s">
         <v>8</v>
@@ -8607,13 +8665,13 @@
         <v>349</v>
       </c>
       <c r="H193" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I193" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -8627,7 +8685,7 @@
         <v>45600</v>
       </c>
       <c r="E194" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F194" s="39" t="s">
         <v>8</v>
@@ -8636,13 +8694,13 @@
         <v>6</v>
       </c>
       <c r="H194" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I194" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -8671,7 +8729,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -8685,7 +8743,7 @@
         <v>45539</v>
       </c>
       <c r="E196" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F196" s="39" t="s">
         <v>10</v>
@@ -8694,13 +8752,13 @@
         <v>164</v>
       </c>
       <c r="H196" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I196" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -8723,13 +8781,13 @@
         <v>1</v>
       </c>
       <c r="H197" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I197" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -8743,7 +8801,7 @@
         <v>45601</v>
       </c>
       <c r="E198" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F198" s="39" t="s">
         <v>8</v>
@@ -8752,13 +8810,13 @@
         <v>249</v>
       </c>
       <c r="H198" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I198" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -8772,7 +8830,7 @@
         <v>45607</v>
       </c>
       <c r="E199" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F199" s="39" t="s">
         <v>9</v>
@@ -8781,13 +8839,13 @@
         <v>294</v>
       </c>
       <c r="H199" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I199" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -8801,7 +8859,7 @@
         <v>45603</v>
       </c>
       <c r="E200" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F200" s="39" t="s">
         <v>9</v>
@@ -8810,13 +8868,13 @@
         <v>162</v>
       </c>
       <c r="H200" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I200" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -8830,7 +8888,7 @@
         <v>45602</v>
       </c>
       <c r="E201" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F201" s="39" t="s">
         <v>8</v>
@@ -8839,13 +8897,13 @@
         <v>47</v>
       </c>
       <c r="H201" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I201" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -8859,7 +8917,7 @@
         <v>45602</v>
       </c>
       <c r="E202" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F202" s="39" t="s">
         <v>8</v>
@@ -8868,13 +8926,13 @@
         <v>7</v>
       </c>
       <c r="H202" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I202" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -8888,7 +8946,7 @@
         <v>45602</v>
       </c>
       <c r="E203" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F203" s="39" t="s">
         <v>8</v>
@@ -8897,13 +8955,13 @@
         <v>8</v>
       </c>
       <c r="H203" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I203" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="39" t="s">
         <v>6</v>
       </c>
@@ -8917,7 +8975,7 @@
         <v>45602</v>
       </c>
       <c r="E204" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F204" s="39" t="s">
         <v>8</v>
@@ -8926,15 +8984,15 @@
         <v>15</v>
       </c>
       <c r="H204" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I204" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B205" s="40">
         <v>45541</v>
@@ -8946,7 +9004,7 @@
         <v>45595</v>
       </c>
       <c r="E205" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F205" s="39" t="s">
         <v>9</v>
@@ -8955,10 +9013,184 @@
         <v>159</v>
       </c>
       <c r="H205" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I205" s="26" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="31">
+        <v>45545</v>
+      </c>
+      <c r="C206" s="31">
+        <v>45545</v>
+      </c>
+      <c r="D206" s="31">
+        <v>45609</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F206" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="27">
+        <v>47</v>
+      </c>
+      <c r="H206" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="I206" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="31">
+        <v>45545</v>
+      </c>
+      <c r="C207" s="31">
+        <v>45545</v>
+      </c>
+      <c r="D207" s="31">
+        <v>45607</v>
+      </c>
+      <c r="E207" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F207" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="46">
+        <v>5</v>
+      </c>
+      <c r="H207" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="I207" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="31">
+        <v>45545</v>
+      </c>
+      <c r="C208" s="31">
+        <v>45545</v>
+      </c>
+      <c r="D208" s="31">
+        <v>45608</v>
+      </c>
+      <c r="E208" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F208" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="48">
+        <v>226</v>
+      </c>
+      <c r="H208" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="I208" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B209" s="31">
+        <v>45544</v>
+      </c>
+      <c r="C209" s="31">
+        <v>45545</v>
+      </c>
+      <c r="D209" s="31">
+        <v>45649</v>
+      </c>
+      <c r="E209" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F209" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="46">
+        <v>5</v>
+      </c>
+      <c r="H209" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="I209" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B210" s="31">
+        <v>45544</v>
+      </c>
+      <c r="C210" s="31">
+        <v>45545</v>
+      </c>
+      <c r="D210" s="31">
+        <v>45617</v>
+      </c>
+      <c r="E210" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="F210" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" s="48">
+        <v>13</v>
+      </c>
+      <c r="H210" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="I210" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B211" s="31">
+        <v>45537</v>
+      </c>
+      <c r="C211" s="31">
+        <v>45546</v>
+      </c>
+      <c r="D211" s="31">
+        <v>45548</v>
+      </c>
+      <c r="E211" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="F211" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" s="46">
+        <v>5</v>
+      </c>
+      <c r="H211" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="I211" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8975,7 +9207,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I205</xm:sqref>
+          <xm:sqref>I3:I211</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8989,18 +9221,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -9008,7 +9240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -9017,7 +9249,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -9026,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -9035,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -9044,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -9053,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -9062,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -9088,25 +9320,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -9132,7 +9364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9174,117 +9406,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FA9135-3D9F-474D-BE40-479EA6D1D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23B78ED-F772-407E-9790-AA5BE8B1E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="421">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1274,9 +1274,6 @@
     <t>3612 Kurtz Street  San Diego CA 92110</t>
   </si>
   <si>
-    <t>3000 Upas Street  San Diego CA 92104</t>
-  </si>
-  <si>
     <t>470 S. Coast Highway 101  Encinitas, CA 92024</t>
   </si>
   <si>
@@ -1286,8 +1283,68 @@
     <t>3640 Ramos Dr Suite 110  West Sacramento CA 95691</t>
   </si>
   <si>
+    <t>Conrad Employer LLC</t>
+  </si>
+  <si>
+    <t>Qualcomm Incorporated</t>
+  </si>
+  <si>
+    <t>Snohetta Architecture Landscape Architecture PC</t>
+  </si>
+  <si>
+    <t>Biosense Webster Inc.</t>
+  </si>
+  <si>
+    <t>Field Controls, LLC</t>
+  </si>
+  <si>
+    <t>GXO Logistics Supply Chain, Inc.</t>
+  </si>
+  <si>
+    <t>Activision Blizzard</t>
+  </si>
+  <si>
+    <t>Advantest, Inc.</t>
+  </si>
+  <si>
+    <t>Foundation for California Community Colleges</t>
+  </si>
+  <si>
+    <t>Converse, Inc.</t>
+  </si>
+  <si>
+    <t>Houweling Camarillo, Inc.</t>
+  </si>
+  <si>
+    <t>3520 Cactus Avenue  Bloomington CA 92316</t>
+  </si>
+  <si>
+    <t>13031 W. Jefferson Blvd Suite 200  Los Angeles CA 90094</t>
+  </si>
+  <si>
+    <t>2701 Olympic Blvd, Building B  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>16215 Alton Pkwy  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>48580 Kato Road  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>1102 Q Street, Suite 4800  Sacramento CA 95811</t>
+  </si>
+  <si>
+    <t>1460 S Hofer Ranch Road  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>4450 E Lowell Street  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>647 W. Laguna Road  Camarillo CA 93012</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/11/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/18/2024
 </t>
     </r>
     <r>
@@ -1301,37 +1358,46 @@
     </r>
   </si>
   <si>
-    <t>Conrad Employer LLC</t>
-  </si>
-  <si>
-    <t>100 South Grand Avenue, Suite 1 Los Angeles CA 90012</t>
-  </si>
-  <si>
-    <t>18012 Slover Avenue Bloomington CA 92316</t>
-  </si>
-  <si>
-    <t>Qualcomm Incorporated</t>
-  </si>
-  <si>
-    <t>5775 Morehouse Drive San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>Snohetta Architecture Landscape Architecture PC</t>
-  </si>
-  <si>
-    <t>632 Commercial St 4th Floor San Francisco CA 94111</t>
-  </si>
-  <si>
-    <t>Biosense Webster Inc.</t>
-  </si>
-  <si>
-    <t>140 Knowles Drive Los Gatos CA 95032</t>
-  </si>
-  <si>
-    <t>Field Controls, LLC</t>
-  </si>
-  <si>
-    <t>9154 Stellar Court Corona CA 92883</t>
+    <t>100 South Grand Avenue, Suite 1  Los Angeles CA 90012</t>
+  </si>
+  <si>
+    <t>5775 Morehouse Drive  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>632 Commercial St 4th Floor  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>140 Knowles Drive  Los Gatos CA 95032</t>
+  </si>
+  <si>
+    <t>9154 Stellar Court  Corona CA 92883</t>
+  </si>
+  <si>
+    <t>International Business Machines Corporation (IBM)</t>
+  </si>
+  <si>
+    <t>425 Market Street  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>500 Terry A. Francois Blvd  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>560 McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>555 Bailey Avenue  San Jose CA 95141</t>
+  </si>
+  <si>
+    <t>Santa Cruz County</t>
+  </si>
+  <si>
+    <t>Monterey Mushrooms, LLC</t>
+  </si>
+  <si>
+    <t>777 Maher Court  Royal Oaks CA 95076</t>
+  </si>
+  <si>
+    <t>2020 Williams Street  San Leandro CA 94577</t>
   </si>
   <si>
     <r>
@@ -1345,7 +1411,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/11/24</t>
+      <t>07/01/24 to 09/18/24</t>
     </r>
     <r>
       <rPr>
@@ -1365,7 +1431,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I211.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I228.</t>
     </r>
   </si>
 </sst>
@@ -1379,7 +1445,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,6 +1552,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1647,7 +1718,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1786,6 +1857,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2578,8 +2658,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I211" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I211" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I228" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I228" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2936,37 +3016,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -2988,18 +3068,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -3007,25 +3087,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>13036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3034,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3042,16 +3122,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3080,30 +3160,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3212,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3241,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3190,7 +3270,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3299,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3328,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3357,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3386,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3335,7 +3415,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3364,7 +3444,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3393,7 +3473,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3422,7 +3502,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3451,7 +3531,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3480,7 +3560,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3509,7 +3589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3538,7 +3618,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +3647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3676,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3625,7 +3705,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3683,7 +3763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3712,7 +3792,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3741,7 +3821,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3850,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3799,7 +3879,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3828,7 +3908,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3857,7 +3937,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3886,7 +3966,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3915,7 +3995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +4024,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -3973,7 +4053,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4082,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -4031,7 +4111,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4060,7 +4140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4089,7 +4169,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4118,7 +4198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4176,7 +4256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4205,7 +4285,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4314,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4343,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4292,7 +4372,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4321,7 +4401,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4350,7 +4430,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4379,7 +4459,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4408,7 +4488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4437,7 +4517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4466,7 +4546,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4495,7 +4575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4524,7 +4604,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4633,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4662,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4611,7 +4691,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4640,7 +4720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4669,7 +4749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4698,7 +4778,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4727,7 +4807,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4756,7 +4836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4785,7 +4865,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4814,7 +4894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4843,7 +4923,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4872,7 +4952,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4901,7 +4981,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -4930,7 +5010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -4959,7 +5039,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -4988,7 +5068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -5017,7 +5097,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -5046,7 +5126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5075,7 +5155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5104,7 +5184,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5133,7 +5213,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5162,7 +5242,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5191,7 +5271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5220,7 +5300,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5249,7 +5329,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5278,7 +5358,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5307,7 +5387,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5336,7 +5416,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5365,7 +5445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5394,7 +5474,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5423,7 +5503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5452,7 +5532,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5481,7 +5561,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5510,7 +5590,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5539,7 +5619,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5568,7 +5648,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5597,7 +5677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5626,7 +5706,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5655,7 +5735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5684,7 +5764,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5713,7 +5793,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5742,7 +5822,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5771,7 +5851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5800,7 +5880,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5909,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5858,7 +5938,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5887,7 +5967,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5916,7 +5996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -5945,7 +6025,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -5974,7 +6054,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6003,7 +6083,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -6032,7 +6112,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6061,7 +6141,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6090,7 +6170,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6119,7 +6199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6148,7 +6228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6177,7 +6257,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6206,7 +6286,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6235,7 +6315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6264,7 +6344,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6293,7 +6373,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6322,7 +6402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6351,7 +6431,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6380,7 +6460,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6409,7 +6489,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6438,7 +6518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6467,7 +6547,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6496,7 +6576,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +6605,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6554,7 +6634,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6583,7 +6663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6612,7 +6692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6641,7 +6721,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6670,7 +6750,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6699,7 +6779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6728,7 +6808,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6757,7 +6837,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6786,7 +6866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6815,7 +6895,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6844,7 +6924,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6873,7 +6953,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -6902,7 +6982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -6931,7 +7011,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -6960,7 +7040,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -6989,7 +7069,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -7018,7 +7098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -7047,7 +7127,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7076,7 +7156,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7105,7 +7185,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7134,7 +7214,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7163,7 +7243,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7192,7 +7272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7221,7 +7301,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7250,7 +7330,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7279,7 +7359,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7308,7 +7388,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7337,7 +7417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7366,7 +7446,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7395,7 +7475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7424,7 +7504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7453,7 +7533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7482,7 +7562,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7511,7 +7591,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7540,7 +7620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7569,7 +7649,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7598,7 +7678,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7627,7 +7707,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7656,7 +7736,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -7685,7 +7765,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -7714,7 +7794,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -7743,7 +7823,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -7772,7 +7852,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -7801,7 +7881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -7830,7 +7910,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -7859,7 +7939,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -7888,7 +7968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -7917,7 +7997,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -7946,7 +8026,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -7975,7 +8055,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -8004,7 +8084,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -8033,7 +8113,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8062,7 +8142,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8091,7 +8171,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8120,7 +8200,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +8229,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8178,7 +8258,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8207,7 +8287,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8236,7 +8316,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8265,7 +8345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8294,7 +8374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8323,7 +8403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8352,7 +8432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8381,7 +8461,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8410,7 +8490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8439,7 +8519,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8468,7 +8548,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8497,7 +8577,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8606,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8555,7 +8635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8584,7 +8664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8613,7 +8693,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8642,7 +8722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -8671,7 +8751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -8700,7 +8780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -8729,7 +8809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -8758,7 +8838,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -8787,7 +8867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -8816,7 +8896,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -8845,7 +8925,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -8874,7 +8954,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -8894,7 +8974,7 @@
         <v>8</v>
       </c>
       <c r="G201" s="41">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H201" s="41" t="s">
         <v>380</v>
@@ -8903,7 +8983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -8932,7 +9012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -8952,7 +9032,7 @@
         <v>8</v>
       </c>
       <c r="G203" s="41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H203" s="41" t="s">
         <v>382</v>
@@ -8961,9 +9041,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="39" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="B204" s="40">
         <v>45541</v>
@@ -8972,56 +9052,56 @@
         <v>45544</v>
       </c>
       <c r="D204" s="40">
-        <v>45602</v>
+        <v>45595</v>
       </c>
       <c r="E204" s="39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F204" s="39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G204" s="41">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="H204" s="41" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I204" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="B205" s="40">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="C205" s="40">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D205" s="40">
-        <v>45595</v>
+        <v>45609</v>
       </c>
       <c r="E205" s="39" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F205" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G205" s="41">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="H205" s="41" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="I205" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B206" s="31">
         <v>45545</v>
@@ -9030,27 +9110,27 @@
         <v>45545</v>
       </c>
       <c r="D206" s="31">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="F206" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G206" s="27">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="I206" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B207" s="31">
         <v>45545</v>
@@ -9059,56 +9139,56 @@
         <v>45545</v>
       </c>
       <c r="D207" s="31">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E207" s="45" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="F207" s="45" t="s">
         <v>9</v>
       </c>
       <c r="G207" s="46">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="H207" s="45" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="I207" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B208" s="31">
-        <v>45545</v>
+        <v>45544</v>
       </c>
       <c r="C208" s="31">
         <v>45545</v>
       </c>
       <c r="D208" s="31">
-        <v>45608</v>
+        <v>45649</v>
       </c>
       <c r="E208" s="47" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F208" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G208" s="48">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="H208" s="47" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="I208" s="26" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B209" s="31">
         <v>45544</v>
@@ -9117,80 +9197,573 @@
         <v>45545</v>
       </c>
       <c r="D209" s="31">
-        <v>45649</v>
+        <v>45617</v>
       </c>
       <c r="E209" s="45" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F209" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G209" s="46">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H209" s="45" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="I209" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B210" s="31">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="C210" s="31">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="D210" s="31">
-        <v>45617</v>
+        <v>45548</v>
       </c>
       <c r="E210" s="47" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F210" s="47" t="s">
         <v>8</v>
       </c>
       <c r="G210" s="48">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H210" s="47" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="I210" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="B211" s="31">
-        <v>45537</v>
+        <v>45547</v>
       </c>
       <c r="C211" s="31">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="D211" s="31">
-        <v>45548</v>
+        <v>45610</v>
       </c>
       <c r="E211" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="F211" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="46">
+        <v>114</v>
+      </c>
+      <c r="H211" s="45" t="s">
         <v>396</v>
-      </c>
-      <c r="F211" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G211" s="46">
-        <v>5</v>
-      </c>
-      <c r="H211" s="45" t="s">
-        <v>397</v>
       </c>
       <c r="I211" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="31">
+        <v>45547</v>
+      </c>
+      <c r="C212" s="31">
+        <v>45548</v>
+      </c>
+      <c r="D212" s="31">
+        <v>45611</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="27">
+        <v>143</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="I212" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="31">
+        <v>45547</v>
+      </c>
+      <c r="C213" s="31">
+        <v>45548</v>
+      </c>
+      <c r="D213" s="31">
+        <v>45576</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="27">
+        <v>110</v>
+      </c>
+      <c r="H213" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I213" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="31">
+        <v>45547</v>
+      </c>
+      <c r="C214" s="31">
+        <v>45548</v>
+      </c>
+      <c r="D214" s="31">
+        <v>45576</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="27">
+        <v>140</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="I214" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" s="31">
+        <v>45548</v>
+      </c>
+      <c r="C215" s="31">
+        <v>45548</v>
+      </c>
+      <c r="D215" s="31">
+        <v>45611</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="27">
+        <v>31</v>
+      </c>
+      <c r="H215" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I215" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="31">
+        <v>45551</v>
+      </c>
+      <c r="C216" s="31">
+        <v>45551</v>
+      </c>
+      <c r="D216" s="31">
+        <v>45618</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" s="27">
+        <v>88</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="I216" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B217" s="31">
+        <v>45551</v>
+      </c>
+      <c r="C217" s="31">
+        <v>45551</v>
+      </c>
+      <c r="D217" s="31">
+        <v>45611</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="27">
+        <v>368</v>
+      </c>
+      <c r="H217" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="I217" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B218" s="31">
+        <v>45551</v>
+      </c>
+      <c r="C218" s="31">
+        <v>45551</v>
+      </c>
+      <c r="D218" s="31">
+        <v>45657</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="27">
+        <v>78</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I218" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="31">
+        <v>45551</v>
+      </c>
+      <c r="C219" s="31">
+        <v>45551</v>
+      </c>
+      <c r="D219" s="31">
+        <v>45611</v>
+      </c>
+      <c r="E219" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="27">
+        <v>46</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I219" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="31">
+        <v>45551</v>
+      </c>
+      <c r="C220" s="31">
+        <v>45551</v>
+      </c>
+      <c r="D220" s="31">
+        <v>45611</v>
+      </c>
+      <c r="E220" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F220" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="27">
+        <v>31</v>
+      </c>
+      <c r="H220" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="I220" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B221" s="31">
+        <v>45539</v>
+      </c>
+      <c r="C221" s="31">
+        <v>45551</v>
+      </c>
+      <c r="D221" s="31">
+        <v>45616</v>
+      </c>
+      <c r="E221" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F221" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="27">
+        <v>203</v>
+      </c>
+      <c r="H221" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="I221" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B222" s="31">
+        <v>45552</v>
+      </c>
+      <c r="C222" s="31">
+        <v>45552</v>
+      </c>
+      <c r="D222" s="31">
+        <v>45614</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F222" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="27">
+        <v>58</v>
+      </c>
+      <c r="H222" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I222" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B223" s="50">
+        <v>45548</v>
+      </c>
+      <c r="C223" s="50">
+        <v>45552</v>
+      </c>
+      <c r="D223" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E223" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F223" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="51">
+        <v>134</v>
+      </c>
+      <c r="H223" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="I223" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B224" s="50">
+        <v>45548</v>
+      </c>
+      <c r="C224" s="50">
+        <v>45552</v>
+      </c>
+      <c r="D224" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E224" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F224" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="51">
+        <v>563</v>
+      </c>
+      <c r="H224" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="I224" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B225" s="50">
+        <v>45548</v>
+      </c>
+      <c r="C225" s="50">
+        <v>45552</v>
+      </c>
+      <c r="D225" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E225" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F225" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="51">
+        <v>145</v>
+      </c>
+      <c r="H225" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="I225" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B226" s="50">
+        <v>45552</v>
+      </c>
+      <c r="C226" s="50">
+        <v>45552</v>
+      </c>
+      <c r="D226" s="50">
+        <v>45614</v>
+      </c>
+      <c r="E226" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="F226" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="51">
+        <v>54</v>
+      </c>
+      <c r="H226" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="I226" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="B227" s="50">
+        <v>45552</v>
+      </c>
+      <c r="C227" s="50">
+        <v>45552</v>
+      </c>
+      <c r="D227" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E227" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F227" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="51">
+        <v>605</v>
+      </c>
+      <c r="H227" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="I227" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="50">
+        <v>45553</v>
+      </c>
+      <c r="C228" s="50">
+        <v>45553</v>
+      </c>
+      <c r="D228" s="50">
+        <v>45584</v>
+      </c>
+      <c r="E228" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F228" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" s="51">
+        <v>27</v>
+      </c>
+      <c r="H228" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I228" s="26" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9207,7 +9780,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I211</xm:sqref>
+          <xm:sqref>I3:I228</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9221,18 +9794,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -9240,7 +9813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -9249,7 +9822,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -9258,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -9267,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -9276,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -9285,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -9294,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -9320,25 +9893,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -9364,7 +9937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9406,117 +9979,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23B78ED-F772-407E-9790-AA5BE8B1E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50105050-B313-40CF-807F-0E5495C47A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="427">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1343,8 +1343,50 @@
     <t>647 W. Laguna Road  Camarillo CA 93012</t>
   </si>
   <si>
+    <t>100 South Grand Avenue, Suite 1  Los Angeles CA 90012</t>
+  </si>
+  <si>
+    <t>5775 Morehouse Drive  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>632 Commercial St 4th Floor  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>140 Knowles Drive  Los Gatos CA 95032</t>
+  </si>
+  <si>
+    <t>9154 Stellar Court  Corona CA 92883</t>
+  </si>
+  <si>
+    <t>International Business Machines Corporation (IBM)</t>
+  </si>
+  <si>
+    <t>425 Market Street  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>500 Terry A. Francois Blvd  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>560 McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>555 Bailey Avenue  San Jose CA 95141</t>
+  </si>
+  <si>
+    <t>Santa Cruz County</t>
+  </si>
+  <si>
+    <t>Monterey Mushrooms, LLC</t>
+  </si>
+  <si>
+    <t>777 Maher Court  Royal Oaks CA 95076</t>
+  </si>
+  <si>
+    <t>2020 Williams Street  San Leandro CA 94577</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/18/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/23/2024
 </t>
     </r>
     <r>
@@ -1358,46 +1400,22 @@
     </r>
   </si>
   <si>
-    <t>100 South Grand Avenue, Suite 1  Los Angeles CA 90012</t>
-  </si>
-  <si>
-    <t>5775 Morehouse Drive  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>632 Commercial St 4th Floor  San Francisco CA 94111</t>
-  </si>
-  <si>
-    <t>140 Knowles Drive  Los Gatos CA 95032</t>
-  </si>
-  <si>
-    <t>9154 Stellar Court  Corona CA 92883</t>
-  </si>
-  <si>
-    <t>International Business Machines Corporation (IBM)</t>
-  </si>
-  <si>
-    <t>425 Market Street  San Francisco CA 94105</t>
-  </si>
-  <si>
-    <t>500 Terry A. Francois Blvd  San Francisco CA 94158</t>
-  </si>
-  <si>
-    <t>560 McCarthy Blvd  Milpitas CA 95035</t>
-  </si>
-  <si>
-    <t>555 Bailey Avenue  San Jose CA 95141</t>
-  </si>
-  <si>
-    <t>Santa Cruz County</t>
-  </si>
-  <si>
-    <t>Monterey Mushrooms, LLC</t>
-  </si>
-  <si>
-    <t>777 Maher Court  Royal Oaks CA 95076</t>
-  </si>
-  <si>
-    <t>2020 Williams Street  San Leandro CA 94577</t>
+    <t>26211 Enterprise Way  Lake Forest CA 92630</t>
+  </si>
+  <si>
+    <t>USC Verdugo Hills Hospital</t>
+  </si>
+  <si>
+    <t>1812 Verdugo Boulevard  Glendale CA 91208</t>
+  </si>
+  <si>
+    <t>4050 Technology Place  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Twelve Oaks Foundation dba Twelve Oaks Senior Living</t>
+  </si>
+  <si>
+    <t>2820 Sycamore Avenue  Glendale CA 91214</t>
   </si>
   <si>
     <r>
@@ -1411,7 +1429,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/18/24</t>
+      <t>07/01/24 to 09/23/24</t>
     </r>
     <r>
       <rPr>
@@ -1431,7 +1449,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I228.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I232.</t>
     </r>
   </si>
 </sst>
@@ -2658,8 +2676,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I228" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I228" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I232" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I232" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3016,37 +3034,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -3068,18 +3086,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -3087,25 +3105,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>15974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3122,25 +3140,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3160,30 +3178,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="114.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3346,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3375,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3415,7 +3433,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3444,7 +3462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3473,7 +3491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3531,7 +3549,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3578,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3589,7 +3607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3705,7 +3723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3734,7 +3752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3763,7 +3781,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3792,7 +3810,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3821,7 +3839,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3850,7 +3868,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3879,7 +3897,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +3926,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3966,7 +3984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -3995,7 +4013,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +4042,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -4111,7 +4129,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4187,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4216,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4227,7 +4245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4274,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4303,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4314,7 +4332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4361,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4372,7 +4390,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4401,7 +4419,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4430,7 +4448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4459,7 +4477,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4517,7 +4535,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4546,7 +4564,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4604,7 +4622,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4651,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4662,7 +4680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4691,7 +4709,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4749,7 +4767,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4807,7 +4825,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4836,7 +4854,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4865,7 +4883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4923,7 +4941,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4981,7 +4999,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +5028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -5039,7 +5057,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -5097,7 +5115,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -5126,7 +5144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5155,7 +5173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5184,7 +5202,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5213,7 +5231,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5242,7 +5260,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5271,7 +5289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5300,7 +5318,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5329,7 +5347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5358,7 +5376,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5416,7 +5434,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5445,7 +5463,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5474,7 +5492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5503,7 +5521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5532,7 +5550,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5561,7 +5579,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5590,7 +5608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5619,7 +5637,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5648,7 +5666,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5677,7 +5695,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5706,7 +5724,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5735,7 +5753,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5764,7 +5782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5793,7 +5811,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5822,7 +5840,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5880,7 +5898,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5909,7 +5927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5938,7 +5956,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5967,7 +5985,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -5996,7 +6014,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -6025,7 +6043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6083,7 +6101,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -6112,7 +6130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6141,7 +6159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6170,7 +6188,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6199,7 +6217,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6228,7 +6246,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6257,7 +6275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6304,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6315,7 +6333,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6344,7 +6362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6373,7 +6391,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6402,7 +6420,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6431,7 +6449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6460,7 +6478,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6518,7 +6536,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6547,7 +6565,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6576,7 +6594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6623,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6634,7 +6652,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6663,7 +6681,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6692,7 +6710,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6750,7 +6768,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6779,7 +6797,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6808,7 +6826,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6837,7 +6855,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6866,7 +6884,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6895,7 +6913,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6924,7 +6942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6953,7 +6971,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -6982,7 +7000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -7011,7 +7029,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -7040,7 +7058,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -7069,7 +7087,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -7098,7 +7116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -7127,7 +7145,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7156,7 +7174,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7185,7 +7203,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7214,7 +7232,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7243,7 +7261,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7272,7 +7290,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7301,7 +7319,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7330,7 +7348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7359,7 +7377,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7417,7 +7435,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7446,7 +7464,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7475,7 +7493,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7504,7 +7522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7533,7 +7551,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7562,7 +7580,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7591,7 +7609,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7620,7 +7638,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7649,7 +7667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7678,7 +7696,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7736,7 +7754,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7783,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -7794,7 +7812,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -7823,7 +7841,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -7852,7 +7870,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -7881,7 +7899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -7910,7 +7928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -7939,7 +7957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -7968,7 +7986,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -7997,7 +8015,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -8026,7 +8044,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -8084,7 +8102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -8113,7 +8131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8142,7 +8160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8171,7 +8189,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8200,7 +8218,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8229,7 +8247,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8258,7 +8276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8287,7 +8305,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8316,7 +8334,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8345,7 +8363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8374,7 +8392,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8403,7 +8421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8432,7 +8450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8461,7 +8479,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8490,7 +8508,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8519,7 +8537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8548,7 +8566,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8577,7 +8595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8606,7 +8624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8635,7 +8653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8693,7 +8711,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -8751,7 +8769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -8780,7 +8798,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -8809,7 +8827,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -8838,7 +8856,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -8867,7 +8885,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -8896,7 +8914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -8925,7 +8943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -8954,7 +8972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -8983,7 +9001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -9012,7 +9030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -9041,7 +9059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -9070,7 +9088,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -9093,13 +9111,13 @@
         <v>47</v>
       </c>
       <c r="H205" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I205" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -9128,7 +9146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -9151,13 +9169,13 @@
         <v>226</v>
       </c>
       <c r="H207" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I207" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -9180,13 +9198,13 @@
         <v>5</v>
       </c>
       <c r="H208" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I208" s="26" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -9209,13 +9227,13 @@
         <v>13</v>
       </c>
       <c r="H209" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I209" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -9238,13 +9256,13 @@
         <v>5</v>
       </c>
       <c r="H210" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I210" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -9273,7 +9291,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -9302,7 +9320,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -9331,7 +9349,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -9360,7 +9378,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -9389,7 +9407,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -9418,7 +9436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -9447,7 +9465,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -9476,7 +9494,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -9505,7 +9523,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -9534,7 +9552,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -9563,7 +9581,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -9577,7 +9595,7 @@
         <v>45614</v>
       </c>
       <c r="E222" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F222" s="26" t="s">
         <v>9</v>
@@ -9586,13 +9604,13 @@
         <v>58</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I222" s="26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -9615,13 +9633,13 @@
         <v>134</v>
       </c>
       <c r="H223" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I223" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -9650,7 +9668,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -9673,13 +9691,13 @@
         <v>145</v>
       </c>
       <c r="H225" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I225" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -9693,7 +9711,7 @@
         <v>45614</v>
       </c>
       <c r="E226" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F226" s="49" t="s">
         <v>9</v>
@@ -9702,15 +9720,15 @@
         <v>54</v>
       </c>
       <c r="H226" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I226" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B227" s="50">
         <v>45552</v>
@@ -9722,7 +9740,7 @@
         <v>45635</v>
       </c>
       <c r="E227" s="49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F227" s="49" t="s">
         <v>8</v>
@@ -9731,13 +9749,13 @@
         <v>605</v>
       </c>
       <c r="H227" s="51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I227" s="26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -9760,10 +9778,126 @@
         <v>27</v>
       </c>
       <c r="H228" s="51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I228" s="26" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="50">
+        <v>45555</v>
+      </c>
+      <c r="C229" s="50">
+        <v>45555</v>
+      </c>
+      <c r="D229" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E229" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F229" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G229" s="51">
+        <v>59</v>
+      </c>
+      <c r="H229" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="I229" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="50">
+        <v>45555</v>
+      </c>
+      <c r="C230" s="50">
+        <v>45555</v>
+      </c>
+      <c r="D230" s="50">
+        <v>45616</v>
+      </c>
+      <c r="E230" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F230" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="51">
+        <v>65</v>
+      </c>
+      <c r="H230" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="I230" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C231" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D231" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E231" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F231" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G231" s="51">
+        <v>156</v>
+      </c>
+      <c r="H231" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="I231" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="50">
+        <v>45555</v>
+      </c>
+      <c r="C232" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D232" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E232" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="F232" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="51">
+        <v>20</v>
+      </c>
+      <c r="H232" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="I232" s="26" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -9780,7 +9914,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I228</xm:sqref>
+          <xm:sqref>I3:I232</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9794,18 +9928,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -9813,7 +9947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -9822,7 +9956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -9831,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -9840,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -9849,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -9858,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -9867,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -9893,25 +10027,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -9937,7 +10071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9979,117 +10113,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50105050-B313-40CF-807F-0E5495C47A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29EB6BA-F385-4BFF-8FFE-7E3E6FFF265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="448">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1385,8 +1385,26 @@
     <t>2020 Williams Street  San Leandro CA 94577</t>
   </si>
   <si>
+    <t>26211 Enterprise Way  Lake Forest CA 92630</t>
+  </si>
+  <si>
+    <t>USC Verdugo Hills Hospital</t>
+  </si>
+  <si>
+    <t>1812 Verdugo Boulevard  Glendale CA 91208</t>
+  </si>
+  <si>
+    <t>4050 Technology Place  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Twelve Oaks Foundation dba Twelve Oaks Senior Living</t>
+  </si>
+  <si>
+    <t>2820 Sycamore Avenue  Glendale CA 91214</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/23/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/25/2024
 </t>
     </r>
     <r>
@@ -1400,22 +1418,67 @@
     </r>
   </si>
   <si>
-    <t>26211 Enterprise Way  Lake Forest CA 92630</t>
-  </si>
-  <si>
-    <t>USC Verdugo Hills Hospital</t>
-  </si>
-  <si>
-    <t>1812 Verdugo Boulevard  Glendale CA 91208</t>
-  </si>
-  <si>
-    <t>4050 Technology Place  Fremont CA 94538</t>
-  </si>
-  <si>
-    <t>Twelve Oaks Foundation dba Twelve Oaks Senior Living</t>
-  </si>
-  <si>
-    <t>2820 Sycamore Avenue  Glendale CA 91214</t>
+    <t>5810 Owens Drive  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>One Kaiser Plaza  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>1950 Franklin Street  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>2401 Merced Street  San Leandro CA 94577</t>
+  </si>
+  <si>
+    <t>501 Lennon Lane  Walnut Creek CA 94598</t>
+  </si>
+  <si>
+    <t>12200 Bellflower Blvd  Downey CA 90242</t>
+  </si>
+  <si>
+    <t>9333 Imperial Hwy  Downey CA 90242</t>
+  </si>
+  <si>
+    <t>75 N. Fair Oaks Avenue  Pasadena CA 91103</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Avenue  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>393 E. Walnut Street  Pasadena CA 91188</t>
+  </si>
+  <si>
+    <t>1707 Barcelona Circle  Placentia CA 92870</t>
+  </si>
+  <si>
+    <t>1830 California Avenue  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>182 Granite Street  Corona CA 92879</t>
+  </si>
+  <si>
+    <t>6600 Bruceville Roaad  Sacramento CA 95823</t>
+  </si>
+  <si>
+    <t>7880 Alta Valley Drive  Sacramento CA 95823</t>
+  </si>
+  <si>
+    <t>801 Traeger Avenue  San Bruno CA 94066</t>
+  </si>
+  <si>
+    <t>401 Bicentennial Way  Santa Rosa CA 95403</t>
+  </si>
+  <si>
+    <t>Mini Pharmacy Enterprises, Inc.</t>
+  </si>
+  <si>
+    <t>2425 Porter St  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>Newark Group, Inc.</t>
+  </si>
+  <si>
+    <t>235 San Pedro Avenue  Morgan Hill CA 95037</t>
   </si>
   <si>
     <r>
@@ -1429,7 +1492,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/23/24</t>
+      <t>07/01/24 to 09/25/24</t>
     </r>
     <r>
       <rPr>
@@ -1449,7 +1512,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I232.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I252.</t>
     </r>
   </si>
 </sst>
@@ -2676,8 +2739,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I232" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I232" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I252" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I252" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3034,37 +3097,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -3086,18 +3149,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -3105,25 +3168,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>16274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3132,7 +3195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3140,16 +3203,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3178,30 +3241,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="114.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3259,7 +3322,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3288,7 +3351,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3317,7 +3380,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3409,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3375,7 +3438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3404,7 +3467,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3433,7 +3496,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3462,7 +3525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3491,7 +3554,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3520,7 +3583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3549,7 +3612,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3578,7 +3641,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3636,7 +3699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3665,7 +3728,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3694,7 +3757,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3723,7 +3786,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3752,7 +3815,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3781,7 +3844,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +3873,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +3902,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3868,7 +3931,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3897,7 +3960,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -3926,7 +3989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -3955,7 +4018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -3984,7 +4047,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -4013,7 +4076,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -4042,7 +4105,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4134,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -4100,7 +4163,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -4129,7 +4192,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4158,7 +4221,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4187,7 +4250,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4216,7 +4279,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4245,7 +4308,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +4337,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4303,7 +4366,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4332,7 +4395,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +4424,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4390,7 +4453,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4419,7 +4482,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4448,7 +4511,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4477,7 +4540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4506,7 +4569,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4535,7 +4598,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4564,7 +4627,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4593,7 +4656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4622,7 +4685,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4651,7 +4714,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4680,7 +4743,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4709,7 +4772,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4738,7 +4801,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4767,7 +4830,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4796,7 +4859,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +4888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +4917,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4883,7 +4946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -4912,7 +4975,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -4941,7 +5004,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -4970,7 +5033,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -4999,7 +5062,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -5028,7 +5091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -5057,7 +5120,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -5086,7 +5149,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -5115,7 +5178,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -5144,7 +5207,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5173,7 +5236,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5202,7 +5265,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5231,7 +5294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5260,7 +5323,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5289,7 +5352,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5318,7 +5381,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5347,7 +5410,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5376,7 +5439,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5405,7 +5468,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5434,7 +5497,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5463,7 +5526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5492,7 +5555,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5521,7 +5584,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5550,7 +5613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5579,7 +5642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5608,7 +5671,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5637,7 +5700,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5666,7 +5729,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5695,7 +5758,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5724,7 +5787,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5753,7 +5816,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5782,7 +5845,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5811,7 +5874,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5840,7 +5903,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5869,7 +5932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5898,7 +5961,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -5927,7 +5990,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -5956,7 +6019,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -5985,7 +6048,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -6014,7 +6077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -6043,7 +6106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -6072,7 +6135,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6101,7 +6164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -6130,7 +6193,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6159,7 +6222,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6188,7 +6251,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6217,7 +6280,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6246,7 +6309,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6275,7 +6338,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6304,7 +6367,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6333,7 +6396,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6362,7 +6425,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6391,7 +6454,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6420,7 +6483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6449,7 +6512,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6478,7 +6541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6507,7 +6570,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6536,7 +6599,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6565,7 +6628,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6594,7 +6657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6623,7 +6686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6652,7 +6715,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6681,7 +6744,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6710,7 +6773,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6739,7 +6802,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6768,7 +6831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6797,7 +6860,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6826,7 +6889,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6855,7 +6918,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6884,7 +6947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -6913,7 +6976,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -6942,7 +7005,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -6971,7 +7034,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -7000,7 +7063,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -7029,7 +7092,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -7058,7 +7121,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -7087,7 +7150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -7116,7 +7179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -7145,7 +7208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7174,7 +7237,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7203,7 +7266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7232,7 +7295,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7261,7 +7324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7290,7 +7353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7319,7 +7382,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7348,7 +7411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7377,7 +7440,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7406,7 +7469,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7435,7 +7498,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7464,7 +7527,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7493,7 +7556,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7522,7 +7585,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7551,7 +7614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7580,7 +7643,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7609,7 +7672,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7638,7 +7701,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7667,7 +7730,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7696,7 +7759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7725,7 +7788,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7754,7 +7817,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -7783,7 +7846,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -7812,7 +7875,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -7841,7 +7904,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -7870,7 +7933,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -7899,7 +7962,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -7928,7 +7991,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -7957,7 +8020,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -7986,7 +8049,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -8015,7 +8078,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -8044,7 +8107,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -8073,7 +8136,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -8102,7 +8165,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -8131,7 +8194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8160,7 +8223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8189,7 +8252,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8218,7 +8281,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8247,7 +8310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8276,7 +8339,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8305,7 +8368,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8334,7 +8397,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8363,7 +8426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8392,7 +8455,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8421,7 +8484,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8450,7 +8513,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8479,7 +8542,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8508,7 +8571,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8537,7 +8600,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8566,7 +8629,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8595,7 +8658,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8624,7 +8687,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8653,7 +8716,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8682,7 +8745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8711,7 +8774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8740,7 +8803,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -8769,7 +8832,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -8798,7 +8861,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -8827,7 +8890,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -8856,7 +8919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -8885,7 +8948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -8914,7 +8977,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -8943,7 +9006,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -8972,7 +9035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -9001,7 +9064,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -9030,7 +9093,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -9059,7 +9122,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -9088,7 +9151,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -9117,7 +9180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -9146,7 +9209,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -9175,7 +9238,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -9204,7 +9267,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -9233,7 +9296,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -9262,7 +9325,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -9291,7 +9354,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -9320,7 +9383,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -9349,7 +9412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -9378,7 +9441,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -9407,7 +9470,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -9436,7 +9499,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -9465,7 +9528,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -9494,7 +9557,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -9523,7 +9586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -9552,7 +9615,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -9581,7 +9644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -9610,7 +9673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -9639,7 +9702,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -9668,7 +9731,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -9697,7 +9760,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -9726,7 +9789,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>415</v>
       </c>
@@ -9755,7 +9818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -9784,7 +9847,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="49" t="s">
         <v>21</v>
       </c>
@@ -9807,13 +9870,13 @@
         <v>59</v>
       </c>
       <c r="H229" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I229" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="49" t="s">
         <v>5</v>
       </c>
@@ -9827,7 +9890,7 @@
         <v>45616</v>
       </c>
       <c r="E230" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F230" s="49" t="s">
         <v>8</v>
@@ -9836,13 +9899,13 @@
         <v>65</v>
       </c>
       <c r="H230" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I230" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="49" t="s">
         <v>23</v>
       </c>
@@ -9865,39 +9928,619 @@
         <v>156</v>
       </c>
       <c r="H231" s="51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I231" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="49" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B232" s="50">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="C232" s="50">
         <v>45558</v>
       </c>
       <c r="D232" s="50">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="E232" s="49" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="F232" s="49" t="s">
         <v>9</v>
       </c>
       <c r="G232" s="51">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H232" s="51" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I232" s="26" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C233" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D233" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E233" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F233" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="51">
+        <v>1</v>
+      </c>
+      <c r="H233" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="I233" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C234" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D234" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E234" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F234" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="51">
+        <v>1</v>
+      </c>
+      <c r="H234" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="I234" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C235" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D235" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E235" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F235" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="51">
+        <v>1</v>
+      </c>
+      <c r="H235" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="I235" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B236" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C236" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D236" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E236" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F236" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="51">
+        <v>1</v>
+      </c>
+      <c r="H236" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="I236" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C237" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D237" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E237" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F237" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="51">
+        <v>2</v>
+      </c>
+      <c r="H237" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="I237" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C238" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D238" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E238" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F238" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="51">
+        <v>1</v>
+      </c>
+      <c r="H238" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="I238" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C239" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D239" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E239" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F239" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="51">
+        <v>2</v>
+      </c>
+      <c r="H239" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="I239" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C240" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D240" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E240" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F240" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="51">
+        <v>5</v>
+      </c>
+      <c r="H240" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="I240" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C241" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D241" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E241" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F241" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="51">
+        <v>1</v>
+      </c>
+      <c r="H241" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="I241" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C242" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D242" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E242" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F242" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" s="51">
+        <v>2</v>
+      </c>
+      <c r="H242" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="I242" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B243" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C243" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D243" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E243" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F243" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" s="51">
+        <v>7</v>
+      </c>
+      <c r="H243" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="I243" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B244" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C244" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D244" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E244" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F244" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="51">
+        <v>1</v>
+      </c>
+      <c r="H244" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="I244" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B245" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C245" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D245" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E245" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F245" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="51">
+        <v>1</v>
+      </c>
+      <c r="H245" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="I245" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B246" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C246" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D246" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E246" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F246" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="51">
+        <v>1</v>
+      </c>
+      <c r="H246" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="I246" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B247" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C247" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D247" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E247" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F247" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="51">
+        <v>1</v>
+      </c>
+      <c r="H247" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="I247" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B248" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C248" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D248" s="50">
+        <v>45618</v>
+      </c>
+      <c r="E248" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F248" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="51">
+        <v>2</v>
+      </c>
+      <c r="H248" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="I248" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="50">
+        <v>45555</v>
+      </c>
+      <c r="C249" s="50">
+        <v>45558</v>
+      </c>
+      <c r="D249" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E249" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="F249" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="51">
+        <v>20</v>
+      </c>
+      <c r="H249" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="I249" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="50">
+        <v>45558</v>
+      </c>
+      <c r="C250" s="50">
+        <v>45559</v>
+      </c>
+      <c r="D250" s="50">
+        <v>45614</v>
+      </c>
+      <c r="E250" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F250" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G250" s="51">
+        <v>14</v>
+      </c>
+      <c r="H250" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="I250" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="50">
+        <v>45559</v>
+      </c>
+      <c r="C251" s="50">
+        <v>45559</v>
+      </c>
+      <c r="D251" s="50">
+        <v>45653</v>
+      </c>
+      <c r="E251" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="F251" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" s="51">
+        <v>50</v>
+      </c>
+      <c r="H251" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="I251" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B252" s="50">
+        <v>45559</v>
+      </c>
+      <c r="C252" s="50">
+        <v>45559</v>
+      </c>
+      <c r="D252" s="50">
+        <v>45619</v>
+      </c>
+      <c r="E252" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F252" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" s="51">
+        <v>32</v>
+      </c>
+      <c r="H252" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="I252" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -9914,7 +10557,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I232</xm:sqref>
+          <xm:sqref>I3:I252</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9928,18 +10571,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -9947,7 +10590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -9956,7 +10599,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -9965,7 +10608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -9974,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -9983,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -9992,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -10001,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -10027,25 +10670,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -10071,7 +10714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -10113,117 +10756,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29EB6BA-F385-4BFF-8FFE-7E3E6FFF265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44BFED-560F-4DCF-936B-3BDB85F0435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="459">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1403,8 +1403,71 @@
     <t>2820 Sycamore Avenue  Glendale CA 91214</t>
   </si>
   <si>
+    <t>5810 Owens Drive  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>One Kaiser Plaza  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>1950 Franklin Street  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>2401 Merced Street  San Leandro CA 94577</t>
+  </si>
+  <si>
+    <t>501 Lennon Lane  Walnut Creek CA 94598</t>
+  </si>
+  <si>
+    <t>12200 Bellflower Blvd  Downey CA 90242</t>
+  </si>
+  <si>
+    <t>9333 Imperial Hwy  Downey CA 90242</t>
+  </si>
+  <si>
+    <t>75 N. Fair Oaks Avenue  Pasadena CA 91103</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Avenue  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>393 E. Walnut Street  Pasadena CA 91188</t>
+  </si>
+  <si>
+    <t>1707 Barcelona Circle  Placentia CA 92870</t>
+  </si>
+  <si>
+    <t>1830 California Avenue  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>182 Granite Street  Corona CA 92879</t>
+  </si>
+  <si>
+    <t>6600 Bruceville Roaad  Sacramento CA 95823</t>
+  </si>
+  <si>
+    <t>7880 Alta Valley Drive  Sacramento CA 95823</t>
+  </si>
+  <si>
+    <t>801 Traeger Avenue  San Bruno CA 94066</t>
+  </si>
+  <si>
+    <t>401 Bicentennial Way  Santa Rosa CA 95403</t>
+  </si>
+  <si>
+    <t>Mini Pharmacy Enterprises, Inc.</t>
+  </si>
+  <si>
+    <t>2425 Porter St  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>Newark Group, Inc.</t>
+  </si>
+  <si>
+    <t>235 San Pedro Avenue  Morgan Hill CA 95037</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/25/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/30/2024
 </t>
     </r>
     <r>
@@ -1418,67 +1481,37 @@
     </r>
   </si>
   <si>
-    <t>5810 Owens Drive  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>One Kaiser Plaza  Oakland CA 94612</t>
-  </si>
-  <si>
-    <t>1950 Franklin Street  Oakland CA 94612</t>
-  </si>
-  <si>
-    <t>2401 Merced Street  San Leandro CA 94577</t>
-  </si>
-  <si>
-    <t>501 Lennon Lane  Walnut Creek CA 94598</t>
-  </si>
-  <si>
-    <t>12200 Bellflower Blvd  Downey CA 90242</t>
-  </si>
-  <si>
-    <t>9333 Imperial Hwy  Downey CA 90242</t>
-  </si>
-  <si>
-    <t>75 N. Fair Oaks Avenue  Pasadena CA 91103</t>
-  </si>
-  <si>
-    <t>99 S. Oakland Avenue  Pasadena CA 91101</t>
-  </si>
-  <si>
-    <t>393 E. Walnut Street  Pasadena CA 91188</t>
-  </si>
-  <si>
-    <t>1707 Barcelona Circle  Placentia CA 92870</t>
-  </si>
-  <si>
-    <t>1830 California Avenue  Corona CA 92881</t>
-  </si>
-  <si>
-    <t>182 Granite Street  Corona CA 92879</t>
-  </si>
-  <si>
-    <t>6600 Bruceville Roaad  Sacramento CA 95823</t>
-  </si>
-  <si>
-    <t>7880 Alta Valley Drive  Sacramento CA 95823</t>
-  </si>
-  <si>
-    <t>801 Traeger Avenue  San Bruno CA 94066</t>
-  </si>
-  <si>
-    <t>401 Bicentennial Way  Santa Rosa CA 95403</t>
-  </si>
-  <si>
-    <t>Mini Pharmacy Enterprises, Inc.</t>
-  </si>
-  <si>
-    <t>2425 Porter St  Los Angeles CA 90021</t>
-  </si>
-  <si>
-    <t>Newark Group, Inc.</t>
-  </si>
-  <si>
-    <t>235 San Pedro Avenue  Morgan Hill CA 95037</t>
+    <t>Corteva Agriscience LLC</t>
+  </si>
+  <si>
+    <t>901 Loveridge Road  Pittsburg CA 94565</t>
+  </si>
+  <si>
+    <t>Randstad Inhouse Services, LLC</t>
+  </si>
+  <si>
+    <t>7301 District Boulevard  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>605 S. Douglas Street  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>2024 E. Mariposa Avenue  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>3530 John Hopkins Court  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>Tulare County</t>
+  </si>
+  <si>
+    <t>970 E. Continental Avenue  Tulare CA 93274</t>
+  </si>
+  <si>
+    <t>Dreyer&amp;rsquo;s Grand Ice Cream, Inc.</t>
+  </si>
+  <si>
+    <t>7301 District Blvd  Bakersfield CA 93313</t>
   </si>
   <si>
     <r>
@@ -1492,7 +1525,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/25/24</t>
+      <t>07/01/24 to 09/30/24</t>
     </r>
     <r>
       <rPr>
@@ -1512,7 +1545,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I252.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I262.</t>
     </r>
   </si>
 </sst>
@@ -2739,8 +2772,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I252" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I252" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I262" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I262" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3174,7 +3207,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>16413</v>
+        <v>17649</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3216,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3225,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +3274,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3260,7 +3293,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -9957,7 +9990,7 @@
         <v>13</v>
       </c>
       <c r="H232" s="51" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I232" s="26" t="s">
         <v>188</v>
@@ -9986,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="H233" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I233" s="26" t="s">
         <v>188</v>
@@ -10015,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="H234" s="51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I234" s="26" t="s">
         <v>188</v>
@@ -10044,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="H235" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I235" s="26" t="s">
         <v>188</v>
@@ -10073,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="H236" s="51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I236" s="26" t="s">
         <v>188</v>
@@ -10102,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="H237" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I237" s="26" t="s">
         <v>188</v>
@@ -10131,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="H238" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I238" s="26" t="s">
         <v>188</v>
@@ -10160,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="H239" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I239" s="26" t="s">
         <v>188</v>
@@ -10189,7 +10222,7 @@
         <v>5</v>
       </c>
       <c r="H240" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I240" s="26" t="s">
         <v>188</v>
@@ -10218,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="H241" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I241" s="26" t="s">
         <v>188</v>
@@ -10247,7 +10280,7 @@
         <v>2</v>
       </c>
       <c r="H242" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I242" s="26" t="s">
         <v>188</v>
@@ -10276,7 +10309,7 @@
         <v>7</v>
       </c>
       <c r="H243" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I243" s="26" t="s">
         <v>188</v>
@@ -10305,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="H244" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I244" s="26" t="s">
         <v>188</v>
@@ -10334,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="H245" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I245" s="26" t="s">
         <v>188</v>
@@ -10363,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="H246" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I246" s="26" t="s">
         <v>188</v>
@@ -10392,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="H247" s="51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I247" s="26" t="s">
         <v>188</v>
@@ -10421,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="H248" s="51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I248" s="26" t="s">
         <v>188</v>
@@ -10499,7 +10532,7 @@
         <v>45653</v>
       </c>
       <c r="E251" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F251" s="49" t="s">
         <v>8</v>
@@ -10508,7 +10541,7 @@
         <v>50</v>
       </c>
       <c r="H251" s="51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I251" s="26" t="s">
         <v>179</v>
@@ -10528,7 +10561,7 @@
         <v>45619</v>
       </c>
       <c r="E252" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F252" s="49" t="s">
         <v>8</v>
@@ -10537,10 +10570,300 @@
         <v>32</v>
       </c>
       <c r="H252" s="51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I252" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B253" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C253" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D253" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E253" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="F253" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="51">
+        <v>18</v>
+      </c>
+      <c r="H253" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="I253" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B254" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C254" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D254" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E254" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F254" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="51">
+        <v>180</v>
+      </c>
+      <c r="H254" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="I254" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C255" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D255" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E255" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F255" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" s="51">
+        <v>3</v>
+      </c>
+      <c r="H255" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="I255" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C256" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D256" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E256" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F256" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" s="51">
+        <v>2</v>
+      </c>
+      <c r="H256" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="I256" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C257" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D257" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E257" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F257" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="51">
+        <v>3</v>
+      </c>
+      <c r="H257" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="I257" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C258" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D258" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E258" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F258" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="51">
+        <v>4</v>
+      </c>
+      <c r="H258" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="I258" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C259" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D259" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E259" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F259" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="51">
+        <v>3</v>
+      </c>
+      <c r="H259" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="I259" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="B260" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C260" s="50">
+        <v>45561</v>
+      </c>
+      <c r="D260" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E260" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F260" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="51">
+        <v>102</v>
+      </c>
+      <c r="H260" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="I260" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B261" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C261" s="50">
+        <v>45562</v>
+      </c>
+      <c r="D261" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E261" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="F261" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="51">
+        <v>733</v>
+      </c>
+      <c r="H261" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="I261" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="B262" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C262" s="50">
+        <v>45562</v>
+      </c>
+      <c r="D262" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E262" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="F262" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="51">
+        <v>188</v>
+      </c>
+      <c r="H262" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="I262" s="26" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -10557,7 +10880,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I252</xm:sqref>
+          <xm:sqref>I3:I262</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10675,7 +10998,7 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
@@ -10684,7 +11007,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44BFED-560F-4DCF-936B-3BDB85F0435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDAB968-7BC7-48D6-9A60-36821A18D6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="504">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1466,8 +1466,125 @@
     <t>235 San Pedro Avenue  Morgan Hill CA 95037</t>
   </si>
   <si>
+    <t>Corteva Agriscience LLC</t>
+  </si>
+  <si>
+    <t>901 Loveridge Road  Pittsburg CA 94565</t>
+  </si>
+  <si>
+    <t>Randstad Inhouse Services, LLC</t>
+  </si>
+  <si>
+    <t>7301 District Boulevard  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>605 S. Douglas Street  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>2024 E. Mariposa Avenue  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>3530 John Hopkins Court  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>Tulare County</t>
+  </si>
+  <si>
+    <t>970 E. Continental Avenue  Tulare CA 93274</t>
+  </si>
+  <si>
+    <t>Dreyer&amp;rsquo;s Grand Ice Cream, Inc.</t>
+  </si>
+  <si>
+    <t>7301 District Blvd  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>Amyris, Inc.</t>
+  </si>
+  <si>
+    <t>5885 Hollis St, Suite 100  Emeryville CA 94608</t>
+  </si>
+  <si>
+    <t>2900 W Alameda Ave  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Hanwha Vision America, Inc.</t>
+  </si>
+  <si>
+    <t>1515 Wyatt Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Green Thumb Produce, Inc.</t>
+  </si>
+  <si>
+    <t>2648 Ramsey Street  Banning CA 92220</t>
+  </si>
+  <si>
+    <t>Communications Test Design, Inc.</t>
+  </si>
+  <si>
+    <t>1543 N. Adler Avenue  Rialto CA 92376</t>
+  </si>
+  <si>
+    <t>Wildbrine, LLC</t>
+  </si>
+  <si>
+    <t>322 Bellevue Avenue  Santa Rosa CA 95407</t>
+  </si>
+  <si>
+    <t>Infineon Technologies Americas Corp</t>
+  </si>
+  <si>
+    <t>101 N Pacific Coast Highway  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>Beachbody, LLC</t>
+  </si>
+  <si>
+    <t>400 North Continental Blvd.  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>Infineon Technologies Americas Corp.</t>
+  </si>
+  <si>
+    <t>7565 Irvine Center Drive, Suite 150  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>23240 Hancock Avenue, Suite 300  Murrieta CA 92562</t>
+  </si>
+  <si>
+    <t>1212 Scripps Summit Drive, Suite 300  San Diego CA 92131</t>
+  </si>
+  <si>
+    <t>195 Champion Court  San Jose CA 95134</t>
+  </si>
+  <si>
+    <t>640 N McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>FlexCare Medical Staffing, LLC</t>
+  </si>
+  <si>
+    <t>532 Gibson Drive, Suite 100  Roseville CA 95678</t>
+  </si>
+  <si>
+    <t>Key Energy Services, LLC</t>
+  </si>
+  <si>
+    <t>20190 Contractors Rd.  McKittrick CA 93251</t>
+  </si>
+  <si>
+    <t>Monterey County</t>
+  </si>
+  <si>
+    <t>62391 Sargents Canyon Rd.  San Ardo CA 93450</t>
+  </si>
+  <si>
+    <t>1593 Palma Dr.  Ventura CA 93003</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/30/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/07/2024
 </t>
     </r>
     <r>
@@ -1481,37 +1598,55 @@
     </r>
   </si>
   <si>
-    <t>Corteva Agriscience LLC</t>
-  </si>
-  <si>
-    <t>901 Loveridge Road  Pittsburg CA 94565</t>
-  </si>
-  <si>
-    <t>Randstad Inhouse Services, LLC</t>
-  </si>
-  <si>
-    <t>7301 District Boulevard  Bakersfield CA 93313</t>
-  </si>
-  <si>
-    <t>605 S. Douglas Street  El Segundo CA 90245</t>
-  </si>
-  <si>
-    <t>2024 E. Mariposa Avenue  El Segundo CA 90245</t>
-  </si>
-  <si>
-    <t>3530 John Hopkins Court  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>Tulare County</t>
-  </si>
-  <si>
-    <t>970 E. Continental Avenue  Tulare CA 93274</t>
-  </si>
-  <si>
-    <t>Dreyer&amp;rsquo;s Grand Ice Cream, Inc.</t>
-  </si>
-  <si>
-    <t>7301 District Blvd  Bakersfield CA 93313</t>
+    <t>Blue Shield of California</t>
+  </si>
+  <si>
+    <t>601 12th Street  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>El Dorado County</t>
+  </si>
+  <si>
+    <t>4205 Town Center Blvd., Building B  El Dorado Hills CA 95762</t>
+  </si>
+  <si>
+    <t>4203 Town Center Blvd., Building C  El Dorado Hills CA 94762</t>
+  </si>
+  <si>
+    <t>38440 5th St W  Palmdale CA 93551</t>
+  </si>
+  <si>
+    <t>6300 Canoga Avenue  Los Angeles CA 91367</t>
+  </si>
+  <si>
+    <t>3840 Kilroy Airport Way  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>3300 Zinfandel Drive, Building A  Rancho Cordova CA 95670</t>
+  </si>
+  <si>
+    <t>3201 Reynolds Ranch Parkway  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>1100 Page Mill Rd  Palo Alto CA 94304</t>
+  </si>
+  <si>
+    <t>Avon Protection Systems, Inc.</t>
+  </si>
+  <si>
+    <t>1922 Barranca Parkway  Irvine CA 92606</t>
+  </si>
+  <si>
+    <t>Texas de Brazil Corporation</t>
+  </si>
+  <si>
+    <t>2770 Seaglass Way  Oxnard CA 93036</t>
+  </si>
+  <si>
+    <t>L3Harris Technologies, Sonoma EO</t>
+  </si>
+  <si>
+    <t>428 Aviation Blvd  Santa Rosa CA 95403</t>
   </si>
   <si>
     <r>
@@ -1525,7 +1660,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 09/30/24</t>
+      <t>07/01/24 to 10/07/24</t>
     </r>
     <r>
       <rPr>
@@ -1545,7 +1680,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I262.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I293.</t>
     </r>
   </si>
 </sst>
@@ -2772,8 +2907,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I262" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I262" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I293" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I293" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3130,37 +3265,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -3182,18 +3317,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -3201,25 +3336,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>17649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3228,7 +3363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3236,16 +3371,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3254,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3274,30 +3409,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3461,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3384,7 +3519,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3548,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3577,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3471,7 +3606,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3635,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3529,7 +3664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3558,7 +3693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3587,7 +3722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3616,7 +3751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3645,7 +3780,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3838,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3732,7 +3867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3761,7 +3896,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3790,7 +3925,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3801,7 +3936,7 @@
         <v>45484</v>
       </c>
       <c r="D19" s="31">
-        <v>45544</v>
+        <v>45630</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>68</v>
@@ -3819,7 +3954,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3848,7 +3983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -3877,7 +4012,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -3906,7 +4041,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +4070,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -3964,7 +4099,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -3993,7 +4128,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -4022,7 +4157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -4051,7 +4186,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -4080,7 +4215,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -4109,7 +4244,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -4138,7 +4273,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -4167,7 +4302,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -4196,7 +4331,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -4225,7 +4360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +4389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4283,7 +4418,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4312,7 +4447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +4476,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4399,7 +4534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4428,7 +4563,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4486,7 +4621,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4515,7 +4650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4544,7 +4679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4573,7 +4708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4602,7 +4737,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4631,7 +4766,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4660,7 +4795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4689,7 +4824,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4718,7 +4853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4776,7 +4911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4805,7 +4940,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4834,7 +4969,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4863,7 +4998,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -4892,7 +5027,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -4921,7 +5056,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +5085,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -4979,7 +5114,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -5008,7 +5143,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -5037,7 +5172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -5066,7 +5201,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -5095,7 +5230,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -5124,7 +5259,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -5153,7 +5288,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -5182,7 +5317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -5211,7 +5346,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -5240,7 +5375,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5269,7 +5404,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5298,7 +5433,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5327,7 +5462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5356,7 +5491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5385,7 +5520,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5414,7 +5549,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5443,7 +5578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5472,7 +5607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5501,7 +5636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5530,7 +5665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5559,7 +5694,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5588,7 +5723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5617,7 +5752,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5646,7 +5781,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5675,7 +5810,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5704,7 +5839,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5733,7 +5868,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5762,7 +5897,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5791,7 +5926,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5820,7 +5955,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5849,7 +5984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -5878,7 +6013,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -5907,7 +6042,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -5936,7 +6071,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -5965,7 +6100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -5994,7 +6129,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -6023,7 +6158,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -6052,7 +6187,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -6081,7 +6216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -6110,7 +6245,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -6139,7 +6274,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -6168,7 +6303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6197,7 +6332,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -6226,7 +6361,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6255,7 +6390,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6284,7 +6419,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6313,7 +6448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6342,7 +6477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6371,7 +6506,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6400,7 +6535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6429,7 +6564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6458,7 +6593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6487,7 +6622,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6516,7 +6651,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6545,7 +6680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6574,7 +6709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6603,7 +6738,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6632,7 +6767,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6661,7 +6796,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6690,7 +6825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6719,7 +6854,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6748,7 +6883,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6777,7 +6912,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6806,7 +6941,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6835,7 +6970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6864,7 +6999,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -6893,7 +7028,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -6922,7 +7057,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -6951,7 +7086,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -6980,7 +7115,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -7009,7 +7144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -7038,7 +7173,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +7202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -7096,7 +7231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -7125,7 +7260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -7154,7 +7289,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7318,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -7212,7 +7347,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -7241,7 +7376,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7270,7 +7405,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7299,7 +7434,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7328,7 +7463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7357,7 +7492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7386,7 +7521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7415,7 +7550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7444,7 +7579,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7473,7 +7608,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7502,7 +7637,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7531,7 +7666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7560,7 +7695,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7589,7 +7724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7618,7 +7753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7647,7 +7782,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7676,7 +7811,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7705,7 +7840,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7734,7 +7869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7763,7 +7898,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7792,7 +7927,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7821,7 +7956,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7850,7 +7985,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -7879,7 +8014,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -7908,7 +8043,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -7937,7 +8072,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -7966,7 +8101,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -7995,7 +8130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -8024,7 +8159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -8053,7 +8188,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -8082,7 +8217,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -8111,7 +8246,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -8140,7 +8275,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -8169,7 +8304,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -8198,7 +8333,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -8227,7 +8362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8256,7 +8391,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8285,7 +8420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8314,7 +8449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8343,7 +8478,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8372,7 +8507,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8401,7 +8536,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8430,7 +8565,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8459,7 +8594,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8488,7 +8623,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8517,7 +8652,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8546,7 +8681,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8575,7 +8710,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8604,7 +8739,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8633,7 +8768,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8662,7 +8797,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8691,7 +8826,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +8855,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8749,7 +8884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8778,7 +8913,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8807,7 +8942,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8836,7 +8971,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -8865,7 +9000,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -8894,7 +9029,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -8923,7 +9058,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -8952,7 +9087,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -8981,7 +9116,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -9010,7 +9145,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -9039,7 +9174,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -9068,7 +9203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -9097,7 +9232,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -9126,7 +9261,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -9155,7 +9290,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -9184,7 +9319,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -9213,7 +9348,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -9242,7 +9377,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9406,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -9300,7 +9435,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -9329,7 +9464,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -9358,7 +9493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -9387,7 +9522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -9416,7 +9551,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -9445,7 +9580,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -9474,7 +9609,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -9503,7 +9638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -9532,7 +9667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -9561,7 +9696,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -9590,7 +9725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -9619,7 +9754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -9648,7 +9783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -9677,7 +9812,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -9706,7 +9841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -9735,7 +9870,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -9764,7 +9899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -9793,7 +9928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -9822,7 +9957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="49" t="s">
         <v>415</v>
       </c>
@@ -9851,7 +9986,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -9880,7 +10015,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="49" t="s">
         <v>21</v>
       </c>
@@ -9909,7 +10044,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="49" t="s">
         <v>5</v>
       </c>
@@ -9938,7 +10073,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="49" t="s">
         <v>23</v>
       </c>
@@ -9967,7 +10102,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="49" t="s">
         <v>23</v>
       </c>
@@ -9996,7 +10131,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="49" t="s">
         <v>23</v>
       </c>
@@ -10025,7 +10160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="49" t="s">
         <v>23</v>
       </c>
@@ -10054,7 +10189,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="49" t="s">
         <v>23</v>
       </c>
@@ -10083,7 +10218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="49" t="s">
         <v>79</v>
       </c>
@@ -10112,7 +10247,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="49" t="s">
         <v>5</v>
       </c>
@@ -10141,7 +10276,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="49" t="s">
         <v>5</v>
       </c>
@@ -10170,7 +10305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="49" t="s">
         <v>5</v>
       </c>
@@ -10199,7 +10334,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="49" t="s">
         <v>5</v>
       </c>
@@ -10228,7 +10363,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="49" t="s">
         <v>5</v>
       </c>
@@ -10257,7 +10392,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="49" t="s">
         <v>21</v>
       </c>
@@ -10286,7 +10421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="49" t="s">
         <v>106</v>
       </c>
@@ -10315,7 +10450,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="49" t="s">
         <v>106</v>
       </c>
@@ -10344,7 +10479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="49" t="s">
         <v>165</v>
       </c>
@@ -10373,7 +10508,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="49" t="s">
         <v>165</v>
       </c>
@@ -10402,7 +10537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="49" t="s">
         <v>86</v>
       </c>
@@ -10431,7 +10566,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
         <v>144</v>
       </c>
@@ -10460,7 +10595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
         <v>5</v>
       </c>
@@ -10489,7 +10624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="49" t="s">
         <v>5</v>
       </c>
@@ -10518,7 +10653,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="49" t="s">
         <v>5</v>
       </c>
@@ -10547,7 +10682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="49" t="s">
         <v>62</v>
       </c>
@@ -10576,7 +10711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="49" t="s">
         <v>79</v>
       </c>
@@ -10590,7 +10725,7 @@
         <v>45660</v>
       </c>
       <c r="E253" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F253" s="49" t="s">
         <v>9</v>
@@ -10599,13 +10734,13 @@
         <v>18</v>
       </c>
       <c r="H253" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I253" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
         <v>292</v>
       </c>
@@ -10619,7 +10754,7 @@
         <v>45621</v>
       </c>
       <c r="E254" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F254" s="49" t="s">
         <v>10</v>
@@ -10628,13 +10763,13 @@
         <v>180</v>
       </c>
       <c r="H254" s="51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I254" s="26" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
         <v>5</v>
       </c>
@@ -10657,13 +10792,13 @@
         <v>3</v>
       </c>
       <c r="H255" s="51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I255" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
         <v>5</v>
       </c>
@@ -10692,7 +10827,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
         <v>5</v>
       </c>
@@ -10721,7 +10856,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="49" t="s">
         <v>5</v>
       </c>
@@ -10744,13 +10879,13 @@
         <v>4</v>
       </c>
       <c r="H258" s="51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I258" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="49" t="s">
         <v>6</v>
       </c>
@@ -10773,15 +10908,15 @@
         <v>3</v>
       </c>
       <c r="H259" s="51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I259" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B260" s="50">
         <v>45561</v>
@@ -10793,7 +10928,7 @@
         <v>45621</v>
       </c>
       <c r="E260" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F260" s="49" t="s">
         <v>10</v>
@@ -10802,13 +10937,13 @@
         <v>102</v>
       </c>
       <c r="H260" s="51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I260" s="26" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="49" t="s">
         <v>292</v>
       </c>
@@ -10822,7 +10957,7 @@
         <v>45621</v>
       </c>
       <c r="E261" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F261" s="49" t="s">
         <v>10</v>
@@ -10831,15 +10966,15 @@
         <v>733</v>
       </c>
       <c r="H261" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I261" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B262" s="50">
         <v>45561</v>
@@ -10851,7 +10986,7 @@
         <v>45621</v>
       </c>
       <c r="E262" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F262" s="49" t="s">
         <v>10</v>
@@ -10860,10 +10995,909 @@
         <v>188</v>
       </c>
       <c r="H262" s="51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I262" s="26" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A263" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="50">
+        <v>45566</v>
+      </c>
+      <c r="C263" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D263" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E263" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="F263" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" s="51">
+        <v>50</v>
+      </c>
+      <c r="H263" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="I263" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A264" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="50">
+        <v>45565</v>
+      </c>
+      <c r="C264" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D264" s="50">
+        <v>45619</v>
+      </c>
+      <c r="E264" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F264" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264" s="51">
+        <v>140</v>
+      </c>
+      <c r="H264" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="I264" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A265" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="50">
+        <v>45565</v>
+      </c>
+      <c r="C265" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D265" s="50">
+        <v>45619</v>
+      </c>
+      <c r="E265" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F265" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="51">
+        <v>77</v>
+      </c>
+      <c r="H265" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I265" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A266" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="50">
+        <v>45565</v>
+      </c>
+      <c r="C266" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D266" s="50">
+        <v>45619</v>
+      </c>
+      <c r="E266" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F266" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G266" s="51">
+        <v>23</v>
+      </c>
+      <c r="H266" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="I266" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A267" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B267" s="50">
+        <v>45566</v>
+      </c>
+      <c r="C267" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D267" s="50">
+        <v>45630</v>
+      </c>
+      <c r="E267" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="F267" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" s="51">
+        <v>23</v>
+      </c>
+      <c r="H267" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="I267" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A268" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B268" s="50">
+        <v>45565</v>
+      </c>
+      <c r="C268" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D268" s="50">
+        <v>45627</v>
+      </c>
+      <c r="E268" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="F268" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="51">
+        <v>112</v>
+      </c>
+      <c r="H268" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="I268" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A269" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="50">
+        <v>45566</v>
+      </c>
+      <c r="C269" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D269" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E269" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="F269" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G269" s="51">
+        <v>83</v>
+      </c>
+      <c r="H269" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="I269" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A270" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B270" s="50">
+        <v>45566</v>
+      </c>
+      <c r="C270" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D270" s="50">
+        <v>45627</v>
+      </c>
+      <c r="E270" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="F270" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G270" s="51">
+        <v>37</v>
+      </c>
+      <c r="H270" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="I270" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A271" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C271" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D271" s="50">
+        <v>45576</v>
+      </c>
+      <c r="E271" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="F271" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" s="51">
+        <v>43</v>
+      </c>
+      <c r="H271" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="I271" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A272" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="50">
+        <v>45566</v>
+      </c>
+      <c r="C272" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D272" s="50">
+        <v>45627</v>
+      </c>
+      <c r="E272" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="F272" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G272" s="51">
+        <v>160</v>
+      </c>
+      <c r="H272" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="I272" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A273" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C273" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D273" s="50">
+        <v>45576</v>
+      </c>
+      <c r="E273" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F273" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G273" s="51">
+        <v>3</v>
+      </c>
+      <c r="H273" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="I273" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A274" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B274" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C274" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D274" s="50">
+        <v>45576</v>
+      </c>
+      <c r="E274" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F274" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" s="51">
+        <v>19</v>
+      </c>
+      <c r="H274" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="I274" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A275" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C275" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D275" s="50">
+        <v>45576</v>
+      </c>
+      <c r="E275" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F275" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" s="51">
+        <v>4</v>
+      </c>
+      <c r="H275" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I275" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A276" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B276" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C276" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D276" s="50">
+        <v>45576</v>
+      </c>
+      <c r="E276" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F276" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="51">
+        <v>104</v>
+      </c>
+      <c r="H276" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="I276" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A277" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B277" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C277" s="50">
+        <v>45566</v>
+      </c>
+      <c r="D277" s="50">
+        <v>45576</v>
+      </c>
+      <c r="E277" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="F277" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="51">
+        <v>1</v>
+      </c>
+      <c r="H277" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="I277" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A278" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B278" s="50">
+        <v>45566</v>
+      </c>
+      <c r="C278" s="50">
+        <v>45567</v>
+      </c>
+      <c r="D278" s="50">
+        <v>45622</v>
+      </c>
+      <c r="E278" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="F278" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="51">
+        <v>110</v>
+      </c>
+      <c r="H278" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="I278" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A279" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B279" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C279" s="50">
+        <v>45567</v>
+      </c>
+      <c r="D279" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E279" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="F279" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G279" s="51">
+        <v>63</v>
+      </c>
+      <c r="H279" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="I279" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A280" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B280" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C280" s="50">
+        <v>45567</v>
+      </c>
+      <c r="D280" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E280" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="F280" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G280" s="51">
+        <v>9</v>
+      </c>
+      <c r="H280" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="I280" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A281" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B281" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C281" s="50">
+        <v>45567</v>
+      </c>
+      <c r="D281" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E281" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="F281" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="51">
+        <v>21</v>
+      </c>
+      <c r="H281" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="I281" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A282" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C282" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D282" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E282" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F282" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="51">
+        <v>16</v>
+      </c>
+      <c r="H282" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="I282" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A283" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="B283" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C283" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D283" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E283" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F283" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="51">
+        <v>4</v>
+      </c>
+      <c r="H283" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="I283" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A284" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="B284" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C284" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D284" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E284" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F284" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="51">
+        <v>1</v>
+      </c>
+      <c r="H284" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="I284" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A285" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C285" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D285" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E285" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F285" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" s="51">
+        <v>29</v>
+      </c>
+      <c r="H285" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="I285" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A286" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C286" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D286" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E286" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F286" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="51">
+        <v>4</v>
+      </c>
+      <c r="H286" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="I286" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A287" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C287" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D287" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E287" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F287" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="51">
+        <v>5</v>
+      </c>
+      <c r="H287" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A288" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B288" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C288" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D288" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E288" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F288" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="51">
+        <v>1</v>
+      </c>
+      <c r="H288" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="I288" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A289" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B289" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C289" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D289" s="50">
+        <v>45637</v>
+      </c>
+      <c r="E289" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F289" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="51">
+        <v>1</v>
+      </c>
+      <c r="H289" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="I289" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A290" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B290" s="50">
+        <v>45568</v>
+      </c>
+      <c r="C290" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D290" s="50">
+        <v>45568</v>
+      </c>
+      <c r="E290" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F290" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="51">
+        <v>65</v>
+      </c>
+      <c r="H290" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="I290" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A291" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="50">
+        <v>45568</v>
+      </c>
+      <c r="C291" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D291" s="50">
+        <v>45646</v>
+      </c>
+      <c r="E291" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="F291" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="51">
+        <v>128</v>
+      </c>
+      <c r="H291" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="I291" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A292" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B292" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C292" s="50">
+        <v>45568</v>
+      </c>
+      <c r="D292" s="50">
+        <v>45625</v>
+      </c>
+      <c r="E292" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="F292" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" s="51">
+        <v>35</v>
+      </c>
+      <c r="H292" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="I292" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A293" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B293" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C293" s="50">
+        <v>45572</v>
+      </c>
+      <c r="D293" s="50">
+        <v>45638</v>
+      </c>
+      <c r="E293" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="F293" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G293" s="51">
+        <v>49</v>
+      </c>
+      <c r="H293" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="I293" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -10880,7 +11914,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I262</xm:sqref>
+          <xm:sqref>I3:I293</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10894,18 +11928,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -10913,7 +11947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -10922,7 +11956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -10931,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -10940,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -10949,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -10958,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -10967,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -10993,25 +12027,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -11037,7 +12071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -11079,117 +12113,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDAB968-7BC7-48D6-9A60-36821A18D6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD395219-4C0D-4DD2-9CDD-B103EDC5C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="523">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1583,8 +1583,116 @@
     <t>1593 Palma Dr.  Ventura CA 93003</t>
   </si>
   <si>
+    <t>Blue Shield of California</t>
+  </si>
+  <si>
+    <t>601 12th Street  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>El Dorado County</t>
+  </si>
+  <si>
+    <t>4205 Town Center Blvd., Building B  El Dorado Hills CA 95762</t>
+  </si>
+  <si>
+    <t>4203 Town Center Blvd., Building C  El Dorado Hills CA 94762</t>
+  </si>
+  <si>
+    <t>38440 5th St W  Palmdale CA 93551</t>
+  </si>
+  <si>
+    <t>6300 Canoga Avenue  Los Angeles CA 91367</t>
+  </si>
+  <si>
+    <t>3840 Kilroy Airport Way  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>3300 Zinfandel Drive, Building A  Rancho Cordova CA 95670</t>
+  </si>
+  <si>
+    <t>3201 Reynolds Ranch Parkway  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>1100 Page Mill Rd  Palo Alto CA 94304</t>
+  </si>
+  <si>
+    <t>Avon Protection Systems, Inc.</t>
+  </si>
+  <si>
+    <t>1922 Barranca Parkway  Irvine CA 92606</t>
+  </si>
+  <si>
+    <t>Texas de Brazil Corporation</t>
+  </si>
+  <si>
+    <t>2770 Seaglass Way  Oxnard CA 93036</t>
+  </si>
+  <si>
+    <t>L3Harris Technologies, Sonoma EO</t>
+  </si>
+  <si>
+    <t>428 Aviation Blvd  Santa Rosa CA 95403</t>
+  </si>
+  <si>
+    <t>1420 N. McKinley Avenue  Compton CA 90220</t>
+  </si>
+  <si>
+    <t>Avante Health, Inc.</t>
+  </si>
+  <si>
+    <t>212 Avenida Fabricante  San Clemente CA 92672</t>
+  </si>
+  <si>
+    <t>Medtronic, Inc.</t>
+  </si>
+  <si>
+    <t>1851 E. Deere Ave  Santa Ana CA 92705</t>
+  </si>
+  <si>
+    <t>Amys Kitchen, Inc.</t>
+  </si>
+  <si>
+    <t>2330 Northpoint Parkway  Santa Rosa CA 95407</t>
+  </si>
+  <si>
+    <t>3000 Dutton Avenue  Santa Rosa CA 95407</t>
+  </si>
+  <si>
+    <t>25 N. Via Monte  Walnut Creek CA 94598</t>
+  </si>
+  <si>
+    <t>12254 Bellflower Blvd.  Downey CA 90242</t>
+  </si>
+  <si>
+    <t>74 N. Pasadena Avenue  Pasadena CA 91103</t>
+  </si>
+  <si>
+    <t>9961 Sierra Avenue  Fontana CA 92335</t>
+  </si>
+  <si>
+    <t>Peraton</t>
+  </si>
+  <si>
+    <t>400 Gigling Road  Seaside CA 93955</t>
+  </si>
+  <si>
+    <t>Thermal Structures, Inc.</t>
+  </si>
+  <si>
+    <t>2362 Railroad Street  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>10020 Pacific Mesa Blvd  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>Blackstone Gaming, LLC</t>
+  </si>
+  <si>
+    <t>1000 W. Redondo Beach Blvd.  Gardena CA 90247</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/07/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/09/2024
 </t>
     </r>
     <r>
@@ -1598,57 +1706,6 @@
     </r>
   </si>
   <si>
-    <t>Blue Shield of California</t>
-  </si>
-  <si>
-    <t>601 12th Street  Oakland CA 94607</t>
-  </si>
-  <si>
-    <t>El Dorado County</t>
-  </si>
-  <si>
-    <t>4205 Town Center Blvd., Building B  El Dorado Hills CA 95762</t>
-  </si>
-  <si>
-    <t>4203 Town Center Blvd., Building C  El Dorado Hills CA 94762</t>
-  </si>
-  <si>
-    <t>38440 5th St W  Palmdale CA 93551</t>
-  </si>
-  <si>
-    <t>6300 Canoga Avenue  Los Angeles CA 91367</t>
-  </si>
-  <si>
-    <t>3840 Kilroy Airport Way  Long Beach CA 90806</t>
-  </si>
-  <si>
-    <t>3300 Zinfandel Drive, Building A  Rancho Cordova CA 95670</t>
-  </si>
-  <si>
-    <t>3201 Reynolds Ranch Parkway  Lodi CA 95240</t>
-  </si>
-  <si>
-    <t>1100 Page Mill Rd  Palo Alto CA 94304</t>
-  </si>
-  <si>
-    <t>Avon Protection Systems, Inc.</t>
-  </si>
-  <si>
-    <t>1922 Barranca Parkway  Irvine CA 92606</t>
-  </si>
-  <si>
-    <t>Texas de Brazil Corporation</t>
-  </si>
-  <si>
-    <t>2770 Seaglass Way  Oxnard CA 93036</t>
-  </si>
-  <si>
-    <t>L3Harris Technologies, Sonoma EO</t>
-  </si>
-  <si>
-    <t>428 Aviation Blvd  Santa Rosa CA 95403</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -1660,7 +1717,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/07/24</t>
+      <t>07/01/24 to 10/09/24</t>
     </r>
     <r>
       <rPr>
@@ -1680,7 +1737,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I293.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I311.</t>
     </r>
   </si>
 </sst>
@@ -2907,8 +2964,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I293" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I293" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I311" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I311" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3265,37 +3322,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -3317,18 +3374,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -3336,25 +3393,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>19069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3371,25 +3428,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3409,30 +3466,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3461,7 +3518,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3547,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3519,7 +3576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3548,7 +3605,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3606,7 +3663,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3635,7 +3692,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3664,7 +3721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3693,7 +3750,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3722,7 +3779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3751,7 +3808,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3809,7 +3866,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3838,7 +3895,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3867,7 +3924,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -3896,7 +3953,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3982,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3954,7 +4011,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -3983,7 +4040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -4012,7 +4069,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +4098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4127,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -4099,7 +4156,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -4128,7 +4185,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -4157,7 +4214,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -4186,7 +4243,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -4215,7 +4272,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -4244,7 +4301,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -4273,7 +4330,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -4302,7 +4359,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -4331,7 +4388,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -4360,7 +4417,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4389,7 +4446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4475,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4447,7 +4504,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4476,7 +4533,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4505,7 +4562,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4534,7 +4591,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4563,7 +4620,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4592,7 +4649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4621,7 +4678,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4650,7 +4707,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4679,7 +4736,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4708,7 +4765,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4737,7 +4794,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4766,7 +4823,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4795,7 +4852,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4824,7 +4881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4853,7 +4910,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -4882,7 +4939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -4911,7 +4968,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4997,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -4969,7 +5026,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -4998,7 +5055,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -5027,7 +5084,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -5056,7 +5113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -5085,7 +5142,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -5114,7 +5171,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5200,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -5172,7 +5229,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -5201,7 +5258,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -5230,7 +5287,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -5259,7 +5316,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -5288,7 +5345,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -5317,7 +5374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -5346,7 +5403,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -5375,7 +5432,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5404,7 +5461,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5433,7 +5490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5462,7 +5519,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5491,7 +5548,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5520,7 +5577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5549,7 +5606,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5578,7 +5635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5607,7 +5664,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5636,7 +5693,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5665,7 +5722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5694,7 +5751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5723,7 +5780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5752,7 +5809,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5781,7 +5838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5810,7 +5867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5839,7 +5896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5868,7 +5925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -5897,7 +5954,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -5926,7 +5983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -5955,7 +6012,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -5984,7 +6041,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -6013,7 +6070,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -6042,7 +6099,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -6071,7 +6128,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -6100,7 +6157,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -6129,7 +6186,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -6158,7 +6215,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -6187,7 +6244,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -6216,7 +6273,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -6245,7 +6302,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -6274,7 +6331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -6303,7 +6360,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6332,7 +6389,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -6361,7 +6418,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6390,7 +6447,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6419,7 +6476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6448,7 +6505,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6477,7 +6534,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6506,7 +6563,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6535,7 +6592,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6564,7 +6621,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6593,7 +6650,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6622,7 +6679,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6651,7 +6708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6680,7 +6737,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6709,7 +6766,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6738,7 +6795,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6767,7 +6824,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6796,7 +6853,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6825,7 +6882,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6854,7 +6911,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -6883,7 +6940,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -6912,7 +6969,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -6941,7 +6998,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -6970,7 +7027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -6999,7 +7056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -7028,7 +7085,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -7057,7 +7114,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -7086,7 +7143,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -7115,7 +7172,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -7144,7 +7201,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -7173,7 +7230,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -7202,7 +7259,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -7231,7 +7288,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -7260,7 +7317,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -7289,7 +7346,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -7318,7 +7375,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -7347,7 +7404,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -7376,7 +7433,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7405,7 +7462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7434,7 +7491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7463,7 +7520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7492,7 +7549,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7521,7 +7578,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7550,7 +7607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7579,7 +7636,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7608,7 +7665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7637,7 +7694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7666,7 +7723,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7695,7 +7752,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7724,7 +7781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7753,7 +7810,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7782,7 +7839,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7811,7 +7868,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7840,7 +7897,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7869,7 +7926,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -7898,7 +7955,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -7927,7 +7984,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -7956,7 +8013,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -7985,7 +8042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -8014,7 +8071,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -8043,7 +8100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -8072,7 +8129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -8101,7 +8158,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -8130,7 +8187,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -8159,7 +8216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -8188,7 +8245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -8217,7 +8274,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -8246,7 +8303,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -8275,7 +8332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -8304,7 +8361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -8333,7 +8390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -8362,7 +8419,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8391,7 +8448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8420,7 +8477,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8449,7 +8506,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8478,7 +8535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8507,7 +8564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8536,7 +8593,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8565,7 +8622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8594,7 +8651,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8623,7 +8680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8652,7 +8709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8681,7 +8738,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8710,7 +8767,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8739,7 +8796,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8768,7 +8825,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8797,7 +8854,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8826,7 +8883,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8855,7 +8912,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -8884,7 +8941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -8913,7 +8970,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -8942,7 +8999,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -8971,7 +9028,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -9000,7 +9057,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -9029,7 +9086,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -9058,7 +9115,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -9087,7 +9144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -9116,7 +9173,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -9145,7 +9202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -9174,7 +9231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -9203,7 +9260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -9232,7 +9289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -9261,7 +9318,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -9290,7 +9347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -9319,7 +9376,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -9348,7 +9405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -9377,7 +9434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -9406,7 +9463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -9435,7 +9492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -9464,7 +9521,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -9493,7 +9550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -9522,7 +9579,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -9551,7 +9608,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -9580,7 +9637,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -9609,7 +9666,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -9638,7 +9695,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -9667,7 +9724,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -9696,7 +9753,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -9725,7 +9782,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -9754,7 +9811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -9783,7 +9840,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -9812,7 +9869,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -9841,7 +9898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -9870,7 +9927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -9899,7 +9956,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -9928,7 +9985,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -9957,7 +10014,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>415</v>
       </c>
@@ -9986,7 +10043,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -10015,7 +10072,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="49" t="s">
         <v>21</v>
       </c>
@@ -10044,7 +10101,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="49" t="s">
         <v>5</v>
       </c>
@@ -10073,7 +10130,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="49" t="s">
         <v>23</v>
       </c>
@@ -10102,7 +10159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="49" t="s">
         <v>23</v>
       </c>
@@ -10131,7 +10188,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="49" t="s">
         <v>23</v>
       </c>
@@ -10160,7 +10217,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="49" t="s">
         <v>23</v>
       </c>
@@ -10189,7 +10246,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="49" t="s">
         <v>23</v>
       </c>
@@ -10218,7 +10275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="49" t="s">
         <v>79</v>
       </c>
@@ -10247,7 +10304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="49" t="s">
         <v>5</v>
       </c>
@@ -10276,7 +10333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="49" t="s">
         <v>5</v>
       </c>
@@ -10305,7 +10362,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="49" t="s">
         <v>5</v>
       </c>
@@ -10334,7 +10391,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="49" t="s">
         <v>5</v>
       </c>
@@ -10363,7 +10420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="49" t="s">
         <v>5</v>
       </c>
@@ -10392,7 +10449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="49" t="s">
         <v>21</v>
       </c>
@@ -10421,7 +10478,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="49" t="s">
         <v>106</v>
       </c>
@@ -10450,7 +10507,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="49" t="s">
         <v>106</v>
       </c>
@@ -10479,7 +10536,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="49" t="s">
         <v>165</v>
       </c>
@@ -10508,7 +10565,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="49" t="s">
         <v>165</v>
       </c>
@@ -10537,7 +10594,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="49" t="s">
         <v>86</v>
       </c>
@@ -10566,7 +10623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="49" t="s">
         <v>144</v>
       </c>
@@ -10595,7 +10652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="49" t="s">
         <v>5</v>
       </c>
@@ -10624,7 +10681,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="49" t="s">
         <v>5</v>
       </c>
@@ -10653,7 +10710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="49" t="s">
         <v>5</v>
       </c>
@@ -10682,7 +10739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="49" t="s">
         <v>62</v>
       </c>
@@ -10711,7 +10768,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="49" t="s">
         <v>79</v>
       </c>
@@ -10740,7 +10797,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="49" t="s">
         <v>292</v>
       </c>
@@ -10769,7 +10826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="49" t="s">
         <v>5</v>
       </c>
@@ -10798,7 +10855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="49" t="s">
         <v>5</v>
       </c>
@@ -10827,7 +10884,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="49" t="s">
         <v>5</v>
       </c>
@@ -10856,7 +10913,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="49" t="s">
         <v>5</v>
       </c>
@@ -10885,7 +10942,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="49" t="s">
         <v>6</v>
       </c>
@@ -10914,7 +10971,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="49" t="s">
         <v>453</v>
       </c>
@@ -10943,7 +11000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="49" t="s">
         <v>292</v>
       </c>
@@ -10972,7 +11029,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="49" t="s">
         <v>453</v>
       </c>
@@ -11001,7 +11058,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="49" t="s">
         <v>23</v>
       </c>
@@ -11030,7 +11087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="49" t="s">
         <v>5</v>
       </c>
@@ -11059,7 +11116,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="49" t="s">
         <v>5</v>
       </c>
@@ -11088,7 +11145,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="49" t="s">
         <v>5</v>
       </c>
@@ -11117,7 +11174,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="49" t="s">
         <v>62</v>
       </c>
@@ -11146,7 +11203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="49" t="s">
         <v>106</v>
       </c>
@@ -11175,7 +11232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="49" t="s">
         <v>22</v>
       </c>
@@ -11204,7 +11261,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="49" t="s">
         <v>144</v>
       </c>
@@ -11233,7 +11290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="49" t="s">
         <v>5</v>
       </c>
@@ -11262,7 +11319,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
         <v>5</v>
       </c>
@@ -11291,7 +11348,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="49" t="s">
         <v>21</v>
       </c>
@@ -11320,7 +11377,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="49" t="s">
         <v>106</v>
       </c>
@@ -11349,7 +11406,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="49" t="s">
         <v>6</v>
       </c>
@@ -11378,7 +11435,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="49" t="s">
         <v>62</v>
       </c>
@@ -11407,7 +11464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="49" t="s">
         <v>62</v>
       </c>
@@ -11436,7 +11493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="49" t="s">
         <v>242</v>
       </c>
@@ -11465,7 +11522,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="49" t="s">
         <v>292</v>
       </c>
@@ -11494,7 +11551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="49" t="s">
         <v>482</v>
       </c>
@@ -11523,7 +11580,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="49" t="s">
         <v>247</v>
       </c>
@@ -11552,7 +11609,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="49" t="s">
         <v>23</v>
       </c>
@@ -11566,7 +11623,7 @@
         <v>45637</v>
       </c>
       <c r="E282" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F282" s="49" t="s">
         <v>9</v>
@@ -11575,15 +11632,15 @@
         <v>16</v>
       </c>
       <c r="H282" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I282" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B283" s="50">
         <v>45567</v>
@@ -11595,7 +11652,7 @@
         <v>45637</v>
       </c>
       <c r="E283" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F283" s="49" t="s">
         <v>9</v>
@@ -11604,15 +11661,15 @@
         <v>4</v>
       </c>
       <c r="H283" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I283" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B284" s="50">
         <v>45567</v>
@@ -11624,7 +11681,7 @@
         <v>45637</v>
       </c>
       <c r="E284" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F284" s="49" t="s">
         <v>9</v>
@@ -11633,13 +11690,13 @@
         <v>1</v>
       </c>
       <c r="H284" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I284" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="49" t="s">
         <v>5</v>
       </c>
@@ -11653,7 +11710,7 @@
         <v>45637</v>
       </c>
       <c r="E285" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F285" s="49" t="s">
         <v>9</v>
@@ -11662,13 +11719,13 @@
         <v>29</v>
       </c>
       <c r="H285" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I285" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="49" t="s">
         <v>5</v>
       </c>
@@ -11682,7 +11739,7 @@
         <v>45637</v>
       </c>
       <c r="E286" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F286" s="49" t="s">
         <v>9</v>
@@ -11691,13 +11748,13 @@
         <v>4</v>
       </c>
       <c r="H286" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I286" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="49" t="s">
         <v>5</v>
       </c>
@@ -11711,7 +11768,7 @@
         <v>45637</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F287" s="49" t="s">
         <v>9</v>
@@ -11720,13 +11777,13 @@
         <v>5</v>
       </c>
       <c r="H287" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I287" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="49" t="s">
         <v>165</v>
       </c>
@@ -11740,7 +11797,7 @@
         <v>45637</v>
       </c>
       <c r="E288" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F288" s="49" t="s">
         <v>9</v>
@@ -11749,13 +11806,13 @@
         <v>1</v>
       </c>
       <c r="H288" s="51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I288" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="49" t="s">
         <v>114</v>
       </c>
@@ -11769,7 +11826,7 @@
         <v>45637</v>
       </c>
       <c r="E289" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F289" s="49" t="s">
         <v>9</v>
@@ -11778,13 +11835,13 @@
         <v>1</v>
       </c>
       <c r="H289" s="51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I289" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="49" t="s">
         <v>62</v>
       </c>
@@ -11807,13 +11864,13 @@
         <v>65</v>
       </c>
       <c r="H290" s="51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I290" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="49" t="s">
         <v>21</v>
       </c>
@@ -11827,7 +11884,7 @@
         <v>45646</v>
       </c>
       <c r="E291" s="49" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F291" s="49" t="s">
         <v>9</v>
@@ -11836,13 +11893,13 @@
         <v>128</v>
       </c>
       <c r="H291" s="51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I291" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="49" t="s">
         <v>247</v>
       </c>
@@ -11856,7 +11913,7 @@
         <v>45625</v>
       </c>
       <c r="E292" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F292" s="49" t="s">
         <v>8</v>
@@ -11865,13 +11922,13 @@
         <v>35</v>
       </c>
       <c r="H292" s="51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I292" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="49" t="s">
         <v>144</v>
       </c>
@@ -11885,7 +11942,7 @@
         <v>45638</v>
       </c>
       <c r="E293" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F293" s="49" t="s">
         <v>8</v>
@@ -11894,10 +11951,532 @@
         <v>49</v>
       </c>
       <c r="H293" s="51" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I293" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C294" s="50">
+        <v>45573</v>
+      </c>
+      <c r="D294" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E294" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F294" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G294" s="51">
+        <v>54</v>
+      </c>
+      <c r="H294" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="I294" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B295" s="50">
+        <v>45573</v>
+      </c>
+      <c r="C295" s="50">
+        <v>45573</v>
+      </c>
+      <c r="D295" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E295" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="F295" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" s="51">
+        <v>159</v>
+      </c>
+      <c r="H295" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="I295" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B296" s="50">
+        <v>45569</v>
+      </c>
+      <c r="C296" s="50">
+        <v>45573</v>
+      </c>
+      <c r="D296" s="50">
+        <v>45630</v>
+      </c>
+      <c r="E296" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="F296" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G296" s="51">
+        <v>237</v>
+      </c>
+      <c r="H296" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="I296" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B297" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C297" s="50">
+        <v>45573</v>
+      </c>
+      <c r="D297" s="50">
+        <v>45629</v>
+      </c>
+      <c r="E297" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F297" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" s="51">
+        <v>283</v>
+      </c>
+      <c r="H297" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="I297" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B298" s="50">
+        <v>45567</v>
+      </c>
+      <c r="C298" s="50">
+        <v>45573</v>
+      </c>
+      <c r="D298" s="50">
+        <v>45629</v>
+      </c>
+      <c r="E298" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F298" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" s="51">
+        <v>22</v>
+      </c>
+      <c r="H298" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="I298" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="50">
+        <v>45574</v>
+      </c>
+      <c r="C299" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D299" s="50">
+        <v>45634</v>
+      </c>
+      <c r="E299" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="F299" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" s="51">
+        <v>29</v>
+      </c>
+      <c r="H299" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="I299" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C300" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D300" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E300" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F300" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" s="51">
+        <v>7</v>
+      </c>
+      <c r="H300" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="I300" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C301" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D301" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E301" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F301" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" s="51">
+        <v>6</v>
+      </c>
+      <c r="H301" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I301" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B302" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C302" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D302" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E302" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F302" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" s="51">
+        <v>1</v>
+      </c>
+      <c r="H302" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="I302" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C303" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D303" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E303" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F303" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" s="51">
+        <v>4</v>
+      </c>
+      <c r="H303" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="I303" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C304" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D304" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E304" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F304" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="51">
+        <v>1</v>
+      </c>
+      <c r="H304" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="I304" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B305" s="50">
+        <v>45572</v>
+      </c>
+      <c r="C305" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D305" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E305" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="F305" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305" s="51">
+        <v>1</v>
+      </c>
+      <c r="H305" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="I305" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B306" s="50">
+        <v>45574</v>
+      </c>
+      <c r="C306" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D306" s="50">
+        <v>45610</v>
+      </c>
+      <c r="E306" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="F306" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" s="51">
+        <v>52</v>
+      </c>
+      <c r="H306" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="I306" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B307" s="50">
+        <v>45561</v>
+      </c>
+      <c r="C307" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D307" s="50">
+        <v>45621</v>
+      </c>
+      <c r="E307" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="F307" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G307" s="51">
+        <v>40</v>
+      </c>
+      <c r="H307" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="I307" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" s="50">
+        <v>45552</v>
+      </c>
+      <c r="C308" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D308" s="50">
+        <v>45545</v>
+      </c>
+      <c r="E308" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F308" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308" s="51">
+        <v>116</v>
+      </c>
+      <c r="H308" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="I308" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" s="50">
+        <v>45552</v>
+      </c>
+      <c r="C309" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D309" s="50">
+        <v>45545</v>
+      </c>
+      <c r="E309" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F309" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" s="51">
+        <v>67</v>
+      </c>
+      <c r="H309" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="I309" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="50">
+        <v>45568</v>
+      </c>
+      <c r="C310" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D310" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E310" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="F310" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" s="51">
+        <v>140</v>
+      </c>
+      <c r="H310" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="I310" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B311" s="50">
+        <v>45562</v>
+      </c>
+      <c r="C311" s="50">
+        <v>45574</v>
+      </c>
+      <c r="D311" s="50">
+        <v>45562</v>
+      </c>
+      <c r="E311" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F311" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G311" s="51">
+        <v>10</v>
+      </c>
+      <c r="H311" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="I311" s="26" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -11914,7 +12493,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I293</xm:sqref>
+          <xm:sqref>I3:I311</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11928,18 +12507,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -11947,7 +12526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -11956,7 +12535,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -11965,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -11974,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -11983,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -11992,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -12001,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -12027,25 +12606,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -12071,7 +12650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -12113,117 +12692,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD395219-4C0D-4DD2-9CDD-B103EDC5C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62AE6DAB-9A19-4FF6-8438-084F4B13373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="545">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1692,7 +1692,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/09/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/14/2024
 </t>
     </r>
     <r>
@@ -1706,6 +1706,72 @@
     </r>
   </si>
   <si>
+    <t>Pixelogic Media Partners, LLC</t>
+  </si>
+  <si>
+    <t>4000 W. Alameda Avenue  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>3439 Motor Avenue  Los Angeles CA 90034</t>
+  </si>
+  <si>
+    <t>Emanate Health System</t>
+  </si>
+  <si>
+    <t>828 S. Grand Avenue, Suite #104  Glendora CA 91740</t>
+  </si>
+  <si>
+    <t>820 N. Phillips Avenue  West Covina CA 91791</t>
+  </si>
+  <si>
+    <t>250 S. Grand Avenue  Glendora CA 91741</t>
+  </si>
+  <si>
+    <t>210 W. San Bernardino Road  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>1115 S. Sunset Avenue  West Covina CA 91790</t>
+  </si>
+  <si>
+    <t>412 W. Carroll Avenue, Suite #107  Glendora CA 91741</t>
+  </si>
+  <si>
+    <t>315 E. Rte. 66  Glendora CA 91740</t>
+  </si>
+  <si>
+    <t>1125 Via Verde Drive  San Dimas CA 91773</t>
+  </si>
+  <si>
+    <t>1041 W. Badillo Road  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>1325 N. Grand Avenue, Building A Ste. 300  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>Red Lobster Restaurants, LLC</t>
+  </si>
+  <si>
+    <t>503 E. Calaveras Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>Gigamon Inc.</t>
+  </si>
+  <si>
+    <t>3300 Olcott Street  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>MCGA Hotels SF LLC</t>
+  </si>
+  <si>
+    <t>33 Turk Street  San Francisco CA 94102</t>
+  </si>
+  <si>
+    <t>Security Industry Specialists, Inc.</t>
+  </si>
+  <si>
+    <t>575 Florida Street  San Francisco CA 94110</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -1717,7 +1783,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/09/24</t>
+      <t>07/01/24 to 10/14/24</t>
     </r>
     <r>
       <rPr>
@@ -1737,7 +1803,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I311.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I327.</t>
     </r>
   </si>
 </sst>
@@ -2964,8 +3030,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I311" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I311" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I327" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I327" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3399,7 +3465,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>20298</v>
+        <v>20727</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3474,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3483,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3500,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3532,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3485,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -12477,6 +12543,470 @@
       </c>
       <c r="I311" s="26" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C312" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D312" s="50">
+        <v>45575</v>
+      </c>
+      <c r="E312" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="F312" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" s="51">
+        <v>30</v>
+      </c>
+      <c r="H312" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="I312" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C313" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D313" s="50">
+        <v>45575</v>
+      </c>
+      <c r="E313" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="F313" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G313" s="51">
+        <v>7</v>
+      </c>
+      <c r="H313" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="I313" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C314" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D314" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E314" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F314" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G314" s="51">
+        <v>12</v>
+      </c>
+      <c r="H314" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="I314" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C315" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D315" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E315" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F315" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G315" s="51">
+        <v>32</v>
+      </c>
+      <c r="H315" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="I315" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C316" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D316" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E316" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F316" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" s="51">
+        <v>4</v>
+      </c>
+      <c r="H316" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="I316" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C317" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D317" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E317" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F317" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G317" s="51">
+        <v>14</v>
+      </c>
+      <c r="H317" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="I317" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C318" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D318" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E318" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F318" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" s="51">
+        <v>22</v>
+      </c>
+      <c r="H318" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="I318" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C319" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D319" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E319" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F319" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" s="51">
+        <v>2</v>
+      </c>
+      <c r="H319" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="I319" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C320" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D320" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E320" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F320" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" s="51">
+        <v>7</v>
+      </c>
+      <c r="H320" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="I320" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C321" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D321" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E321" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F321" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" s="51">
+        <v>1</v>
+      </c>
+      <c r="H321" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="I321" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C322" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D322" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E322" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F322" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" s="51">
+        <v>11</v>
+      </c>
+      <c r="H322" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="I322" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C323" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D323" s="50">
+        <v>45635</v>
+      </c>
+      <c r="E323" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F323" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" s="51">
+        <v>2</v>
+      </c>
+      <c r="H323" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="I323" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B324" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C324" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D324" s="50">
+        <v>45633</v>
+      </c>
+      <c r="E324" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="F324" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G324" s="51">
+        <v>50</v>
+      </c>
+      <c r="H324" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="I324" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B325" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C325" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D325" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E325" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="F325" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" s="51">
+        <v>69</v>
+      </c>
+      <c r="H325" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="I325" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B326" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C326" s="50">
+        <v>45575</v>
+      </c>
+      <c r="D326" s="50">
+        <v>45636</v>
+      </c>
+      <c r="E326" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="F326" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="51">
+        <v>86</v>
+      </c>
+      <c r="H326" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="I326" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B327" s="50">
+        <v>45576</v>
+      </c>
+      <c r="C327" s="50">
+        <v>45576</v>
+      </c>
+      <c r="D327" s="50">
+        <v>45607</v>
+      </c>
+      <c r="E327" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="F327" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" s="51">
+        <v>80</v>
+      </c>
+      <c r="H327" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="I327" s="26" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -12493,7 +13023,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I311</xm:sqref>
+          <xm:sqref>I3:I327</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12611,7 +13141,7 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62AE6DAB-9A19-4FF6-8438-084F4B13373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96E47D7-8D2A-4052-AA7B-F560045D57B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="562">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1691,8 +1691,74 @@
     <t>1000 W. Redondo Beach Blvd.  Gardena CA 90247</t>
   </si>
   <si>
+    <t>Pixelogic Media Partners, LLC</t>
+  </si>
+  <si>
+    <t>4000 W. Alameda Avenue  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>3439 Motor Avenue  Los Angeles CA 90034</t>
+  </si>
+  <si>
+    <t>Emanate Health System</t>
+  </si>
+  <si>
+    <t>828 S. Grand Avenue, Suite #104  Glendora CA 91740</t>
+  </si>
+  <si>
+    <t>820 N. Phillips Avenue  West Covina CA 91791</t>
+  </si>
+  <si>
+    <t>250 S. Grand Avenue  Glendora CA 91741</t>
+  </si>
+  <si>
+    <t>210 W. San Bernardino Road  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>1115 S. Sunset Avenue  West Covina CA 91790</t>
+  </si>
+  <si>
+    <t>412 W. Carroll Avenue, Suite #107  Glendora CA 91741</t>
+  </si>
+  <si>
+    <t>315 E. Rte. 66  Glendora CA 91740</t>
+  </si>
+  <si>
+    <t>1125 Via Verde Drive  San Dimas CA 91773</t>
+  </si>
+  <si>
+    <t>1041 W. Badillo Road  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>1325 N. Grand Avenue, Building A Ste. 300  Covina CA 91723</t>
+  </si>
+  <si>
+    <t>Red Lobster Restaurants, LLC</t>
+  </si>
+  <si>
+    <t>503 E. Calaveras Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>Gigamon Inc.</t>
+  </si>
+  <si>
+    <t>3300 Olcott Street  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>MCGA Hotels SF LLC</t>
+  </si>
+  <si>
+    <t>33 Turk Street  San Francisco CA 94102</t>
+  </si>
+  <si>
+    <t>Security Industry Specialists, Inc.</t>
+  </si>
+  <si>
+    <t>575 Florida Street  San Francisco CA 94110</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/14/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/16/2024
 </t>
     </r>
     <r>
@@ -1706,70 +1772,55 @@
     </r>
   </si>
   <si>
-    <t>Pixelogic Media Partners, LLC</t>
-  </si>
-  <si>
-    <t>4000 W. Alameda Avenue  Burbank CA 91505</t>
-  </si>
-  <si>
-    <t>3439 Motor Avenue  Los Angeles CA 90034</t>
-  </si>
-  <si>
-    <t>Emanate Health System</t>
-  </si>
-  <si>
-    <t>828 S. Grand Avenue, Suite #104  Glendora CA 91740</t>
-  </si>
-  <si>
-    <t>820 N. Phillips Avenue  West Covina CA 91791</t>
-  </si>
-  <si>
-    <t>250 S. Grand Avenue  Glendora CA 91741</t>
-  </si>
-  <si>
-    <t>210 W. San Bernardino Road  Covina CA 91723</t>
-  </si>
-  <si>
-    <t>1115 S. Sunset Avenue  West Covina CA 91790</t>
-  </si>
-  <si>
-    <t>412 W. Carroll Avenue, Suite #107  Glendora CA 91741</t>
-  </si>
-  <si>
-    <t>315 E. Rte. 66  Glendora CA 91740</t>
-  </si>
-  <si>
-    <t>1125 Via Verde Drive  San Dimas CA 91773</t>
-  </si>
-  <si>
-    <t>1041 W. Badillo Road  Covina CA 91723</t>
-  </si>
-  <si>
-    <t>1325 N. Grand Avenue, Building A Ste. 300  Covina CA 91723</t>
-  </si>
-  <si>
-    <t>Red Lobster Restaurants, LLC</t>
-  </si>
-  <si>
-    <t>503 E. Calaveras Blvd  Milpitas CA 95035</t>
-  </si>
-  <si>
-    <t>Gigamon Inc.</t>
-  </si>
-  <si>
-    <t>3300 Olcott Street  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>MCGA Hotels SF LLC</t>
-  </si>
-  <si>
-    <t>33 Turk Street  San Francisco CA 94102</t>
-  </si>
-  <si>
-    <t>Security Industry Specialists, Inc.</t>
-  </si>
-  <si>
-    <t>575 Florida Street  San Francisco CA 94110</t>
+    <t>Maxar Space LLC</t>
+  </si>
+  <si>
+    <t>3875 Fabian Way  Palo Alto CA 94303</t>
+  </si>
+  <si>
+    <t>1050 E. Meadow Circle  Palo Alto CA 94303</t>
+  </si>
+  <si>
+    <t>2288 Charleston Road  Mountain View CA 94303</t>
+  </si>
+  <si>
+    <t>2495 Leghorn Street  Mountain View CA 94303</t>
+  </si>
+  <si>
+    <t>1900 Prairie City Rd.  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>101 Innovation Drive  San Jose CA 95134</t>
+  </si>
+  <si>
+    <t>Elevance Health, Inc.</t>
+  </si>
+  <si>
+    <t>21215 Burbank Blvd.  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>12900 Park Plaza Drive Suite 150  Cerritos CA 90703</t>
+  </si>
+  <si>
+    <t>Benson House, Inc.</t>
+  </si>
+  <si>
+    <t>35525 Pony Trail Road  Hemet CA 92545</t>
+  </si>
+  <si>
+    <t>29220 Via Las Palmas  Thousand Palms CA 92276</t>
+  </si>
+  <si>
+    <t>41218 Crest Drive  Hemet CA 92545</t>
+  </si>
+  <si>
+    <t>Forest River, Inc.</t>
+  </si>
+  <si>
+    <t>920 West Mayberry Avenue  Hemet CA 92543</t>
+  </si>
+  <si>
+    <t>255 S. Pepper Avenue  Rialto CA 92376</t>
   </si>
   <si>
     <r>
@@ -1783,7 +1834,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/14/24</t>
+      <t>07/01/24 to 10/16/24</t>
     </r>
     <r>
       <rPr>
@@ -1803,7 +1854,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I327.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I341.</t>
     </r>
   </si>
 </sst>
@@ -3030,8 +3081,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I327" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I327" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I341" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I341" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3388,37 +3439,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -3440,18 +3491,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -3459,25 +3510,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>20727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3494,16 +3545,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3512,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3532,30 +3583,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3635,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +3664,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -3642,7 +3693,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -3671,7 +3722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3751,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -3729,7 +3780,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -3758,7 +3809,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3787,7 +3838,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -3816,7 +3867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +3896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3874,7 +3925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -3903,7 +3954,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -3932,7 +3983,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -3961,7 +4012,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3990,7 +4041,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -4019,7 +4070,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -4048,7 +4099,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -4077,7 +4128,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -4106,7 +4157,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -4135,7 +4186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -4164,7 +4215,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -4193,7 +4244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -4222,7 +4273,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -4251,7 +4302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -4280,7 +4331,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -4309,7 +4360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -4338,7 +4389,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -4367,7 +4418,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -4396,7 +4447,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -4425,7 +4476,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -4454,7 +4505,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -4483,7 +4534,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -4512,7 +4563,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -4541,7 +4592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4621,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -4599,7 +4650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -4628,7 +4679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +4708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -4686,7 +4737,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -4715,7 +4766,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -4744,7 +4795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -4773,7 +4824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -4802,7 +4853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -4831,7 +4882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4860,7 +4911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4889,7 +4940,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -4918,7 +4969,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -4947,7 +4998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -4976,7 +5027,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -5005,7 +5056,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +5085,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -5063,7 +5114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -5092,7 +5143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -5121,7 +5172,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -5150,7 +5201,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +5230,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -5208,7 +5259,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -5237,7 +5288,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -5266,7 +5317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -5295,7 +5346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -5324,7 +5375,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -5353,7 +5404,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -5382,7 +5433,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -5411,7 +5462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -5440,7 +5491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -5469,7 +5520,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -5498,7 +5549,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -5527,7 +5578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -5556,7 +5607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -5585,7 +5636,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -5614,7 +5665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -5643,7 +5694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -5672,7 +5723,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -5701,7 +5752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -5730,7 +5781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -5759,7 +5810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -5788,7 +5839,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -5817,7 +5868,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -5846,7 +5897,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -5875,7 +5926,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -5904,7 +5955,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -5933,7 +5984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -5962,7 +6013,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -5991,7 +6042,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -6020,7 +6071,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -6049,7 +6100,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -6078,7 +6129,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -6107,7 +6158,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -6136,7 +6187,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -6165,7 +6216,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -6194,7 +6245,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -6223,7 +6274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -6252,7 +6303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -6281,7 +6332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -6310,7 +6361,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -6339,7 +6390,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -6368,7 +6419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -6397,7 +6448,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -6426,7 +6477,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6455,7 +6506,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -6484,7 +6535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -6513,7 +6564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -6542,7 +6593,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -6571,7 +6622,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6600,7 +6651,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6629,7 +6680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6658,7 +6709,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -6687,7 +6738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -6716,7 +6767,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -6745,7 +6796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -6774,7 +6825,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -6803,7 +6854,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -6832,7 +6883,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -6861,7 +6912,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6890,7 +6941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -6919,7 +6970,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6948,7 +6999,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -6977,7 +7028,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -7006,7 +7057,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -7035,7 +7086,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -7064,7 +7115,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -7093,7 +7144,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -7122,7 +7173,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -7151,7 +7202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -7180,7 +7231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -7209,7 +7260,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -7238,7 +7289,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -7267,7 +7318,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -7296,7 +7347,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -7325,7 +7376,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -7354,7 +7405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -7383,7 +7434,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -7412,7 +7463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -7441,7 +7492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -7470,7 +7521,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -7499,7 +7550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -7528,7 +7579,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -7557,7 +7608,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -7586,7 +7637,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -7615,7 +7666,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -7644,7 +7695,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -7673,7 +7724,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -7702,7 +7753,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -7731,7 +7782,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -7760,7 +7811,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -7789,7 +7840,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -7818,7 +7869,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -7847,7 +7898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -7876,7 +7927,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -7905,7 +7956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -7934,7 +7985,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -7963,7 +8014,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +8043,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -8021,7 +8072,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -8050,7 +8101,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -8079,7 +8130,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -8108,7 +8159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -8137,7 +8188,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -8166,7 +8217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -8195,7 +8246,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -8224,7 +8275,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -8253,7 +8304,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -8282,7 +8333,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -8311,7 +8362,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -8340,7 +8391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -8369,7 +8420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -8398,7 +8449,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -8427,7 +8478,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -8456,7 +8507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -8485,7 +8536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -8514,7 +8565,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -8543,7 +8594,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -8572,7 +8623,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -8601,7 +8652,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -8630,7 +8681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -8659,7 +8710,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -8688,7 +8739,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -8717,7 +8768,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8746,7 +8797,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -8775,7 +8826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -8804,7 +8855,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -8833,7 +8884,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -8862,7 +8913,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -8891,7 +8942,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -8920,7 +8971,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -8949,7 +9000,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -8978,7 +9029,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -9007,7 +9058,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -9036,7 +9087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -9065,7 +9116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -9094,7 +9145,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -9123,7 +9174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -9152,7 +9203,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -9181,7 +9232,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -9210,7 +9261,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -9239,7 +9290,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -9268,7 +9319,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -9297,7 +9348,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -9326,7 +9377,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -9355,7 +9406,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -9384,7 +9435,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -9413,7 +9464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -9442,7 +9493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -9471,7 +9522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -9500,7 +9551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -9529,7 +9580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -9558,7 +9609,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -9587,7 +9638,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -9616,7 +9667,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -9645,7 +9696,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -9674,7 +9725,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -9703,7 +9754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -9732,7 +9783,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -9761,7 +9812,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -9790,7 +9841,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -9819,7 +9870,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -9848,7 +9899,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -9877,7 +9928,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -9906,7 +9957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -9935,7 +9986,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -9964,7 +10015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -9993,7 +10044,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -10022,7 +10073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -10051,7 +10102,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -10080,7 +10131,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="49" t="s">
         <v>415</v>
       </c>
@@ -10109,7 +10160,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -10138,7 +10189,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="49" t="s">
         <v>21</v>
       </c>
@@ -10167,7 +10218,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="49" t="s">
         <v>5</v>
       </c>
@@ -10196,7 +10247,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="49" t="s">
         <v>23</v>
       </c>
@@ -10225,7 +10276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="49" t="s">
         <v>23</v>
       </c>
@@ -10254,7 +10305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="49" t="s">
         <v>23</v>
       </c>
@@ -10283,7 +10334,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="49" t="s">
         <v>23</v>
       </c>
@@ -10312,7 +10363,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="49" t="s">
         <v>23</v>
       </c>
@@ -10341,7 +10392,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="49" t="s">
         <v>79</v>
       </c>
@@ -10370,7 +10421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="49" t="s">
         <v>5</v>
       </c>
@@ -10399,7 +10450,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="49" t="s">
         <v>5</v>
       </c>
@@ -10428,7 +10479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="49" t="s">
         <v>5</v>
       </c>
@@ -10457,7 +10508,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="49" t="s">
         <v>5</v>
       </c>
@@ -10486,7 +10537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="49" t="s">
         <v>5</v>
       </c>
@@ -10515,7 +10566,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="49" t="s">
         <v>21</v>
       </c>
@@ -10544,7 +10595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="49" t="s">
         <v>106</v>
       </c>
@@ -10573,7 +10624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="49" t="s">
         <v>106</v>
       </c>
@@ -10602,7 +10653,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="49" t="s">
         <v>165</v>
       </c>
@@ -10631,7 +10682,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="49" t="s">
         <v>165</v>
       </c>
@@ -10660,7 +10711,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="49" t="s">
         <v>86</v>
       </c>
@@ -10689,7 +10740,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
         <v>144</v>
       </c>
@@ -10718,7 +10769,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
         <v>5</v>
       </c>
@@ -10747,7 +10798,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="49" t="s">
         <v>5</v>
       </c>
@@ -10776,7 +10827,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="49" t="s">
         <v>5</v>
       </c>
@@ -10805,7 +10856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="49" t="s">
         <v>62</v>
       </c>
@@ -10834,7 +10885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="49" t="s">
         <v>79</v>
       </c>
@@ -10863,7 +10914,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
         <v>292</v>
       </c>
@@ -10892,7 +10943,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
         <v>5</v>
       </c>
@@ -10921,7 +10972,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
         <v>5</v>
       </c>
@@ -10950,7 +11001,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
         <v>5</v>
       </c>
@@ -10979,7 +11030,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="49" t="s">
         <v>5</v>
       </c>
@@ -11008,7 +11059,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="49" t="s">
         <v>6</v>
       </c>
@@ -11037,7 +11088,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="49" t="s">
         <v>453</v>
       </c>
@@ -11066,7 +11117,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="49" t="s">
         <v>292</v>
       </c>
@@ -11095,7 +11146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="49" t="s">
         <v>453</v>
       </c>
@@ -11124,7 +11175,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="49" t="s">
         <v>23</v>
       </c>
@@ -11153,7 +11204,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="49" t="s">
         <v>5</v>
       </c>
@@ -11182,7 +11233,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="49" t="s">
         <v>5</v>
       </c>
@@ -11211,7 +11262,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="49" t="s">
         <v>5</v>
       </c>
@@ -11240,7 +11291,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="49" t="s">
         <v>62</v>
       </c>
@@ -11269,7 +11320,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="49" t="s">
         <v>106</v>
       </c>
@@ -11298,7 +11349,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="49" t="s">
         <v>22</v>
       </c>
@@ -11327,7 +11378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="49" t="s">
         <v>144</v>
       </c>
@@ -11356,7 +11407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="49" t="s">
         <v>5</v>
       </c>
@@ -11385,7 +11436,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="49" t="s">
         <v>5</v>
       </c>
@@ -11414,7 +11465,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="49" t="s">
         <v>21</v>
       </c>
@@ -11443,7 +11494,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="49" t="s">
         <v>106</v>
       </c>
@@ -11472,7 +11523,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="49" t="s">
         <v>6</v>
       </c>
@@ -11501,7 +11552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="49" t="s">
         <v>62</v>
       </c>
@@ -11530,7 +11581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="49" t="s">
         <v>62</v>
       </c>
@@ -11559,7 +11610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="49" t="s">
         <v>242</v>
       </c>
@@ -11588,7 +11639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="49" t="s">
         <v>292</v>
       </c>
@@ -11617,7 +11668,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="49" t="s">
         <v>482</v>
       </c>
@@ -11646,7 +11697,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="49" t="s">
         <v>247</v>
       </c>
@@ -11675,7 +11726,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="49" t="s">
         <v>23</v>
       </c>
@@ -11704,7 +11755,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="49" t="s">
         <v>487</v>
       </c>
@@ -11733,7 +11784,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="49" t="s">
         <v>487</v>
       </c>
@@ -11762,7 +11813,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="49" t="s">
         <v>5</v>
       </c>
@@ -11791,7 +11842,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="49" t="s">
         <v>5</v>
       </c>
@@ -11820,7 +11871,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="49" t="s">
         <v>5</v>
       </c>
@@ -11849,7 +11900,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="49" t="s">
         <v>165</v>
       </c>
@@ -11878,7 +11929,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="49" t="s">
         <v>114</v>
       </c>
@@ -11907,7 +11958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="49" t="s">
         <v>62</v>
       </c>
@@ -11936,7 +11987,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="49" t="s">
         <v>21</v>
       </c>
@@ -11965,7 +12016,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="49" t="s">
         <v>247</v>
       </c>
@@ -11994,7 +12045,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="49" t="s">
         <v>144</v>
       </c>
@@ -12023,7 +12074,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="49" t="s">
         <v>5</v>
       </c>
@@ -12052,7 +12103,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="49" t="s">
         <v>21</v>
       </c>
@@ -12081,7 +12132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="49" t="s">
         <v>21</v>
       </c>
@@ -12110,7 +12161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="49" t="s">
         <v>144</v>
       </c>
@@ -12139,7 +12190,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="49" t="s">
         <v>144</v>
       </c>
@@ -12168,7 +12219,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="49" t="s">
         <v>23</v>
       </c>
@@ -12197,7 +12248,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="49" t="s">
         <v>23</v>
       </c>
@@ -12226,7 +12277,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="49" t="s">
         <v>23</v>
       </c>
@@ -12255,7 +12306,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="49" t="s">
         <v>79</v>
       </c>
@@ -12284,7 +12335,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="49" t="s">
         <v>5</v>
       </c>
@@ -12313,7 +12364,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="49" t="s">
         <v>5</v>
       </c>
@@ -12342,7 +12393,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="49" t="s">
         <v>22</v>
       </c>
@@ -12371,7 +12422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="49" t="s">
         <v>482</v>
       </c>
@@ -12400,7 +12451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="49" t="s">
         <v>106</v>
       </c>
@@ -12429,7 +12480,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A308" s="49" t="s">
         <v>6</v>
       </c>
@@ -12458,7 +12509,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="20" x14ac:dyDescent="0.35">
       <c r="A309" s="49" t="s">
         <v>6</v>
       </c>
@@ -12487,7 +12538,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="49" t="s">
         <v>5</v>
       </c>
@@ -12516,7 +12567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="49" t="s">
         <v>247</v>
       </c>
@@ -12545,7 +12596,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="49" t="s">
         <v>5</v>
       </c>
@@ -12559,7 +12610,7 @@
         <v>45575</v>
       </c>
       <c r="E312" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F312" s="49" t="s">
         <v>9</v>
@@ -12568,13 +12619,13 @@
         <v>30</v>
       </c>
       <c r="H312" s="51" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I312" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="49" t="s">
         <v>5</v>
       </c>
@@ -12588,7 +12639,7 @@
         <v>45575</v>
       </c>
       <c r="E313" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F313" s="49" t="s">
         <v>9</v>
@@ -12597,13 +12648,13 @@
         <v>7</v>
       </c>
       <c r="H313" s="51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I313" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="49" t="s">
         <v>5</v>
       </c>
@@ -12617,7 +12668,7 @@
         <v>45635</v>
       </c>
       <c r="E314" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F314" s="49" t="s">
         <v>8</v>
@@ -12626,13 +12677,13 @@
         <v>12</v>
       </c>
       <c r="H314" s="51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I314" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="49" t="s">
         <v>5</v>
       </c>
@@ -12646,7 +12697,7 @@
         <v>45635</v>
       </c>
       <c r="E315" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F315" s="49" t="s">
         <v>8</v>
@@ -12655,13 +12706,13 @@
         <v>32</v>
       </c>
       <c r="H315" s="51" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I315" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="49" t="s">
         <v>5</v>
       </c>
@@ -12675,7 +12726,7 @@
         <v>45635</v>
       </c>
       <c r="E316" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F316" s="49" t="s">
         <v>9</v>
@@ -12684,13 +12735,13 @@
         <v>4</v>
       </c>
       <c r="H316" s="51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I316" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="49" t="s">
         <v>5</v>
       </c>
@@ -12704,7 +12755,7 @@
         <v>45635</v>
       </c>
       <c r="E317" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F317" s="49" t="s">
         <v>9</v>
@@ -12713,13 +12764,13 @@
         <v>14</v>
       </c>
       <c r="H317" s="51" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I317" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="49" t="s">
         <v>5</v>
       </c>
@@ -12733,7 +12784,7 @@
         <v>45635</v>
       </c>
       <c r="E318" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F318" s="49" t="s">
         <v>9</v>
@@ -12742,13 +12793,13 @@
         <v>22</v>
       </c>
       <c r="H318" s="51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I318" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="49" t="s">
         <v>5</v>
       </c>
@@ -12762,7 +12813,7 @@
         <v>45635</v>
       </c>
       <c r="E319" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F319" s="49" t="s">
         <v>9</v>
@@ -12771,13 +12822,13 @@
         <v>2</v>
       </c>
       <c r="H319" s="51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I319" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="49" t="s">
         <v>5</v>
       </c>
@@ -12791,7 +12842,7 @@
         <v>45635</v>
       </c>
       <c r="E320" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F320" s="49" t="s">
         <v>9</v>
@@ -12800,13 +12851,13 @@
         <v>7</v>
       </c>
       <c r="H320" s="51" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I320" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="49" t="s">
         <v>5</v>
       </c>
@@ -12820,7 +12871,7 @@
         <v>45635</v>
       </c>
       <c r="E321" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F321" s="49" t="s">
         <v>9</v>
@@ -12829,13 +12880,13 @@
         <v>1</v>
       </c>
       <c r="H321" s="51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I321" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="49" t="s">
         <v>5</v>
       </c>
@@ -12849,7 +12900,7 @@
         <v>45635</v>
       </c>
       <c r="E322" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F322" s="49" t="s">
         <v>9</v>
@@ -12858,13 +12909,13 @@
         <v>11</v>
       </c>
       <c r="H322" s="51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I322" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="49" t="s">
         <v>5</v>
       </c>
@@ -12878,7 +12929,7 @@
         <v>45635</v>
       </c>
       <c r="E323" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F323" s="49" t="s">
         <v>9</v>
@@ -12887,13 +12938,13 @@
         <v>2</v>
       </c>
       <c r="H323" s="51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I323" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="49" t="s">
         <v>62</v>
       </c>
@@ -12907,7 +12958,7 @@
         <v>45633</v>
       </c>
       <c r="E324" s="49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F324" s="49" t="s">
         <v>9</v>
@@ -12916,13 +12967,13 @@
         <v>50</v>
       </c>
       <c r="H324" s="51" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I324" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="49" t="s">
         <v>62</v>
       </c>
@@ -12936,7 +12987,7 @@
         <v>45657</v>
       </c>
       <c r="E325" s="49" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F325" s="49" t="s">
         <v>9</v>
@@ -12945,13 +12996,13 @@
         <v>69</v>
       </c>
       <c r="H325" s="51" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I325" s="26" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="49" t="s">
         <v>84</v>
       </c>
@@ -12965,7 +13016,7 @@
         <v>45636</v>
       </c>
       <c r="E326" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F326" s="49" t="s">
         <v>10</v>
@@ -12974,13 +13025,13 @@
         <v>86</v>
       </c>
       <c r="H326" s="51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I326" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="49" t="s">
         <v>84</v>
       </c>
@@ -12994,7 +13045,7 @@
         <v>45607</v>
       </c>
       <c r="E327" s="49" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F327" s="49" t="s">
         <v>9</v>
@@ -13003,10 +13054,416 @@
         <v>80</v>
       </c>
       <c r="H327" s="51" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I327" s="26" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A328" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B328" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C328" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D328" s="50">
+        <v>45583</v>
+      </c>
+      <c r="E328" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="F328" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G328" s="51">
+        <v>31</v>
+      </c>
+      <c r="H328" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="I328" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A329" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B329" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C329" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D329" s="50">
+        <v>45583</v>
+      </c>
+      <c r="E329" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="F329" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" s="51">
+        <v>21</v>
+      </c>
+      <c r="H329" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="I329" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A330" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B330" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C330" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D330" s="50">
+        <v>45583</v>
+      </c>
+      <c r="E330" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="F330" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G330" s="51">
+        <v>3</v>
+      </c>
+      <c r="H330" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="I330" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A331" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B331" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C331" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D331" s="50">
+        <v>45583</v>
+      </c>
+      <c r="E331" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="F331" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="51">
+        <v>6</v>
+      </c>
+      <c r="H331" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="I331" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A332" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B332" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C332" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D332" s="50">
+        <v>45580</v>
+      </c>
+      <c r="E332" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F332" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" s="51">
+        <v>58</v>
+      </c>
+      <c r="H332" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="I332" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B333" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C333" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D333" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E333" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F333" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G333" s="51">
+        <v>272</v>
+      </c>
+      <c r="H333" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="I333" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B334" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C334" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D334" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E334" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F334" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" s="51">
+        <v>47</v>
+      </c>
+      <c r="H334" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="I334" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="50">
+        <v>45579</v>
+      </c>
+      <c r="C335" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D335" s="50">
+        <v>45583</v>
+      </c>
+      <c r="E335" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="F335" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G335" s="51">
+        <v>59</v>
+      </c>
+      <c r="H335" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="I335" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="50">
+        <v>45579</v>
+      </c>
+      <c r="C336" s="50">
+        <v>45580</v>
+      </c>
+      <c r="D336" s="50">
+        <v>45583</v>
+      </c>
+      <c r="E336" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="F336" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G336" s="51">
+        <v>64</v>
+      </c>
+      <c r="H336" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="I336" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B337" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C337" s="50">
+        <v>45581</v>
+      </c>
+      <c r="D337" s="50">
+        <v>45641</v>
+      </c>
+      <c r="E337" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="F337" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G337" s="51">
+        <v>33</v>
+      </c>
+      <c r="H337" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="I337" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B338" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C338" s="50">
+        <v>45581</v>
+      </c>
+      <c r="D338" s="50">
+        <v>45641</v>
+      </c>
+      <c r="E338" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="F338" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" s="51">
+        <v>44</v>
+      </c>
+      <c r="H338" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="I338" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B339" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C339" s="50">
+        <v>45581</v>
+      </c>
+      <c r="D339" s="50">
+        <v>45641</v>
+      </c>
+      <c r="E339" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="F339" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G339" s="51">
+        <v>44</v>
+      </c>
+      <c r="H339" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="I339" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B340" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C340" s="50">
+        <v>45581</v>
+      </c>
+      <c r="D340" s="50">
+        <v>45639</v>
+      </c>
+      <c r="E340" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="F340" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340" s="51">
+        <v>239</v>
+      </c>
+      <c r="H340" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="I340" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C341" s="50">
+        <v>45581</v>
+      </c>
+      <c r="D341" s="50">
+        <v>45639</v>
+      </c>
+      <c r="E341" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="F341" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G341" s="51">
+        <v>176</v>
+      </c>
+      <c r="H341" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="I341" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -13023,7 +13480,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I327</xm:sqref>
+          <xm:sqref>I3:I341</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13037,18 +13494,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -13056,7 +13513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -13065,7 +13522,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -13074,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -13083,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -13092,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -13101,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -13110,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -13136,25 +13593,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -13180,7 +13637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -13222,117 +13679,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96E47D7-8D2A-4052-AA7B-F560045D57B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8D7E98-4ADD-4F01-B901-F14A99843889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="570">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1757,8 +1757,59 @@
     <t>575 Florida Street  San Francisco CA 94110</t>
   </si>
   <si>
+    <t>Maxar Space LLC</t>
+  </si>
+  <si>
+    <t>3875 Fabian Way  Palo Alto CA 94303</t>
+  </si>
+  <si>
+    <t>1050 E. Meadow Circle  Palo Alto CA 94303</t>
+  </si>
+  <si>
+    <t>2288 Charleston Road  Mountain View CA 94303</t>
+  </si>
+  <si>
+    <t>2495 Leghorn Street  Mountain View CA 94303</t>
+  </si>
+  <si>
+    <t>1900 Prairie City Rd.  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>101 Innovation Drive  San Jose CA 95134</t>
+  </si>
+  <si>
+    <t>Elevance Health, Inc.</t>
+  </si>
+  <si>
+    <t>21215 Burbank Blvd.  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>12900 Park Plaza Drive Suite 150  Cerritos CA 90703</t>
+  </si>
+  <si>
+    <t>Benson House, Inc.</t>
+  </si>
+  <si>
+    <t>35525 Pony Trail Road  Hemet CA 92545</t>
+  </si>
+  <si>
+    <t>29220 Via Las Palmas  Thousand Palms CA 92276</t>
+  </si>
+  <si>
+    <t>41218 Crest Drive  Hemet CA 92545</t>
+  </si>
+  <si>
+    <t>Forest River, Inc.</t>
+  </si>
+  <si>
+    <t>920 West Mayberry Avenue  Hemet CA 92543</t>
+  </si>
+  <si>
+    <t>255 S. Pepper Avenue  Rialto CA 92376</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/16/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/21/2024
 </t>
     </r>
     <r>
@@ -1772,55 +1823,28 @@
     </r>
   </si>
   <si>
-    <t>Maxar Space LLC</t>
-  </si>
-  <si>
-    <t>3875 Fabian Way  Palo Alto CA 94303</t>
-  </si>
-  <si>
-    <t>1050 E. Meadow Circle  Palo Alto CA 94303</t>
-  </si>
-  <si>
-    <t>2288 Charleston Road  Mountain View CA 94303</t>
-  </si>
-  <si>
-    <t>2495 Leghorn Street  Mountain View CA 94303</t>
-  </si>
-  <si>
-    <t>1900 Prairie City Rd.  Folsom CA 95630</t>
-  </si>
-  <si>
-    <t>101 Innovation Drive  San Jose CA 95134</t>
-  </si>
-  <si>
-    <t>Elevance Health, Inc.</t>
-  </si>
-  <si>
-    <t>21215 Burbank Blvd.  Woodland Hills CA 91367</t>
-  </si>
-  <si>
-    <t>12900 Park Plaza Drive Suite 150  Cerritos CA 90703</t>
-  </si>
-  <si>
-    <t>Benson House, Inc.</t>
-  </si>
-  <si>
-    <t>35525 Pony Trail Road  Hemet CA 92545</t>
-  </si>
-  <si>
-    <t>29220 Via Las Palmas  Thousand Palms CA 92276</t>
-  </si>
-  <si>
-    <t>41218 Crest Drive  Hemet CA 92545</t>
-  </si>
-  <si>
-    <t>Forest River, Inc.</t>
-  </si>
-  <si>
-    <t>920 West Mayberry Avenue  Hemet CA 92543</t>
-  </si>
-  <si>
-    <t>255 S. Pepper Avenue  Rialto CA 92376</t>
+    <t>Shell Catalyst &amp; Technologies</t>
+  </si>
+  <si>
+    <t>2840 Willow Pass Rd  Pittsburg CA 94565</t>
+  </si>
+  <si>
+    <t>3065 Bowers Avenue  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Mindbody, Inc.</t>
+  </si>
+  <si>
+    <t>651 Tank Farm Rd.  San Luis Obispo CA 93401</t>
+  </si>
+  <si>
+    <t>Clean Water Action</t>
+  </si>
+  <si>
+    <t>350 Frank H. Ogawa Plaza, Suite 200  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>205 Concourse Blvd.  Santa Rosa CA 95403</t>
   </si>
   <si>
     <r>
@@ -1834,7 +1858,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/16/24</t>
+      <t>07/01/24 to 10/21/24</t>
     </r>
     <r>
       <rPr>
@@ -1854,7 +1878,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I341.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I350.</t>
     </r>
   </si>
 </sst>
@@ -3081,8 +3105,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I341" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I341" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I350" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I350" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3516,7 +3540,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>21824</v>
+        <v>22448</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3525,7 +3549,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3551,7 +3575,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3583,7 +3607,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3593,20 +3617,20 @@
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3978,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -4041,7 +4065,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -6477,7 +6501,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -6622,7 +6646,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6651,7 +6675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -6680,7 +6704,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -6912,7 +6936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -6941,7 +6965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -8014,7 +8038,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -8739,7 +8763,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -9377,7 +9401,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -9406,7 +9430,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -9435,7 +9459,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -9580,7 +9604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -9841,7 +9865,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -9986,7 +10010,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -10102,7 +10126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -10769,7 +10793,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
         <v>5</v>
       </c>
@@ -12480,7 +12504,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="49" t="s">
         <v>6</v>
       </c>
@@ -12509,7 +12533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="49" t="s">
         <v>6</v>
       </c>
@@ -13074,7 +13098,7 @@
         <v>45583</v>
       </c>
       <c r="E328" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F328" s="49" t="s">
         <v>9</v>
@@ -13083,7 +13107,7 @@
         <v>31</v>
       </c>
       <c r="H328" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I328" s="26" t="s">
         <v>177</v>
@@ -13103,7 +13127,7 @@
         <v>45583</v>
       </c>
       <c r="E329" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F329" s="49" t="s">
         <v>9</v>
@@ -13112,7 +13136,7 @@
         <v>21</v>
       </c>
       <c r="H329" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I329" s="26" t="s">
         <v>177</v>
@@ -13132,7 +13156,7 @@
         <v>45583</v>
       </c>
       <c r="E330" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F330" s="49" t="s">
         <v>9</v>
@@ -13141,7 +13165,7 @@
         <v>3</v>
       </c>
       <c r="H330" s="51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I330" s="26" t="s">
         <v>177</v>
@@ -13161,7 +13185,7 @@
         <v>45583</v>
       </c>
       <c r="E331" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F331" s="49" t="s">
         <v>9</v>
@@ -13170,7 +13194,7 @@
         <v>6</v>
       </c>
       <c r="H331" s="51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I331" s="26" t="s">
         <v>177</v>
@@ -13228,7 +13252,7 @@
         <v>272</v>
       </c>
       <c r="H333" s="51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I333" s="26" t="s">
         <v>181</v>
@@ -13257,7 +13281,7 @@
         <v>47</v>
       </c>
       <c r="H334" s="51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I334" s="26" t="s">
         <v>181</v>
@@ -13277,7 +13301,7 @@
         <v>45583</v>
       </c>
       <c r="E335" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F335" s="49" t="s">
         <v>9</v>
@@ -13286,7 +13310,7 @@
         <v>59</v>
       </c>
       <c r="H335" s="51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I335" s="26" t="s">
         <v>182</v>
@@ -13306,7 +13330,7 @@
         <v>45583</v>
       </c>
       <c r="E336" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F336" s="49" t="s">
         <v>9</v>
@@ -13315,7 +13339,7 @@
         <v>64</v>
       </c>
       <c r="H336" s="51" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I336" s="26" t="s">
         <v>182</v>
@@ -13335,7 +13359,7 @@
         <v>45641</v>
       </c>
       <c r="E337" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F337" s="49" t="s">
         <v>9</v>
@@ -13344,7 +13368,7 @@
         <v>33</v>
       </c>
       <c r="H337" s="51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I337" s="26" t="s">
         <v>188</v>
@@ -13364,7 +13388,7 @@
         <v>45641</v>
       </c>
       <c r="E338" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F338" s="49" t="s">
         <v>9</v>
@@ -13373,7 +13397,7 @@
         <v>44</v>
       </c>
       <c r="H338" s="51" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I338" s="26" t="s">
         <v>188</v>
@@ -13393,7 +13417,7 @@
         <v>45641</v>
       </c>
       <c r="E339" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F339" s="49" t="s">
         <v>9</v>
@@ -13402,7 +13426,7 @@
         <v>44</v>
       </c>
       <c r="H339" s="51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I339" s="26" t="s">
         <v>188</v>
@@ -13422,7 +13446,7 @@
         <v>45639</v>
       </c>
       <c r="E340" s="49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F340" s="49" t="s">
         <v>8</v>
@@ -13431,7 +13455,7 @@
         <v>239</v>
       </c>
       <c r="H340" s="51" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I340" s="26" t="s">
         <v>177</v>
@@ -13451,7 +13475,7 @@
         <v>45639</v>
       </c>
       <c r="E341" s="49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F341" s="49" t="s">
         <v>8</v>
@@ -13460,9 +13484,270 @@
         <v>176</v>
       </c>
       <c r="H341" s="51" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I341" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B342" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C342" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D342" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E342" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="F342" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G342" s="51">
+        <v>59</v>
+      </c>
+      <c r="H342" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="I342" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B343" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C343" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D343" s="50">
+        <v>45596</v>
+      </c>
+      <c r="E343" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F343" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" s="51">
+        <v>11</v>
+      </c>
+      <c r="H343" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="I343" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B344" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C344" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D344" s="50">
+        <v>45596</v>
+      </c>
+      <c r="E344" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F344" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" s="51">
+        <v>233</v>
+      </c>
+      <c r="H344" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="I344" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B345" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C345" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D345" s="50">
+        <v>45596</v>
+      </c>
+      <c r="E345" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F345" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="51">
+        <v>28</v>
+      </c>
+      <c r="H345" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="I345" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B346" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C346" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D346" s="50">
+        <v>45596</v>
+      </c>
+      <c r="E346" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F346" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G346" s="51">
+        <v>216</v>
+      </c>
+      <c r="H346" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="I346" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B347" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C347" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D347" s="50">
+        <v>45596</v>
+      </c>
+      <c r="E347" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F347" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G347" s="51">
+        <v>28</v>
+      </c>
+      <c r="H347" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="I347" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B348" s="50">
+        <v>45582</v>
+      </c>
+      <c r="C348" s="50">
+        <v>45582</v>
+      </c>
+      <c r="D348" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E348" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="F348" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G348" s="51">
+        <v>36</v>
+      </c>
+      <c r="H348" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="I348" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B349" s="50">
+        <v>45575</v>
+      </c>
+      <c r="C349" s="50">
+        <v>45586</v>
+      </c>
+      <c r="D349" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E349" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="F349" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G349" s="51">
+        <v>8</v>
+      </c>
+      <c r="H349" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="I349" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B350" s="50">
+        <v>45586</v>
+      </c>
+      <c r="C350" s="50">
+        <v>45586</v>
+      </c>
+      <c r="D350" s="50">
+        <v>45642</v>
+      </c>
+      <c r="E350" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F350" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G350" s="51">
+        <v>5</v>
+      </c>
+      <c r="H350" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="I350" s="26" t="s">
         <v>177</v>
       </c>
     </row>
@@ -13480,7 +13765,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I341</xm:sqref>
+          <xm:sqref>I3:I350</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13607,7 +13892,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8D7E98-4ADD-4F01-B901-F14A99843889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A0F70E-2A2C-42BD-9112-6E2235731584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="2" activeTab="2" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="605">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1808,8 +1808,32 @@
     <t>255 S. Pepper Avenue  Rialto CA 92376</t>
   </si>
   <si>
+    <t>Shell Catalyst &amp; Technologies</t>
+  </si>
+  <si>
+    <t>2840 Willow Pass Rd  Pittsburg CA 94565</t>
+  </si>
+  <si>
+    <t>3065 Bowers Avenue  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Mindbody, Inc.</t>
+  </si>
+  <si>
+    <t>651 Tank Farm Rd.  San Luis Obispo CA 93401</t>
+  </si>
+  <si>
+    <t>Clean Water Action</t>
+  </si>
+  <si>
+    <t>350 Frank H. Ogawa Plaza, Suite 200  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>205 Concourse Blvd.  Santa Rosa CA 95403</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/21/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/23/2024
 </t>
     </r>
     <r>
@@ -1823,28 +1847,109 @@
     </r>
   </si>
   <si>
-    <t>Shell Catalyst &amp; Technologies</t>
-  </si>
-  <si>
-    <t>2840 Willow Pass Rd  Pittsburg CA 94565</t>
-  </si>
-  <si>
-    <t>3065 Bowers Avenue  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Mindbody, Inc.</t>
-  </si>
-  <si>
-    <t>651 Tank Farm Rd.  San Luis Obispo CA 93401</t>
-  </si>
-  <si>
-    <t>Clean Water Action</t>
-  </si>
-  <si>
-    <t>350 Frank H. Ogawa Plaza, Suite 200  Oakland CA 94612</t>
-  </si>
-  <si>
-    <t>205 Concourse Blvd.  Santa Rosa CA 95403</t>
+    <t>D &amp; D Gear, Inc. dba Absolute Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>4890 East La Palma Avenue  Anaheim CA 92807</t>
+  </si>
+  <si>
+    <t>Stachs LLC</t>
+  </si>
+  <si>
+    <t>414 Lesser St  Oakland CA 94601</t>
+  </si>
+  <si>
+    <t>7731 Hayvenhurst Ave Ste C  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>1728 Glendale Blvd  Los Angeles CA 90026</t>
+  </si>
+  <si>
+    <t>5057 W. Pico Blvd  Los Angeles CA 90019</t>
+  </si>
+  <si>
+    <t>428 Lincoln Blvd  Venice CA 90291</t>
+  </si>
+  <si>
+    <t>1625 St. Gertrude Pl  Santa Ana CA 92705</t>
+  </si>
+  <si>
+    <t>1750 Iris Avenue #106  Sacramento CA 95815</t>
+  </si>
+  <si>
+    <t>3455 Camino Del Rio  San Diego CA 92108</t>
+  </si>
+  <si>
+    <t>2800 3rd St  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>337 Little&amp;#64257;eld Ave  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>1365 N 10th Street  San Jose CA 95112</t>
+  </si>
+  <si>
+    <t>471 Aaron St. Ste B  Cotati CA 94931</t>
+  </si>
+  <si>
+    <t>Georg Fischer Signet LLC</t>
+  </si>
+  <si>
+    <t>5462 North Irwindale Avenue  Baldwin Park CA 91706</t>
+  </si>
+  <si>
+    <t>Shadow Holdings, LLC, dba Bright Innovation Labs</t>
+  </si>
+  <si>
+    <t>Nestle USA</t>
+  </si>
+  <si>
+    <t>736 Garner Road  Modesto CA 95357</t>
+  </si>
+  <si>
+    <t>True Value Company, LLC</t>
+  </si>
+  <si>
+    <t>215 North Pioneer Avenue  Woodland CA 95776</t>
+  </si>
+  <si>
+    <t>ABB Optical Group, LLC</t>
+  </si>
+  <si>
+    <t>1750 North Loop Road, Suite 150  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Upwork Inc.</t>
+  </si>
+  <si>
+    <t>530 Lytton Avenue, Suite 301  Palo Alto CA 94301</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corporation</t>
+  </si>
+  <si>
+    <t>1213 Innsbruck Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Dart Container Corporation</t>
+  </si>
+  <si>
+    <t>150 N. Maple Street  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>1400 E. Victor Road  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>NB Farms, Inc.</t>
+  </si>
+  <si>
+    <t>5060 Olivas Park Drive  Ventura CA 93003</t>
+  </si>
+  <si>
+    <t>5100 Olivas Park Drive  Ventura CA 93003</t>
+  </si>
+  <si>
+    <t>5511 Olivas Park Drive  Ventura CA 93003</t>
   </si>
   <si>
     <r>
@@ -1858,7 +1963,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/21/24</t>
+      <t>07/01/24 to 10/23/24</t>
     </r>
     <r>
       <rPr>
@@ -1878,7 +1983,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I350.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I375.</t>
     </r>
   </si>
 </sst>
@@ -3105,8 +3210,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I350" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I350" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I375" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I375" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3461,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3513,7 +3618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3540,7 +3647,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>22448</v>
+        <v>24221</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3549,7 +3656,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3558,7 +3665,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3575,7 +3682,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3584,7 +3691,7 @@
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,9 +3714,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3618,19 +3725,19 @@
     <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
     <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -13504,7 +13611,7 @@
         <v>45657</v>
       </c>
       <c r="E342" s="49" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F342" s="49" t="s">
         <v>8</v>
@@ -13513,7 +13620,7 @@
         <v>59</v>
       </c>
       <c r="H342" s="51" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I342" s="26" t="s">
         <v>177</v>
@@ -13542,7 +13649,7 @@
         <v>11</v>
       </c>
       <c r="H343" s="51" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I343" s="26" t="s">
         <v>181</v>
@@ -13678,7 +13785,7 @@
         <v>45659</v>
       </c>
       <c r="E348" s="49" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F348" s="49" t="s">
         <v>9</v>
@@ -13687,7 +13794,7 @@
         <v>36</v>
       </c>
       <c r="H348" s="51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I348" s="26" t="s">
         <v>181</v>
@@ -13707,7 +13814,7 @@
         <v>45657</v>
       </c>
       <c r="E349" s="49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F349" s="49" t="s">
         <v>9</v>
@@ -13716,7 +13823,7 @@
         <v>8</v>
       </c>
       <c r="H349" s="51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I349" s="26" t="s">
         <v>191</v>
@@ -13745,10 +13852,735 @@
         <v>5</v>
       </c>
       <c r="H350" s="51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I350" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B351" s="50">
+        <v>45587</v>
+      </c>
+      <c r="C351" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D351" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E351" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F351" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G351" s="51">
+        <v>263</v>
+      </c>
+      <c r="H351" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="I351" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B352" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C352" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D352" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E352" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F352" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" s="51">
+        <v>58</v>
+      </c>
+      <c r="H352" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="I352" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A353" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C353" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D353" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E353" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F353" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G353" s="51">
+        <v>35</v>
+      </c>
+      <c r="H353" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="I353" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A354" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C354" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D354" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E354" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F354" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G354" s="51">
+        <v>50</v>
+      </c>
+      <c r="H354" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="I354" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A355" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C355" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D355" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E355" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F355" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G355" s="51">
+        <v>54</v>
+      </c>
+      <c r="H355" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="I355" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A356" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C356" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D356" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E356" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F356" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G356" s="51">
+        <v>34</v>
+      </c>
+      <c r="H356" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I356" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A357" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B357" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C357" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D357" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E357" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F357" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G357" s="51">
+        <v>72</v>
+      </c>
+      <c r="H357" s="51" t="s">
+        <v>577</v>
+      </c>
+      <c r="I357" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A358" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B358" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C358" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D358" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E358" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F358" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G358" s="51">
+        <v>46</v>
+      </c>
+      <c r="H358" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="I358" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A359" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C359" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D359" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E359" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F359" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G359" s="51">
+        <v>62</v>
+      </c>
+      <c r="H359" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="I359" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A360" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B360" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C360" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D360" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E360" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F360" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G360" s="51">
+        <v>53</v>
+      </c>
+      <c r="H360" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="I360" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A361" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B361" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C361" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D361" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E361" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F361" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G361" s="51">
+        <v>43</v>
+      </c>
+      <c r="H361" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="I361" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A362" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B362" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C362" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D362" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E362" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F362" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G362" s="51">
+        <v>60</v>
+      </c>
+      <c r="H362" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="I362" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A363" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B363" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C363" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D363" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E363" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="F363" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G363" s="51">
+        <v>29</v>
+      </c>
+      <c r="H363" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="I363" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A364" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" s="50">
+        <v>45583</v>
+      </c>
+      <c r="C364" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D364" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E364" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="F364" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G364" s="51">
+        <v>118</v>
+      </c>
+      <c r="H364" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="I364" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A365" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" s="50">
+        <v>45576</v>
+      </c>
+      <c r="C365" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D365" s="50">
+        <v>45639</v>
+      </c>
+      <c r="E365" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F365" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G365" s="51">
+        <v>1</v>
+      </c>
+      <c r="H365" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="I365" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A366" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B366" s="50">
+        <v>45579</v>
+      </c>
+      <c r="C366" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D366" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E366" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="F366" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" s="51">
+        <v>76</v>
+      </c>
+      <c r="H366" s="51" t="s">
+        <v>588</v>
+      </c>
+      <c r="I366" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A367" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B367" s="50">
+        <v>45580</v>
+      </c>
+      <c r="C367" s="50">
+        <v>45587</v>
+      </c>
+      <c r="D367" s="50">
+        <v>45640</v>
+      </c>
+      <c r="E367" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="F367" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G367" s="51">
+        <v>56</v>
+      </c>
+      <c r="H367" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="I367" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A368" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C368" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D368" s="50">
+        <v>45642</v>
+      </c>
+      <c r="E368" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="F368" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G368" s="51">
+        <v>138</v>
+      </c>
+      <c r="H368" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="I368" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A369" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B369" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C369" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D369" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E369" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="F369" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G369" s="51">
+        <v>67</v>
+      </c>
+      <c r="H369" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="I369" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A370" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B370" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C370" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D370" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E370" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="F370" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G370" s="51">
+        <v>138</v>
+      </c>
+      <c r="H370" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="I370" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A371" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B371" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C371" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D371" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E371" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="F371" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G371" s="51">
+        <v>100</v>
+      </c>
+      <c r="H371" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="I371" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A372" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B372" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C372" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D372" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E372" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="F372" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G372" s="51">
+        <v>75</v>
+      </c>
+      <c r="H372" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="I372" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A373" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B373" s="50">
+        <v>45583</v>
+      </c>
+      <c r="C373" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D373" s="50">
+        <v>45656</v>
+      </c>
+      <c r="E373" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="F373" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G373" s="51">
+        <v>42</v>
+      </c>
+      <c r="H373" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="I373" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A374" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B374" s="50">
+        <v>45583</v>
+      </c>
+      <c r="C374" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D374" s="50">
+        <v>45656</v>
+      </c>
+      <c r="E374" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="F374" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G374" s="51">
+        <v>42</v>
+      </c>
+      <c r="H374" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="I374" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A375" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B375" s="50">
+        <v>45583</v>
+      </c>
+      <c r="C375" s="50">
+        <v>45588</v>
+      </c>
+      <c r="D375" s="50">
+        <v>45656</v>
+      </c>
+      <c r="E375" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="F375" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G375" s="51">
+        <v>61</v>
+      </c>
+      <c r="H375" s="51" t="s">
+        <v>603</v>
+      </c>
+      <c r="I375" s="26" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -13765,7 +14597,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I350</xm:sqref>
+          <xm:sqref>I3:I375</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13892,7 +14724,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A0F70E-2A2C-42BD-9112-6E2235731584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5EDF9D-1BA4-47C2-9A9F-625F3F40E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="2" activeTab="2" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="616">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1832,8 +1832,113 @@
     <t>205 Concourse Blvd.  Santa Rosa CA 95403</t>
   </si>
   <si>
+    <t>D &amp; D Gear, Inc. dba Absolute Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>4890 East La Palma Avenue  Anaheim CA 92807</t>
+  </si>
+  <si>
+    <t>Stachs LLC</t>
+  </si>
+  <si>
+    <t>414 Lesser St  Oakland CA 94601</t>
+  </si>
+  <si>
+    <t>7731 Hayvenhurst Ave Ste C  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>1728 Glendale Blvd  Los Angeles CA 90026</t>
+  </si>
+  <si>
+    <t>5057 W. Pico Blvd  Los Angeles CA 90019</t>
+  </si>
+  <si>
+    <t>428 Lincoln Blvd  Venice CA 90291</t>
+  </si>
+  <si>
+    <t>1625 St. Gertrude Pl  Santa Ana CA 92705</t>
+  </si>
+  <si>
+    <t>1750 Iris Avenue #106  Sacramento CA 95815</t>
+  </si>
+  <si>
+    <t>3455 Camino Del Rio  San Diego CA 92108</t>
+  </si>
+  <si>
+    <t>2800 3rd St  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>337 Little&amp;#64257;eld Ave  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>1365 N 10th Street  San Jose CA 95112</t>
+  </si>
+  <si>
+    <t>471 Aaron St. Ste B  Cotati CA 94931</t>
+  </si>
+  <si>
+    <t>Georg Fischer Signet LLC</t>
+  </si>
+  <si>
+    <t>5462 North Irwindale Avenue  Baldwin Park CA 91706</t>
+  </si>
+  <si>
+    <t>Shadow Holdings, LLC, dba Bright Innovation Labs</t>
+  </si>
+  <si>
+    <t>Nestle USA</t>
+  </si>
+  <si>
+    <t>736 Garner Road  Modesto CA 95357</t>
+  </si>
+  <si>
+    <t>True Value Company, LLC</t>
+  </si>
+  <si>
+    <t>215 North Pioneer Avenue  Woodland CA 95776</t>
+  </si>
+  <si>
+    <t>ABB Optical Group, LLC</t>
+  </si>
+  <si>
+    <t>1750 North Loop Road, Suite 150  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Upwork Inc.</t>
+  </si>
+  <si>
+    <t>530 Lytton Avenue, Suite 301  Palo Alto CA 94301</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corporation</t>
+  </si>
+  <si>
+    <t>1213 Innsbruck Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Dart Container Corporation</t>
+  </si>
+  <si>
+    <t>150 N. Maple Street  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>1400 E. Victor Road  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>NB Farms, Inc.</t>
+  </si>
+  <si>
+    <t>5060 Olivas Park Drive  Ventura CA 93003</t>
+  </si>
+  <si>
+    <t>5100 Olivas Park Drive  Ventura CA 93003</t>
+  </si>
+  <si>
+    <t>5511 Olivas Park Drive  Ventura CA 93003</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/23/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/28/2024
 </t>
     </r>
     <r>
@@ -1847,109 +1952,37 @@
     </r>
   </si>
   <si>
-    <t>D &amp; D Gear, Inc. dba Absolute Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>4890 East La Palma Avenue  Anaheim CA 92807</t>
-  </si>
-  <si>
-    <t>Stachs LLC</t>
-  </si>
-  <si>
-    <t>414 Lesser St  Oakland CA 94601</t>
-  </si>
-  <si>
-    <t>7731 Hayvenhurst Ave Ste C  Van Nuys CA 91406</t>
-  </si>
-  <si>
-    <t>1728 Glendale Blvd  Los Angeles CA 90026</t>
-  </si>
-  <si>
-    <t>5057 W. Pico Blvd  Los Angeles CA 90019</t>
-  </si>
-  <si>
-    <t>428 Lincoln Blvd  Venice CA 90291</t>
-  </si>
-  <si>
-    <t>1625 St. Gertrude Pl  Santa Ana CA 92705</t>
-  </si>
-  <si>
-    <t>1750 Iris Avenue #106  Sacramento CA 95815</t>
-  </si>
-  <si>
-    <t>3455 Camino Del Rio  San Diego CA 92108</t>
-  </si>
-  <si>
-    <t>2800 3rd St  San Francisco CA 94107</t>
-  </si>
-  <si>
-    <t>337 Little&amp;#64257;eld Ave  South San Francisco CA 94080</t>
-  </si>
-  <si>
-    <t>1365 N 10th Street  San Jose CA 95112</t>
-  </si>
-  <si>
-    <t>471 Aaron St. Ste B  Cotati CA 94931</t>
-  </si>
-  <si>
-    <t>Georg Fischer Signet LLC</t>
-  </si>
-  <si>
-    <t>5462 North Irwindale Avenue  Baldwin Park CA 91706</t>
-  </si>
-  <si>
-    <t>Shadow Holdings, LLC, dba Bright Innovation Labs</t>
-  </si>
-  <si>
-    <t>Nestle USA</t>
-  </si>
-  <si>
-    <t>736 Garner Road  Modesto CA 95357</t>
-  </si>
-  <si>
-    <t>True Value Company, LLC</t>
-  </si>
-  <si>
-    <t>215 North Pioneer Avenue  Woodland CA 95776</t>
-  </si>
-  <si>
-    <t>ABB Optical Group, LLC</t>
-  </si>
-  <si>
-    <t>1750 North Loop Road, Suite 150  Alameda CA 94502</t>
-  </si>
-  <si>
-    <t>Upwork Inc.</t>
-  </si>
-  <si>
-    <t>530 Lytton Avenue, Suite 301  Palo Alto CA 94301</t>
-  </si>
-  <si>
-    <t>Boston Scientific Corporation</t>
-  </si>
-  <si>
-    <t>1213 Innsbruck Drive  Sunnyvale CA 94089</t>
-  </si>
-  <si>
-    <t>Dart Container Corporation</t>
-  </si>
-  <si>
-    <t>150 N. Maple Street  Corona CA 92878</t>
-  </si>
-  <si>
-    <t>1400 E. Victor Road  Lodi CA 95240</t>
-  </si>
-  <si>
-    <t>NB Farms, Inc.</t>
-  </si>
-  <si>
-    <t>5060 Olivas Park Drive  Ventura CA 93003</t>
-  </si>
-  <si>
-    <t>5100 Olivas Park Drive  Ventura CA 93003</t>
-  </si>
-  <si>
-    <t>5511 Olivas Park Drive  Ventura CA 93003</t>
+    <t>Twelve Benefit Corporation</t>
+  </si>
+  <si>
+    <t>600 Bancroft Way Suite H  Berkeley CA 94710</t>
+  </si>
+  <si>
+    <t>1135 Atlantic Avenue  Alameda CA 94501</t>
+  </si>
+  <si>
+    <t>Advanced Systems Group, LLC</t>
+  </si>
+  <si>
+    <t>1600 Ampitheatre Parkway  Mountain View CA 94043</t>
+  </si>
+  <si>
+    <t>100 Bay View Drive  Mountain View CA 94043</t>
+  </si>
+  <si>
+    <t>1160 Bordeaux Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Cattlemens Restaurant</t>
+  </si>
+  <si>
+    <t>5012 Petaluma Boulevard North  Petaluma CA 94952</t>
+  </si>
+  <si>
+    <t>Gold Bond Building Products, LLC</t>
+  </si>
+  <si>
+    <t>1850 Pier B Street  Long Beach CA 90813</t>
   </si>
   <si>
     <r>
@@ -1963,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/23/24</t>
+      <t>07/01/24 to 10/28/24</t>
     </r>
     <r>
       <rPr>
@@ -1983,7 +2016,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I375.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I382.</t>
     </r>
   </si>
 </sst>
@@ -3210,8 +3243,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I375" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I375" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I382" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I382" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3566,7 +3599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3618,9 +3651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3647,7 +3678,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>24221</v>
+        <v>24414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3656,7 +3687,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3682,7 +3713,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3714,9 +3745,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3733,11 +3764,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -13872,7 +13903,7 @@
         <v>45649</v>
       </c>
       <c r="E351" s="49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F351" s="49" t="s">
         <v>322</v>
@@ -13881,7 +13912,7 @@
         <v>263</v>
       </c>
       <c r="H351" s="51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I351" s="26" t="s">
         <v>177</v>
@@ -13901,7 +13932,7 @@
         <v>45657</v>
       </c>
       <c r="E352" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F352" s="49" t="s">
         <v>9</v>
@@ -13910,7 +13941,7 @@
         <v>58</v>
       </c>
       <c r="H352" s="51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I352" s="26" t="s">
         <v>180</v>
@@ -13930,7 +13961,7 @@
         <v>45657</v>
       </c>
       <c r="E353" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F353" s="49" t="s">
         <v>9</v>
@@ -13939,7 +13970,7 @@
         <v>35</v>
       </c>
       <c r="H353" s="51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I353" s="26" t="s">
         <v>180</v>
@@ -13959,7 +13990,7 @@
         <v>45657</v>
       </c>
       <c r="E354" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F354" s="49" t="s">
         <v>9</v>
@@ -13968,7 +13999,7 @@
         <v>50</v>
       </c>
       <c r="H354" s="51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I354" s="26" t="s">
         <v>180</v>
@@ -13988,7 +14019,7 @@
         <v>45657</v>
       </c>
       <c r="E355" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F355" s="49" t="s">
         <v>9</v>
@@ -13997,7 +14028,7 @@
         <v>54</v>
       </c>
       <c r="H355" s="51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I355" s="26" t="s">
         <v>180</v>
@@ -14017,7 +14048,7 @@
         <v>45657</v>
       </c>
       <c r="E356" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F356" s="49" t="s">
         <v>9</v>
@@ -14026,7 +14057,7 @@
         <v>34</v>
       </c>
       <c r="H356" s="51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I356" s="26" t="s">
         <v>180</v>
@@ -14046,7 +14077,7 @@
         <v>45657</v>
       </c>
       <c r="E357" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F357" s="49" t="s">
         <v>9</v>
@@ -14055,7 +14086,7 @@
         <v>72</v>
       </c>
       <c r="H357" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I357" s="26" t="s">
         <v>180</v>
@@ -14075,7 +14106,7 @@
         <v>45657</v>
       </c>
       <c r="E358" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F358" s="49" t="s">
         <v>9</v>
@@ -14084,7 +14115,7 @@
         <v>46</v>
       </c>
       <c r="H358" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I358" s="26" t="s">
         <v>180</v>
@@ -14104,7 +14135,7 @@
         <v>45657</v>
       </c>
       <c r="E359" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F359" s="49" t="s">
         <v>9</v>
@@ -14113,7 +14144,7 @@
         <v>62</v>
       </c>
       <c r="H359" s="51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I359" s="26" t="s">
         <v>180</v>
@@ -14133,7 +14164,7 @@
         <v>45657</v>
       </c>
       <c r="E360" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F360" s="49" t="s">
         <v>9</v>
@@ -14142,7 +14173,7 @@
         <v>53</v>
       </c>
       <c r="H360" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I360" s="26" t="s">
         <v>180</v>
@@ -14162,7 +14193,7 @@
         <v>45657</v>
       </c>
       <c r="E361" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F361" s="49" t="s">
         <v>9</v>
@@ -14171,7 +14202,7 @@
         <v>43</v>
       </c>
       <c r="H361" s="51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I361" s="26" t="s">
         <v>180</v>
@@ -14191,7 +14222,7 @@
         <v>45657</v>
       </c>
       <c r="E362" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F362" s="49" t="s">
         <v>9</v>
@@ -14200,7 +14231,7 @@
         <v>60</v>
       </c>
       <c r="H362" s="51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I362" s="26" t="s">
         <v>180</v>
@@ -14220,7 +14251,7 @@
         <v>45657</v>
       </c>
       <c r="E363" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F363" s="49" t="s">
         <v>9</v>
@@ -14229,7 +14260,7 @@
         <v>29</v>
       </c>
       <c r="H363" s="51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I363" s="26" t="s">
         <v>180</v>
@@ -14249,7 +14280,7 @@
         <v>45649</v>
       </c>
       <c r="E364" s="49" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F364" s="49" t="s">
         <v>322</v>
@@ -14258,7 +14289,7 @@
         <v>118</v>
       </c>
       <c r="H364" s="51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I364" s="26" t="s">
         <v>177</v>
@@ -14278,7 +14309,7 @@
         <v>45639</v>
       </c>
       <c r="E365" s="49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F365" s="49" t="s">
         <v>8</v>
@@ -14307,7 +14338,7 @@
         <v>45649</v>
       </c>
       <c r="E366" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F366" s="49" t="s">
         <v>10</v>
@@ -14316,7 +14347,7 @@
         <v>76</v>
       </c>
       <c r="H366" s="51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I366" s="26" t="s">
         <v>177</v>
@@ -14336,7 +14367,7 @@
         <v>45640</v>
       </c>
       <c r="E367" s="49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F367" s="49" t="s">
         <v>8</v>
@@ -14345,7 +14376,7 @@
         <v>56</v>
       </c>
       <c r="H367" s="51" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I367" s="26" t="s">
         <v>178</v>
@@ -14365,7 +14396,7 @@
         <v>45642</v>
       </c>
       <c r="E368" s="49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F368" s="49" t="s">
         <v>8</v>
@@ -14374,7 +14405,7 @@
         <v>138</v>
       </c>
       <c r="H368" s="51" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I368" s="26" t="s">
         <v>177</v>
@@ -14394,7 +14425,7 @@
         <v>45649</v>
       </c>
       <c r="E369" s="49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F369" s="49" t="s">
         <v>9</v>
@@ -14403,7 +14434,7 @@
         <v>67</v>
       </c>
       <c r="H369" s="51" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I369" s="26" t="s">
         <v>181</v>
@@ -14423,16 +14454,16 @@
         <v>45657</v>
       </c>
       <c r="E370" s="49" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F370" s="49" t="s">
         <v>8</v>
       </c>
       <c r="G370" s="51">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="H370" s="51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I370" s="26" t="s">
         <v>177</v>
@@ -14452,7 +14483,7 @@
         <v>45649</v>
       </c>
       <c r="E371" s="49" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F371" s="49" t="s">
         <v>9</v>
@@ -14461,7 +14492,7 @@
         <v>100</v>
       </c>
       <c r="H371" s="51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I371" s="26" t="s">
         <v>177</v>
@@ -14481,7 +14512,7 @@
         <v>45649</v>
       </c>
       <c r="E372" s="49" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F372" s="49" t="s">
         <v>8</v>
@@ -14490,7 +14521,7 @@
         <v>75</v>
       </c>
       <c r="H372" s="51" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I372" s="26" t="s">
         <v>177</v>
@@ -14510,7 +14541,7 @@
         <v>45656</v>
       </c>
       <c r="E373" s="49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F373" s="49" t="s">
         <v>8</v>
@@ -14519,7 +14550,7 @@
         <v>42</v>
       </c>
       <c r="H373" s="51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I373" s="26" t="s">
         <v>173</v>
@@ -14539,7 +14570,7 @@
         <v>45656</v>
       </c>
       <c r="E374" s="49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F374" s="49" t="s">
         <v>8</v>
@@ -14548,7 +14579,7 @@
         <v>42</v>
       </c>
       <c r="H374" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I374" s="26" t="s">
         <v>173</v>
@@ -14568,7 +14599,7 @@
         <v>45656</v>
       </c>
       <c r="E375" s="49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F375" s="49" t="s">
         <v>8</v>
@@ -14577,10 +14608,213 @@
         <v>61</v>
       </c>
       <c r="H375" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I375" s="26" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A376" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B376" s="50">
+        <v>45589</v>
+      </c>
+      <c r="C376" s="50">
+        <v>45589</v>
+      </c>
+      <c r="D376" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E376" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="F376" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G376" s="51">
+        <v>86</v>
+      </c>
+      <c r="H376" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="I376" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A377" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" s="50">
+        <v>45589</v>
+      </c>
+      <c r="C377" s="50">
+        <v>45589</v>
+      </c>
+      <c r="D377" s="50">
+        <v>45649</v>
+      </c>
+      <c r="E377" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="F377" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G377" s="51">
+        <v>8</v>
+      </c>
+      <c r="H377" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="I377" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A378" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B378" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C378" s="50">
+        <v>45590</v>
+      </c>
+      <c r="D378" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E378" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="F378" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G378" s="51">
+        <v>92</v>
+      </c>
+      <c r="H378" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="I378" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A379" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B379" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C379" s="50">
+        <v>45590</v>
+      </c>
+      <c r="D379" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E379" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="F379" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G379" s="51">
+        <v>1</v>
+      </c>
+      <c r="H379" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="I379" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A380" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B380" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C380" s="50">
+        <v>45590</v>
+      </c>
+      <c r="D380" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E380" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="F380" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G380" s="51">
+        <v>1</v>
+      </c>
+      <c r="H380" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="I380" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A381" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B381" s="50">
+        <v>45589</v>
+      </c>
+      <c r="C381" s="50">
+        <v>45590</v>
+      </c>
+      <c r="D381" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E381" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F381" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G381" s="51">
+        <v>63</v>
+      </c>
+      <c r="H381" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="I381" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A382" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="50">
+        <v>45593</v>
+      </c>
+      <c r="C382" s="50">
+        <v>45593</v>
+      </c>
+      <c r="D382" s="50">
+        <v>45653</v>
+      </c>
+      <c r="E382" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="F382" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G382" s="51">
+        <v>50</v>
+      </c>
+      <c r="H382" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="I382" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -14597,7 +14831,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I375</xm:sqref>
+          <xm:sqref>I3:I382</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14724,7 +14958,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5EDF9D-1BA4-47C2-9A9F-625F3F40E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF2BFE-AD1D-44F2-B003-6BF8029B27D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="2055" yWindow="1515" windowWidth="19455" windowHeight="11040" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="673">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1937,8 +1937,98 @@
     <t>5511 Olivas Park Drive  Ventura CA 93003</t>
   </si>
   <si>
+    <t>Twelve Benefit Corporation</t>
+  </si>
+  <si>
+    <t>600 Bancroft Way Suite H  Berkeley CA 94710</t>
+  </si>
+  <si>
+    <t>1135 Atlantic Avenue  Alameda CA 94501</t>
+  </si>
+  <si>
+    <t>Advanced Systems Group, LLC</t>
+  </si>
+  <si>
+    <t>1600 Ampitheatre Parkway  Mountain View CA 94043</t>
+  </si>
+  <si>
+    <t>100 Bay View Drive  Mountain View CA 94043</t>
+  </si>
+  <si>
+    <t>1160 Bordeaux Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Cattlemens Restaurant</t>
+  </si>
+  <si>
+    <t>5012 Petaluma Boulevard North  Petaluma CA 94952</t>
+  </si>
+  <si>
+    <t>Gold Bond Building Products, LLC</t>
+  </si>
+  <si>
+    <t>1850 Pier B Street  Long Beach CA 90813</t>
+  </si>
+  <si>
+    <t>1860 Barber Lane  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>Cremach Tech, Inc.</t>
+  </si>
+  <si>
+    <t>369 Meyer Circle  Corona CA 92879</t>
+  </si>
+  <si>
+    <t>390 B Meyer Circle  Corona CA 92879</t>
+  </si>
+  <si>
+    <t>FM Restaurants HQ, LLC dba Solita Tacos and Margaritas</t>
+  </si>
+  <si>
+    <t>1 Pine Ave  Long Beach CA 90802</t>
+  </si>
+  <si>
+    <t>GoPro, Inc.</t>
+  </si>
+  <si>
+    <t>3025 Clearview Way  San Mateo CA 94402</t>
+  </si>
+  <si>
+    <t>9615 Cherry Avenue  Fontana CA 92335</t>
+  </si>
+  <si>
+    <t>Dropbox, Inc.</t>
+  </si>
+  <si>
+    <t>1800 Owens St  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>DHL Supply Chain</t>
+  </si>
+  <si>
+    <t>6551 W. Schulte Road  Tracy CA 95377</t>
+  </si>
+  <si>
+    <t>Cabi, LLC</t>
+  </si>
+  <si>
+    <t>21750 Arnold Center Road  Carson CA 90810</t>
+  </si>
+  <si>
+    <t>Sodexo</t>
+  </si>
+  <si>
+    <t>555 East Hardy Street  Inglewood CA 90301</t>
+  </si>
+  <si>
+    <t>Ojai Valley Inn</t>
+  </si>
+  <si>
+    <t>905 Country Club Road  Ojai CA 93023</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/28/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/04/2024
 </t>
     </r>
     <r>
@@ -1952,37 +2042,118 @@
     </r>
   </si>
   <si>
-    <t>Twelve Benefit Corporation</t>
-  </si>
-  <si>
-    <t>600 Bancroft Way Suite H  Berkeley CA 94710</t>
-  </si>
-  <si>
-    <t>1135 Atlantic Avenue  Alameda CA 94501</t>
-  </si>
-  <si>
-    <t>Advanced Systems Group, LLC</t>
-  </si>
-  <si>
-    <t>1600 Ampitheatre Parkway  Mountain View CA 94043</t>
-  </si>
-  <si>
-    <t>100 Bay View Drive  Mountain View CA 94043</t>
-  </si>
-  <si>
-    <t>1160 Bordeaux Drive  Sunnyvale CA 94089</t>
-  </si>
-  <si>
-    <t>Cattlemens Restaurant</t>
-  </si>
-  <si>
-    <t>5012 Petaluma Boulevard North  Petaluma CA 94952</t>
-  </si>
-  <si>
-    <t>Gold Bond Building Products, LLC</t>
-  </si>
-  <si>
-    <t>1850 Pier B Street  Long Beach CA 90813</t>
+    <t>Trademango Solutions Inc., dba Article</t>
+  </si>
+  <si>
+    <t>20458 Corsair Blvd.  Hayward CA 94545</t>
+  </si>
+  <si>
+    <t>Hunt &amp; Sons LLC</t>
+  </si>
+  <si>
+    <t>3050 Wilbur Avenue  Antioch CA 94509</t>
+  </si>
+  <si>
+    <t>2891 Mosquito Road  Placerville CA 95667</t>
+  </si>
+  <si>
+    <t>IPG Mediabrands</t>
+  </si>
+  <si>
+    <t>1840 Century Park East  Los Angeles CA 90067</t>
+  </si>
+  <si>
+    <t>Host International Inc.</t>
+  </si>
+  <si>
+    <t>2249 Atwater Blvd  Atwater CA 95301</t>
+  </si>
+  <si>
+    <t>Calaveras County</t>
+  </si>
+  <si>
+    <t>746 Pool Station Road  San Andreas CA 95249</t>
+  </si>
+  <si>
+    <t>Tuolumne County</t>
+  </si>
+  <si>
+    <t>13079 Sanguinetti Road  Sonora CA 95370</t>
+  </si>
+  <si>
+    <t>Butte County</t>
+  </si>
+  <si>
+    <t>310 Nord Avenue  Chico CA 95926</t>
+  </si>
+  <si>
+    <t>Nevada County</t>
+  </si>
+  <si>
+    <t>720 S Auburn Street  Grass Valley CA 95945</t>
+  </si>
+  <si>
+    <t>Plumas County</t>
+  </si>
+  <si>
+    <t>188 Crescent Street  Quincy CA 95971</t>
+  </si>
+  <si>
+    <t>Shasta County</t>
+  </si>
+  <si>
+    <t>4990 Mountain Lakes Blvd  Redding CA 96003</t>
+  </si>
+  <si>
+    <t>245 Garden Street  Willows CA 95988</t>
+  </si>
+  <si>
+    <t>5725 Alder Avenue  Sacramento CA 95828</t>
+  </si>
+  <si>
+    <t>6001 Rossi Lane  Gilroy CA 95020</t>
+  </si>
+  <si>
+    <t>FIG Leasing Co., Inc. a subsidiary of Farmers Group, Inc.</t>
+  </si>
+  <si>
+    <t>19191 South Vermont Avenue  Torrance CA 90502</t>
+  </si>
+  <si>
+    <t>720 B Street  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>746 Merced Street  Newman CA 95360</t>
+  </si>
+  <si>
+    <t>2255 N. Ontario Street  Burbank CA 91504</t>
+  </si>
+  <si>
+    <t>8490 Hospitality LLC, dba Catch Steak</t>
+  </si>
+  <si>
+    <t>650 N La Cienega Blvd  Los Angeles CA 90069</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>300 Toni Stone Crossing  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>900 Metro Center Blvd  Foster City CA 94404</t>
+  </si>
+  <si>
+    <t>California Human Development</t>
+  </si>
+  <si>
+    <t>2895 Teepee Drive  Stockton CA 95205</t>
+  </si>
+  <si>
+    <t>Terre du Soleil dba Auberge du Soleil</t>
+  </si>
+  <si>
+    <t>180 Rutherford Hill Road  Rutherford CA 94573</t>
   </si>
   <si>
     <r>
@@ -1996,7 +2167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 10/28/24</t>
+      <t>07/01/24 to 11/04/24</t>
     </r>
     <r>
       <rPr>
@@ -2016,7 +2187,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I382.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I420.</t>
     </r>
   </si>
 </sst>
@@ -3243,8 +3414,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I382" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I382" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I420" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I420" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3678,7 +3849,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>24414</v>
+        <v>27128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3687,7 +3858,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3696,7 +3867,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3713,7 +3884,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3745,7 +3916,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3764,7 +3935,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>615</v>
+        <v>672</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -9840,7 +10011,7 @@
         <v>45547</v>
       </c>
       <c r="D211" s="31">
-        <v>45610</v>
+        <v>45657</v>
       </c>
       <c r="E211" s="45" t="s">
         <v>390</v>
@@ -10130,7 +10301,7 @@
         <v>45551</v>
       </c>
       <c r="D221" s="31">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="E221" s="26" t="s">
         <v>395</v>
@@ -14489,7 +14660,7 @@
         <v>9</v>
       </c>
       <c r="G371" s="51">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H371" s="51" t="s">
         <v>597</v>
@@ -14628,7 +14799,7 @@
         <v>45649</v>
       </c>
       <c r="E376" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F376" s="49" t="s">
         <v>9</v>
@@ -14637,7 +14808,7 @@
         <v>86</v>
       </c>
       <c r="H376" s="51" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I376" s="26" t="s">
         <v>184</v>
@@ -14657,7 +14828,7 @@
         <v>45649</v>
       </c>
       <c r="E377" s="49" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F377" s="49" t="s">
         <v>9</v>
@@ -14666,7 +14837,7 @@
         <v>8</v>
       </c>
       <c r="H377" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I377" s="26" t="s">
         <v>184</v>
@@ -14686,7 +14857,7 @@
         <v>45657</v>
       </c>
       <c r="E378" s="49" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F378" s="49" t="s">
         <v>9</v>
@@ -14695,7 +14866,7 @@
         <v>92</v>
       </c>
       <c r="H378" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I378" s="26" t="s">
         <v>178</v>
@@ -14715,7 +14886,7 @@
         <v>45657</v>
       </c>
       <c r="E379" s="49" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F379" s="49" t="s">
         <v>9</v>
@@ -14724,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="H379" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I379" s="26" t="s">
         <v>178</v>
@@ -14744,7 +14915,7 @@
         <v>45657</v>
       </c>
       <c r="E380" s="49" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F380" s="49" t="s">
         <v>9</v>
@@ -14753,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="H380" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I380" s="26" t="s">
         <v>178</v>
@@ -14773,7 +14944,7 @@
         <v>45657</v>
       </c>
       <c r="E381" s="49" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F381" s="49" t="s">
         <v>9</v>
@@ -14782,7 +14953,7 @@
         <v>63</v>
       </c>
       <c r="H381" s="51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I381" s="26" t="s">
         <v>190</v>
@@ -14802,7 +14973,7 @@
         <v>45653</v>
       </c>
       <c r="E382" s="49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F382" s="49" t="s">
         <v>8</v>
@@ -14811,10 +14982,1112 @@
         <v>50</v>
       </c>
       <c r="H382" s="51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I382" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A383" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B383" s="50">
+        <v>45588</v>
+      </c>
+      <c r="C383" s="50">
+        <v>45594</v>
+      </c>
+      <c r="D383" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E383" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F383" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G383" s="51">
+        <v>10</v>
+      </c>
+      <c r="H383" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="I383" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A384" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B384" s="50">
+        <v>45593</v>
+      </c>
+      <c r="C384" s="50">
+        <v>45594</v>
+      </c>
+      <c r="D384" s="50">
+        <v>45653</v>
+      </c>
+      <c r="E384" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F384" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G384" s="51">
+        <v>57</v>
+      </c>
+      <c r="H384" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="I384" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A385" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B385" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C385" s="50">
+        <v>45594</v>
+      </c>
+      <c r="D385" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E385" s="49" t="s">
+        <v>615</v>
+      </c>
+      <c r="F385" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G385" s="51">
+        <v>88</v>
+      </c>
+      <c r="H385" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="I385" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A386" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B386" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C386" s="50">
+        <v>45594</v>
+      </c>
+      <c r="D386" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E386" s="49" t="s">
+        <v>615</v>
+      </c>
+      <c r="F386" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G386" s="51">
+        <v>27</v>
+      </c>
+      <c r="H386" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="I386" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A387" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C387" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D387" s="50">
+        <v>45656</v>
+      </c>
+      <c r="E387" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="F387" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G387" s="51">
+        <v>54</v>
+      </c>
+      <c r="H387" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="I387" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A388" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B388" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C388" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D388" s="50">
+        <v>45604</v>
+      </c>
+      <c r="E388" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="F388" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G388" s="51">
+        <v>73</v>
+      </c>
+      <c r="H388" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="I388" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A389" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B389" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C389" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D389" s="50">
+        <v>45656</v>
+      </c>
+      <c r="E389" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="F389" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G389" s="51">
+        <v>1</v>
+      </c>
+      <c r="H389" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="I389" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A390" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B390" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C390" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D390" s="50">
+        <v>45656</v>
+      </c>
+      <c r="E390" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="F390" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G390" s="51">
+        <v>5</v>
+      </c>
+      <c r="H390" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="I390" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A391" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B391" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C391" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D391" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E391" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="F391" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G391" s="51">
+        <v>174</v>
+      </c>
+      <c r="H391" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="I391" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A392" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B392" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C392" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D392" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E392" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="F392" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G392" s="51">
+        <v>163</v>
+      </c>
+      <c r="H392" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="I392" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A393" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C393" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D393" s="50">
+        <v>45594</v>
+      </c>
+      <c r="E393" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="F393" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G393" s="51">
+        <v>70</v>
+      </c>
+      <c r="H393" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="I393" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A394" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C394" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D394" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E394" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="F394" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G394" s="51">
+        <v>59</v>
+      </c>
+      <c r="H394" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="I394" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A395" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B395" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C395" s="50">
+        <v>45595</v>
+      </c>
+      <c r="D395" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E395" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="F395" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" s="51">
+        <v>753</v>
+      </c>
+      <c r="H395" s="51" t="s">
+        <v>632</v>
+      </c>
+      <c r="I395" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A396" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B396" s="50">
+        <v>45596</v>
+      </c>
+      <c r="C396" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D396" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E396" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="F396" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G396" s="51">
+        <v>14</v>
+      </c>
+      <c r="H396" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="I396" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A397" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B397" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C397" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D397" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E397" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F397" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G397" s="51">
+        <v>8</v>
+      </c>
+      <c r="H397" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="I397" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A398" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="B398" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C398" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D398" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E398" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F398" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G398" s="51">
+        <v>3</v>
+      </c>
+      <c r="H398" s="51" t="s">
+        <v>638</v>
+      </c>
+      <c r="I398" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A399" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C399" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D399" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E399" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="F399" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G399" s="51">
+        <v>103</v>
+      </c>
+      <c r="H399" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="I399" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A400" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C400" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D400" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E400" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="F400" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G400" s="51">
+        <v>151</v>
+      </c>
+      <c r="H400" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="I400" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A401" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B401" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C401" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D401" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E401" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F401" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G401" s="51">
+        <v>1</v>
+      </c>
+      <c r="H401" s="51" t="s">
+        <v>642</v>
+      </c>
+      <c r="I401" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A402" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="B402" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C402" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D402" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E402" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F402" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G402" s="51">
+        <v>3</v>
+      </c>
+      <c r="H402" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="I402" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A403" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="B403" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C403" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D403" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E403" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F403" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G403" s="51">
+        <v>3</v>
+      </c>
+      <c r="H403" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="I403" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A404" s="49" t="s">
+        <v>647</v>
+      </c>
+      <c r="B404" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C404" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D404" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E404" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F404" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G404" s="51">
+        <v>10</v>
+      </c>
+      <c r="H404" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="I404" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A405" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="B405" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C405" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D405" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E405" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F405" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G405" s="51">
+        <v>3</v>
+      </c>
+      <c r="H405" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="I405" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A406" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="B406" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C406" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D406" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E406" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F406" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G406" s="51">
+        <v>4</v>
+      </c>
+      <c r="H406" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="I406" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A407" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="B407" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C407" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D407" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E407" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F407" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G407" s="51">
+        <v>7</v>
+      </c>
+      <c r="H407" s="51" t="s">
+        <v>654</v>
+      </c>
+      <c r="I407" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A408" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B408" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C408" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D408" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E408" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F408" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G408" s="51">
+        <v>3</v>
+      </c>
+      <c r="H408" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="I408" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A409" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B409" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C409" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D409" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E409" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F409" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G409" s="51">
+        <v>24</v>
+      </c>
+      <c r="H409" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="I409" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A410" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B410" s="50">
+        <v>45590</v>
+      </c>
+      <c r="C410" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D410" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E410" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F410" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G410" s="51">
+        <v>231</v>
+      </c>
+      <c r="H410" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="I410" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A411" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B411" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C411" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D411" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E411" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F411" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G411" s="51">
+        <v>2</v>
+      </c>
+      <c r="H411" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="I411" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A412" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" s="50">
+        <v>45596</v>
+      </c>
+      <c r="C412" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D412" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E412" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="F412" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G412" s="51">
+        <v>56</v>
+      </c>
+      <c r="H412" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="I412" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A413" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B413" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C413" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D413" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E413" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F413" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G413" s="51">
+        <v>23</v>
+      </c>
+      <c r="H413" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="I413" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A414" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B414" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C414" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D414" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E414" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="F414" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G414" s="51">
+        <v>1</v>
+      </c>
+      <c r="H414" s="51" t="s">
+        <v>661</v>
+      </c>
+      <c r="I414" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A415" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" s="50">
+        <v>45596</v>
+      </c>
+      <c r="C415" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D415" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E415" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="F415" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G415" s="51">
+        <v>130</v>
+      </c>
+      <c r="H415" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="I415" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A416" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416" s="50">
+        <v>45597</v>
+      </c>
+      <c r="C416" s="50">
+        <v>45597</v>
+      </c>
+      <c r="D416" s="50">
+        <v>45658</v>
+      </c>
+      <c r="E416" s="49" t="s">
+        <v>663</v>
+      </c>
+      <c r="F416" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G416" s="51">
+        <v>110</v>
+      </c>
+      <c r="H416" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="I416" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A417" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B417" s="50">
+        <v>45597</v>
+      </c>
+      <c r="C417" s="50">
+        <v>45597</v>
+      </c>
+      <c r="D417" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E417" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="F417" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G417" s="51">
+        <v>65</v>
+      </c>
+      <c r="H417" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="I417" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A418" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B418" s="50">
+        <v>45597</v>
+      </c>
+      <c r="C418" s="50">
+        <v>45597</v>
+      </c>
+      <c r="D418" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E418" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="F418" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G418" s="51">
+        <v>26</v>
+      </c>
+      <c r="H418" s="51" t="s">
+        <v>667</v>
+      </c>
+      <c r="I418" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A419" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B419" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C419" s="50">
+        <v>45597</v>
+      </c>
+      <c r="D419" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E419" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="F419" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G419" s="51">
+        <v>7</v>
+      </c>
+      <c r="H419" s="51" t="s">
+        <v>669</v>
+      </c>
+      <c r="I419" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A420" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B420" s="50">
+        <v>45597</v>
+      </c>
+      <c r="C420" s="50">
+        <v>45600</v>
+      </c>
+      <c r="D420" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E420" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="F420" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="51">
+        <v>217</v>
+      </c>
+      <c r="H420" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="I420" s="26" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -14831,7 +16104,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I382</xm:sqref>
+          <xm:sqref>I3:I420</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14958,7 +16231,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF2BFE-AD1D-44F2-B003-6BF8029B27D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8835CF18-1393-4AFB-A1D7-0449973C95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1515" windowWidth="19455" windowHeight="11040" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="689">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2027,8 +2027,122 @@
     <t>905 Country Club Road  Ojai CA 93023</t>
   </si>
   <si>
+    <t>Trademango Solutions Inc., dba Article</t>
+  </si>
+  <si>
+    <t>20458 Corsair Blvd.  Hayward CA 94545</t>
+  </si>
+  <si>
+    <t>Hunt &amp; Sons LLC</t>
+  </si>
+  <si>
+    <t>3050 Wilbur Avenue  Antioch CA 94509</t>
+  </si>
+  <si>
+    <t>2891 Mosquito Road  Placerville CA 95667</t>
+  </si>
+  <si>
+    <t>IPG Mediabrands</t>
+  </si>
+  <si>
+    <t>1840 Century Park East  Los Angeles CA 90067</t>
+  </si>
+  <si>
+    <t>Host International Inc.</t>
+  </si>
+  <si>
+    <t>2249 Atwater Blvd  Atwater CA 95301</t>
+  </si>
+  <si>
+    <t>Calaveras County</t>
+  </si>
+  <si>
+    <t>746 Pool Station Road  San Andreas CA 95249</t>
+  </si>
+  <si>
+    <t>Tuolumne County</t>
+  </si>
+  <si>
+    <t>13079 Sanguinetti Road  Sonora CA 95370</t>
+  </si>
+  <si>
+    <t>Butte County</t>
+  </si>
+  <si>
+    <t>310 Nord Avenue  Chico CA 95926</t>
+  </si>
+  <si>
+    <t>Nevada County</t>
+  </si>
+  <si>
+    <t>720 S Auburn Street  Grass Valley CA 95945</t>
+  </si>
+  <si>
+    <t>Plumas County</t>
+  </si>
+  <si>
+    <t>188 Crescent Street  Quincy CA 95971</t>
+  </si>
+  <si>
+    <t>Shasta County</t>
+  </si>
+  <si>
+    <t>4990 Mountain Lakes Blvd  Redding CA 96003</t>
+  </si>
+  <si>
+    <t>245 Garden Street  Willows CA 95988</t>
+  </si>
+  <si>
+    <t>5725 Alder Avenue  Sacramento CA 95828</t>
+  </si>
+  <si>
+    <t>6001 Rossi Lane  Gilroy CA 95020</t>
+  </si>
+  <si>
+    <t>FIG Leasing Co., Inc. a subsidiary of Farmers Group, Inc.</t>
+  </si>
+  <si>
+    <t>19191 South Vermont Avenue  Torrance CA 90502</t>
+  </si>
+  <si>
+    <t>720 B Street  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>746 Merced Street  Newman CA 95360</t>
+  </si>
+  <si>
+    <t>2255 N. Ontario Street  Burbank CA 91504</t>
+  </si>
+  <si>
+    <t>8490 Hospitality LLC, dba Catch Steak</t>
+  </si>
+  <si>
+    <t>650 N La Cienega Blvd  Los Angeles CA 90069</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>300 Toni Stone Crossing  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>900 Metro Center Blvd  Foster City CA 94404</t>
+  </si>
+  <si>
+    <t>California Human Development</t>
+  </si>
+  <si>
+    <t>2895 Teepee Drive  Stockton CA 95205</t>
+  </si>
+  <si>
+    <t>Terre du Soleil dba Auberge du Soleil</t>
+  </si>
+  <si>
+    <t>180 Rutherford Hill Road  Rutherford CA 94573</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/04/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/06/2024
 </t>
     </r>
     <r>
@@ -2042,118 +2156,52 @@
     </r>
   </si>
   <si>
-    <t>Trademango Solutions Inc., dba Article</t>
-  </si>
-  <si>
-    <t>20458 Corsair Blvd.  Hayward CA 94545</t>
-  </si>
-  <si>
-    <t>Hunt &amp; Sons LLC</t>
-  </si>
-  <si>
-    <t>3050 Wilbur Avenue  Antioch CA 94509</t>
-  </si>
-  <si>
-    <t>2891 Mosquito Road  Placerville CA 95667</t>
-  </si>
-  <si>
-    <t>IPG Mediabrands</t>
-  </si>
-  <si>
-    <t>1840 Century Park East  Los Angeles CA 90067</t>
-  </si>
-  <si>
-    <t>Host International Inc.</t>
-  </si>
-  <si>
-    <t>2249 Atwater Blvd  Atwater CA 95301</t>
-  </si>
-  <si>
-    <t>Calaveras County</t>
-  </si>
-  <si>
-    <t>746 Pool Station Road  San Andreas CA 95249</t>
-  </si>
-  <si>
-    <t>Tuolumne County</t>
-  </si>
-  <si>
-    <t>13079 Sanguinetti Road  Sonora CA 95370</t>
-  </si>
-  <si>
-    <t>Butte County</t>
-  </si>
-  <si>
-    <t>310 Nord Avenue  Chico CA 95926</t>
-  </si>
-  <si>
-    <t>Nevada County</t>
-  </si>
-  <si>
-    <t>720 S Auburn Street  Grass Valley CA 95945</t>
-  </si>
-  <si>
-    <t>Plumas County</t>
-  </si>
-  <si>
-    <t>188 Crescent Street  Quincy CA 95971</t>
-  </si>
-  <si>
-    <t>Shasta County</t>
-  </si>
-  <si>
-    <t>4990 Mountain Lakes Blvd  Redding CA 96003</t>
-  </si>
-  <si>
-    <t>245 Garden Street  Willows CA 95988</t>
-  </si>
-  <si>
-    <t>5725 Alder Avenue  Sacramento CA 95828</t>
-  </si>
-  <si>
-    <t>6001 Rossi Lane  Gilroy CA 95020</t>
-  </si>
-  <si>
-    <t>FIG Leasing Co., Inc. a subsidiary of Farmers Group, Inc.</t>
-  </si>
-  <si>
-    <t>19191 South Vermont Avenue  Torrance CA 90502</t>
-  </si>
-  <si>
-    <t>720 B Street  Modesto CA 95354</t>
-  </si>
-  <si>
-    <t>746 Merced Street  Newman CA 95360</t>
-  </si>
-  <si>
-    <t>2255 N. Ontario Street  Burbank CA 91504</t>
-  </si>
-  <si>
-    <t>8490 Hospitality LLC, dba Catch Steak</t>
-  </si>
-  <si>
-    <t>650 N La Cienega Blvd  Los Angeles CA 90069</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>300 Toni Stone Crossing  San Francisco CA 94158</t>
-  </si>
-  <si>
-    <t>900 Metro Center Blvd  Foster City CA 94404</t>
-  </si>
-  <si>
-    <t>California Human Development</t>
-  </si>
-  <si>
-    <t>2895 Teepee Drive  Stockton CA 95205</t>
-  </si>
-  <si>
-    <t>Terre du Soleil dba Auberge du Soleil</t>
-  </si>
-  <si>
-    <t>180 Rutherford Hill Road  Rutherford CA 94573</t>
+    <t>Trophy Universal City Group LLC, dba Universal City Nissan</t>
+  </si>
+  <si>
+    <t>3550 Cahuenga Blvd West  Los Angeles CA 90068</t>
+  </si>
+  <si>
+    <t>ElringKlinger Silicon Valley Inc</t>
+  </si>
+  <si>
+    <t>40969 Encyclopedia Circle  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>350 S. Grand Ave  Los Angeles CA 90071</t>
+  </si>
+  <si>
+    <t>555 S. Flower St.  Los Angeles CA 90071</t>
+  </si>
+  <si>
+    <t>Polaris Specialty Pharmacy</t>
+  </si>
+  <si>
+    <t>410 Cloverleaf Drive  Baldwin Park CA 91706</t>
+  </si>
+  <si>
+    <t>Oldcastle BuildingEnvelope, Inc.</t>
+  </si>
+  <si>
+    <t>5631 Ferguson Drive  Los Angeles CA 90022</t>
+  </si>
+  <si>
+    <t>Full Steam Staffing</t>
+  </si>
+  <si>
+    <t>14425 Yorba Ave.  Chino CA 91710</t>
+  </si>
+  <si>
+    <t>Haemonetics Corporation</t>
+  </si>
+  <si>
+    <t>1630 West Industrial Park Street  Covina CA 91722</t>
+  </si>
+  <si>
+    <t>Coursera, Inc.</t>
+  </si>
+  <si>
+    <t>2440 West El Camino  Mountain View CA 94040</t>
   </si>
   <si>
     <r>
@@ -2167,7 +2215,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 11/04/24</t>
+      <t>07/01/24 to 11/06/24</t>
     </r>
     <r>
       <rPr>
@@ -2187,7 +2235,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I420.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I429.</t>
     </r>
   </si>
 </sst>
@@ -3414,8 +3462,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I420" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I420" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I429" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I429" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3849,7 +3897,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>27128</v>
+        <v>27643</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3858,7 +3906,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3884,7 +3932,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3916,7 +3964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3935,11 +3983,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -15379,7 +15427,7 @@
         <v>45657</v>
       </c>
       <c r="E396" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F396" s="49" t="s">
         <v>9</v>
@@ -15388,7 +15436,7 @@
         <v>14</v>
       </c>
       <c r="H396" s="51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I396" s="26" t="s">
         <v>179</v>
@@ -15408,7 +15456,7 @@
         <v>45658</v>
       </c>
       <c r="E397" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F397" s="49" t="s">
         <v>9</v>
@@ -15417,7 +15465,7 @@
         <v>8</v>
       </c>
       <c r="H397" s="51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I397" s="26" t="s">
         <v>178</v>
@@ -15437,7 +15485,7 @@
         <v>45658</v>
       </c>
       <c r="E398" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F398" s="49" t="s">
         <v>9</v>
@@ -15446,7 +15494,7 @@
         <v>3</v>
       </c>
       <c r="H398" s="51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I398" s="26" t="s">
         <v>178</v>
@@ -15466,7 +15514,7 @@
         <v>45659</v>
       </c>
       <c r="E399" s="49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F399" s="49" t="s">
         <v>9</v>
@@ -15475,7 +15523,7 @@
         <v>103</v>
       </c>
       <c r="H399" s="51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I399" s="26" t="s">
         <v>184</v>
@@ -15495,7 +15543,7 @@
         <v>45659</v>
       </c>
       <c r="E400" s="49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F400" s="49" t="s">
         <v>9</v>
@@ -15524,7 +15572,7 @@
         <v>45658</v>
       </c>
       <c r="E401" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F401" s="49" t="s">
         <v>9</v>
@@ -15533,7 +15581,7 @@
         <v>1</v>
       </c>
       <c r="H401" s="51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I401" s="26" t="s">
         <v>178</v>
@@ -15541,7 +15589,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B402" s="50">
         <v>45594</v>
@@ -15553,7 +15601,7 @@
         <v>45658</v>
       </c>
       <c r="E402" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F402" s="49" t="s">
         <v>9</v>
@@ -15562,7 +15610,7 @@
         <v>3</v>
       </c>
       <c r="H402" s="51" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I402" s="26" t="s">
         <v>178</v>
@@ -15570,7 +15618,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="49" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B403" s="50">
         <v>45594</v>
@@ -15582,7 +15630,7 @@
         <v>45658</v>
       </c>
       <c r="E403" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F403" s="49" t="s">
         <v>9</v>
@@ -15591,7 +15639,7 @@
         <v>3</v>
       </c>
       <c r="H403" s="51" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I403" s="26" t="s">
         <v>178</v>
@@ -15599,7 +15647,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="49" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B404" s="50">
         <v>45594</v>
@@ -15611,7 +15659,7 @@
         <v>45658</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F404" s="49" t="s">
         <v>9</v>
@@ -15620,7 +15668,7 @@
         <v>10</v>
       </c>
       <c r="H404" s="51" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I404" s="26" t="s">
         <v>178</v>
@@ -15628,7 +15676,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="49" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B405" s="50">
         <v>45594</v>
@@ -15640,7 +15688,7 @@
         <v>45658</v>
       </c>
       <c r="E405" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F405" s="49" t="s">
         <v>9</v>
@@ -15649,7 +15697,7 @@
         <v>3</v>
       </c>
       <c r="H405" s="51" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I405" s="26" t="s">
         <v>178</v>
@@ -15657,7 +15705,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="49" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B406" s="50">
         <v>45594</v>
@@ -15669,7 +15717,7 @@
         <v>45658</v>
       </c>
       <c r="E406" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F406" s="49" t="s">
         <v>9</v>
@@ -15678,7 +15726,7 @@
         <v>4</v>
       </c>
       <c r="H406" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I406" s="26" t="s">
         <v>178</v>
@@ -15686,7 +15734,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="49" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B407" s="50">
         <v>45594</v>
@@ -15698,7 +15746,7 @@
         <v>45658</v>
       </c>
       <c r="E407" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F407" s="49" t="s">
         <v>9</v>
@@ -15707,7 +15755,7 @@
         <v>7</v>
       </c>
       <c r="H407" s="51" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I407" s="26" t="s">
         <v>178</v>
@@ -15727,7 +15775,7 @@
         <v>45658</v>
       </c>
       <c r="E408" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F408" s="49" t="s">
         <v>9</v>
@@ -15736,7 +15784,7 @@
         <v>3</v>
       </c>
       <c r="H408" s="51" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I408" s="26" t="s">
         <v>178</v>
@@ -15756,7 +15804,7 @@
         <v>45658</v>
       </c>
       <c r="E409" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F409" s="49" t="s">
         <v>9</v>
@@ -15765,7 +15813,7 @@
         <v>24</v>
       </c>
       <c r="H409" s="51" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I409" s="26" t="s">
         <v>178</v>
@@ -15814,7 +15862,7 @@
         <v>45658</v>
       </c>
       <c r="E411" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F411" s="49" t="s">
         <v>9</v>
@@ -15823,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="H411" s="51" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I411" s="26" t="s">
         <v>178</v>
@@ -15843,7 +15891,7 @@
         <v>45657</v>
       </c>
       <c r="E412" s="49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F412" s="49" t="s">
         <v>9</v>
@@ -15852,7 +15900,7 @@
         <v>56</v>
       </c>
       <c r="H412" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I412" s="26" t="s">
         <v>182</v>
@@ -15872,7 +15920,7 @@
         <v>45658</v>
       </c>
       <c r="E413" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F413" s="49" t="s">
         <v>9</v>
@@ -15881,7 +15929,7 @@
         <v>23</v>
       </c>
       <c r="H413" s="51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I413" s="26" t="s">
         <v>178</v>
@@ -15901,7 +15949,7 @@
         <v>45658</v>
       </c>
       <c r="E414" s="49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F414" s="49" t="s">
         <v>9</v>
@@ -15910,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="H414" s="51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I414" s="26" t="s">
         <v>178</v>
@@ -15930,7 +15978,7 @@
         <v>45657</v>
       </c>
       <c r="E415" s="49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F415" s="49" t="s">
         <v>9</v>
@@ -15939,7 +15987,7 @@
         <v>130</v>
       </c>
       <c r="H415" s="51" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I415" s="26" t="s">
         <v>182</v>
@@ -15959,7 +16007,7 @@
         <v>45658</v>
       </c>
       <c r="E416" s="49" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F416" s="49" t="s">
         <v>8</v>
@@ -15968,7 +16016,7 @@
         <v>110</v>
       </c>
       <c r="H416" s="51" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I416" s="26" t="s">
         <v>190</v>
@@ -15988,7 +16036,7 @@
         <v>45660</v>
       </c>
       <c r="E417" s="49" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F417" s="49" t="s">
         <v>9</v>
@@ -15997,7 +16045,7 @@
         <v>65</v>
       </c>
       <c r="H417" s="51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I417" s="26" t="s">
         <v>182</v>
@@ -16017,7 +16065,7 @@
         <v>45660</v>
       </c>
       <c r="E418" s="49" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F418" s="49" t="s">
         <v>9</v>
@@ -16026,7 +16074,7 @@
         <v>26</v>
       </c>
       <c r="H418" s="51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I418" s="26" t="s">
         <v>182</v>
@@ -16046,7 +16094,7 @@
         <v>45657</v>
       </c>
       <c r="E419" s="49" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F419" s="49" t="s">
         <v>8</v>
@@ -16055,7 +16103,7 @@
         <v>7</v>
       </c>
       <c r="H419" s="51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I419" s="26" t="s">
         <v>188</v>
@@ -16063,10 +16111,10 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="49" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B420" s="50">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="C420" s="50">
         <v>45600</v>
@@ -16075,19 +16123,280 @@
         <v>45660</v>
       </c>
       <c r="E420" s="49" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F420" s="49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G420" s="51">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="H420" s="51" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I420" s="26" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A421" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B421" s="50">
+        <v>45597</v>
+      </c>
+      <c r="C421" s="50">
+        <v>45600</v>
+      </c>
+      <c r="D421" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E421" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="F421" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="51">
+        <v>217</v>
+      </c>
+      <c r="H421" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="I421" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A422" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B422" s="50">
+        <v>45600</v>
+      </c>
+      <c r="C422" s="50">
+        <v>45601</v>
+      </c>
+      <c r="D422" s="50">
+        <v>45663</v>
+      </c>
+      <c r="E422" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="F422" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G422" s="51">
+        <v>27</v>
+      </c>
+      <c r="H422" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="I422" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A423" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" s="50">
+        <v>45601</v>
+      </c>
+      <c r="C423" s="50">
+        <v>45601</v>
+      </c>
+      <c r="D423" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E423" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F423" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G423" s="51">
+        <v>10</v>
+      </c>
+      <c r="H423" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="I423" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A424" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" s="50">
+        <v>45601</v>
+      </c>
+      <c r="C424" s="50">
+        <v>45601</v>
+      </c>
+      <c r="D424" s="50">
+        <v>45660</v>
+      </c>
+      <c r="E424" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F424" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G424" s="51">
+        <v>1</v>
+      </c>
+      <c r="H424" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="I424" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A425" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" s="50">
+        <v>45594</v>
+      </c>
+      <c r="C425" s="50">
+        <v>45601</v>
+      </c>
+      <c r="D425" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E425" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="F425" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G425" s="51">
+        <v>98</v>
+      </c>
+      <c r="H425" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="I425" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A426" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" s="50">
+        <v>45601</v>
+      </c>
+      <c r="C426" s="50">
+        <v>45601</v>
+      </c>
+      <c r="D426" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E426" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="F426" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G426" s="51">
+        <v>113</v>
+      </c>
+      <c r="H426" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="I426" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A427" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B427" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C427" s="50">
+        <v>45601</v>
+      </c>
+      <c r="D427" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E427" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="F427" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G427" s="51">
+        <v>44</v>
+      </c>
+      <c r="H427" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="I427" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A428" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" s="50">
+        <v>45587</v>
+      </c>
+      <c r="C428" s="50">
+        <v>45602</v>
+      </c>
+      <c r="D428" s="50">
+        <v>45657</v>
+      </c>
+      <c r="E428" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="F428" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G428" s="51">
+        <v>75</v>
+      </c>
+      <c r="H428" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="I428" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A429" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B429" s="50">
+        <v>45602</v>
+      </c>
+      <c r="C429" s="50">
+        <v>45602</v>
+      </c>
+      <c r="D429" s="50">
+        <v>45297</v>
+      </c>
+      <c r="E429" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="F429" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G429" s="51">
+        <v>61</v>
+      </c>
+      <c r="H429" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="I429" s="26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -16104,7 +16413,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I420</xm:sqref>
+          <xm:sqref>I3:I429</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16231,7 +16540,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>633</v>
+        <v>671</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8835CF18-1393-4AFB-A1D7-0449973C95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64F1F1F-8AB1-4009-8140-AD690CD989B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="691">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2141,8 +2141,56 @@
     <t>180 Rutherford Hill Road  Rutherford CA 94573</t>
   </si>
   <si>
+    <t>Trophy Universal City Group LLC, dba Universal City Nissan</t>
+  </si>
+  <si>
+    <t>3550 Cahuenga Blvd West  Los Angeles CA 90068</t>
+  </si>
+  <si>
+    <t>ElringKlinger Silicon Valley Inc</t>
+  </si>
+  <si>
+    <t>40969 Encyclopedia Circle  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>350 S. Grand Ave  Los Angeles CA 90071</t>
+  </si>
+  <si>
+    <t>555 S. Flower St.  Los Angeles CA 90071</t>
+  </si>
+  <si>
+    <t>Polaris Specialty Pharmacy</t>
+  </si>
+  <si>
+    <t>410 Cloverleaf Drive  Baldwin Park CA 91706</t>
+  </si>
+  <si>
+    <t>Oldcastle BuildingEnvelope, Inc.</t>
+  </si>
+  <si>
+    <t>5631 Ferguson Drive  Los Angeles CA 90022</t>
+  </si>
+  <si>
+    <t>Full Steam Staffing</t>
+  </si>
+  <si>
+    <t>14425 Yorba Ave.  Chino CA 91710</t>
+  </si>
+  <si>
+    <t>Haemonetics Corporation</t>
+  </si>
+  <si>
+    <t>1630 West Industrial Park Street  Covina CA 91722</t>
+  </si>
+  <si>
+    <t>Coursera, Inc.</t>
+  </si>
+  <si>
+    <t>2440 West El Camino  Mountain View CA 94040</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/06/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/11/2024
 </t>
     </r>
     <r>
@@ -2156,52 +2204,10 @@
     </r>
   </si>
   <si>
-    <t>Trophy Universal City Group LLC, dba Universal City Nissan</t>
-  </si>
-  <si>
-    <t>3550 Cahuenga Blvd West  Los Angeles CA 90068</t>
-  </si>
-  <si>
-    <t>ElringKlinger Silicon Valley Inc</t>
-  </si>
-  <si>
-    <t>40969 Encyclopedia Circle  Fremont CA 94538</t>
-  </si>
-  <si>
-    <t>350 S. Grand Ave  Los Angeles CA 90071</t>
-  </si>
-  <si>
-    <t>555 S. Flower St.  Los Angeles CA 90071</t>
-  </si>
-  <si>
-    <t>Polaris Specialty Pharmacy</t>
-  </si>
-  <si>
-    <t>410 Cloverleaf Drive  Baldwin Park CA 91706</t>
-  </si>
-  <si>
-    <t>Oldcastle BuildingEnvelope, Inc.</t>
-  </si>
-  <si>
-    <t>5631 Ferguson Drive  Los Angeles CA 90022</t>
-  </si>
-  <si>
-    <t>Full Steam Staffing</t>
-  </si>
-  <si>
-    <t>14425 Yorba Ave.  Chino CA 91710</t>
-  </si>
-  <si>
-    <t>Haemonetics Corporation</t>
-  </si>
-  <si>
-    <t>1630 West Industrial Park Street  Covina CA 91722</t>
-  </si>
-  <si>
-    <t>Coursera, Inc.</t>
-  </si>
-  <si>
-    <t>2440 West El Camino  Mountain View CA 94040</t>
+    <t>Reyes Coca-Cola Bottling, LLC</t>
+  </si>
+  <si>
+    <t>1733 Morgan Road, Suite 200  Modesto CA 95358</t>
   </si>
   <si>
     <r>
@@ -2215,7 +2221,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 11/06/24</t>
+      <t>07/01/24 to 11/11/24</t>
     </r>
     <r>
       <rPr>
@@ -2235,7 +2241,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I429.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I431.</t>
     </r>
   </si>
 </sst>
@@ -3462,8 +3468,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I429" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I429" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I431" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I431" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3897,7 +3903,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>27643</v>
+        <v>27752</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3906,7 +3912,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3932,7 +3938,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3964,7 +3970,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3983,11 +3989,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -16123,7 +16129,7 @@
         <v>45660</v>
       </c>
       <c r="E420" s="49" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F420" s="49" t="s">
         <v>8</v>
@@ -16132,7 +16138,7 @@
         <v>86</v>
       </c>
       <c r="H420" s="51" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I420" s="26" t="s">
         <v>190</v>
@@ -16181,7 +16187,7 @@
         <v>45663</v>
       </c>
       <c r="E422" s="49" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F422" s="49" t="s">
         <v>8</v>
@@ -16190,7 +16196,7 @@
         <v>27</v>
       </c>
       <c r="H422" s="51" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I422" s="26" t="s">
         <v>177</v>
@@ -16219,7 +16225,7 @@
         <v>10</v>
       </c>
       <c r="H423" s="51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I423" s="26" t="s">
         <v>182</v>
@@ -16248,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="H424" s="51" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I424" s="26" t="s">
         <v>182</v>
@@ -16268,7 +16274,7 @@
         <v>45657</v>
       </c>
       <c r="E425" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F425" s="49" t="s">
         <v>8</v>
@@ -16277,7 +16283,7 @@
         <v>98</v>
       </c>
       <c r="H425" s="51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I425" s="26" t="s">
         <v>179</v>
@@ -16297,7 +16303,7 @@
         <v>45657</v>
       </c>
       <c r="E426" s="49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F426" s="49" t="s">
         <v>8</v>
@@ -16306,7 +16312,7 @@
         <v>113</v>
       </c>
       <c r="H426" s="51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I426" s="26" t="s">
         <v>177</v>
@@ -16326,7 +16332,7 @@
         <v>45657</v>
       </c>
       <c r="E427" s="49" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F427" s="49" t="s">
         <v>9</v>
@@ -16335,7 +16341,7 @@
         <v>44</v>
       </c>
       <c r="H427" s="51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I427" s="26" t="s">
         <v>186</v>
@@ -16355,7 +16361,7 @@
         <v>45657</v>
       </c>
       <c r="E428" s="49" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F428" s="49" t="s">
         <v>8</v>
@@ -16364,7 +16370,7 @@
         <v>75</v>
       </c>
       <c r="H428" s="51" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I428" s="26" t="s">
         <v>178</v>
@@ -16384,7 +16390,7 @@
         <v>45297</v>
       </c>
       <c r="E429" s="49" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F429" s="49" t="s">
         <v>9</v>
@@ -16393,10 +16399,68 @@
         <v>61</v>
       </c>
       <c r="H429" s="51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I429" s="26" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A430" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" s="50">
+        <v>45603</v>
+      </c>
+      <c r="C430" s="50">
+        <v>45603</v>
+      </c>
+      <c r="D430" s="50">
+        <v>45667</v>
+      </c>
+      <c r="E430" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F430" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G430" s="51">
+        <v>8</v>
+      </c>
+      <c r="H430" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="I430" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A431" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B431" s="50">
+        <v>45604</v>
+      </c>
+      <c r="C431" s="50">
+        <v>45604</v>
+      </c>
+      <c r="D431" s="50">
+        <v>45667</v>
+      </c>
+      <c r="E431" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="F431" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G431" s="51">
+        <v>101</v>
+      </c>
+      <c r="H431" s="51" t="s">
+        <v>689</v>
+      </c>
+      <c r="I431" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -16413,7 +16477,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I429</xm:sqref>
+          <xm:sqref>I3:I431</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16540,7 +16604,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64F1F1F-8AB1-4009-8140-AD690CD989B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DCE0C5-8521-48DA-B729-06DFA03DC4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="714">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2189,8 +2189,14 @@
     <t>2440 West El Camino  Mountain View CA 94040</t>
   </si>
   <si>
+    <t>Reyes Coca-Cola Bottling, LLC</t>
+  </si>
+  <si>
+    <t>1733 Morgan Road, Suite 200  Modesto CA 95358</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/11/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/13/2024
 </t>
     </r>
     <r>
@@ -2204,10 +2210,73 @@
     </r>
   </si>
   <si>
-    <t>Reyes Coca-Cola Bottling, LLC</t>
-  </si>
-  <si>
-    <t>1733 Morgan Road, Suite 200  Modesto CA 95358</t>
+    <t>TGH Employees LLC dba The Highlight Room</t>
+  </si>
+  <si>
+    <t>6417 Selma Ave.  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>Straight Smile LLC dba Byte</t>
+  </si>
+  <si>
+    <t>1556 20th St  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>Equinix</t>
+  </si>
+  <si>
+    <t>1 Lagoon Drive  Redwood City CA 94065</t>
+  </si>
+  <si>
+    <t>AMD, Inc.</t>
+  </si>
+  <si>
+    <t>2485 Augustine Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Clark Pacific</t>
+  </si>
+  <si>
+    <t>9367 Holly Road  Adelanto CA 92301</t>
+  </si>
+  <si>
+    <t>HSNi, LLC</t>
+  </si>
+  <si>
+    <t>13423 Santa Ana Ave.  Fontana CA 92337</t>
+  </si>
+  <si>
+    <t>BP Corporation North America Inc.</t>
+  </si>
+  <si>
+    <t>505 Howard Street, 2nd Floor  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>Xilinx, Inc.</t>
+  </si>
+  <si>
+    <t>2100 Logic Drive  San Jose CA 95124</t>
+  </si>
+  <si>
+    <t>1380 Charles Willard Street  Carson CA 90746</t>
+  </si>
+  <si>
+    <t>Gilead Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>333 Lakeside Drive  Foster City CA 94404</t>
+  </si>
+  <si>
+    <t>Alard Engineering</t>
+  </si>
+  <si>
+    <t>1629 W 132nd St.  Gardena CA 90249</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>800 Oak Grove Drive  La Canada Flintridge CA 91011</t>
   </si>
   <si>
     <r>
@@ -2221,7 +2290,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 11/11/24</t>
+      <t>07/01/24 to 11/13/24</t>
     </r>
     <r>
       <rPr>
@@ -2241,7 +2310,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I431.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I444.</t>
     </r>
   </si>
 </sst>
@@ -3468,8 +3537,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I431" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I431" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I444" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I444" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3903,7 +3972,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>27752</v>
+        <v>29016</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3912,7 +3981,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3938,7 +4007,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3970,13 +4039,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
@@ -3987,13 +4056,13 @@
     <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -16448,7 +16517,7 @@
         <v>45667</v>
       </c>
       <c r="E431" s="49" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F431" s="49" t="s">
         <v>8</v>
@@ -16457,10 +16526,387 @@
         <v>101</v>
       </c>
       <c r="H431" s="51" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I431" s="26" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A432" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432" s="50">
+        <v>45608</v>
+      </c>
+      <c r="C432" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D432" s="50">
+        <v>45672</v>
+      </c>
+      <c r="E432" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="F432" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G432" s="51">
+        <v>134</v>
+      </c>
+      <c r="H432" s="51" t="s">
+        <v>691</v>
+      </c>
+      <c r="I432" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A433" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" s="50">
+        <v>45603</v>
+      </c>
+      <c r="C433" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D433" s="50">
+        <v>45663</v>
+      </c>
+      <c r="E433" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="F433" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G433" s="51">
+        <v>72</v>
+      </c>
+      <c r="H433" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="I433" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A434" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B434" s="50">
+        <v>45604</v>
+      </c>
+      <c r="C434" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D434" s="50">
+        <v>45632</v>
+      </c>
+      <c r="E434" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="F434" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G434" s="51">
+        <v>87</v>
+      </c>
+      <c r="H434" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="I434" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A435" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B435" s="50">
+        <v>45607</v>
+      </c>
+      <c r="C435" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D435" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E435" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="F435" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G435" s="51">
+        <v>57</v>
+      </c>
+      <c r="H435" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="I435" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A436" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B436" s="50">
+        <v>45603</v>
+      </c>
+      <c r="C436" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D436" s="50">
+        <v>45665</v>
+      </c>
+      <c r="E436" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="F436" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G436" s="51">
+        <v>88</v>
+      </c>
+      <c r="H436" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="I436" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A437" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B437" s="50">
+        <v>45607</v>
+      </c>
+      <c r="C437" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D437" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E437" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="F437" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G437" s="51">
+        <v>87</v>
+      </c>
+      <c r="H437" s="51" t="s">
+        <v>701</v>
+      </c>
+      <c r="I437" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A438" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B438" s="50">
+        <v>45607</v>
+      </c>
+      <c r="C438" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D438" s="50">
+        <v>45666</v>
+      </c>
+      <c r="E438" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="F438" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G438" s="51">
+        <v>5</v>
+      </c>
+      <c r="H438" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="I438" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A439" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B439" s="50">
+        <v>45607</v>
+      </c>
+      <c r="C439" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D439" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E439" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="F439" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G439" s="51">
+        <v>72</v>
+      </c>
+      <c r="H439" s="51" t="s">
+        <v>705</v>
+      </c>
+      <c r="I439" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A440" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B440" s="50">
+        <v>45608</v>
+      </c>
+      <c r="C440" s="50">
+        <v>45608</v>
+      </c>
+      <c r="D440" s="50">
+        <v>45669</v>
+      </c>
+      <c r="E440" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="F440" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G440" s="51">
+        <v>24</v>
+      </c>
+      <c r="H440" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="I440" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A441" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B441" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C441" s="50">
+        <v>45609</v>
+      </c>
+      <c r="D441" s="50">
+        <v>45730</v>
+      </c>
+      <c r="E441" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="F441" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G441" s="51">
+        <v>104</v>
+      </c>
+      <c r="H441" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="I441" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A442" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B442" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C442" s="50">
+        <v>45609</v>
+      </c>
+      <c r="D442" s="50">
+        <v>45611</v>
+      </c>
+      <c r="E442" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F442" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G442" s="51">
+        <v>120</v>
+      </c>
+      <c r="H442" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="I442" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A443" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" s="50">
+        <v>45608</v>
+      </c>
+      <c r="C443" s="50">
+        <v>45609</v>
+      </c>
+      <c r="D443" s="50">
+        <v>45594</v>
+      </c>
+      <c r="E443" s="49" t="s">
+        <v>709</v>
+      </c>
+      <c r="F443" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G443" s="51">
+        <v>86</v>
+      </c>
+      <c r="H443" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="I443" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A444" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C444" s="50">
+        <v>45609</v>
+      </c>
+      <c r="D444" s="50">
+        <v>45669</v>
+      </c>
+      <c r="E444" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="F444" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G444" s="51">
+        <v>328</v>
+      </c>
+      <c r="H444" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="I444" s="26" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -16477,7 +16923,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I431</xm:sqref>
+          <xm:sqref>I3:I444</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16595,7 +17041,7 @@
     <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -16604,7 +17050,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DCE0C5-8521-48DA-B729-06DFA03DC4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F0D08-A05C-4422-97FB-7C6C5A99DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="871">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2195,8 +2195,77 @@
     <t>1733 Morgan Road, Suite 200  Modesto CA 95358</t>
   </si>
   <si>
+    <t>TGH Employees LLC dba The Highlight Room</t>
+  </si>
+  <si>
+    <t>6417 Selma Ave.  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>Straight Smile LLC dba Byte</t>
+  </si>
+  <si>
+    <t>1556 20th St  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>Equinix</t>
+  </si>
+  <si>
+    <t>1 Lagoon Drive  Redwood City CA 94065</t>
+  </si>
+  <si>
+    <t>AMD, Inc.</t>
+  </si>
+  <si>
+    <t>2485 Augustine Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Clark Pacific</t>
+  </si>
+  <si>
+    <t>9367 Holly Road  Adelanto CA 92301</t>
+  </si>
+  <si>
+    <t>HSNi, LLC</t>
+  </si>
+  <si>
+    <t>13423 Santa Ana Ave.  Fontana CA 92337</t>
+  </si>
+  <si>
+    <t>BP Corporation North America Inc.</t>
+  </si>
+  <si>
+    <t>505 Howard Street, 2nd Floor  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>Xilinx, Inc.</t>
+  </si>
+  <si>
+    <t>2100 Logic Drive  San Jose CA 95124</t>
+  </si>
+  <si>
+    <t>1380 Charles Willard Street  Carson CA 90746</t>
+  </si>
+  <si>
+    <t>Gilead Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>333 Lakeside Drive  Foster City CA 94404</t>
+  </si>
+  <si>
+    <t>Alard Engineering</t>
+  </si>
+  <si>
+    <t>1629 W 132nd St.  Gardena CA 90249</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>800 Oak Grove Drive  La Canada Flintridge CA 91011</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/13/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/18/2024
 </t>
     </r>
     <r>
@@ -2210,73 +2279,475 @@
     </r>
   </si>
   <si>
-    <t>TGH Employees LLC dba The Highlight Room</t>
-  </si>
-  <si>
-    <t>6417 Selma Ave.  Los Angeles CA 90028</t>
-  </si>
-  <si>
-    <t>Straight Smile LLC dba Byte</t>
-  </si>
-  <si>
-    <t>1556 20th St  Santa Monica CA 90404</t>
-  </si>
-  <si>
-    <t>Equinix</t>
-  </si>
-  <si>
-    <t>1 Lagoon Drive  Redwood City CA 94065</t>
-  </si>
-  <si>
-    <t>AMD, Inc.</t>
-  </si>
-  <si>
-    <t>2485 Augustine Drive  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Clark Pacific</t>
-  </si>
-  <si>
-    <t>9367 Holly Road  Adelanto CA 92301</t>
-  </si>
-  <si>
-    <t>HSNi, LLC</t>
-  </si>
-  <si>
-    <t>13423 Santa Ana Ave.  Fontana CA 92337</t>
-  </si>
-  <si>
-    <t>BP Corporation North America Inc.</t>
-  </si>
-  <si>
-    <t>505 Howard Street, 2nd Floor  San Francisco CA 94105</t>
-  </si>
-  <si>
-    <t>Xilinx, Inc.</t>
-  </si>
-  <si>
-    <t>2100 Logic Drive  San Jose CA 95124</t>
-  </si>
-  <si>
-    <t>1380 Charles Willard Street  Carson CA 90746</t>
-  </si>
-  <si>
-    <t>Gilead Sciences, Inc.</t>
-  </si>
-  <si>
-    <t>333 Lakeside Drive  Foster City CA 94404</t>
-  </si>
-  <si>
-    <t>Alard Engineering</t>
-  </si>
-  <si>
-    <t>1629 W 132nd St.  Gardena CA 90249</t>
-  </si>
-  <si>
-    <t>California Institute of Technology</t>
-  </si>
-  <si>
-    <t>800 Oak Grove Drive  La Canada Flintridge CA 91011</t>
+    <t>Advance Stores Company, Incorporated and its subsidiary, Golden State Supply LLC</t>
+  </si>
+  <si>
+    <t>34928 McMurtrey Avenue  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>CTI Foods Azusa, LLC</t>
+  </si>
+  <si>
+    <t>1120 W Foothill Blvd  Azusa CA 91702</t>
+  </si>
+  <si>
+    <t>Red Bull North America, Inc.</t>
+  </si>
+  <si>
+    <t>1630 Stewart Street  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>1740 Stewart Street  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>3333 S Downey Road  Los Angeles CA 90058</t>
+  </si>
+  <si>
+    <t>Masimo Corporation</t>
+  </si>
+  <si>
+    <t>52 Discovery  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>58 Discovery  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>15750 Alton Pkwy  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>15776 Laguna Canyon Road  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>300 South Tippecanoe Avenue  San Bernardino CA 92408</t>
+  </si>
+  <si>
+    <t>The Toro Company</t>
+  </si>
+  <si>
+    <t>1588 N. Marshall Ave.  El Cajon CA 92020</t>
+  </si>
+  <si>
+    <t>Advance Stores Company, Incorporated and its subsidiary, Worldwide Auto Parts, Inc.</t>
+  </si>
+  <si>
+    <t>9089 Dallas St  La Mesa CA 91942</t>
+  </si>
+  <si>
+    <t>9748 Campo Rd.  Spring Valley CA 91977</t>
+  </si>
+  <si>
+    <t>Advance Stores Company, Incorporated</t>
+  </si>
+  <si>
+    <t>955 Fee Drive  Sacramento CA 95815</t>
+  </si>
+  <si>
+    <t>400 E Trimble Road  San Jose CA 95131</t>
+  </si>
+  <si>
+    <t>24005 Clawiter Road  Hayward CA 94545</t>
+  </si>
+  <si>
+    <t>7051 Commerce Circle  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>30085 Industrial Pkwy Sw  Union City CA 94587</t>
+  </si>
+  <si>
+    <t>14847 East 14th Street  San Leandro CA 94578</t>
+  </si>
+  <si>
+    <t>1555 Mangrove Avenue #150  Chico CA 95926</t>
+  </si>
+  <si>
+    <t>520 Contra Costa Blvd  Pleasant Hill CA 94523</t>
+  </si>
+  <si>
+    <t>3515 E Tulare Street  Fresno CA 93702</t>
+  </si>
+  <si>
+    <t>1633 E Fedora Avenue  Fresno CA 93726</t>
+  </si>
+  <si>
+    <t>693 West Shaw Avenue  Clovis CA 93612</t>
+  </si>
+  <si>
+    <t>5619 East Kings Canyon  Fresno CA 93727</t>
+  </si>
+  <si>
+    <t>Imperial County</t>
+  </si>
+  <si>
+    <t>902 North Imperial Avenue  El Centro CA 92243</t>
+  </si>
+  <si>
+    <t>400 Imperial Avenue  Calexico CA 92231</t>
+  </si>
+  <si>
+    <t>10800 Rosedale Hwy  Bakersfield CA 93312</t>
+  </si>
+  <si>
+    <t>10213 Main Street  Lamont CA 93241</t>
+  </si>
+  <si>
+    <t>34928 Mcmurtrey Avenue  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>2411 F Street, Suite 200  Bakersfield CA 93301</t>
+  </si>
+  <si>
+    <t>4014 E Niles  Bakersfield CA 93306</t>
+  </si>
+  <si>
+    <t>4605 Planz Road  Bakersfield CA 93309</t>
+  </si>
+  <si>
+    <t>Kings County</t>
+  </si>
+  <si>
+    <t>1840 W. Lacey Blvd  Hanford CA 93230</t>
+  </si>
+  <si>
+    <t>44215 10th St West  Lancaster CA 93534</t>
+  </si>
+  <si>
+    <t>1315 W Pacific Coast Highway Suite 101  Harbor City CA 90710</t>
+  </si>
+  <si>
+    <t>1131 East Colorado Blvd  Pasadena CA 91106</t>
+  </si>
+  <si>
+    <t>14211 Rosecrans Avenue  La Mirada CA 90638</t>
+  </si>
+  <si>
+    <t>3126 Sepulveda Boulevard  Torrance CA 90505</t>
+  </si>
+  <si>
+    <t>17801 Colima Road  City of Industry CA 91748</t>
+  </si>
+  <si>
+    <t>201 W Huntington Drive  Monrovia CA 91016</t>
+  </si>
+  <si>
+    <t>660 East Los Angeles Ste A1  Simi Valley CA 93065</t>
+  </si>
+  <si>
+    <t>1231 San Fernando Road, Suite 101  San Fernando CA 91340</t>
+  </si>
+  <si>
+    <t>11937 East Valley Blvd  El Monte CA 91732</t>
+  </si>
+  <si>
+    <t>44229 20th Street West Unit 103  Lancaster CA 93534</t>
+  </si>
+  <si>
+    <t>2669 Randolph Street  Huntington Park CA 90255</t>
+  </si>
+  <si>
+    <t>11454 E Washington Blvd  Whittier CA 90606</t>
+  </si>
+  <si>
+    <t>8535 Artesia Blvd  Bellflower CA 90706</t>
+  </si>
+  <si>
+    <t>8521 Van Nuys Blvd  Panorama City CA 91402</t>
+  </si>
+  <si>
+    <t>7340 Reseda Boulevard  Reseda CA 91335</t>
+  </si>
+  <si>
+    <t>20600 Golden Triangle Road  Santa Clarita CA 91351</t>
+  </si>
+  <si>
+    <t>1540 East Amar Road  West Covina CA 91792</t>
+  </si>
+  <si>
+    <t>10644 West Pico Blvd  Los Angeles CA 90064</t>
+  </si>
+  <si>
+    <t>3737 Crenshaw Blvd  Los Angeles CA 90016</t>
+  </si>
+  <si>
+    <t>6110 Sepulveda Blvd  Van Nuys CA 91411</t>
+  </si>
+  <si>
+    <t>10229 Lakewood Blvd  Downey CA 90241</t>
+  </si>
+  <si>
+    <t>256 South Atlantic Blvd  Los Angeles CA 90022</t>
+  </si>
+  <si>
+    <t>1802 Artesia Blvd  Redondo Beach CA 90278</t>
+  </si>
+  <si>
+    <t>11946 South Street  Artesia CA 90703</t>
+  </si>
+  <si>
+    <t>4645 E Pacific Coast Hwy, Suite 102  Long Beach CA 90804</t>
+  </si>
+  <si>
+    <t>254 West Olive Avenue  Burbank CA 91502</t>
+  </si>
+  <si>
+    <t>6136 West Manchester Avenue  Westchester CA 90045</t>
+  </si>
+  <si>
+    <t>4520 South Sepulveda Blvd  Culver City CA 90230</t>
+  </si>
+  <si>
+    <t>1200 West Washington Blvd  Los Angeles CA 90007</t>
+  </si>
+  <si>
+    <t>6325 Fallbrook Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>204 East Spruce Avenue  Inglewood CA 90301</t>
+  </si>
+  <si>
+    <t>340 East Holt Avenue  Pomona CA 91767</t>
+  </si>
+  <si>
+    <t>1240 North Azusa Avenue  Covina CA 91722</t>
+  </si>
+  <si>
+    <t>6065 Lankershim Blvd  North Hollywood CA 91606</t>
+  </si>
+  <si>
+    <t>3054 E Palmdale Blvd  Palmdale CA 93550</t>
+  </si>
+  <si>
+    <t>1207 West Main Street  Merced CA 95340</t>
+  </si>
+  <si>
+    <t>921 S Euclid Street  Anaheim CA 92802</t>
+  </si>
+  <si>
+    <t>1951 W. La Habra Blvd  La Habra CA 90631</t>
+  </si>
+  <si>
+    <t>1530 S. Harbor Blvd  Fullerton CA 92832</t>
+  </si>
+  <si>
+    <t>125 W. Imperial Hwy, Suite 100  La Habra CA 90631</t>
+  </si>
+  <si>
+    <t>120 East 1st Street  Santa Ana CA 92701</t>
+  </si>
+  <si>
+    <t>15223 Beach Boulevard  Westminster CA 92683</t>
+  </si>
+  <si>
+    <t>19122 Brookhurst Street #101  Huntington Beach CA 92646</t>
+  </si>
+  <si>
+    <t>22671 Lake Forest Drive  Lake Forest CA 92630</t>
+  </si>
+  <si>
+    <t>26881 Aliso Creek Road  Aliso Viejo CA 92656</t>
+  </si>
+  <si>
+    <t>8205 E. Santa Ana Canyon Unit B  Anaheim CA 92808</t>
+  </si>
+  <si>
+    <t>2946 Bristol Street  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>217 East Katella Avenue  Orange CA 92867</t>
+  </si>
+  <si>
+    <t>45460 Fargo Street  Indio CA 92201</t>
+  </si>
+  <si>
+    <t>5680 Mission Blvd  Riverside CA 92509</t>
+  </si>
+  <si>
+    <t>68-580 Ramon Road  Cathedral City CA 92234</t>
+  </si>
+  <si>
+    <t>10861 Magnolia Avenue  Riverside CA 92505</t>
+  </si>
+  <si>
+    <t>23470 Sunnymead Blvd  Moreno Valley CA 92553</t>
+  </si>
+  <si>
+    <t>581 N. Main Street 102  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>40605 Winchester Road  Temecula CA 92591</t>
+  </si>
+  <si>
+    <t>2048 W Florida Avenue  Hemet CA 92545</t>
+  </si>
+  <si>
+    <t>31505 Date Palm Drive Suite 2  Cathedral City CA 92234</t>
+  </si>
+  <si>
+    <t>246 State Highway 111  Indio CA 92201</t>
+  </si>
+  <si>
+    <t>9304 Greenback Lane  Orangevale CA 95662</t>
+  </si>
+  <si>
+    <t>5135 Auburn Blvd  Sacramento CA 95841</t>
+  </si>
+  <si>
+    <t>10899 Folsom Boulevard  Rancho Cordova CA 95670</t>
+  </si>
+  <si>
+    <t>2500 Arden Way, Unit 101  Sacramento CA 95825</t>
+  </si>
+  <si>
+    <t>3538 Northgate Blvd  Sacramento CA 95834</t>
+  </si>
+  <si>
+    <t>645 West Holt Blvd  Ontario CA 91762</t>
+  </si>
+  <si>
+    <t>570 S Mt Vernon Avenue, Unit C  San Bernardino CA 92410</t>
+  </si>
+  <si>
+    <t>22451 Barton Road  Grand Terrace CA 92313</t>
+  </si>
+  <si>
+    <t>511 E. Foothill Blvd  Rialto CA 92376</t>
+  </si>
+  <si>
+    <t>16711 Valley Blvd  Fontana CA 92335</t>
+  </si>
+  <si>
+    <t>2415 South Vineyard Ave #B  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>9292 Foothill Blvd Suite 100  Rancho Cucamonga CA 91730</t>
+  </si>
+  <si>
+    <t>11960 Central Avenue  Chino CA 91710</t>
+  </si>
+  <si>
+    <t>15659 Main St Suite 101  Hesperia CA 92345</t>
+  </si>
+  <si>
+    <t>4046 Grand Avenue  Chino Hills CA 91710</t>
+  </si>
+  <si>
+    <t>304 E Foothill Blvd, Unit B  Upland CA 91786</t>
+  </si>
+  <si>
+    <t>5152 Arrow Highway  Montclair CA 91763</t>
+  </si>
+  <si>
+    <t>1662 W. Redlands Blvd  Redlands CA 92373</t>
+  </si>
+  <si>
+    <t>9089 Dallas Street  La Mesa CA 91942</t>
+  </si>
+  <si>
+    <t>9748 Campo Road  Spring Valley CA 91977</t>
+  </si>
+  <si>
+    <t>420 S Santa Fe Avenue  Vista CA 92084</t>
+  </si>
+  <si>
+    <t>10041 Mission Gorge Road  Santee CA 92071</t>
+  </si>
+  <si>
+    <t>197 Jamacha Road  El Cajon CA 92019</t>
+  </si>
+  <si>
+    <t>256 El Camino Real North  Encinitas CA 92024</t>
+  </si>
+  <si>
+    <t>1000 Tierra Del Rey  Chula Vista CA 91910</t>
+  </si>
+  <si>
+    <t>3752 Plaza Drive  Oceanside CA 92056</t>
+  </si>
+  <si>
+    <t>454 Broadway  Chula Vista CA 91910</t>
+  </si>
+  <si>
+    <t>2041 Mission Avenue Suite 100  Oceanside CA 92058</t>
+  </si>
+  <si>
+    <t>855 West Mission Avenue, Unit 100  Escondido CA 92025</t>
+  </si>
+  <si>
+    <t>4441 Genesee Avenue  San Diego CA 92117</t>
+  </si>
+  <si>
+    <t>6714 El Cajon Blvd  San Diego CA 92115</t>
+  </si>
+  <si>
+    <t>1645 E Miner Avenue  Stockton CA 95205</t>
+  </si>
+  <si>
+    <t>550 East Kettleman Lane  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>839 E Dr Martin Luther King Jr Blvd  Stockton CA 95206</t>
+  </si>
+  <si>
+    <t>4987 West Lane  Stockton CA 95210</t>
+  </si>
+  <si>
+    <t>1215 E Grand Avenue  Arroyo Grande CA 93420</t>
+  </si>
+  <si>
+    <t>1555 S Oxnard Blvd  Oxnard CA 93030</t>
+  </si>
+  <si>
+    <t>3550 El Cajon Blvd  San Diego CA 92104</t>
+  </si>
+  <si>
+    <t>1087 Old County Rd, Suite B  San Carlos CA 94070</t>
+  </si>
+  <si>
+    <t>Santa Barbara County</t>
+  </si>
+  <si>
+    <t>2150 S Broadway  Santa Maria CA 93454</t>
+  </si>
+  <si>
+    <t>1723 S Broadway #A  Santa Maria CA 93454</t>
+  </si>
+  <si>
+    <t>210 East 10th Street  Gilroy CA 95020</t>
+  </si>
+  <si>
+    <t>2730 Story Road  San Jose CA 95127</t>
+  </si>
+  <si>
+    <t>164 East El Camino Real  Sunnyvale CA 94087</t>
+  </si>
+  <si>
+    <t>3780 Stevens Creek Blvd Unit 20  San Jose CA 95117</t>
+  </si>
+  <si>
+    <t>Solano County</t>
+  </si>
+  <si>
+    <t>182 Plaza Drive  Vallejo CA 94591</t>
+  </si>
+  <si>
+    <t>1038 Petaluma Hill Road  Santa Rosa CA 95404</t>
+  </si>
+  <si>
+    <t>4801 Redwood Drive  Rohnert Park CA 94928</t>
+  </si>
+  <si>
+    <t>1340 Mchenry Avenue  Modesto CA 95350</t>
+  </si>
+  <si>
+    <t>2099 E Thousand Oaks Blvd  Thousand Oaks CA 91362</t>
+  </si>
+  <si>
+    <t>4001 E Main Street  Ventura CA 93003</t>
+  </si>
+  <si>
+    <t>320 Elm Street  Woodland CA 95695</t>
   </si>
   <si>
     <r>
@@ -2290,7 +2761,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 11/13/24</t>
+      <t>07/01/24 to 11/18/24</t>
     </r>
     <r>
       <rPr>
@@ -2310,7 +2781,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I444.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I592.</t>
     </r>
   </si>
 </sst>
@@ -3537,8 +4008,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I444" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I444" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I592" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I592" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3972,7 +4443,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>29016</v>
+        <v>31569</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3981,7 +4452,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4007,7 +4478,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4016,7 +4487,7 @@
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4039,30 +4510,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
     <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>713</v>
+        <v>870</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -16546,7 +17017,7 @@
         <v>45672</v>
       </c>
       <c r="E432" s="49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F432" s="49" t="s">
         <v>8</v>
@@ -16555,7 +17026,7 @@
         <v>134</v>
       </c>
       <c r="H432" s="51" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I432" s="26" t="s">
         <v>190</v>
@@ -16575,7 +17046,7 @@
         <v>45663</v>
       </c>
       <c r="E433" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F433" s="49" t="s">
         <v>9</v>
@@ -16584,7 +17055,7 @@
         <v>72</v>
       </c>
       <c r="H433" s="51" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I433" s="26" t="s">
         <v>177</v>
@@ -16604,7 +17075,7 @@
         <v>45632</v>
       </c>
       <c r="E434" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F434" s="49" t="s">
         <v>9</v>
@@ -16613,7 +17084,7 @@
         <v>87</v>
       </c>
       <c r="H434" s="51" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I434" s="26" t="s">
         <v>183</v>
@@ -16633,7 +17104,7 @@
         <v>45670</v>
       </c>
       <c r="E435" s="49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F435" s="49" t="s">
         <v>9</v>
@@ -16642,7 +17113,7 @@
         <v>57</v>
       </c>
       <c r="H435" s="51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I435" s="26" t="s">
         <v>184</v>
@@ -16662,7 +17133,7 @@
         <v>45665</v>
       </c>
       <c r="E436" s="49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F436" s="49" t="s">
         <v>9</v>
@@ -16671,7 +17142,7 @@
         <v>88</v>
       </c>
       <c r="H436" s="51" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I436" s="26" t="s">
         <v>177</v>
@@ -16691,7 +17162,7 @@
         <v>45670</v>
       </c>
       <c r="E437" s="49" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F437" s="49" t="s">
         <v>8</v>
@@ -16700,7 +17171,7 @@
         <v>87</v>
       </c>
       <c r="H437" s="51" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I437" s="26" t="s">
         <v>180</v>
@@ -16720,7 +17191,7 @@
         <v>45666</v>
       </c>
       <c r="E438" s="49" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F438" s="49" t="s">
         <v>8</v>
@@ -16729,7 +17200,7 @@
         <v>5</v>
       </c>
       <c r="H438" s="51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I438" s="26" t="s">
         <v>179</v>
@@ -16749,7 +17220,7 @@
         <v>45670</v>
       </c>
       <c r="E439" s="49" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F439" s="49" t="s">
         <v>9</v>
@@ -16758,7 +17229,7 @@
         <v>72</v>
       </c>
       <c r="H439" s="51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I439" s="26" t="s">
         <v>177</v>
@@ -16787,7 +17258,7 @@
         <v>24</v>
       </c>
       <c r="H440" s="51" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I440" s="26" t="s">
         <v>179</v>
@@ -16807,7 +17278,7 @@
         <v>45730</v>
       </c>
       <c r="E441" s="49" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F441" s="49" t="s">
         <v>9</v>
@@ -16816,7 +17287,7 @@
         <v>104</v>
       </c>
       <c r="H441" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I441" s="26" t="s">
         <v>184</v>
@@ -16865,7 +17336,7 @@
         <v>45594</v>
       </c>
       <c r="E443" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F443" s="49" t="s">
         <v>8</v>
@@ -16874,7 +17345,7 @@
         <v>86</v>
       </c>
       <c r="H443" s="51" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I443" s="26" t="s">
         <v>177</v>
@@ -16894,7 +17365,7 @@
         <v>45669</v>
       </c>
       <c r="E444" s="49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F444" s="49" t="s">
         <v>9</v>
@@ -16903,10 +17374,4302 @@
         <v>328</v>
       </c>
       <c r="H444" s="51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I444" s="26" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A445" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B445" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C445" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D445" s="50">
+        <v>45703</v>
+      </c>
+      <c r="E445" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F445" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G445" s="51">
+        <v>66</v>
+      </c>
+      <c r="H445" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="I445" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A446" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C446" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D446" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E446" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="F446" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G446" s="51">
+        <v>145</v>
+      </c>
+      <c r="H446" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="I446" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A447" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C447" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D447" s="50">
+        <v>45702</v>
+      </c>
+      <c r="E447" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="F447" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G447" s="51">
+        <v>38</v>
+      </c>
+      <c r="H447" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="I447" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A448" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C448" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D448" s="50">
+        <v>45702</v>
+      </c>
+      <c r="E448" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="F448" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G448" s="51">
+        <v>8</v>
+      </c>
+      <c r="H448" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="I448" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C449" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D449" s="50">
+        <v>45672</v>
+      </c>
+      <c r="E449" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="F449" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G449" s="51">
+        <v>445</v>
+      </c>
+      <c r="H449" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="I449" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A450" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B450" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C450" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D450" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E450" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="F450" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G450" s="51">
+        <v>72</v>
+      </c>
+      <c r="H450" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="I450" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A451" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B451" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C451" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D451" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E451" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="F451" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G451" s="51">
+        <v>1</v>
+      </c>
+      <c r="H451" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="I451" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A452" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B452" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C452" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D452" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E452" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="F452" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G452" s="51">
+        <v>1</v>
+      </c>
+      <c r="H452" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="I452" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A453" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B453" s="50">
+        <v>45609</v>
+      </c>
+      <c r="C453" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D453" s="50">
+        <v>45670</v>
+      </c>
+      <c r="E453" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="F453" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G453" s="51">
+        <v>1</v>
+      </c>
+      <c r="H453" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="I453" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A454" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C454" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D454" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E454" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="F454" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G454" s="51">
+        <v>37</v>
+      </c>
+      <c r="H454" s="51" t="s">
+        <v>698</v>
+      </c>
+      <c r="I454" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A455" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C455" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D455" s="50">
+        <v>45703</v>
+      </c>
+      <c r="E455" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F455" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G455" s="51">
+        <v>171</v>
+      </c>
+      <c r="H455" s="51" t="s">
+        <v>727</v>
+      </c>
+      <c r="I455" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C456" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D456" s="50">
+        <v>45663</v>
+      </c>
+      <c r="E456" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F456" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G456" s="51">
+        <v>122</v>
+      </c>
+      <c r="H456" s="51" t="s">
+        <v>729</v>
+      </c>
+      <c r="I456" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A457" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C457" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D457" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E457" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="F457" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G457" s="51">
+        <v>6</v>
+      </c>
+      <c r="H457" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="I457" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A458" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B458" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C458" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D458" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E458" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="F458" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G458" s="51">
+        <v>10</v>
+      </c>
+      <c r="H458" s="51" t="s">
+        <v>732</v>
+      </c>
+      <c r="I458" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A459" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B459" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C459" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D459" s="50">
+        <v>45745</v>
+      </c>
+      <c r="E459" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="F459" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G459" s="51">
+        <v>1</v>
+      </c>
+      <c r="H459" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="I459" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A460" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B460" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C460" s="50">
+        <v>45610</v>
+      </c>
+      <c r="D460" s="50">
+        <v>45744</v>
+      </c>
+      <c r="E460" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="F460" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G460" s="51">
+        <v>1</v>
+      </c>
+      <c r="H460" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="I460" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A461" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B461" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C461" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D461" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E461" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F461" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G461" s="51">
+        <v>8</v>
+      </c>
+      <c r="H461" s="51" t="s">
+        <v>736</v>
+      </c>
+      <c r="I461" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A462" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B462" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C462" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D462" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E462" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F462" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G462" s="51">
+        <v>8</v>
+      </c>
+      <c r="H462" s="51" t="s">
+        <v>737</v>
+      </c>
+      <c r="I462" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A463" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B463" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C463" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D463" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E463" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F463" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G463" s="51">
+        <v>9</v>
+      </c>
+      <c r="H463" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="I463" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A464" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B464" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C464" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D464" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E464" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F464" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G464" s="51">
+        <v>15</v>
+      </c>
+      <c r="H464" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="I464" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A465" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="B465" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C465" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D465" s="50">
+        <v>45715</v>
+      </c>
+      <c r="E465" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F465" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G465" s="51">
+        <v>8</v>
+      </c>
+      <c r="H465" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="I465" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A466" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B466" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C466" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D466" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E466" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F466" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G466" s="51">
+        <v>9</v>
+      </c>
+      <c r="H466" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="I466" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A467" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C467" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D467" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E467" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F467" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G467" s="51">
+        <v>8</v>
+      </c>
+      <c r="H467" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="I467" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A468" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C468" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D468" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E468" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F468" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G468" s="51">
+        <v>10</v>
+      </c>
+      <c r="H468" s="51" t="s">
+        <v>743</v>
+      </c>
+      <c r="I468" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A469" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C469" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D469" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E469" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F469" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G469" s="51">
+        <v>8</v>
+      </c>
+      <c r="H469" s="51" t="s">
+        <v>744</v>
+      </c>
+      <c r="I469" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A470" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C470" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D470" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E470" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F470" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G470" s="51">
+        <v>8</v>
+      </c>
+      <c r="H470" s="51" t="s">
+        <v>745</v>
+      </c>
+      <c r="I470" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A471" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B471" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C471" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D471" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E471" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F471" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G471" s="51">
+        <v>10</v>
+      </c>
+      <c r="H471" s="51" t="s">
+        <v>747</v>
+      </c>
+      <c r="I471" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A472" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B472" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C472" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D472" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E472" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F472" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G472" s="51">
+        <v>8</v>
+      </c>
+      <c r="H472" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="I472" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A473" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B473" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C473" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D473" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E473" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F473" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G473" s="51">
+        <v>8</v>
+      </c>
+      <c r="H473" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="I473" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A474" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B474" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C474" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D474" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E474" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F474" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G474" s="51">
+        <v>11</v>
+      </c>
+      <c r="H474" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="I474" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A475" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B475" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C475" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D475" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E475" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F475" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G475" s="51">
+        <v>11</v>
+      </c>
+      <c r="H475" s="51" t="s">
+        <v>751</v>
+      </c>
+      <c r="I475" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A476" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B476" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C476" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D476" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E476" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F476" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G476" s="51">
+        <v>15</v>
+      </c>
+      <c r="H476" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="I476" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A477" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B477" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C477" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D477" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E477" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F477" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G477" s="51">
+        <v>12</v>
+      </c>
+      <c r="H477" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="I477" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A478" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B478" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C478" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D478" s="50">
+        <v>45705</v>
+      </c>
+      <c r="E478" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F478" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G478" s="51">
+        <v>10</v>
+      </c>
+      <c r="H478" s="51" t="s">
+        <v>754</v>
+      </c>
+      <c r="I478" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A479" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="B479" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C479" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D479" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E479" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F479" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G479" s="51">
+        <v>9</v>
+      </c>
+      <c r="H479" s="51" t="s">
+        <v>756</v>
+      </c>
+      <c r="I479" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A480" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C480" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D480" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E480" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F480" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G480" s="51">
+        <v>12</v>
+      </c>
+      <c r="H480" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="I480" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A481" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C481" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D481" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E481" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F481" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G481" s="51">
+        <v>10</v>
+      </c>
+      <c r="H481" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="I481" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A482" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C482" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D482" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E482" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F482" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G482" s="51">
+        <v>7</v>
+      </c>
+      <c r="H482" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="I482" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A483" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C483" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D483" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E483" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F483" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G483" s="51">
+        <v>9</v>
+      </c>
+      <c r="H483" s="51" t="s">
+        <v>760</v>
+      </c>
+      <c r="I483" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A484" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C484" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D484" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E484" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F484" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G484" s="51">
+        <v>9</v>
+      </c>
+      <c r="H484" s="51" t="s">
+        <v>761</v>
+      </c>
+      <c r="I484" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A485" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C485" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D485" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E485" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F485" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G485" s="51">
+        <v>12</v>
+      </c>
+      <c r="H485" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="I485" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A486" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C486" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D486" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E486" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F486" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G486" s="51">
+        <v>10</v>
+      </c>
+      <c r="H486" s="51" t="s">
+        <v>763</v>
+      </c>
+      <c r="I486" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A487" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C487" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D487" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E487" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F487" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G487" s="51">
+        <v>7</v>
+      </c>
+      <c r="H487" s="51" t="s">
+        <v>764</v>
+      </c>
+      <c r="I487" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A488" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C488" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D488" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E488" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F488" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G488" s="51">
+        <v>8</v>
+      </c>
+      <c r="H488" s="51" t="s">
+        <v>765</v>
+      </c>
+      <c r="I488" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A489" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C489" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D489" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E489" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F489" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G489" s="51">
+        <v>9</v>
+      </c>
+      <c r="H489" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="I489" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A490" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C490" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D490" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E490" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F490" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G490" s="51">
+        <v>11</v>
+      </c>
+      <c r="H490" s="51" t="s">
+        <v>767</v>
+      </c>
+      <c r="I490" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A491" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C491" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D491" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E491" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F491" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G491" s="51">
+        <v>12</v>
+      </c>
+      <c r="H491" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="I491" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A492" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C492" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D492" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E492" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F492" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G492" s="51">
+        <v>9</v>
+      </c>
+      <c r="H492" s="51" t="s">
+        <v>769</v>
+      </c>
+      <c r="I492" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A493" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C493" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D493" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E493" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F493" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G493" s="51">
+        <v>9</v>
+      </c>
+      <c r="H493" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="I493" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A494" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C494" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D494" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E494" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F494" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G494" s="51">
+        <v>12</v>
+      </c>
+      <c r="H494" s="51" t="s">
+        <v>771</v>
+      </c>
+      <c r="I494" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A495" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B495" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C495" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D495" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E495" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F495" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G495" s="51">
+        <v>11</v>
+      </c>
+      <c r="H495" s="51" t="s">
+        <v>772</v>
+      </c>
+      <c r="I495" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A496" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B496" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C496" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D496" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E496" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F496" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G496" s="51">
+        <v>10</v>
+      </c>
+      <c r="H496" s="51" t="s">
+        <v>773</v>
+      </c>
+      <c r="I496" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A497" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C497" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D497" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E497" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F497" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G497" s="51">
+        <v>9</v>
+      </c>
+      <c r="H497" s="51" t="s">
+        <v>774</v>
+      </c>
+      <c r="I497" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A498" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C498" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D498" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E498" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F498" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G498" s="51">
+        <v>14</v>
+      </c>
+      <c r="H498" s="51" t="s">
+        <v>775</v>
+      </c>
+      <c r="I498" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A499" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C499" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D499" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E499" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F499" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G499" s="51">
+        <v>17</v>
+      </c>
+      <c r="H499" s="51" t="s">
+        <v>776</v>
+      </c>
+      <c r="I499" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A500" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C500" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D500" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E500" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F500" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G500" s="51">
+        <v>11</v>
+      </c>
+      <c r="H500" s="51" t="s">
+        <v>777</v>
+      </c>
+      <c r="I500" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A501" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B501" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C501" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D501" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E501" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F501" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G501" s="51">
+        <v>12</v>
+      </c>
+      <c r="H501" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="I501" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A502" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B502" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C502" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D502" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E502" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F502" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G502" s="51">
+        <v>8</v>
+      </c>
+      <c r="H502" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="I502" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A503" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C503" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D503" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E503" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F503" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G503" s="51">
+        <v>8</v>
+      </c>
+      <c r="H503" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="I503" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A504" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C504" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D504" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E504" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F504" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G504" s="51">
+        <v>11</v>
+      </c>
+      <c r="H504" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="I504" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A505" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B505" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C505" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D505" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E505" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F505" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G505" s="51">
+        <v>7</v>
+      </c>
+      <c r="H505" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="I505" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A506" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B506" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C506" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D506" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E506" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F506" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G506" s="51">
+        <v>10</v>
+      </c>
+      <c r="H506" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="I506" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A507" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C507" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D507" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E507" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F507" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G507" s="51">
+        <v>10</v>
+      </c>
+      <c r="H507" s="51" t="s">
+        <v>784</v>
+      </c>
+      <c r="I507" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A508" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C508" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D508" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E508" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F508" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G508" s="51">
+        <v>12</v>
+      </c>
+      <c r="H508" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="I508" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A509" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B509" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C509" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D509" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E509" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F509" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G509" s="51">
+        <v>17</v>
+      </c>
+      <c r="H509" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="I509" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A510" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C510" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D510" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E510" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F510" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G510" s="51">
+        <v>15</v>
+      </c>
+      <c r="H510" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="I510" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A511" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B511" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C511" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D511" s="50">
+        <v>45705</v>
+      </c>
+      <c r="E511" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F511" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G511" s="51">
+        <v>9</v>
+      </c>
+      <c r="H511" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="I511" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A512" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B512" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C512" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D512" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E512" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F512" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G512" s="51">
+        <v>9</v>
+      </c>
+      <c r="H512" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="I512" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A513" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B513" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C513" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D513" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E513" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F513" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G513" s="51">
+        <v>11</v>
+      </c>
+      <c r="H513" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="I513" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A514" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B514" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C514" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D514" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E514" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F514" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G514" s="51">
+        <v>10</v>
+      </c>
+      <c r="H514" s="51" t="s">
+        <v>791</v>
+      </c>
+      <c r="I514" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A515" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B515" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C515" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D515" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E515" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F515" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G515" s="51">
+        <v>13</v>
+      </c>
+      <c r="H515" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="I515" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A516" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B516" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C516" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D516" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E516" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F516" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G516" s="51">
+        <v>10</v>
+      </c>
+      <c r="H516" s="51" t="s">
+        <v>793</v>
+      </c>
+      <c r="I516" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A517" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B517" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C517" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D517" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E517" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F517" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G517" s="51">
+        <v>9</v>
+      </c>
+      <c r="H517" s="51" t="s">
+        <v>794</v>
+      </c>
+      <c r="I517" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A518" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B518" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C518" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D518" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E518" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F518" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G518" s="51">
+        <v>9</v>
+      </c>
+      <c r="H518" s="51" t="s">
+        <v>795</v>
+      </c>
+      <c r="I518" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A519" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B519" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C519" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D519" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E519" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F519" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G519" s="51">
+        <v>13</v>
+      </c>
+      <c r="H519" s="51" t="s">
+        <v>796</v>
+      </c>
+      <c r="I519" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A520" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B520" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C520" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D520" s="50">
+        <v>45705</v>
+      </c>
+      <c r="E520" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F520" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G520" s="51">
+        <v>8</v>
+      </c>
+      <c r="H520" s="51" t="s">
+        <v>797</v>
+      </c>
+      <c r="I520" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A521" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B521" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C521" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D521" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E521" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F521" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G521" s="51">
+        <v>9</v>
+      </c>
+      <c r="H521" s="51" t="s">
+        <v>798</v>
+      </c>
+      <c r="I521" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A522" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B522" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C522" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D522" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E522" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F522" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G522" s="51">
+        <v>11</v>
+      </c>
+      <c r="H522" s="51" t="s">
+        <v>799</v>
+      </c>
+      <c r="I522" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A523" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B523" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C523" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D523" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E523" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F523" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G523" s="51">
+        <v>10</v>
+      </c>
+      <c r="H523" s="51" t="s">
+        <v>800</v>
+      </c>
+      <c r="I523" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A524" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B524" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C524" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D524" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E524" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F524" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G524" s="51">
+        <v>15</v>
+      </c>
+      <c r="H524" s="51" t="s">
+        <v>801</v>
+      </c>
+      <c r="I524" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A525" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B525" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C525" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D525" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E525" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F525" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G525" s="51">
+        <v>10</v>
+      </c>
+      <c r="H525" s="51" t="s">
+        <v>802</v>
+      </c>
+      <c r="I525" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A526" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B526" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C526" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D526" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E526" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F526" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G526" s="51">
+        <v>12</v>
+      </c>
+      <c r="H526" s="51" t="s">
+        <v>803</v>
+      </c>
+      <c r="I526" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A527" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B527" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C527" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D527" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E527" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F527" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G527" s="51">
+        <v>9</v>
+      </c>
+      <c r="H527" s="51" t="s">
+        <v>804</v>
+      </c>
+      <c r="I527" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A528" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B528" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C528" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D528" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E528" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F528" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G528" s="51">
+        <v>17</v>
+      </c>
+      <c r="H528" s="51" t="s">
+        <v>805</v>
+      </c>
+      <c r="I528" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A529" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B529" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C529" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D529" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E529" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F529" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G529" s="51">
+        <v>8</v>
+      </c>
+      <c r="H529" s="51" t="s">
+        <v>806</v>
+      </c>
+      <c r="I529" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A530" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B530" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C530" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D530" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E530" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F530" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G530" s="51">
+        <v>14</v>
+      </c>
+      <c r="H530" s="51" t="s">
+        <v>807</v>
+      </c>
+      <c r="I530" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A531" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B531" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C531" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D531" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E531" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F531" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G531" s="51">
+        <v>11</v>
+      </c>
+      <c r="H531" s="51" t="s">
+        <v>808</v>
+      </c>
+      <c r="I531" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A532" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B532" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C532" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D532" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E532" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F532" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G532" s="51">
+        <v>8</v>
+      </c>
+      <c r="H532" s="51" t="s">
+        <v>809</v>
+      </c>
+      <c r="I532" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A533" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B533" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C533" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D533" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E533" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F533" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G533" s="51">
+        <v>13</v>
+      </c>
+      <c r="H533" s="51" t="s">
+        <v>810</v>
+      </c>
+      <c r="I533" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A534" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B534" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C534" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D534" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E534" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F534" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G534" s="51">
+        <v>17</v>
+      </c>
+      <c r="H534" s="51" t="s">
+        <v>811</v>
+      </c>
+      <c r="I534" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A535" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B535" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C535" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D535" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E535" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F535" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G535" s="51">
+        <v>22</v>
+      </c>
+      <c r="H535" s="51" t="s">
+        <v>812</v>
+      </c>
+      <c r="I535" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A536" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B536" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C536" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D536" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E536" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F536" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G536" s="51">
+        <v>12</v>
+      </c>
+      <c r="H536" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="I536" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A537" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B537" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C537" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D537" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E537" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F537" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G537" s="51">
+        <v>10</v>
+      </c>
+      <c r="H537" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="I537" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A538" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B538" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C538" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D538" s="50">
+        <v>45727</v>
+      </c>
+      <c r="E538" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F538" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G538" s="51">
+        <v>15</v>
+      </c>
+      <c r="H538" s="51" t="s">
+        <v>815</v>
+      </c>
+      <c r="I538" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A539" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B539" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C539" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D539" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E539" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F539" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G539" s="51">
+        <v>6</v>
+      </c>
+      <c r="H539" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="I539" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A540" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B540" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C540" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D540" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E540" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F540" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G540" s="51">
+        <v>13</v>
+      </c>
+      <c r="H540" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="I540" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A541" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B541" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C541" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D541" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E541" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F541" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G541" s="51">
+        <v>19</v>
+      </c>
+      <c r="H541" s="51" t="s">
+        <v>817</v>
+      </c>
+      <c r="I541" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A542" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B542" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C542" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D542" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E542" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F542" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G542" s="51">
+        <v>10</v>
+      </c>
+      <c r="H542" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="I542" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A543" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B543" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C543" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D543" s="50">
+        <v>45712</v>
+      </c>
+      <c r="E543" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F543" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G543" s="51">
+        <v>9</v>
+      </c>
+      <c r="H543" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="I543" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A544" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B544" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C544" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D544" s="50">
+        <v>45705</v>
+      </c>
+      <c r="E544" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F544" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G544" s="51">
+        <v>8</v>
+      </c>
+      <c r="H544" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="I544" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A545" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B545" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C545" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D545" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E545" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F545" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G545" s="51">
+        <v>22</v>
+      </c>
+      <c r="H545" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="I545" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A546" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B546" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C546" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D546" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E546" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F546" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G546" s="51">
+        <v>8</v>
+      </c>
+      <c r="H546" s="51" t="s">
+        <v>822</v>
+      </c>
+      <c r="I546" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A547" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B547" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C547" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D547" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E547" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F547" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G547" s="51">
+        <v>9</v>
+      </c>
+      <c r="H547" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="I547" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A548" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B548" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C548" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D548" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E548" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F548" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G548" s="51">
+        <v>9</v>
+      </c>
+      <c r="H548" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="I548" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A549" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B549" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C549" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D549" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E549" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F549" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G549" s="51">
+        <v>13</v>
+      </c>
+      <c r="H549" s="51" t="s">
+        <v>825</v>
+      </c>
+      <c r="I549" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A550" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B550" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C550" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D550" s="50">
+        <v>45705</v>
+      </c>
+      <c r="E550" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F550" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G550" s="51">
+        <v>12</v>
+      </c>
+      <c r="H550" s="51" t="s">
+        <v>826</v>
+      </c>
+      <c r="I550" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A551" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B551" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C551" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D551" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E551" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F551" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G551" s="51">
+        <v>10</v>
+      </c>
+      <c r="H551" s="51" t="s">
+        <v>827</v>
+      </c>
+      <c r="I551" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A552" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B552" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C552" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D552" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E552" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F552" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G552" s="51">
+        <v>10</v>
+      </c>
+      <c r="H552" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="I552" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A553" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B553" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C553" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D553" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E553" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F553" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G553" s="51">
+        <v>15</v>
+      </c>
+      <c r="H553" s="51" t="s">
+        <v>829</v>
+      </c>
+      <c r="I553" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A554" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B554" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C554" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D554" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E554" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F554" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G554" s="51">
+        <v>8</v>
+      </c>
+      <c r="H554" s="51" t="s">
+        <v>830</v>
+      </c>
+      <c r="I554" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A555" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B555" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C555" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D555" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E555" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F555" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G555" s="51">
+        <v>11</v>
+      </c>
+      <c r="H555" s="51" t="s">
+        <v>831</v>
+      </c>
+      <c r="I555" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A556" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B556" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C556" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D556" s="50">
+        <v>45705</v>
+      </c>
+      <c r="E556" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F556" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G556" s="51">
+        <v>8</v>
+      </c>
+      <c r="H556" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="I556" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A557" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B557" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C557" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D557" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E557" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F557" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G557" s="51">
+        <v>14</v>
+      </c>
+      <c r="H557" s="51" t="s">
+        <v>833</v>
+      </c>
+      <c r="I557" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A558" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B558" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C558" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D558" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E558" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F558" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G558" s="51">
+        <v>6</v>
+      </c>
+      <c r="H558" s="51" t="s">
+        <v>834</v>
+      </c>
+      <c r="I558" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A559" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B559" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C559" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D559" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E559" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F559" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G559" s="51">
+        <v>10</v>
+      </c>
+      <c r="H559" s="51" t="s">
+        <v>835</v>
+      </c>
+      <c r="I559" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A560" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B560" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C560" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D560" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E560" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F560" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G560" s="51">
+        <v>13</v>
+      </c>
+      <c r="H560" s="51" t="s">
+        <v>836</v>
+      </c>
+      <c r="I560" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A561" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B561" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C561" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D561" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E561" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F561" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G561" s="51">
+        <v>10</v>
+      </c>
+      <c r="H561" s="51" t="s">
+        <v>837</v>
+      </c>
+      <c r="I561" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A562" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B562" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C562" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D562" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E562" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F562" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G562" s="51">
+        <v>14</v>
+      </c>
+      <c r="H562" s="51" t="s">
+        <v>838</v>
+      </c>
+      <c r="I562" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A563" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B563" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C563" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D563" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E563" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F563" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G563" s="51">
+        <v>9</v>
+      </c>
+      <c r="H563" s="51" t="s">
+        <v>839</v>
+      </c>
+      <c r="I563" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A564" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B564" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C564" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D564" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E564" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F564" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G564" s="51">
+        <v>11</v>
+      </c>
+      <c r="H564" s="51" t="s">
+        <v>840</v>
+      </c>
+      <c r="I564" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A565" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B565" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C565" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D565" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E565" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F565" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G565" s="51">
+        <v>12</v>
+      </c>
+      <c r="H565" s="51" t="s">
+        <v>841</v>
+      </c>
+      <c r="I565" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A566" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B566" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C566" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D566" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E566" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F566" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G566" s="51">
+        <v>16</v>
+      </c>
+      <c r="H566" s="51" t="s">
+        <v>842</v>
+      </c>
+      <c r="I566" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A567" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B567" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C567" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D567" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E567" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F567" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G567" s="51">
+        <v>13</v>
+      </c>
+      <c r="H567" s="51" t="s">
+        <v>843</v>
+      </c>
+      <c r="I567" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A568" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B568" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C568" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D568" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E568" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F568" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G568" s="51">
+        <v>14</v>
+      </c>
+      <c r="H568" s="51" t="s">
+        <v>844</v>
+      </c>
+      <c r="I568" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A569" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B569" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C569" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D569" s="50">
+        <v>45727</v>
+      </c>
+      <c r="E569" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F569" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G569" s="51">
+        <v>14</v>
+      </c>
+      <c r="H569" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="I569" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A570" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B570" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C570" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D570" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E570" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F570" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G570" s="51">
+        <v>9</v>
+      </c>
+      <c r="H570" s="51" t="s">
+        <v>846</v>
+      </c>
+      <c r="I570" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A571" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B571" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C571" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D571" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E571" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F571" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G571" s="51">
+        <v>11</v>
+      </c>
+      <c r="H571" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="I571" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A572" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B572" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C572" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D572" s="50">
+        <v>45722</v>
+      </c>
+      <c r="E572" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F572" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G572" s="51">
+        <v>9</v>
+      </c>
+      <c r="H572" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="I572" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A573" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B573" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C573" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D573" s="50">
+        <v>45721</v>
+      </c>
+      <c r="E573" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F573" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G573" s="51">
+        <v>10</v>
+      </c>
+      <c r="H573" s="51" t="s">
+        <v>849</v>
+      </c>
+      <c r="I573" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A574" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B574" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C574" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D574" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E574" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F574" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G574" s="51">
+        <v>13</v>
+      </c>
+      <c r="H574" s="51" t="s">
+        <v>850</v>
+      </c>
+      <c r="I574" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A575" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B575" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C575" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D575" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E575" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F575" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G575" s="51">
+        <v>20</v>
+      </c>
+      <c r="H575" s="51" t="s">
+        <v>851</v>
+      </c>
+      <c r="I575" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A576" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B576" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C576" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D576" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E576" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F576" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G576" s="51">
+        <v>17</v>
+      </c>
+      <c r="H576" s="51" t="s">
+        <v>852</v>
+      </c>
+      <c r="I576" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A577" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B577" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C577" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D577" s="50">
+        <v>45726</v>
+      </c>
+      <c r="E577" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F577" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G577" s="51">
+        <v>18</v>
+      </c>
+      <c r="H577" s="51" t="s">
+        <v>853</v>
+      </c>
+      <c r="I577" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A578" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B578" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C578" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D578" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E578" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F578" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G578" s="51">
+        <v>8</v>
+      </c>
+      <c r="H578" s="51" t="s">
+        <v>854</v>
+      </c>
+      <c r="I578" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A579" s="49" t="s">
+        <v>855</v>
+      </c>
+      <c r="B579" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C579" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D579" s="50">
+        <v>45681</v>
+      </c>
+      <c r="E579" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F579" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G579" s="51">
+        <v>10</v>
+      </c>
+      <c r="H579" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="I579" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A580" s="49" t="s">
+        <v>855</v>
+      </c>
+      <c r="B580" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C580" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D580" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E580" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F580" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G580" s="51">
+        <v>8</v>
+      </c>
+      <c r="H580" s="51" t="s">
+        <v>857</v>
+      </c>
+      <c r="I580" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A581" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B581" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C581" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D581" s="50">
+        <v>45725</v>
+      </c>
+      <c r="E581" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F581" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G581" s="51">
+        <v>9</v>
+      </c>
+      <c r="H581" s="51" t="s">
+        <v>858</v>
+      </c>
+      <c r="I581" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A582" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B582" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C582" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D582" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E582" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F582" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G582" s="51">
+        <v>6</v>
+      </c>
+      <c r="H582" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="I582" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A583" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B583" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C583" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D583" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E583" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F583" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G583" s="51">
+        <v>12</v>
+      </c>
+      <c r="H583" s="51" t="s">
+        <v>859</v>
+      </c>
+      <c r="I583" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A584" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B584" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C584" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D584" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E584" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F584" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G584" s="51">
+        <v>7</v>
+      </c>
+      <c r="H584" s="51" t="s">
+        <v>860</v>
+      </c>
+      <c r="I584" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A585" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B585" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C585" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D585" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E585" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F585" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G585" s="51">
+        <v>9</v>
+      </c>
+      <c r="H585" s="51" t="s">
+        <v>861</v>
+      </c>
+      <c r="I585" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A586" s="49" t="s">
+        <v>862</v>
+      </c>
+      <c r="B586" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C586" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D586" s="50">
+        <v>45714</v>
+      </c>
+      <c r="E586" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F586" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G586" s="51">
+        <v>10</v>
+      </c>
+      <c r="H586" s="51" t="s">
+        <v>863</v>
+      </c>
+      <c r="I586" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A587" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B587" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C587" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D587" s="50">
+        <v>45713</v>
+      </c>
+      <c r="E587" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F587" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G587" s="51">
+        <v>6</v>
+      </c>
+      <c r="H587" s="51" t="s">
+        <v>864</v>
+      </c>
+      <c r="I587" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A588" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B588" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C588" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D588" s="50">
+        <v>45713</v>
+      </c>
+      <c r="E588" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F588" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G588" s="51">
+        <v>6</v>
+      </c>
+      <c r="H588" s="51" t="s">
+        <v>865</v>
+      </c>
+      <c r="I588" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A589" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B589" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C589" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D589" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E589" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F589" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G589" s="51">
+        <v>11</v>
+      </c>
+      <c r="H589" s="51" t="s">
+        <v>866</v>
+      </c>
+      <c r="I589" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A590" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B590" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C590" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D590" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E590" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F590" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G590" s="51">
+        <v>9</v>
+      </c>
+      <c r="H590" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="I590" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A591" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B591" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C591" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D591" s="50">
+        <v>45724</v>
+      </c>
+      <c r="E591" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F591" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G591" s="51">
+        <v>11</v>
+      </c>
+      <c r="H591" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="I591" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A592" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B592" s="50">
+        <v>45610</v>
+      </c>
+      <c r="C592" s="50">
+        <v>45611</v>
+      </c>
+      <c r="D592" s="50">
+        <v>45723</v>
+      </c>
+      <c r="E592" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F592" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G592" s="51">
+        <v>6</v>
+      </c>
+      <c r="H592" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="I592" s="26" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -16923,7 +21686,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I444</xm:sqref>
+          <xm:sqref>I3:I592</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17050,7 +21813,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F0D08-A05C-4422-97FB-7C6C5A99DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{910FA70D-59A1-4DF5-8869-1DA99850AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="894">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2264,8 +2264,479 @@
     <t>800 Oak Grove Drive  La Canada Flintridge CA 91011</t>
   </si>
   <si>
+    <t>Advance Stores Company, Incorporated and its subsidiary, Golden State Supply LLC</t>
+  </si>
+  <si>
+    <t>34928 McMurtrey Avenue  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>CTI Foods Azusa, LLC</t>
+  </si>
+  <si>
+    <t>1120 W Foothill Blvd  Azusa CA 91702</t>
+  </si>
+  <si>
+    <t>Red Bull North America, Inc.</t>
+  </si>
+  <si>
+    <t>1630 Stewart Street  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>1740 Stewart Street  Santa Monica CA 90404</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>3333 S Downey Road  Los Angeles CA 90058</t>
+  </si>
+  <si>
+    <t>Masimo Corporation</t>
+  </si>
+  <si>
+    <t>52 Discovery  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>58 Discovery  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>15750 Alton Pkwy  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>15776 Laguna Canyon Road  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>300 South Tippecanoe Avenue  San Bernardino CA 92408</t>
+  </si>
+  <si>
+    <t>The Toro Company</t>
+  </si>
+  <si>
+    <t>1588 N. Marshall Ave.  El Cajon CA 92020</t>
+  </si>
+  <si>
+    <t>Advance Stores Company, Incorporated and its subsidiary, Worldwide Auto Parts, Inc.</t>
+  </si>
+  <si>
+    <t>9089 Dallas St  La Mesa CA 91942</t>
+  </si>
+  <si>
+    <t>9748 Campo Rd.  Spring Valley CA 91977</t>
+  </si>
+  <si>
+    <t>Advance Stores Company, Incorporated</t>
+  </si>
+  <si>
+    <t>955 Fee Drive  Sacramento CA 95815</t>
+  </si>
+  <si>
+    <t>400 E Trimble Road  San Jose CA 95131</t>
+  </si>
+  <si>
+    <t>24005 Clawiter Road  Hayward CA 94545</t>
+  </si>
+  <si>
+    <t>7051 Commerce Circle  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>30085 Industrial Pkwy Sw  Union City CA 94587</t>
+  </si>
+  <si>
+    <t>14847 East 14th Street  San Leandro CA 94578</t>
+  </si>
+  <si>
+    <t>1555 Mangrove Avenue #150  Chico CA 95926</t>
+  </si>
+  <si>
+    <t>520 Contra Costa Blvd  Pleasant Hill CA 94523</t>
+  </si>
+  <si>
+    <t>3515 E Tulare Street  Fresno CA 93702</t>
+  </si>
+  <si>
+    <t>1633 E Fedora Avenue  Fresno CA 93726</t>
+  </si>
+  <si>
+    <t>693 West Shaw Avenue  Clovis CA 93612</t>
+  </si>
+  <si>
+    <t>5619 East Kings Canyon  Fresno CA 93727</t>
+  </si>
+  <si>
+    <t>Imperial County</t>
+  </si>
+  <si>
+    <t>902 North Imperial Avenue  El Centro CA 92243</t>
+  </si>
+  <si>
+    <t>400 Imperial Avenue  Calexico CA 92231</t>
+  </si>
+  <si>
+    <t>10800 Rosedale Hwy  Bakersfield CA 93312</t>
+  </si>
+  <si>
+    <t>10213 Main Street  Lamont CA 93241</t>
+  </si>
+  <si>
+    <t>34928 Mcmurtrey Avenue  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>2411 F Street, Suite 200  Bakersfield CA 93301</t>
+  </si>
+  <si>
+    <t>4014 E Niles  Bakersfield CA 93306</t>
+  </si>
+  <si>
+    <t>4605 Planz Road  Bakersfield CA 93309</t>
+  </si>
+  <si>
+    <t>Kings County</t>
+  </si>
+  <si>
+    <t>1840 W. Lacey Blvd  Hanford CA 93230</t>
+  </si>
+  <si>
+    <t>44215 10th St West  Lancaster CA 93534</t>
+  </si>
+  <si>
+    <t>1315 W Pacific Coast Highway Suite 101  Harbor City CA 90710</t>
+  </si>
+  <si>
+    <t>1131 East Colorado Blvd  Pasadena CA 91106</t>
+  </si>
+  <si>
+    <t>14211 Rosecrans Avenue  La Mirada CA 90638</t>
+  </si>
+  <si>
+    <t>3126 Sepulveda Boulevard  Torrance CA 90505</t>
+  </si>
+  <si>
+    <t>17801 Colima Road  City of Industry CA 91748</t>
+  </si>
+  <si>
+    <t>201 W Huntington Drive  Monrovia CA 91016</t>
+  </si>
+  <si>
+    <t>660 East Los Angeles Ste A1  Simi Valley CA 93065</t>
+  </si>
+  <si>
+    <t>1231 San Fernando Road, Suite 101  San Fernando CA 91340</t>
+  </si>
+  <si>
+    <t>11937 East Valley Blvd  El Monte CA 91732</t>
+  </si>
+  <si>
+    <t>44229 20th Street West Unit 103  Lancaster CA 93534</t>
+  </si>
+  <si>
+    <t>2669 Randolph Street  Huntington Park CA 90255</t>
+  </si>
+  <si>
+    <t>11454 E Washington Blvd  Whittier CA 90606</t>
+  </si>
+  <si>
+    <t>8535 Artesia Blvd  Bellflower CA 90706</t>
+  </si>
+  <si>
+    <t>8521 Van Nuys Blvd  Panorama City CA 91402</t>
+  </si>
+  <si>
+    <t>7340 Reseda Boulevard  Reseda CA 91335</t>
+  </si>
+  <si>
+    <t>20600 Golden Triangle Road  Santa Clarita CA 91351</t>
+  </si>
+  <si>
+    <t>1540 East Amar Road  West Covina CA 91792</t>
+  </si>
+  <si>
+    <t>10644 West Pico Blvd  Los Angeles CA 90064</t>
+  </si>
+  <si>
+    <t>3737 Crenshaw Blvd  Los Angeles CA 90016</t>
+  </si>
+  <si>
+    <t>6110 Sepulveda Blvd  Van Nuys CA 91411</t>
+  </si>
+  <si>
+    <t>10229 Lakewood Blvd  Downey CA 90241</t>
+  </si>
+  <si>
+    <t>256 South Atlantic Blvd  Los Angeles CA 90022</t>
+  </si>
+  <si>
+    <t>1802 Artesia Blvd  Redondo Beach CA 90278</t>
+  </si>
+  <si>
+    <t>11946 South Street  Artesia CA 90703</t>
+  </si>
+  <si>
+    <t>4645 E Pacific Coast Hwy, Suite 102  Long Beach CA 90804</t>
+  </si>
+  <si>
+    <t>254 West Olive Avenue  Burbank CA 91502</t>
+  </si>
+  <si>
+    <t>6136 West Manchester Avenue  Westchester CA 90045</t>
+  </si>
+  <si>
+    <t>4520 South Sepulveda Blvd  Culver City CA 90230</t>
+  </si>
+  <si>
+    <t>1200 West Washington Blvd  Los Angeles CA 90007</t>
+  </si>
+  <si>
+    <t>6325 Fallbrook Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>204 East Spruce Avenue  Inglewood CA 90301</t>
+  </si>
+  <si>
+    <t>340 East Holt Avenue  Pomona CA 91767</t>
+  </si>
+  <si>
+    <t>1240 North Azusa Avenue  Covina CA 91722</t>
+  </si>
+  <si>
+    <t>6065 Lankershim Blvd  North Hollywood CA 91606</t>
+  </si>
+  <si>
+    <t>3054 E Palmdale Blvd  Palmdale CA 93550</t>
+  </si>
+  <si>
+    <t>1207 West Main Street  Merced CA 95340</t>
+  </si>
+  <si>
+    <t>921 S Euclid Street  Anaheim CA 92802</t>
+  </si>
+  <si>
+    <t>1951 W. La Habra Blvd  La Habra CA 90631</t>
+  </si>
+  <si>
+    <t>1530 S. Harbor Blvd  Fullerton CA 92832</t>
+  </si>
+  <si>
+    <t>125 W. Imperial Hwy, Suite 100  La Habra CA 90631</t>
+  </si>
+  <si>
+    <t>120 East 1st Street  Santa Ana CA 92701</t>
+  </si>
+  <si>
+    <t>15223 Beach Boulevard  Westminster CA 92683</t>
+  </si>
+  <si>
+    <t>19122 Brookhurst Street #101  Huntington Beach CA 92646</t>
+  </si>
+  <si>
+    <t>22671 Lake Forest Drive  Lake Forest CA 92630</t>
+  </si>
+  <si>
+    <t>26881 Aliso Creek Road  Aliso Viejo CA 92656</t>
+  </si>
+  <si>
+    <t>8205 E. Santa Ana Canyon Unit B  Anaheim CA 92808</t>
+  </si>
+  <si>
+    <t>2946 Bristol Street  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>217 East Katella Avenue  Orange CA 92867</t>
+  </si>
+  <si>
+    <t>45460 Fargo Street  Indio CA 92201</t>
+  </si>
+  <si>
+    <t>5680 Mission Blvd  Riverside CA 92509</t>
+  </si>
+  <si>
+    <t>68-580 Ramon Road  Cathedral City CA 92234</t>
+  </si>
+  <si>
+    <t>10861 Magnolia Avenue  Riverside CA 92505</t>
+  </si>
+  <si>
+    <t>23470 Sunnymead Blvd  Moreno Valley CA 92553</t>
+  </si>
+  <si>
+    <t>581 N. Main Street 102  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>40605 Winchester Road  Temecula CA 92591</t>
+  </si>
+  <si>
+    <t>2048 W Florida Avenue  Hemet CA 92545</t>
+  </si>
+  <si>
+    <t>31505 Date Palm Drive Suite 2  Cathedral City CA 92234</t>
+  </si>
+  <si>
+    <t>246 State Highway 111  Indio CA 92201</t>
+  </si>
+  <si>
+    <t>9304 Greenback Lane  Orangevale CA 95662</t>
+  </si>
+  <si>
+    <t>5135 Auburn Blvd  Sacramento CA 95841</t>
+  </si>
+  <si>
+    <t>10899 Folsom Boulevard  Rancho Cordova CA 95670</t>
+  </si>
+  <si>
+    <t>2500 Arden Way, Unit 101  Sacramento CA 95825</t>
+  </si>
+  <si>
+    <t>3538 Northgate Blvd  Sacramento CA 95834</t>
+  </si>
+  <si>
+    <t>645 West Holt Blvd  Ontario CA 91762</t>
+  </si>
+  <si>
+    <t>570 S Mt Vernon Avenue, Unit C  San Bernardino CA 92410</t>
+  </si>
+  <si>
+    <t>22451 Barton Road  Grand Terrace CA 92313</t>
+  </si>
+  <si>
+    <t>511 E. Foothill Blvd  Rialto CA 92376</t>
+  </si>
+  <si>
+    <t>16711 Valley Blvd  Fontana CA 92335</t>
+  </si>
+  <si>
+    <t>2415 South Vineyard Ave #B  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>9292 Foothill Blvd Suite 100  Rancho Cucamonga CA 91730</t>
+  </si>
+  <si>
+    <t>11960 Central Avenue  Chino CA 91710</t>
+  </si>
+  <si>
+    <t>15659 Main St Suite 101  Hesperia CA 92345</t>
+  </si>
+  <si>
+    <t>4046 Grand Avenue  Chino Hills CA 91710</t>
+  </si>
+  <si>
+    <t>304 E Foothill Blvd, Unit B  Upland CA 91786</t>
+  </si>
+  <si>
+    <t>5152 Arrow Highway  Montclair CA 91763</t>
+  </si>
+  <si>
+    <t>1662 W. Redlands Blvd  Redlands CA 92373</t>
+  </si>
+  <si>
+    <t>9089 Dallas Street  La Mesa CA 91942</t>
+  </si>
+  <si>
+    <t>9748 Campo Road  Spring Valley CA 91977</t>
+  </si>
+  <si>
+    <t>420 S Santa Fe Avenue  Vista CA 92084</t>
+  </si>
+  <si>
+    <t>10041 Mission Gorge Road  Santee CA 92071</t>
+  </si>
+  <si>
+    <t>197 Jamacha Road  El Cajon CA 92019</t>
+  </si>
+  <si>
+    <t>256 El Camino Real North  Encinitas CA 92024</t>
+  </si>
+  <si>
+    <t>1000 Tierra Del Rey  Chula Vista CA 91910</t>
+  </si>
+  <si>
+    <t>3752 Plaza Drive  Oceanside CA 92056</t>
+  </si>
+  <si>
+    <t>454 Broadway  Chula Vista CA 91910</t>
+  </si>
+  <si>
+    <t>2041 Mission Avenue Suite 100  Oceanside CA 92058</t>
+  </si>
+  <si>
+    <t>855 West Mission Avenue, Unit 100  Escondido CA 92025</t>
+  </si>
+  <si>
+    <t>4441 Genesee Avenue  San Diego CA 92117</t>
+  </si>
+  <si>
+    <t>6714 El Cajon Blvd  San Diego CA 92115</t>
+  </si>
+  <si>
+    <t>1645 E Miner Avenue  Stockton CA 95205</t>
+  </si>
+  <si>
+    <t>550 East Kettleman Lane  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>839 E Dr Martin Luther King Jr Blvd  Stockton CA 95206</t>
+  </si>
+  <si>
+    <t>4987 West Lane  Stockton CA 95210</t>
+  </si>
+  <si>
+    <t>1215 E Grand Avenue  Arroyo Grande CA 93420</t>
+  </si>
+  <si>
+    <t>1555 S Oxnard Blvd  Oxnard CA 93030</t>
+  </si>
+  <si>
+    <t>3550 El Cajon Blvd  San Diego CA 92104</t>
+  </si>
+  <si>
+    <t>1087 Old County Rd, Suite B  San Carlos CA 94070</t>
+  </si>
+  <si>
+    <t>Santa Barbara County</t>
+  </si>
+  <si>
+    <t>2150 S Broadway  Santa Maria CA 93454</t>
+  </si>
+  <si>
+    <t>1723 S Broadway #A  Santa Maria CA 93454</t>
+  </si>
+  <si>
+    <t>210 East 10th Street  Gilroy CA 95020</t>
+  </si>
+  <si>
+    <t>2730 Story Road  San Jose CA 95127</t>
+  </si>
+  <si>
+    <t>164 East El Camino Real  Sunnyvale CA 94087</t>
+  </si>
+  <si>
+    <t>3780 Stevens Creek Blvd Unit 20  San Jose CA 95117</t>
+  </si>
+  <si>
+    <t>Solano County</t>
+  </si>
+  <si>
+    <t>182 Plaza Drive  Vallejo CA 94591</t>
+  </si>
+  <si>
+    <t>1038 Petaluma Hill Road  Santa Rosa CA 95404</t>
+  </si>
+  <si>
+    <t>4801 Redwood Drive  Rohnert Park CA 94928</t>
+  </si>
+  <si>
+    <t>1340 Mchenry Avenue  Modesto CA 95350</t>
+  </si>
+  <si>
+    <t>2099 E Thousand Oaks Blvd  Thousand Oaks CA 91362</t>
+  </si>
+  <si>
+    <t>4001 E Main Street  Ventura CA 93003</t>
+  </si>
+  <si>
+    <t>320 Elm Street  Woodland CA 95695</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/18/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/20/2024
 </t>
     </r>
     <r>
@@ -2279,475 +2750,73 @@
     </r>
   </si>
   <si>
-    <t>Advance Stores Company, Incorporated and its subsidiary, Golden State Supply LLC</t>
-  </si>
-  <si>
-    <t>34928 McMurtrey Avenue  Bakersfield CA 93308</t>
-  </si>
-  <si>
-    <t>CTI Foods Azusa, LLC</t>
-  </si>
-  <si>
-    <t>1120 W Foothill Blvd  Azusa CA 91702</t>
-  </si>
-  <si>
-    <t>Red Bull North America, Inc.</t>
-  </si>
-  <si>
-    <t>1630 Stewart Street  Santa Monica CA 90404</t>
-  </si>
-  <si>
-    <t>1740 Stewart Street  Santa Monica CA 90404</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>3333 S Downey Road  Los Angeles CA 90058</t>
-  </si>
-  <si>
-    <t>Masimo Corporation</t>
-  </si>
-  <si>
-    <t>52 Discovery  Irvine CA 92618</t>
-  </si>
-  <si>
-    <t>58 Discovery  Irvine CA 92618</t>
-  </si>
-  <si>
-    <t>15750 Alton Pkwy  Irvine CA 92618</t>
-  </si>
-  <si>
-    <t>15776 Laguna Canyon Road  Irvine CA 92618</t>
-  </si>
-  <si>
-    <t>300 South Tippecanoe Avenue  San Bernardino CA 92408</t>
-  </si>
-  <si>
-    <t>The Toro Company</t>
-  </si>
-  <si>
-    <t>1588 N. Marshall Ave.  El Cajon CA 92020</t>
-  </si>
-  <si>
-    <t>Advance Stores Company, Incorporated and its subsidiary, Worldwide Auto Parts, Inc.</t>
-  </si>
-  <si>
-    <t>9089 Dallas St  La Mesa CA 91942</t>
-  </si>
-  <si>
-    <t>9748 Campo Rd.  Spring Valley CA 91977</t>
-  </si>
-  <si>
-    <t>Advance Stores Company, Incorporated</t>
-  </si>
-  <si>
-    <t>955 Fee Drive  Sacramento CA 95815</t>
-  </si>
-  <si>
-    <t>400 E Trimble Road  San Jose CA 95131</t>
-  </si>
-  <si>
-    <t>24005 Clawiter Road  Hayward CA 94545</t>
-  </si>
-  <si>
-    <t>7051 Commerce Circle  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>30085 Industrial Pkwy Sw  Union City CA 94587</t>
-  </si>
-  <si>
-    <t>14847 East 14th Street  San Leandro CA 94578</t>
-  </si>
-  <si>
-    <t>1555 Mangrove Avenue #150  Chico CA 95926</t>
-  </si>
-  <si>
-    <t>520 Contra Costa Blvd  Pleasant Hill CA 94523</t>
-  </si>
-  <si>
-    <t>3515 E Tulare Street  Fresno CA 93702</t>
-  </si>
-  <si>
-    <t>1633 E Fedora Avenue  Fresno CA 93726</t>
-  </si>
-  <si>
-    <t>693 West Shaw Avenue  Clovis CA 93612</t>
-  </si>
-  <si>
-    <t>5619 East Kings Canyon  Fresno CA 93727</t>
-  </si>
-  <si>
-    <t>Imperial County</t>
-  </si>
-  <si>
-    <t>902 North Imperial Avenue  El Centro CA 92243</t>
-  </si>
-  <si>
-    <t>400 Imperial Avenue  Calexico CA 92231</t>
-  </si>
-  <si>
-    <t>10800 Rosedale Hwy  Bakersfield CA 93312</t>
-  </si>
-  <si>
-    <t>10213 Main Street  Lamont CA 93241</t>
-  </si>
-  <si>
-    <t>34928 Mcmurtrey Avenue  Bakersfield CA 93308</t>
-  </si>
-  <si>
-    <t>2411 F Street, Suite 200  Bakersfield CA 93301</t>
-  </si>
-  <si>
-    <t>4014 E Niles  Bakersfield CA 93306</t>
-  </si>
-  <si>
-    <t>4605 Planz Road  Bakersfield CA 93309</t>
-  </si>
-  <si>
-    <t>Kings County</t>
-  </si>
-  <si>
-    <t>1840 W. Lacey Blvd  Hanford CA 93230</t>
-  </si>
-  <si>
-    <t>44215 10th St West  Lancaster CA 93534</t>
-  </si>
-  <si>
-    <t>1315 W Pacific Coast Highway Suite 101  Harbor City CA 90710</t>
-  </si>
-  <si>
-    <t>1131 East Colorado Blvd  Pasadena CA 91106</t>
-  </si>
-  <si>
-    <t>14211 Rosecrans Avenue  La Mirada CA 90638</t>
-  </si>
-  <si>
-    <t>3126 Sepulveda Boulevard  Torrance CA 90505</t>
-  </si>
-  <si>
-    <t>17801 Colima Road  City of Industry CA 91748</t>
-  </si>
-  <si>
-    <t>201 W Huntington Drive  Monrovia CA 91016</t>
-  </si>
-  <si>
-    <t>660 East Los Angeles Ste A1  Simi Valley CA 93065</t>
-  </si>
-  <si>
-    <t>1231 San Fernando Road, Suite 101  San Fernando CA 91340</t>
-  </si>
-  <si>
-    <t>11937 East Valley Blvd  El Monte CA 91732</t>
-  </si>
-  <si>
-    <t>44229 20th Street West Unit 103  Lancaster CA 93534</t>
-  </si>
-  <si>
-    <t>2669 Randolph Street  Huntington Park CA 90255</t>
-  </si>
-  <si>
-    <t>11454 E Washington Blvd  Whittier CA 90606</t>
-  </si>
-  <si>
-    <t>8535 Artesia Blvd  Bellflower CA 90706</t>
-  </si>
-  <si>
-    <t>8521 Van Nuys Blvd  Panorama City CA 91402</t>
-  </si>
-  <si>
-    <t>7340 Reseda Boulevard  Reseda CA 91335</t>
-  </si>
-  <si>
-    <t>20600 Golden Triangle Road  Santa Clarita CA 91351</t>
-  </si>
-  <si>
-    <t>1540 East Amar Road  West Covina CA 91792</t>
-  </si>
-  <si>
-    <t>10644 West Pico Blvd  Los Angeles CA 90064</t>
-  </si>
-  <si>
-    <t>3737 Crenshaw Blvd  Los Angeles CA 90016</t>
-  </si>
-  <si>
-    <t>6110 Sepulveda Blvd  Van Nuys CA 91411</t>
-  </si>
-  <si>
-    <t>10229 Lakewood Blvd  Downey CA 90241</t>
-  </si>
-  <si>
-    <t>256 South Atlantic Blvd  Los Angeles CA 90022</t>
-  </si>
-  <si>
-    <t>1802 Artesia Blvd  Redondo Beach CA 90278</t>
-  </si>
-  <si>
-    <t>11946 South Street  Artesia CA 90703</t>
-  </si>
-  <si>
-    <t>4645 E Pacific Coast Hwy, Suite 102  Long Beach CA 90804</t>
-  </si>
-  <si>
-    <t>254 West Olive Avenue  Burbank CA 91502</t>
-  </si>
-  <si>
-    <t>6136 West Manchester Avenue  Westchester CA 90045</t>
-  </si>
-  <si>
-    <t>4520 South Sepulveda Blvd  Culver City CA 90230</t>
-  </si>
-  <si>
-    <t>1200 West Washington Blvd  Los Angeles CA 90007</t>
-  </si>
-  <si>
-    <t>6325 Fallbrook Avenue  Woodland Hills CA 91367</t>
-  </si>
-  <si>
-    <t>204 East Spruce Avenue  Inglewood CA 90301</t>
-  </si>
-  <si>
-    <t>340 East Holt Avenue  Pomona CA 91767</t>
-  </si>
-  <si>
-    <t>1240 North Azusa Avenue  Covina CA 91722</t>
-  </si>
-  <si>
-    <t>6065 Lankershim Blvd  North Hollywood CA 91606</t>
-  </si>
-  <si>
-    <t>3054 E Palmdale Blvd  Palmdale CA 93550</t>
-  </si>
-  <si>
-    <t>1207 West Main Street  Merced CA 95340</t>
-  </si>
-  <si>
-    <t>921 S Euclid Street  Anaheim CA 92802</t>
-  </si>
-  <si>
-    <t>1951 W. La Habra Blvd  La Habra CA 90631</t>
-  </si>
-  <si>
-    <t>1530 S. Harbor Blvd  Fullerton CA 92832</t>
-  </si>
-  <si>
-    <t>125 W. Imperial Hwy, Suite 100  La Habra CA 90631</t>
-  </si>
-  <si>
-    <t>120 East 1st Street  Santa Ana CA 92701</t>
-  </si>
-  <si>
-    <t>15223 Beach Boulevard  Westminster CA 92683</t>
-  </si>
-  <si>
-    <t>19122 Brookhurst Street #101  Huntington Beach CA 92646</t>
-  </si>
-  <si>
-    <t>22671 Lake Forest Drive  Lake Forest CA 92630</t>
-  </si>
-  <si>
-    <t>26881 Aliso Creek Road  Aliso Viejo CA 92656</t>
-  </si>
-  <si>
-    <t>8205 E. Santa Ana Canyon Unit B  Anaheim CA 92808</t>
-  </si>
-  <si>
-    <t>2946 Bristol Street  Costa Mesa CA 92626</t>
-  </si>
-  <si>
-    <t>217 East Katella Avenue  Orange CA 92867</t>
-  </si>
-  <si>
-    <t>45460 Fargo Street  Indio CA 92201</t>
-  </si>
-  <si>
-    <t>5680 Mission Blvd  Riverside CA 92509</t>
-  </si>
-  <si>
-    <t>68-580 Ramon Road  Cathedral City CA 92234</t>
-  </si>
-  <si>
-    <t>10861 Magnolia Avenue  Riverside CA 92505</t>
-  </si>
-  <si>
-    <t>23470 Sunnymead Blvd  Moreno Valley CA 92553</t>
-  </si>
-  <si>
-    <t>581 N. Main Street 102  Corona CA 92878</t>
-  </si>
-  <si>
-    <t>40605 Winchester Road  Temecula CA 92591</t>
-  </si>
-  <si>
-    <t>2048 W Florida Avenue  Hemet CA 92545</t>
-  </si>
-  <si>
-    <t>31505 Date Palm Drive Suite 2  Cathedral City CA 92234</t>
-  </si>
-  <si>
-    <t>246 State Highway 111  Indio CA 92201</t>
-  </si>
-  <si>
-    <t>9304 Greenback Lane  Orangevale CA 95662</t>
-  </si>
-  <si>
-    <t>5135 Auburn Blvd  Sacramento CA 95841</t>
-  </si>
-  <si>
-    <t>10899 Folsom Boulevard  Rancho Cordova CA 95670</t>
-  </si>
-  <si>
-    <t>2500 Arden Way, Unit 101  Sacramento CA 95825</t>
-  </si>
-  <si>
-    <t>3538 Northgate Blvd  Sacramento CA 95834</t>
-  </si>
-  <si>
-    <t>645 West Holt Blvd  Ontario CA 91762</t>
-  </si>
-  <si>
-    <t>570 S Mt Vernon Avenue, Unit C  San Bernardino CA 92410</t>
-  </si>
-  <si>
-    <t>22451 Barton Road  Grand Terrace CA 92313</t>
-  </si>
-  <si>
-    <t>511 E. Foothill Blvd  Rialto CA 92376</t>
-  </si>
-  <si>
-    <t>16711 Valley Blvd  Fontana CA 92335</t>
-  </si>
-  <si>
-    <t>2415 South Vineyard Ave #B  Ontario CA 91761</t>
-  </si>
-  <si>
-    <t>9292 Foothill Blvd Suite 100  Rancho Cucamonga CA 91730</t>
-  </si>
-  <si>
-    <t>11960 Central Avenue  Chino CA 91710</t>
-  </si>
-  <si>
-    <t>15659 Main St Suite 101  Hesperia CA 92345</t>
-  </si>
-  <si>
-    <t>4046 Grand Avenue  Chino Hills CA 91710</t>
-  </si>
-  <si>
-    <t>304 E Foothill Blvd, Unit B  Upland CA 91786</t>
-  </si>
-  <si>
-    <t>5152 Arrow Highway  Montclair CA 91763</t>
-  </si>
-  <si>
-    <t>1662 W. Redlands Blvd  Redlands CA 92373</t>
-  </si>
-  <si>
-    <t>9089 Dallas Street  La Mesa CA 91942</t>
-  </si>
-  <si>
-    <t>9748 Campo Road  Spring Valley CA 91977</t>
-  </si>
-  <si>
-    <t>420 S Santa Fe Avenue  Vista CA 92084</t>
-  </si>
-  <si>
-    <t>10041 Mission Gorge Road  Santee CA 92071</t>
-  </si>
-  <si>
-    <t>197 Jamacha Road  El Cajon CA 92019</t>
-  </si>
-  <si>
-    <t>256 El Camino Real North  Encinitas CA 92024</t>
-  </si>
-  <si>
-    <t>1000 Tierra Del Rey  Chula Vista CA 91910</t>
-  </si>
-  <si>
-    <t>3752 Plaza Drive  Oceanside CA 92056</t>
-  </si>
-  <si>
-    <t>454 Broadway  Chula Vista CA 91910</t>
-  </si>
-  <si>
-    <t>2041 Mission Avenue Suite 100  Oceanside CA 92058</t>
-  </si>
-  <si>
-    <t>855 West Mission Avenue, Unit 100  Escondido CA 92025</t>
-  </si>
-  <si>
-    <t>4441 Genesee Avenue  San Diego CA 92117</t>
-  </si>
-  <si>
-    <t>6714 El Cajon Blvd  San Diego CA 92115</t>
-  </si>
-  <si>
-    <t>1645 E Miner Avenue  Stockton CA 95205</t>
-  </si>
-  <si>
-    <t>550 East Kettleman Lane  Lodi CA 95240</t>
-  </si>
-  <si>
-    <t>839 E Dr Martin Luther King Jr Blvd  Stockton CA 95206</t>
-  </si>
-  <si>
-    <t>4987 West Lane  Stockton CA 95210</t>
-  </si>
-  <si>
-    <t>1215 E Grand Avenue  Arroyo Grande CA 93420</t>
-  </si>
-  <si>
-    <t>1555 S Oxnard Blvd  Oxnard CA 93030</t>
-  </si>
-  <si>
-    <t>3550 El Cajon Blvd  San Diego CA 92104</t>
-  </si>
-  <si>
-    <t>1087 Old County Rd, Suite B  San Carlos CA 94070</t>
-  </si>
-  <si>
-    <t>Santa Barbara County</t>
-  </si>
-  <si>
-    <t>2150 S Broadway  Santa Maria CA 93454</t>
-  </si>
-  <si>
-    <t>1723 S Broadway #A  Santa Maria CA 93454</t>
-  </si>
-  <si>
-    <t>210 East 10th Street  Gilroy CA 95020</t>
-  </si>
-  <si>
-    <t>2730 Story Road  San Jose CA 95127</t>
-  </si>
-  <si>
-    <t>164 East El Camino Real  Sunnyvale CA 94087</t>
-  </si>
-  <si>
-    <t>3780 Stevens Creek Blvd Unit 20  San Jose CA 95117</t>
-  </si>
-  <si>
-    <t>Solano County</t>
-  </si>
-  <si>
-    <t>182 Plaza Drive  Vallejo CA 94591</t>
-  </si>
-  <si>
-    <t>1038 Petaluma Hill Road  Santa Rosa CA 95404</t>
-  </si>
-  <si>
-    <t>4801 Redwood Drive  Rohnert Park CA 94928</t>
-  </si>
-  <si>
-    <t>1340 Mchenry Avenue  Modesto CA 95350</t>
-  </si>
-  <si>
-    <t>2099 E Thousand Oaks Blvd  Thousand Oaks CA 91362</t>
-  </si>
-  <si>
-    <t>4001 E Main Street  Ventura CA 93003</t>
-  </si>
-  <si>
-    <t>320 Elm Street  Woodland CA 95695</t>
+    <t>Michaels Stores, Inc. dba Moskatels</t>
+  </si>
+  <si>
+    <t>738 Wall Street  Los Angeles CA 90014</t>
+  </si>
+  <si>
+    <t>Del Friscos Grille</t>
+  </si>
+  <si>
+    <t>772 Spectrum Center Dr  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>111 Pine Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>One Front Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>Urban Alchemy</t>
+  </si>
+  <si>
+    <t>255 Golden Gate Avenue  San Francisco CA 94102</t>
+  </si>
+  <si>
+    <t>Old Custom House, Inc.</t>
+  </si>
+  <si>
+    <t>404 Front Street  Avila Beach CA 93424</t>
+  </si>
+  <si>
+    <t>ABL Space Systems Company</t>
+  </si>
+  <si>
+    <t>140, 224, and 225 Oregon Street  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>23andMe, Inc.</t>
+  </si>
+  <si>
+    <t>349 Oyster Point Blvd.  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>223 North Mathilda Ave.  Sunnyvale CA 94086</t>
+  </si>
+  <si>
+    <t>Veritas Technologies, LLC</t>
+  </si>
+  <si>
+    <t>2625 Augustine Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>GoForward, Inc.</t>
+  </si>
+  <si>
+    <t>879 Newport Center Drive  Newport Beach CA 92660</t>
+  </si>
+  <si>
+    <t>550 Kearny, #600  San Francisco CA 94108</t>
+  </si>
+  <si>
+    <t>Joslyn Sunbank Company, LLC</t>
+  </si>
+  <si>
+    <t>1740 Commerce Way  Santa Maria CA 93456</t>
   </si>
   <si>
     <r>
@@ -2761,7 +2830,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 11/18/24</t>
+      <t>07/01/24 to 11/20/24</t>
     </r>
     <r>
       <rPr>
@@ -2781,7 +2850,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I592.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I605.</t>
     </r>
   </si>
 </sst>
@@ -4008,8 +4077,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I592" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I592" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I605" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I605" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4366,37 +4435,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -4418,18 +4487,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -4437,25 +4506,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>31569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4464,7 +4533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4472,25 +4541,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4510,30 +4579,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I592"/>
+  <dimension ref="A1:I605"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -4562,7 +4631,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4591,7 +4660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -4620,7 +4689,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -4649,7 +4718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -4678,7 +4747,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -4707,7 +4776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -4736,7 +4805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -4765,7 +4834,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -4794,7 +4863,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -4823,7 +4892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -4852,7 +4921,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -4881,7 +4950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -4910,7 +4979,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -4939,7 +5008,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -4968,7 +5037,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -4997,7 +5066,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -5026,7 +5095,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -5055,7 +5124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -5084,7 +5153,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -5113,7 +5182,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -5142,7 +5211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -5171,7 +5240,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -5200,7 +5269,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -5229,7 +5298,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -5258,7 +5327,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -5287,7 +5356,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -5316,7 +5385,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -5345,7 +5414,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -5374,7 +5443,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -5403,7 +5472,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +5501,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -5461,7 +5530,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -5490,7 +5559,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -5519,7 +5588,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -5548,7 +5617,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -5577,7 +5646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -5606,7 +5675,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -5635,7 +5704,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -5664,7 +5733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -5693,7 +5762,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -5722,7 +5791,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -5751,7 +5820,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -5780,7 +5849,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -5809,7 +5878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -5838,7 +5907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -5867,7 +5936,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -5896,7 +5965,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -5925,7 +5994,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -5954,7 +6023,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -5983,7 +6052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -6012,7 +6081,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -6041,7 +6110,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -6070,7 +6139,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -6099,7 +6168,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -6128,7 +6197,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -6157,7 +6226,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +6255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -6215,7 +6284,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -6244,7 +6313,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -6273,7 +6342,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -6302,7 +6371,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -6331,7 +6400,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -6360,7 +6429,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -6389,7 +6458,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -6418,7 +6487,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -6447,7 +6516,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -6476,7 +6545,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -6505,7 +6574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -6534,7 +6603,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -6563,7 +6632,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -6592,7 +6661,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -6621,7 +6690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -6650,7 +6719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -6679,7 +6748,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -6708,7 +6777,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -6737,7 +6806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -6766,7 +6835,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -6795,7 +6864,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -6824,7 +6893,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -6853,7 +6922,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -6882,7 +6951,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -6911,7 +6980,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -6940,7 +7009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -6969,7 +7038,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -6998,7 +7067,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -7027,7 +7096,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -7056,7 +7125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -7085,7 +7154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -7114,7 +7183,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -7143,7 +7212,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -7172,7 +7241,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -7201,7 +7270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -7230,7 +7299,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -7259,7 +7328,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -7288,7 +7357,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -7317,7 +7386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -7346,7 +7415,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -7375,7 +7444,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -7404,7 +7473,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -7433,7 +7502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -7462,7 +7531,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -7491,7 +7560,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -7520,7 +7589,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -7549,7 +7618,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -7578,7 +7647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -7607,7 +7676,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -7636,7 +7705,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -7665,7 +7734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -7694,7 +7763,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -7723,7 +7792,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -7752,7 +7821,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -7781,7 +7850,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -7810,7 +7879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -7839,7 +7908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -7868,7 +7937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -7897,7 +7966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -7926,7 +7995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -7955,7 +8024,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -7984,7 +8053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -8013,7 +8082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -8042,7 +8111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -8071,7 +8140,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -8100,7 +8169,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -8129,7 +8198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -8158,7 +8227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -8187,7 +8256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -8216,7 +8285,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -8245,7 +8314,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -8274,7 +8343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -8303,7 +8372,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -8332,7 +8401,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -8361,7 +8430,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -8390,7 +8459,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -8419,7 +8488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +8517,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -8477,7 +8546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -8506,7 +8575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -8535,7 +8604,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -8564,7 +8633,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -8593,7 +8662,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -8622,7 +8691,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -8651,7 +8720,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -8680,7 +8749,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -8709,7 +8778,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -8738,7 +8807,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -8767,7 +8836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -8796,7 +8865,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -8825,7 +8894,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -8854,7 +8923,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -8883,7 +8952,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -8912,7 +8981,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -8941,7 +9010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +9039,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -8999,7 +9068,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -9028,7 +9097,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -9057,7 +9126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -9086,7 +9155,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -9115,7 +9184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -9144,7 +9213,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -9173,7 +9242,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -9202,7 +9271,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -9231,7 +9300,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -9260,7 +9329,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -9289,7 +9358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -9318,7 +9387,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -9347,7 +9416,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -9376,7 +9445,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -9405,7 +9474,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -9434,7 +9503,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -9463,7 +9532,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -9492,7 +9561,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -9521,7 +9590,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -9550,7 +9619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -9579,7 +9648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -9608,7 +9677,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -9637,7 +9706,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -9666,7 +9735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -9695,7 +9764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -9724,7 +9793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -9753,7 +9822,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -9782,7 +9851,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -9811,7 +9880,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -9840,7 +9909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -9869,7 +9938,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -9898,7 +9967,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -9927,7 +9996,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -9956,7 +10025,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -9985,7 +10054,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -10014,7 +10083,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -10043,7 +10112,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -10072,7 +10141,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -10101,7 +10170,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -10130,7 +10199,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -10159,7 +10228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -10188,7 +10257,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -10217,7 +10286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -10246,7 +10315,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -10275,7 +10344,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -10304,7 +10373,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -10333,7 +10402,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -10362,7 +10431,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -10391,7 +10460,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -10420,7 +10489,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -10449,7 +10518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -10478,7 +10547,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -10507,7 +10576,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -10536,7 +10605,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -10565,7 +10634,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -10594,7 +10663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -10623,7 +10692,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -10652,7 +10721,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -10681,7 +10750,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -10710,7 +10779,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -10739,7 +10808,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -10768,7 +10837,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -10797,7 +10866,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -10826,7 +10895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -10855,7 +10924,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -10884,7 +10953,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -10913,7 +10982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -10942,7 +11011,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -10971,7 +11040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -11000,7 +11069,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -11029,7 +11098,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -11058,7 +11127,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>415</v>
       </c>
@@ -11087,7 +11156,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -11116,7 +11185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="49" t="s">
         <v>21</v>
       </c>
@@ -11145,7 +11214,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="49" t="s">
         <v>5</v>
       </c>
@@ -11174,7 +11243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="49" t="s">
         <v>23</v>
       </c>
@@ -11203,7 +11272,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="49" t="s">
         <v>23</v>
       </c>
@@ -11232,7 +11301,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="49" t="s">
         <v>23</v>
       </c>
@@ -11261,7 +11330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="49" t="s">
         <v>23</v>
       </c>
@@ -11290,7 +11359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="49" t="s">
         <v>23</v>
       </c>
@@ -11319,7 +11388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="49" t="s">
         <v>79</v>
       </c>
@@ -11348,7 +11417,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="49" t="s">
         <v>5</v>
       </c>
@@ -11377,7 +11446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="49" t="s">
         <v>5</v>
       </c>
@@ -11406,7 +11475,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="49" t="s">
         <v>5</v>
       </c>
@@ -11435,7 +11504,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="49" t="s">
         <v>5</v>
       </c>
@@ -11464,7 +11533,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="49" t="s">
         <v>5</v>
       </c>
@@ -11493,7 +11562,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="49" t="s">
         <v>21</v>
       </c>
@@ -11522,7 +11591,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="49" t="s">
         <v>106</v>
       </c>
@@ -11551,7 +11620,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="49" t="s">
         <v>106</v>
       </c>
@@ -11580,7 +11649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="49" t="s">
         <v>165</v>
       </c>
@@ -11609,7 +11678,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="49" t="s">
         <v>165</v>
       </c>
@@ -11638,7 +11707,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="49" t="s">
         <v>86</v>
       </c>
@@ -11667,7 +11736,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="49" t="s">
         <v>144</v>
       </c>
@@ -11696,7 +11765,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="49" t="s">
         <v>5</v>
       </c>
@@ -11725,7 +11794,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="49" t="s">
         <v>5</v>
       </c>
@@ -11754,7 +11823,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="49" t="s">
         <v>5</v>
       </c>
@@ -11783,7 +11852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="49" t="s">
         <v>62</v>
       </c>
@@ -11812,7 +11881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="49" t="s">
         <v>79</v>
       </c>
@@ -11841,7 +11910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="49" t="s">
         <v>292</v>
       </c>
@@ -11870,7 +11939,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="49" t="s">
         <v>5</v>
       </c>
@@ -11899,7 +11968,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="49" t="s">
         <v>5</v>
       </c>
@@ -11928,7 +11997,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="49" t="s">
         <v>5</v>
       </c>
@@ -11957,7 +12026,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="49" t="s">
         <v>5</v>
       </c>
@@ -11986,7 +12055,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="49" t="s">
         <v>6</v>
       </c>
@@ -12015,7 +12084,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="49" t="s">
         <v>453</v>
       </c>
@@ -12044,7 +12113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="49" t="s">
         <v>292</v>
       </c>
@@ -12073,7 +12142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="49" t="s">
         <v>453</v>
       </c>
@@ -12102,7 +12171,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="49" t="s">
         <v>23</v>
       </c>
@@ -12131,7 +12200,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="49" t="s">
         <v>5</v>
       </c>
@@ -12160,7 +12229,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="49" t="s">
         <v>5</v>
       </c>
@@ -12189,7 +12258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="49" t="s">
         <v>5</v>
       </c>
@@ -12218,7 +12287,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="49" t="s">
         <v>62</v>
       </c>
@@ -12247,7 +12316,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="49" t="s">
         <v>106</v>
       </c>
@@ -12276,7 +12345,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="49" t="s">
         <v>22</v>
       </c>
@@ -12305,7 +12374,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="49" t="s">
         <v>144</v>
       </c>
@@ -12334,7 +12403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="49" t="s">
         <v>5</v>
       </c>
@@ -12363,7 +12432,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
         <v>5</v>
       </c>
@@ -12392,7 +12461,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="49" t="s">
         <v>21</v>
       </c>
@@ -12421,7 +12490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="49" t="s">
         <v>106</v>
       </c>
@@ -12450,7 +12519,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="49" t="s">
         <v>6</v>
       </c>
@@ -12479,7 +12548,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="49" t="s">
         <v>62</v>
       </c>
@@ -12508,7 +12577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="49" t="s">
         <v>62</v>
       </c>
@@ -12537,7 +12606,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="49" t="s">
         <v>242</v>
       </c>
@@ -12566,7 +12635,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="49" t="s">
         <v>292</v>
       </c>
@@ -12595,7 +12664,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="49" t="s">
         <v>482</v>
       </c>
@@ -12624,7 +12693,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="49" t="s">
         <v>247</v>
       </c>
@@ -12653,7 +12722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="49" t="s">
         <v>23</v>
       </c>
@@ -12682,7 +12751,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="49" t="s">
         <v>487</v>
       </c>
@@ -12711,7 +12780,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="49" t="s">
         <v>487</v>
       </c>
@@ -12740,7 +12809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="49" t="s">
         <v>5</v>
       </c>
@@ -12769,7 +12838,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="49" t="s">
         <v>5</v>
       </c>
@@ -12798,7 +12867,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="49" t="s">
         <v>5</v>
       </c>
@@ -12827,7 +12896,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="49" t="s">
         <v>165</v>
       </c>
@@ -12856,7 +12925,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="49" t="s">
         <v>114</v>
       </c>
@@ -12885,7 +12954,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="49" t="s">
         <v>62</v>
       </c>
@@ -12914,7 +12983,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="49" t="s">
         <v>21</v>
       </c>
@@ -12943,7 +13012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="49" t="s">
         <v>247</v>
       </c>
@@ -12972,7 +13041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="49" t="s">
         <v>144</v>
       </c>
@@ -13001,7 +13070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="49" t="s">
         <v>5</v>
       </c>
@@ -13030,7 +13099,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="49" t="s">
         <v>21</v>
       </c>
@@ -13059,7 +13128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="49" t="s">
         <v>21</v>
       </c>
@@ -13088,7 +13157,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="49" t="s">
         <v>144</v>
       </c>
@@ -13117,7 +13186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="49" t="s">
         <v>144</v>
       </c>
@@ -13146,7 +13215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="49" t="s">
         <v>23</v>
       </c>
@@ -13175,7 +13244,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="49" t="s">
         <v>23</v>
       </c>
@@ -13204,7 +13273,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="49" t="s">
         <v>23</v>
       </c>
@@ -13233,7 +13302,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="49" t="s">
         <v>79</v>
       </c>
@@ -13262,7 +13331,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="49" t="s">
         <v>5</v>
       </c>
@@ -13291,7 +13360,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="49" t="s">
         <v>5</v>
       </c>
@@ -13320,7 +13389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="49" t="s">
         <v>22</v>
       </c>
@@ -13349,7 +13418,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="49" t="s">
         <v>482</v>
       </c>
@@ -13378,7 +13447,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="49" t="s">
         <v>106</v>
       </c>
@@ -13407,7 +13476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="49" t="s">
         <v>6</v>
       </c>
@@ -13436,7 +13505,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="49" t="s">
         <v>6</v>
       </c>
@@ -13465,7 +13534,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="49" t="s">
         <v>5</v>
       </c>
@@ -13494,7 +13563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="49" t="s">
         <v>247</v>
       </c>
@@ -13523,7 +13592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="49" t="s">
         <v>5</v>
       </c>
@@ -13552,7 +13621,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="49" t="s">
         <v>5</v>
       </c>
@@ -13581,7 +13650,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="49" t="s">
         <v>5</v>
       </c>
@@ -13610,7 +13679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="49" t="s">
         <v>5</v>
       </c>
@@ -13639,7 +13708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="49" t="s">
         <v>5</v>
       </c>
@@ -13668,7 +13737,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>5</v>
       </c>
@@ -13697,7 +13766,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="49" t="s">
         <v>5</v>
       </c>
@@ -13726,7 +13795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="49" t="s">
         <v>5</v>
       </c>
@@ -13755,7 +13824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="49" t="s">
         <v>5</v>
       </c>
@@ -13784,7 +13853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="49" t="s">
         <v>5</v>
       </c>
@@ -13813,7 +13882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="49" t="s">
         <v>5</v>
       </c>
@@ -13842,7 +13911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="49" t="s">
         <v>5</v>
       </c>
@@ -13871,7 +13940,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="49" t="s">
         <v>62</v>
       </c>
@@ -13900,7 +13969,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="49" t="s">
         <v>62</v>
       </c>
@@ -13929,7 +13998,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="49" t="s">
         <v>84</v>
       </c>
@@ -13958,7 +14027,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="49" t="s">
         <v>84</v>
       </c>
@@ -13987,7 +14056,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="49" t="s">
         <v>62</v>
       </c>
@@ -14016,7 +14085,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="49" t="s">
         <v>62</v>
       </c>
@@ -14045,7 +14114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="49" t="s">
         <v>62</v>
       </c>
@@ -14074,7 +14143,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="49" t="s">
         <v>62</v>
       </c>
@@ -14103,7 +14172,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="49" t="s">
         <v>62</v>
       </c>
@@ -14132,7 +14201,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="49" t="s">
         <v>165</v>
       </c>
@@ -14161,7 +14230,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="49" t="s">
         <v>62</v>
       </c>
@@ -14190,7 +14259,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="49" t="s">
         <v>5</v>
       </c>
@@ -14219,7 +14288,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="49" t="s">
         <v>5</v>
       </c>
@@ -14248,7 +14317,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="49" t="s">
         <v>106</v>
       </c>
@@ -14277,7 +14346,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="49" t="s">
         <v>106</v>
       </c>
@@ -14306,7 +14375,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="49" t="s">
         <v>106</v>
       </c>
@@ -14335,7 +14404,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="49" t="s">
         <v>106</v>
       </c>
@@ -14364,7 +14433,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="49" t="s">
         <v>22</v>
       </c>
@@ -14393,7 +14462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="49" t="s">
         <v>79</v>
       </c>
@@ -14422,7 +14491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="49" t="s">
         <v>62</v>
       </c>
@@ -14451,7 +14520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="49" t="s">
         <v>62</v>
       </c>
@@ -14480,7 +14549,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="49" t="s">
         <v>62</v>
       </c>
@@ -14509,7 +14578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="49" t="s">
         <v>62</v>
       </c>
@@ -14538,7 +14607,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="49" t="s">
         <v>62</v>
       </c>
@@ -14567,7 +14636,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="49" t="s">
         <v>142</v>
       </c>
@@ -14596,7 +14665,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="49" t="s">
         <v>23</v>
       </c>
@@ -14625,7 +14694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
         <v>144</v>
       </c>
@@ -14654,7 +14723,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="49" t="s">
         <v>21</v>
       </c>
@@ -14683,7 +14752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="49" t="s">
         <v>23</v>
       </c>
@@ -14712,7 +14781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="49" t="s">
         <v>5</v>
       </c>
@@ -14741,7 +14810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="49" t="s">
         <v>5</v>
       </c>
@@ -14770,7 +14839,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="49" t="s">
         <v>5</v>
       </c>
@@ -14799,7 +14868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="49" t="s">
         <v>5</v>
       </c>
@@ -14828,7 +14897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="49" t="s">
         <v>21</v>
       </c>
@@ -14857,7 +14926,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="49" t="s">
         <v>165</v>
       </c>
@@ -14886,7 +14955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="49" t="s">
         <v>6</v>
       </c>
@@ -14915,7 +14984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="49" t="s">
         <v>84</v>
       </c>
@@ -14944,7 +15013,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="49" t="s">
         <v>86</v>
       </c>
@@ -14973,7 +15042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="49" t="s">
         <v>62</v>
       </c>
@@ -15002,7 +15071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="49" t="s">
         <v>144</v>
       </c>
@@ -15031,7 +15100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="49" t="s">
         <v>5</v>
       </c>
@@ -15060,7 +15129,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="49" t="s">
         <v>5</v>
       </c>
@@ -15089,7 +15158,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="49" t="s">
         <v>289</v>
       </c>
@@ -15118,7 +15187,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="49" t="s">
         <v>383</v>
       </c>
@@ -15147,7 +15216,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="49" t="s">
         <v>23</v>
       </c>
@@ -15176,7 +15245,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="49" t="s">
         <v>62</v>
       </c>
@@ -15205,7 +15274,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="49" t="s">
         <v>62</v>
       </c>
@@ -15234,7 +15303,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="49" t="s">
         <v>106</v>
       </c>
@@ -15263,7 +15332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="49" t="s">
         <v>114</v>
       </c>
@@ -15292,7 +15361,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="49" t="s">
         <v>247</v>
       </c>
@@ -15321,7 +15390,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="49" t="s">
         <v>247</v>
       </c>
@@ -15350,7 +15419,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="49" t="s">
         <v>247</v>
       </c>
@@ -15379,7 +15448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="49" t="s">
         <v>23</v>
       </c>
@@ -15408,7 +15477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="49" t="s">
         <v>23</v>
       </c>
@@ -15437,7 +15506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="49" t="s">
         <v>62</v>
       </c>
@@ -15466,7 +15535,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="49" t="s">
         <v>62</v>
       </c>
@@ -15495,7 +15564,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="49" t="s">
         <v>62</v>
       </c>
@@ -15524,7 +15593,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="49" t="s">
         <v>144</v>
       </c>
@@ -15553,7 +15622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="49" t="s">
         <v>5</v>
       </c>
@@ -15582,7 +15651,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="49" t="s">
         <v>86</v>
       </c>
@@ -15611,7 +15680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="49" t="s">
         <v>62</v>
       </c>
@@ -15640,7 +15709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="49" t="s">
         <v>106</v>
       </c>
@@ -15669,7 +15738,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="49" t="s">
         <v>106</v>
       </c>
@@ -15698,7 +15767,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="49" t="s">
         <v>5</v>
       </c>
@@ -15727,7 +15796,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="49" t="s">
         <v>86</v>
       </c>
@@ -15756,7 +15825,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="49" t="s">
         <v>22</v>
       </c>
@@ -15785,7 +15854,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="49" t="s">
         <v>22</v>
       </c>
@@ -15814,7 +15883,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="49" t="s">
         <v>84</v>
       </c>
@@ -15843,7 +15912,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="49" t="s">
         <v>114</v>
       </c>
@@ -15872,7 +15941,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="49" t="s">
         <v>5</v>
       </c>
@@ -15901,7 +15970,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="49" t="s">
         <v>5</v>
       </c>
@@ -15930,7 +15999,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="49" t="s">
         <v>247</v>
       </c>
@@ -15959,7 +16028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="49" t="s">
         <v>23</v>
       </c>
@@ -15988,7 +16057,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="49" t="s">
         <v>79</v>
       </c>
@@ -16017,7 +16086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="49" t="s">
         <v>487</v>
       </c>
@@ -16046,7 +16115,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="49" t="s">
         <v>5</v>
       </c>
@@ -16075,7 +16144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="49" t="s">
         <v>5</v>
       </c>
@@ -16104,7 +16173,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="49" t="s">
         <v>344</v>
       </c>
@@ -16133,7 +16202,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="49" t="s">
         <v>642</v>
       </c>
@@ -16162,7 +16231,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="49" t="s">
         <v>644</v>
       </c>
@@ -16191,7 +16260,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="49" t="s">
         <v>646</v>
       </c>
@@ -16220,7 +16289,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="49" t="s">
         <v>648</v>
       </c>
@@ -16249,7 +16318,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="49" t="s">
         <v>650</v>
       </c>
@@ -16278,7 +16347,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="49" t="s">
         <v>652</v>
       </c>
@@ -16307,7 +16376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="49" t="s">
         <v>155</v>
       </c>
@@ -16336,7 +16405,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="49" t="s">
         <v>165</v>
       </c>
@@ -16365,7 +16434,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="49" t="s">
         <v>22</v>
       </c>
@@ -16394,7 +16463,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="49" t="s">
         <v>62</v>
       </c>
@@ -16423,7 +16492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="49" t="s">
         <v>5</v>
       </c>
@@ -16452,7 +16521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="49" t="s">
         <v>289</v>
       </c>
@@ -16481,7 +16550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="49" t="s">
         <v>289</v>
       </c>
@@ -16510,7 +16579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="49" t="s">
         <v>5</v>
       </c>
@@ -16539,7 +16608,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="49" t="s">
         <v>5</v>
       </c>
@@ -16568,7 +16637,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="49" t="s">
         <v>84</v>
       </c>
@@ -16597,7 +16666,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="49" t="s">
         <v>86</v>
       </c>
@@ -16626,7 +16695,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="49" t="s">
         <v>114</v>
       </c>
@@ -16655,7 +16724,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="49" t="s">
         <v>5</v>
       </c>
@@ -16684,7 +16753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="49" t="s">
         <v>139</v>
       </c>
@@ -16713,7 +16782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="49" t="s">
         <v>23</v>
       </c>
@@ -16742,7 +16811,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="49" t="s">
         <v>5</v>
       </c>
@@ -16771,7 +16840,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="49" t="s">
         <v>5</v>
       </c>
@@ -16800,7 +16869,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="49" t="s">
         <v>5</v>
       </c>
@@ -16829,7 +16898,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="49" t="s">
         <v>5</v>
       </c>
@@ -16858,7 +16927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="49" t="s">
         <v>22</v>
       </c>
@@ -16887,7 +16956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="49" t="s">
         <v>5</v>
       </c>
@@ -16916,7 +16985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="49" t="s">
         <v>62</v>
       </c>
@@ -16945,7 +17014,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="49" t="s">
         <v>5</v>
       </c>
@@ -16974,7 +17043,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="49" t="s">
         <v>289</v>
       </c>
@@ -17003,7 +17072,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="49" t="s">
         <v>5</v>
       </c>
@@ -17032,7 +17101,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="49" t="s">
         <v>5</v>
       </c>
@@ -17061,7 +17130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="49" t="s">
         <v>86</v>
       </c>
@@ -17090,7 +17159,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="49" t="s">
         <v>62</v>
       </c>
@@ -17119,7 +17188,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="49" t="s">
         <v>22</v>
       </c>
@@ -17148,7 +17217,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="49" t="s">
         <v>22</v>
       </c>
@@ -17177,7 +17246,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="49" t="s">
         <v>84</v>
       </c>
@@ -17206,7 +17275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="49" t="s">
         <v>62</v>
       </c>
@@ -17235,7 +17304,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="49" t="s">
         <v>5</v>
       </c>
@@ -17264,7 +17333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="49" t="s">
         <v>86</v>
       </c>
@@ -17293,7 +17362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="49" t="s">
         <v>62</v>
       </c>
@@ -17322,7 +17391,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="49" t="s">
         <v>5</v>
       </c>
@@ -17351,7 +17420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="49" t="s">
         <v>5</v>
       </c>
@@ -17380,7 +17449,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="49" t="s">
         <v>292</v>
       </c>
@@ -17394,7 +17463,7 @@
         <v>45703</v>
       </c>
       <c r="E445" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F445" s="49" t="s">
         <v>8</v>
@@ -17403,13 +17472,13 @@
         <v>66</v>
       </c>
       <c r="H445" s="51" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I445" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="49" t="s">
         <v>5</v>
       </c>
@@ -17423,7 +17492,7 @@
         <v>45670</v>
       </c>
       <c r="E446" s="49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F446" s="49" t="s">
         <v>8</v>
@@ -17432,13 +17501,13 @@
         <v>145</v>
       </c>
       <c r="H446" s="51" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I446" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="49" t="s">
         <v>5</v>
       </c>
@@ -17452,7 +17521,7 @@
         <v>45702</v>
       </c>
       <c r="E447" s="49" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F447" s="49" t="s">
         <v>9</v>
@@ -17461,13 +17530,13 @@
         <v>38</v>
       </c>
       <c r="H447" s="51" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I447" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="49" t="s">
         <v>5</v>
       </c>
@@ -17481,7 +17550,7 @@
         <v>45702</v>
       </c>
       <c r="E448" s="49" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F448" s="49" t="s">
         <v>9</v>
@@ -17490,13 +17559,13 @@
         <v>8</v>
       </c>
       <c r="H448" s="51" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I448" s="26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="49" t="s">
         <v>5</v>
       </c>
@@ -17510,7 +17579,7 @@
         <v>45672</v>
       </c>
       <c r="E449" s="49" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F449" s="49" t="s">
         <v>322</v>
@@ -17519,13 +17588,13 @@
         <v>445</v>
       </c>
       <c r="H449" s="51" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I449" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="49" t="s">
         <v>21</v>
       </c>
@@ -17539,7 +17608,7 @@
         <v>45670</v>
       </c>
       <c r="E450" s="49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F450" s="49" t="s">
         <v>9</v>
@@ -17548,13 +17617,13 @@
         <v>72</v>
       </c>
       <c r="H450" s="51" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I450" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="49" t="s">
         <v>21</v>
       </c>
@@ -17568,7 +17637,7 @@
         <v>45670</v>
       </c>
       <c r="E451" s="49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F451" s="49" t="s">
         <v>9</v>
@@ -17577,13 +17646,13 @@
         <v>1</v>
       </c>
       <c r="H451" s="51" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I451" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="49" t="s">
         <v>21</v>
       </c>
@@ -17597,7 +17666,7 @@
         <v>45670</v>
       </c>
       <c r="E452" s="49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F452" s="49" t="s">
         <v>9</v>
@@ -17606,13 +17675,13 @@
         <v>1</v>
       </c>
       <c r="H452" s="51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I452" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="49" t="s">
         <v>21</v>
       </c>
@@ -17626,7 +17695,7 @@
         <v>45670</v>
       </c>
       <c r="E453" s="49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F453" s="49" t="s">
         <v>9</v>
@@ -17635,13 +17704,13 @@
         <v>1</v>
       </c>
       <c r="H453" s="51" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I453" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="49" t="s">
         <v>22</v>
       </c>
@@ -17670,7 +17739,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="49" t="s">
         <v>22</v>
       </c>
@@ -17684,7 +17753,7 @@
         <v>45703</v>
       </c>
       <c r="E455" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F455" s="49" t="s">
         <v>8</v>
@@ -17693,13 +17762,13 @@
         <v>171</v>
       </c>
       <c r="H455" s="51" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I455" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="49" t="s">
         <v>6</v>
       </c>
@@ -17713,7 +17782,7 @@
         <v>45663</v>
       </c>
       <c r="E456" s="49" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F456" s="49" t="s">
         <v>8</v>
@@ -17722,13 +17791,13 @@
         <v>122</v>
       </c>
       <c r="H456" s="51" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I456" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="49" t="s">
         <v>6</v>
       </c>
@@ -17742,7 +17811,7 @@
         <v>45723</v>
       </c>
       <c r="E457" s="49" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F457" s="49" t="s">
         <v>8</v>
@@ -17751,13 +17820,13 @@
         <v>6</v>
       </c>
       <c r="H457" s="51" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I457" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="49" t="s">
         <v>6</v>
       </c>
@@ -17771,7 +17840,7 @@
         <v>45725</v>
       </c>
       <c r="E458" s="49" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F458" s="49" t="s">
         <v>8</v>
@@ -17780,13 +17849,13 @@
         <v>10</v>
       </c>
       <c r="H458" s="51" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I458" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="49" t="s">
         <v>165</v>
       </c>
@@ -17800,7 +17869,7 @@
         <v>45745</v>
       </c>
       <c r="E459" s="49" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F459" s="49" t="s">
         <v>8</v>
@@ -17809,13 +17878,13 @@
         <v>1</v>
       </c>
       <c r="H459" s="51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I459" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="49" t="s">
         <v>62</v>
       </c>
@@ -17829,7 +17898,7 @@
         <v>45744</v>
       </c>
       <c r="E460" s="49" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F460" s="49" t="s">
         <v>8</v>
@@ -17838,13 +17907,13 @@
         <v>1</v>
       </c>
       <c r="H460" s="51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I460" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="49" t="s">
         <v>23</v>
       </c>
@@ -17858,7 +17927,7 @@
         <v>45725</v>
       </c>
       <c r="E461" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F461" s="49" t="s">
         <v>8</v>
@@ -17867,13 +17936,13 @@
         <v>8</v>
       </c>
       <c r="H461" s="51" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I461" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="49" t="s">
         <v>23</v>
       </c>
@@ -17887,7 +17956,7 @@
         <v>45723</v>
       </c>
       <c r="E462" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F462" s="49" t="s">
         <v>8</v>
@@ -17896,13 +17965,13 @@
         <v>8</v>
       </c>
       <c r="H462" s="51" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I462" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="49" t="s">
         <v>23</v>
       </c>
@@ -17916,7 +17985,7 @@
         <v>45721</v>
       </c>
       <c r="E463" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F463" s="49" t="s">
         <v>8</v>
@@ -17925,13 +17994,13 @@
         <v>9</v>
       </c>
       <c r="H463" s="51" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I463" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="49" t="s">
         <v>23</v>
       </c>
@@ -17945,7 +18014,7 @@
         <v>45724</v>
       </c>
       <c r="E464" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F464" s="49" t="s">
         <v>8</v>
@@ -17954,13 +18023,13 @@
         <v>15</v>
       </c>
       <c r="H464" s="51" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I464" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="49" t="s">
         <v>646</v>
       </c>
@@ -17974,7 +18043,7 @@
         <v>45715</v>
       </c>
       <c r="E465" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F465" s="49" t="s">
         <v>8</v>
@@ -17983,13 +18052,13 @@
         <v>8</v>
       </c>
       <c r="H465" s="51" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I465" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="49" t="s">
         <v>79</v>
       </c>
@@ -18003,7 +18072,7 @@
         <v>45721</v>
       </c>
       <c r="E466" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F466" s="49" t="s">
         <v>8</v>
@@ -18012,13 +18081,13 @@
         <v>9</v>
       </c>
       <c r="H466" s="51" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I466" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="49" t="s">
         <v>7</v>
       </c>
@@ -18032,7 +18101,7 @@
         <v>45723</v>
       </c>
       <c r="E467" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F467" s="49" t="s">
         <v>8</v>
@@ -18041,13 +18110,13 @@
         <v>8</v>
       </c>
       <c r="H467" s="51" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I467" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="49" t="s">
         <v>7</v>
       </c>
@@ -18061,7 +18130,7 @@
         <v>45690</v>
       </c>
       <c r="E468" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F468" s="49" t="s">
         <v>8</v>
@@ -18070,13 +18139,13 @@
         <v>10</v>
       </c>
       <c r="H468" s="51" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I468" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="49" t="s">
         <v>7</v>
       </c>
@@ -18090,7 +18159,7 @@
         <v>45721</v>
       </c>
       <c r="E469" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F469" s="49" t="s">
         <v>8</v>
@@ -18099,13 +18168,13 @@
         <v>8</v>
       </c>
       <c r="H469" s="51" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I469" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="49" t="s">
         <v>7</v>
       </c>
@@ -18119,7 +18188,7 @@
         <v>45690</v>
       </c>
       <c r="E470" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F470" s="49" t="s">
         <v>8</v>
@@ -18128,15 +18197,15 @@
         <v>8</v>
       </c>
       <c r="H470" s="51" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I470" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B471" s="50">
         <v>45610</v>
@@ -18148,7 +18217,7 @@
         <v>45721</v>
       </c>
       <c r="E471" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F471" s="49" t="s">
         <v>8</v>
@@ -18157,15 +18226,15 @@
         <v>10</v>
       </c>
       <c r="H471" s="51" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I471" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B472" s="50">
         <v>45610</v>
@@ -18177,7 +18246,7 @@
         <v>45721</v>
       </c>
       <c r="E472" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F472" s="49" t="s">
         <v>8</v>
@@ -18186,13 +18255,13 @@
         <v>8</v>
       </c>
       <c r="H472" s="51" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I472" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="49" t="s">
         <v>292</v>
       </c>
@@ -18206,7 +18275,7 @@
         <v>45714</v>
       </c>
       <c r="E473" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F473" s="49" t="s">
         <v>8</v>
@@ -18215,13 +18284,13 @@
         <v>8</v>
       </c>
       <c r="H473" s="51" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I473" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="49" t="s">
         <v>292</v>
       </c>
@@ -18235,7 +18304,7 @@
         <v>45722</v>
       </c>
       <c r="E474" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F474" s="49" t="s">
         <v>8</v>
@@ -18244,13 +18313,13 @@
         <v>11</v>
       </c>
       <c r="H474" s="51" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I474" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="49" t="s">
         <v>292</v>
       </c>
@@ -18264,7 +18333,7 @@
         <v>45725</v>
       </c>
       <c r="E475" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F475" s="49" t="s">
         <v>8</v>
@@ -18273,13 +18342,13 @@
         <v>11</v>
       </c>
       <c r="H475" s="51" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I475" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="49" t="s">
         <v>292</v>
       </c>
@@ -18293,7 +18362,7 @@
         <v>45722</v>
       </c>
       <c r="E476" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F476" s="49" t="s">
         <v>8</v>
@@ -18302,13 +18371,13 @@
         <v>15</v>
       </c>
       <c r="H476" s="51" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I476" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="49" t="s">
         <v>292</v>
       </c>
@@ -18322,7 +18391,7 @@
         <v>45722</v>
       </c>
       <c r="E477" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F477" s="49" t="s">
         <v>8</v>
@@ -18331,13 +18400,13 @@
         <v>12</v>
       </c>
       <c r="H477" s="51" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I477" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="49" t="s">
         <v>292</v>
       </c>
@@ -18351,7 +18420,7 @@
         <v>45705</v>
       </c>
       <c r="E478" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F478" s="49" t="s">
         <v>8</v>
@@ -18360,15 +18429,15 @@
         <v>10</v>
       </c>
       <c r="H478" s="51" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I478" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B479" s="50">
         <v>45610</v>
@@ -18380,7 +18449,7 @@
         <v>45723</v>
       </c>
       <c r="E479" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F479" s="49" t="s">
         <v>8</v>
@@ -18389,13 +18458,13 @@
         <v>9</v>
       </c>
       <c r="H479" s="51" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I479" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="49" t="s">
         <v>5</v>
       </c>
@@ -18409,7 +18478,7 @@
         <v>45721</v>
       </c>
       <c r="E480" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F480" s="49" t="s">
         <v>8</v>
@@ -18418,13 +18487,13 @@
         <v>12</v>
       </c>
       <c r="H480" s="51" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I480" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="49" t="s">
         <v>5</v>
       </c>
@@ -18438,7 +18507,7 @@
         <v>45723</v>
       </c>
       <c r="E481" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F481" s="49" t="s">
         <v>8</v>
@@ -18447,13 +18516,13 @@
         <v>10</v>
       </c>
       <c r="H481" s="51" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I481" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="49" t="s">
         <v>5</v>
       </c>
@@ -18467,7 +18536,7 @@
         <v>45714</v>
       </c>
       <c r="E482" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F482" s="49" t="s">
         <v>8</v>
@@ -18476,13 +18545,13 @@
         <v>7</v>
       </c>
       <c r="H482" s="51" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I482" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="49" t="s">
         <v>5</v>
       </c>
@@ -18496,7 +18565,7 @@
         <v>45723</v>
       </c>
       <c r="E483" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F483" s="49" t="s">
         <v>8</v>
@@ -18505,13 +18574,13 @@
         <v>9</v>
       </c>
       <c r="H483" s="51" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I483" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="49" t="s">
         <v>5</v>
       </c>
@@ -18525,7 +18594,7 @@
         <v>45723</v>
       </c>
       <c r="E484" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F484" s="49" t="s">
         <v>8</v>
@@ -18534,13 +18603,13 @@
         <v>9</v>
       </c>
       <c r="H484" s="51" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I484" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="49" t="s">
         <v>5</v>
       </c>
@@ -18554,7 +18623,7 @@
         <v>45725</v>
       </c>
       <c r="E485" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F485" s="49" t="s">
         <v>8</v>
@@ -18563,13 +18632,13 @@
         <v>12</v>
       </c>
       <c r="H485" s="51" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I485" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="49" t="s">
         <v>5</v>
       </c>
@@ -18583,7 +18652,7 @@
         <v>45721</v>
       </c>
       <c r="E486" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F486" s="49" t="s">
         <v>8</v>
@@ -18592,13 +18661,13 @@
         <v>10</v>
       </c>
       <c r="H486" s="51" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I486" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="49" t="s">
         <v>5</v>
       </c>
@@ -18612,7 +18681,7 @@
         <v>45723</v>
       </c>
       <c r="E487" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F487" s="49" t="s">
         <v>8</v>
@@ -18621,13 +18690,13 @@
         <v>7</v>
       </c>
       <c r="H487" s="51" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I487" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="49" t="s">
         <v>5</v>
       </c>
@@ -18641,7 +18710,7 @@
         <v>45722</v>
       </c>
       <c r="E488" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F488" s="49" t="s">
         <v>8</v>
@@ -18650,13 +18719,13 @@
         <v>8</v>
       </c>
       <c r="H488" s="51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I488" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="49" t="s">
         <v>5</v>
       </c>
@@ -18670,7 +18739,7 @@
         <v>45723</v>
       </c>
       <c r="E489" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F489" s="49" t="s">
         <v>8</v>
@@ -18679,13 +18748,13 @@
         <v>9</v>
       </c>
       <c r="H489" s="51" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I489" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="49" t="s">
         <v>5</v>
       </c>
@@ -18699,7 +18768,7 @@
         <v>45723</v>
       </c>
       <c r="E490" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F490" s="49" t="s">
         <v>8</v>
@@ -18708,13 +18777,13 @@
         <v>11</v>
       </c>
       <c r="H490" s="51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I490" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="49" t="s">
         <v>5</v>
       </c>
@@ -18728,7 +18797,7 @@
         <v>45721</v>
       </c>
       <c r="E491" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F491" s="49" t="s">
         <v>8</v>
@@ -18737,13 +18806,13 @@
         <v>12</v>
       </c>
       <c r="H491" s="51" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I491" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="49" t="s">
         <v>5</v>
       </c>
@@ -18757,7 +18826,7 @@
         <v>45721</v>
       </c>
       <c r="E492" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F492" s="49" t="s">
         <v>8</v>
@@ -18766,13 +18835,13 @@
         <v>9</v>
       </c>
       <c r="H492" s="51" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I492" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="49" t="s">
         <v>5</v>
       </c>
@@ -18786,7 +18855,7 @@
         <v>45722</v>
       </c>
       <c r="E493" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F493" s="49" t="s">
         <v>8</v>
@@ -18795,13 +18864,13 @@
         <v>9</v>
       </c>
       <c r="H493" s="51" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I493" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="49" t="s">
         <v>5</v>
       </c>
@@ -18815,7 +18884,7 @@
         <v>45726</v>
       </c>
       <c r="E494" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F494" s="49" t="s">
         <v>8</v>
@@ -18824,13 +18893,13 @@
         <v>12</v>
       </c>
       <c r="H494" s="51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I494" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="49" t="s">
         <v>5</v>
       </c>
@@ -18844,7 +18913,7 @@
         <v>45722</v>
       </c>
       <c r="E495" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F495" s="49" t="s">
         <v>8</v>
@@ -18853,13 +18922,13 @@
         <v>11</v>
       </c>
       <c r="H495" s="51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I495" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="49" t="s">
         <v>5</v>
       </c>
@@ -18873,7 +18942,7 @@
         <v>45724</v>
       </c>
       <c r="E496" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F496" s="49" t="s">
         <v>8</v>
@@ -18882,13 +18951,13 @@
         <v>10</v>
       </c>
       <c r="H496" s="51" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I496" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="49" t="s">
         <v>5</v>
       </c>
@@ -18902,7 +18971,7 @@
         <v>45723</v>
       </c>
       <c r="E497" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F497" s="49" t="s">
         <v>8</v>
@@ -18911,13 +18980,13 @@
         <v>9</v>
       </c>
       <c r="H497" s="51" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I497" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="49" t="s">
         <v>5</v>
       </c>
@@ -18931,7 +19000,7 @@
         <v>45725</v>
       </c>
       <c r="E498" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F498" s="49" t="s">
         <v>8</v>
@@ -18940,13 +19009,13 @@
         <v>14</v>
       </c>
       <c r="H498" s="51" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I498" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="49" t="s">
         <v>5</v>
       </c>
@@ -18960,7 +19029,7 @@
         <v>45725</v>
       </c>
       <c r="E499" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F499" s="49" t="s">
         <v>8</v>
@@ -18969,13 +19038,13 @@
         <v>17</v>
       </c>
       <c r="H499" s="51" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I499" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="49" t="s">
         <v>5</v>
       </c>
@@ -18989,7 +19058,7 @@
         <v>45726</v>
       </c>
       <c r="E500" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F500" s="49" t="s">
         <v>8</v>
@@ -18998,13 +19067,13 @@
         <v>11</v>
       </c>
       <c r="H500" s="51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I500" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="49" t="s">
         <v>5</v>
       </c>
@@ -19018,7 +19087,7 @@
         <v>45721</v>
       </c>
       <c r="E501" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F501" s="49" t="s">
         <v>8</v>
@@ -19027,13 +19096,13 @@
         <v>12</v>
       </c>
       <c r="H501" s="51" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I501" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="49" t="s">
         <v>5</v>
       </c>
@@ -19047,7 +19116,7 @@
         <v>45714</v>
       </c>
       <c r="E502" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F502" s="49" t="s">
         <v>8</v>
@@ -19056,13 +19125,13 @@
         <v>8</v>
       </c>
       <c r="H502" s="51" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I502" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="49" t="s">
         <v>5</v>
       </c>
@@ -19076,7 +19145,7 @@
         <v>45725</v>
       </c>
       <c r="E503" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F503" s="49" t="s">
         <v>8</v>
@@ -19085,13 +19154,13 @@
         <v>8</v>
       </c>
       <c r="H503" s="51" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I503" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="49" t="s">
         <v>5</v>
       </c>
@@ -19105,7 +19174,7 @@
         <v>45725</v>
       </c>
       <c r="E504" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F504" s="49" t="s">
         <v>8</v>
@@ -19114,13 +19183,13 @@
         <v>11</v>
       </c>
       <c r="H504" s="51" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I504" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="49" t="s">
         <v>5</v>
       </c>
@@ -19134,7 +19203,7 @@
         <v>45723</v>
       </c>
       <c r="E505" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F505" s="49" t="s">
         <v>8</v>
@@ -19143,13 +19212,13 @@
         <v>7</v>
       </c>
       <c r="H505" s="51" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I505" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="49" t="s">
         <v>5</v>
       </c>
@@ -19163,7 +19232,7 @@
         <v>45726</v>
       </c>
       <c r="E506" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F506" s="49" t="s">
         <v>8</v>
@@ -19172,13 +19241,13 @@
         <v>10</v>
       </c>
       <c r="H506" s="51" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I506" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="49" t="s">
         <v>5</v>
       </c>
@@ -19192,7 +19261,7 @@
         <v>45723</v>
       </c>
       <c r="E507" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F507" s="49" t="s">
         <v>8</v>
@@ -19201,13 +19270,13 @@
         <v>10</v>
       </c>
       <c r="H507" s="51" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I507" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="49" t="s">
         <v>5</v>
       </c>
@@ -19221,7 +19290,7 @@
         <v>45725</v>
       </c>
       <c r="E508" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F508" s="49" t="s">
         <v>8</v>
@@ -19230,13 +19299,13 @@
         <v>12</v>
       </c>
       <c r="H508" s="51" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I508" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="49" t="s">
         <v>5</v>
       </c>
@@ -19250,7 +19319,7 @@
         <v>45725</v>
       </c>
       <c r="E509" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F509" s="49" t="s">
         <v>8</v>
@@ -19259,13 +19328,13 @@
         <v>17</v>
       </c>
       <c r="H509" s="51" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I509" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="49" t="s">
         <v>5</v>
       </c>
@@ -19279,7 +19348,7 @@
         <v>45726</v>
       </c>
       <c r="E510" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F510" s="49" t="s">
         <v>8</v>
@@ -19288,13 +19357,13 @@
         <v>15</v>
       </c>
       <c r="H510" s="51" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I510" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="49" t="s">
         <v>5</v>
       </c>
@@ -19308,7 +19377,7 @@
         <v>45705</v>
       </c>
       <c r="E511" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F511" s="49" t="s">
         <v>8</v>
@@ -19317,13 +19386,13 @@
         <v>9</v>
       </c>
       <c r="H511" s="51" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I511" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="49" t="s">
         <v>5</v>
       </c>
@@ -19337,7 +19406,7 @@
         <v>45714</v>
       </c>
       <c r="E512" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F512" s="49" t="s">
         <v>8</v>
@@ -19346,13 +19415,13 @@
         <v>9</v>
       </c>
       <c r="H512" s="51" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I512" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="49" t="s">
         <v>5</v>
       </c>
@@ -19366,7 +19435,7 @@
         <v>45725</v>
       </c>
       <c r="E513" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F513" s="49" t="s">
         <v>8</v>
@@ -19375,13 +19444,13 @@
         <v>11</v>
       </c>
       <c r="H513" s="51" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I513" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="49" t="s">
         <v>5</v>
       </c>
@@ -19395,7 +19464,7 @@
         <v>45724</v>
       </c>
       <c r="E514" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F514" s="49" t="s">
         <v>8</v>
@@ -19404,13 +19473,13 @@
         <v>10</v>
       </c>
       <c r="H514" s="51" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I514" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="49" t="s">
         <v>5</v>
       </c>
@@ -19424,7 +19493,7 @@
         <v>45725</v>
       </c>
       <c r="E515" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F515" s="49" t="s">
         <v>8</v>
@@ -19433,13 +19502,13 @@
         <v>13</v>
       </c>
       <c r="H515" s="51" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I515" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="49" t="s">
         <v>344</v>
       </c>
@@ -19453,7 +19522,7 @@
         <v>45723</v>
       </c>
       <c r="E516" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F516" s="49" t="s">
         <v>8</v>
@@ -19462,13 +19531,13 @@
         <v>10</v>
       </c>
       <c r="H516" s="51" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I516" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="49" t="s">
         <v>21</v>
       </c>
@@ -19482,7 +19551,7 @@
         <v>45723</v>
       </c>
       <c r="E517" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F517" s="49" t="s">
         <v>8</v>
@@ -19491,13 +19560,13 @@
         <v>9</v>
       </c>
       <c r="H517" s="51" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I517" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="49" t="s">
         <v>21</v>
       </c>
@@ -19511,7 +19580,7 @@
         <v>45714</v>
       </c>
       <c r="E518" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F518" s="49" t="s">
         <v>8</v>
@@ -19520,13 +19589,13 @@
         <v>9</v>
       </c>
       <c r="H518" s="51" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I518" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="49" t="s">
         <v>21</v>
       </c>
@@ -19540,7 +19609,7 @@
         <v>45722</v>
       </c>
       <c r="E519" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F519" s="49" t="s">
         <v>8</v>
@@ -19549,13 +19618,13 @@
         <v>13</v>
       </c>
       <c r="H519" s="51" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I519" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="49" t="s">
         <v>21</v>
       </c>
@@ -19569,7 +19638,7 @@
         <v>45705</v>
       </c>
       <c r="E520" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F520" s="49" t="s">
         <v>8</v>
@@ -19578,13 +19647,13 @@
         <v>8</v>
       </c>
       <c r="H520" s="51" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I520" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="49" t="s">
         <v>21</v>
       </c>
@@ -19598,7 +19667,7 @@
         <v>45724</v>
       </c>
       <c r="E521" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F521" s="49" t="s">
         <v>8</v>
@@ -19607,13 +19676,13 @@
         <v>9</v>
       </c>
       <c r="H521" s="51" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I521" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="49" t="s">
         <v>21</v>
       </c>
@@ -19627,7 +19696,7 @@
         <v>45721</v>
       </c>
       <c r="E522" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F522" s="49" t="s">
         <v>8</v>
@@ -19636,13 +19705,13 @@
         <v>11</v>
       </c>
       <c r="H522" s="51" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I522" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="49" t="s">
         <v>21</v>
       </c>
@@ -19656,7 +19725,7 @@
         <v>45714</v>
       </c>
       <c r="E523" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F523" s="49" t="s">
         <v>8</v>
@@ -19665,13 +19734,13 @@
         <v>10</v>
       </c>
       <c r="H523" s="51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I523" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="49" t="s">
         <v>21</v>
       </c>
@@ -19685,7 +19754,7 @@
         <v>45724</v>
       </c>
       <c r="E524" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F524" s="49" t="s">
         <v>8</v>
@@ -19694,13 +19763,13 @@
         <v>15</v>
       </c>
       <c r="H524" s="51" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I524" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="49" t="s">
         <v>21</v>
       </c>
@@ -19714,7 +19783,7 @@
         <v>45723</v>
       </c>
       <c r="E525" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F525" s="49" t="s">
         <v>8</v>
@@ -19723,13 +19792,13 @@
         <v>10</v>
       </c>
       <c r="H525" s="51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I525" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="49" t="s">
         <v>21</v>
       </c>
@@ -19743,7 +19812,7 @@
         <v>45721</v>
       </c>
       <c r="E526" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F526" s="49" t="s">
         <v>8</v>
@@ -19752,13 +19821,13 @@
         <v>12</v>
       </c>
       <c r="H526" s="51" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I526" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="49" t="s">
         <v>21</v>
       </c>
@@ -19772,7 +19841,7 @@
         <v>45723</v>
       </c>
       <c r="E527" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F527" s="49" t="s">
         <v>8</v>
@@ -19781,13 +19850,13 @@
         <v>9</v>
       </c>
       <c r="H527" s="51" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I527" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="49" t="s">
         <v>21</v>
       </c>
@@ -19801,7 +19870,7 @@
         <v>45724</v>
       </c>
       <c r="E528" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F528" s="49" t="s">
         <v>8</v>
@@ -19810,13 +19879,13 @@
         <v>17</v>
       </c>
       <c r="H528" s="51" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I528" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="49" t="s">
         <v>106</v>
       </c>
@@ -19830,7 +19899,7 @@
         <v>45725</v>
       </c>
       <c r="E529" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F529" s="49" t="s">
         <v>8</v>
@@ -19839,13 +19908,13 @@
         <v>8</v>
       </c>
       <c r="H529" s="51" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I529" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="49" t="s">
         <v>106</v>
       </c>
@@ -19859,7 +19928,7 @@
         <v>45690</v>
       </c>
       <c r="E530" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F530" s="49" t="s">
         <v>8</v>
@@ -19868,13 +19937,13 @@
         <v>14</v>
       </c>
       <c r="H530" s="51" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I530" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="49" t="s">
         <v>106</v>
       </c>
@@ -19888,7 +19957,7 @@
         <v>45723</v>
       </c>
       <c r="E531" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F531" s="49" t="s">
         <v>8</v>
@@ -19897,13 +19966,13 @@
         <v>11</v>
       </c>
       <c r="H531" s="51" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I531" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="49" t="s">
         <v>106</v>
       </c>
@@ -19917,7 +19986,7 @@
         <v>45723</v>
       </c>
       <c r="E532" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F532" s="49" t="s">
         <v>8</v>
@@ -19926,13 +19995,13 @@
         <v>8</v>
       </c>
       <c r="H532" s="51" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I532" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="49" t="s">
         <v>106</v>
       </c>
@@ -19946,7 +20015,7 @@
         <v>45722</v>
       </c>
       <c r="E533" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F533" s="49" t="s">
         <v>8</v>
@@ -19955,13 +20024,13 @@
         <v>13</v>
       </c>
       <c r="H533" s="51" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I533" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="49" t="s">
         <v>106</v>
       </c>
@@ -19975,7 +20044,7 @@
         <v>45724</v>
       </c>
       <c r="E534" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F534" s="49" t="s">
         <v>8</v>
@@ -19984,13 +20053,13 @@
         <v>17</v>
       </c>
       <c r="H534" s="51" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I534" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="49" t="s">
         <v>106</v>
       </c>
@@ -20004,7 +20073,7 @@
         <v>45725</v>
       </c>
       <c r="E535" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F535" s="49" t="s">
         <v>8</v>
@@ -20013,13 +20082,13 @@
         <v>22</v>
       </c>
       <c r="H535" s="51" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I535" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="49" t="s">
         <v>106</v>
       </c>
@@ -20033,7 +20102,7 @@
         <v>45725</v>
       </c>
       <c r="E536" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F536" s="49" t="s">
         <v>8</v>
@@ -20042,13 +20111,13 @@
         <v>12</v>
       </c>
       <c r="H536" s="51" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I536" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="49" t="s">
         <v>106</v>
       </c>
@@ -20062,7 +20131,7 @@
         <v>45714</v>
       </c>
       <c r="E537" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F537" s="49" t="s">
         <v>8</v>
@@ -20071,13 +20140,13 @@
         <v>10</v>
       </c>
       <c r="H537" s="51" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I537" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="49" t="s">
         <v>106</v>
       </c>
@@ -20091,7 +20160,7 @@
         <v>45727</v>
       </c>
       <c r="E538" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F538" s="49" t="s">
         <v>8</v>
@@ -20100,13 +20169,13 @@
         <v>15</v>
       </c>
       <c r="H538" s="51" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I538" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="49" t="s">
         <v>165</v>
       </c>
@@ -20120,7 +20189,7 @@
         <v>45721</v>
       </c>
       <c r="E539" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F539" s="49" t="s">
         <v>8</v>
@@ -20129,13 +20198,13 @@
         <v>6</v>
       </c>
       <c r="H539" s="51" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I539" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="49" t="s">
         <v>165</v>
       </c>
@@ -20149,7 +20218,7 @@
         <v>45724</v>
       </c>
       <c r="E540" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F540" s="49" t="s">
         <v>8</v>
@@ -20158,13 +20227,13 @@
         <v>13</v>
       </c>
       <c r="H540" s="51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I540" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="49" t="s">
         <v>165</v>
       </c>
@@ -20178,7 +20247,7 @@
         <v>45724</v>
       </c>
       <c r="E541" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F541" s="49" t="s">
         <v>8</v>
@@ -20187,13 +20256,13 @@
         <v>19</v>
       </c>
       <c r="H541" s="51" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I541" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="49" t="s">
         <v>165</v>
       </c>
@@ -20207,7 +20276,7 @@
         <v>45725</v>
       </c>
       <c r="E542" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F542" s="49" t="s">
         <v>8</v>
@@ -20216,13 +20285,13 @@
         <v>10</v>
       </c>
       <c r="H542" s="51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I542" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="49" t="s">
         <v>165</v>
       </c>
@@ -20236,7 +20305,7 @@
         <v>45712</v>
       </c>
       <c r="E543" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F543" s="49" t="s">
         <v>8</v>
@@ -20245,13 +20314,13 @@
         <v>9</v>
       </c>
       <c r="H543" s="51" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I543" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="49" t="s">
         <v>165</v>
       </c>
@@ -20265,7 +20334,7 @@
         <v>45705</v>
       </c>
       <c r="E544" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F544" s="49" t="s">
         <v>8</v>
@@ -20274,13 +20343,13 @@
         <v>8</v>
       </c>
       <c r="H544" s="51" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I544" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="49" t="s">
         <v>22</v>
       </c>
@@ -20294,7 +20363,7 @@
         <v>45725</v>
       </c>
       <c r="E545" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F545" s="49" t="s">
         <v>8</v>
@@ -20303,13 +20372,13 @@
         <v>22</v>
       </c>
       <c r="H545" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I545" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="49" t="s">
         <v>22</v>
       </c>
@@ -20323,7 +20392,7 @@
         <v>45723</v>
       </c>
       <c r="E546" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F546" s="49" t="s">
         <v>8</v>
@@ -20332,13 +20401,13 @@
         <v>8</v>
       </c>
       <c r="H546" s="51" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I546" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="49" t="s">
         <v>22</v>
       </c>
@@ -20352,7 +20421,7 @@
         <v>45723</v>
       </c>
       <c r="E547" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F547" s="49" t="s">
         <v>8</v>
@@ -20361,13 +20430,13 @@
         <v>9</v>
       </c>
       <c r="H547" s="51" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I547" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="49" t="s">
         <v>22</v>
       </c>
@@ -20381,7 +20450,7 @@
         <v>45721</v>
       </c>
       <c r="E548" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F548" s="49" t="s">
         <v>8</v>
@@ -20390,13 +20459,13 @@
         <v>9</v>
       </c>
       <c r="H548" s="51" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I548" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="49" t="s">
         <v>22</v>
       </c>
@@ -20410,7 +20479,7 @@
         <v>45721</v>
       </c>
       <c r="E549" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F549" s="49" t="s">
         <v>8</v>
@@ -20419,13 +20488,13 @@
         <v>13</v>
       </c>
       <c r="H549" s="51" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I549" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="49" t="s">
         <v>22</v>
       </c>
@@ -20439,7 +20508,7 @@
         <v>45705</v>
       </c>
       <c r="E550" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F550" s="49" t="s">
         <v>8</v>
@@ -20448,13 +20517,13 @@
         <v>12</v>
       </c>
       <c r="H550" s="51" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I550" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="49" t="s">
         <v>22</v>
       </c>
@@ -20468,7 +20537,7 @@
         <v>45725</v>
       </c>
       <c r="E551" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F551" s="49" t="s">
         <v>8</v>
@@ -20477,13 +20546,13 @@
         <v>10</v>
       </c>
       <c r="H551" s="51" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I551" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="49" t="s">
         <v>22</v>
       </c>
@@ -20497,7 +20566,7 @@
         <v>45722</v>
       </c>
       <c r="E552" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F552" s="49" t="s">
         <v>8</v>
@@ -20506,13 +20575,13 @@
         <v>10</v>
       </c>
       <c r="H552" s="51" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I552" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="49" t="s">
         <v>22</v>
       </c>
@@ -20526,7 +20595,7 @@
         <v>45725</v>
       </c>
       <c r="E553" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F553" s="49" t="s">
         <v>8</v>
@@ -20535,13 +20604,13 @@
         <v>15</v>
       </c>
       <c r="H553" s="51" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I553" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="49" t="s">
         <v>22</v>
       </c>
@@ -20555,7 +20624,7 @@
         <v>45722</v>
       </c>
       <c r="E554" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F554" s="49" t="s">
         <v>8</v>
@@ -20564,13 +20633,13 @@
         <v>8</v>
       </c>
       <c r="H554" s="51" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I554" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="49" t="s">
         <v>22</v>
       </c>
@@ -20584,7 +20653,7 @@
         <v>45722</v>
       </c>
       <c r="E555" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F555" s="49" t="s">
         <v>8</v>
@@ -20593,13 +20662,13 @@
         <v>11</v>
       </c>
       <c r="H555" s="51" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I555" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="49" t="s">
         <v>22</v>
       </c>
@@ -20613,7 +20682,7 @@
         <v>45705</v>
       </c>
       <c r="E556" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F556" s="49" t="s">
         <v>8</v>
@@ -20622,13 +20691,13 @@
         <v>8</v>
       </c>
       <c r="H556" s="51" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I556" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="49" t="s">
         <v>22</v>
       </c>
@@ -20642,7 +20711,7 @@
         <v>45690</v>
       </c>
       <c r="E557" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F557" s="49" t="s">
         <v>8</v>
@@ -20651,13 +20720,13 @@
         <v>14</v>
       </c>
       <c r="H557" s="51" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I557" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="49" t="s">
         <v>6</v>
       </c>
@@ -20671,7 +20740,7 @@
         <v>45723</v>
       </c>
       <c r="E558" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F558" s="49" t="s">
         <v>8</v>
@@ -20680,13 +20749,13 @@
         <v>6</v>
       </c>
       <c r="H558" s="51" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I558" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="49" t="s">
         <v>6</v>
       </c>
@@ -20700,7 +20769,7 @@
         <v>45725</v>
       </c>
       <c r="E559" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F559" s="49" t="s">
         <v>8</v>
@@ -20709,13 +20778,13 @@
         <v>10</v>
       </c>
       <c r="H559" s="51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I559" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="49" t="s">
         <v>6</v>
       </c>
@@ -20729,7 +20798,7 @@
         <v>45723</v>
       </c>
       <c r="E560" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F560" s="49" t="s">
         <v>8</v>
@@ -20738,13 +20807,13 @@
         <v>13</v>
       </c>
       <c r="H560" s="51" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I560" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="49" t="s">
         <v>6</v>
       </c>
@@ -20758,7 +20827,7 @@
         <v>45723</v>
       </c>
       <c r="E561" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F561" s="49" t="s">
         <v>8</v>
@@ -20767,13 +20836,13 @@
         <v>10</v>
       </c>
       <c r="H561" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I561" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="49" t="s">
         <v>6</v>
       </c>
@@ -20787,7 +20856,7 @@
         <v>45726</v>
       </c>
       <c r="E562" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F562" s="49" t="s">
         <v>8</v>
@@ -20796,13 +20865,13 @@
         <v>14</v>
       </c>
       <c r="H562" s="51" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I562" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="49" t="s">
         <v>6</v>
       </c>
@@ -20816,7 +20885,7 @@
         <v>45721</v>
       </c>
       <c r="E563" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F563" s="49" t="s">
         <v>8</v>
@@ -20825,13 +20894,13 @@
         <v>9</v>
       </c>
       <c r="H563" s="51" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I563" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="49" t="s">
         <v>6</v>
       </c>
@@ -20845,7 +20914,7 @@
         <v>45725</v>
       </c>
       <c r="E564" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F564" s="49" t="s">
         <v>8</v>
@@ -20854,13 +20923,13 @@
         <v>11</v>
       </c>
       <c r="H564" s="51" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I564" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="49" t="s">
         <v>6</v>
       </c>
@@ -20874,7 +20943,7 @@
         <v>45723</v>
       </c>
       <c r="E565" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F565" s="49" t="s">
         <v>8</v>
@@ -20883,13 +20952,13 @@
         <v>12</v>
       </c>
       <c r="H565" s="51" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I565" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="49" t="s">
         <v>6</v>
       </c>
@@ -20903,7 +20972,7 @@
         <v>45725</v>
       </c>
       <c r="E566" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F566" s="49" t="s">
         <v>8</v>
@@ -20912,13 +20981,13 @@
         <v>16</v>
       </c>
       <c r="H566" s="51" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I566" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="49" t="s">
         <v>6</v>
       </c>
@@ -20932,7 +21001,7 @@
         <v>45721</v>
       </c>
       <c r="E567" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F567" s="49" t="s">
         <v>8</v>
@@ -20941,13 +21010,13 @@
         <v>13</v>
       </c>
       <c r="H567" s="51" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I567" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="49" t="s">
         <v>6</v>
       </c>
@@ -20961,7 +21030,7 @@
         <v>45723</v>
       </c>
       <c r="E568" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F568" s="49" t="s">
         <v>8</v>
@@ -20970,13 +21039,13 @@
         <v>14</v>
       </c>
       <c r="H568" s="51" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I568" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="49" t="s">
         <v>6</v>
       </c>
@@ -20990,7 +21059,7 @@
         <v>45727</v>
       </c>
       <c r="E569" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F569" s="49" t="s">
         <v>8</v>
@@ -20999,13 +21068,13 @@
         <v>14</v>
       </c>
       <c r="H569" s="51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I569" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="49" t="s">
         <v>6</v>
       </c>
@@ -21019,7 +21088,7 @@
         <v>45722</v>
       </c>
       <c r="E570" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F570" s="49" t="s">
         <v>8</v>
@@ -21028,13 +21097,13 @@
         <v>9</v>
       </c>
       <c r="H570" s="51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I570" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="49" t="s">
         <v>114</v>
       </c>
@@ -21048,7 +21117,7 @@
         <v>45722</v>
       </c>
       <c r="E571" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F571" s="49" t="s">
         <v>8</v>
@@ -21057,13 +21126,13 @@
         <v>11</v>
       </c>
       <c r="H571" s="51" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I571" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="49" t="s">
         <v>114</v>
       </c>
@@ -21077,7 +21146,7 @@
         <v>45722</v>
       </c>
       <c r="E572" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F572" s="49" t="s">
         <v>8</v>
@@ -21086,13 +21155,13 @@
         <v>9</v>
       </c>
       <c r="H572" s="51" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I572" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="49" t="s">
         <v>114</v>
       </c>
@@ -21106,7 +21175,7 @@
         <v>45721</v>
       </c>
       <c r="E573" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F573" s="49" t="s">
         <v>8</v>
@@ -21115,13 +21184,13 @@
         <v>10</v>
       </c>
       <c r="H573" s="51" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I573" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="49" t="s">
         <v>114</v>
       </c>
@@ -21135,7 +21204,7 @@
         <v>45724</v>
       </c>
       <c r="E574" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F574" s="49" t="s">
         <v>8</v>
@@ -21144,13 +21213,13 @@
         <v>13</v>
       </c>
       <c r="H574" s="51" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I574" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="49" t="s">
         <v>142</v>
       </c>
@@ -21164,7 +21233,7 @@
         <v>45725</v>
       </c>
       <c r="E575" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F575" s="49" t="s">
         <v>8</v>
@@ -21173,13 +21242,13 @@
         <v>20</v>
       </c>
       <c r="H575" s="51" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I575" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="49" t="s">
         <v>142</v>
       </c>
@@ -21193,7 +21262,7 @@
         <v>45726</v>
       </c>
       <c r="E576" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F576" s="49" t="s">
         <v>8</v>
@@ -21202,13 +21271,13 @@
         <v>17</v>
       </c>
       <c r="H576" s="51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I576" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="49" t="s">
         <v>142</v>
       </c>
@@ -21222,7 +21291,7 @@
         <v>45726</v>
       </c>
       <c r="E577" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F577" s="49" t="s">
         <v>8</v>
@@ -21231,13 +21300,13 @@
         <v>18</v>
       </c>
       <c r="H577" s="51" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I577" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="49" t="s">
         <v>86</v>
       </c>
@@ -21251,7 +21320,7 @@
         <v>45725</v>
       </c>
       <c r="E578" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F578" s="49" t="s">
         <v>8</v>
@@ -21260,15 +21329,15 @@
         <v>8</v>
       </c>
       <c r="H578" s="51" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I578" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="49" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B579" s="50">
         <v>45610</v>
@@ -21280,7 +21349,7 @@
         <v>45681</v>
       </c>
       <c r="E579" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F579" s="49" t="s">
         <v>8</v>
@@ -21289,15 +21358,15 @@
         <v>10</v>
       </c>
       <c r="H579" s="51" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I579" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="49" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B580" s="50">
         <v>45610</v>
@@ -21309,7 +21378,7 @@
         <v>45725</v>
       </c>
       <c r="E580" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F580" s="49" t="s">
         <v>8</v>
@@ -21318,13 +21387,13 @@
         <v>8</v>
       </c>
       <c r="H580" s="51" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I580" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="49" t="s">
         <v>62</v>
       </c>
@@ -21338,7 +21407,7 @@
         <v>45725</v>
       </c>
       <c r="E581" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F581" s="49" t="s">
         <v>8</v>
@@ -21347,13 +21416,13 @@
         <v>9</v>
       </c>
       <c r="H581" s="51" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I581" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="49" t="s">
         <v>62</v>
       </c>
@@ -21367,7 +21436,7 @@
         <v>45723</v>
       </c>
       <c r="E582" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F582" s="49" t="s">
         <v>8</v>
@@ -21376,13 +21445,13 @@
         <v>6</v>
       </c>
       <c r="H582" s="51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I582" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="49" t="s">
         <v>62</v>
       </c>
@@ -21396,7 +21465,7 @@
         <v>45723</v>
       </c>
       <c r="E583" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F583" s="49" t="s">
         <v>8</v>
@@ -21405,13 +21474,13 @@
         <v>12</v>
       </c>
       <c r="H583" s="51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I583" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="49" t="s">
         <v>62</v>
       </c>
@@ -21425,7 +21494,7 @@
         <v>45724</v>
       </c>
       <c r="E584" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F584" s="49" t="s">
         <v>8</v>
@@ -21434,13 +21503,13 @@
         <v>7</v>
       </c>
       <c r="H584" s="51" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I584" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="49" t="s">
         <v>62</v>
       </c>
@@ -21454,7 +21523,7 @@
         <v>45724</v>
       </c>
       <c r="E585" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F585" s="49" t="s">
         <v>8</v>
@@ -21463,15 +21532,15 @@
         <v>9</v>
       </c>
       <c r="H585" s="51" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I585" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="49" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B586" s="50">
         <v>45610</v>
@@ -21483,7 +21552,7 @@
         <v>45714</v>
       </c>
       <c r="E586" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F586" s="49" t="s">
         <v>8</v>
@@ -21492,13 +21561,13 @@
         <v>10</v>
       </c>
       <c r="H586" s="51" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I586" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="49" t="s">
         <v>144</v>
       </c>
@@ -21512,7 +21581,7 @@
         <v>45713</v>
       </c>
       <c r="E587" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F587" s="49" t="s">
         <v>8</v>
@@ -21521,13 +21590,13 @@
         <v>6</v>
       </c>
       <c r="H587" s="51" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I587" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="49" t="s">
         <v>144</v>
       </c>
@@ -21541,7 +21610,7 @@
         <v>45713</v>
       </c>
       <c r="E588" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F588" s="49" t="s">
         <v>8</v>
@@ -21550,13 +21619,13 @@
         <v>6</v>
       </c>
       <c r="H588" s="51" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I588" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="49" t="s">
         <v>289</v>
       </c>
@@ -21570,7 +21639,7 @@
         <v>45723</v>
       </c>
       <c r="E589" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F589" s="49" t="s">
         <v>8</v>
@@ -21579,13 +21648,13 @@
         <v>11</v>
       </c>
       <c r="H589" s="51" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I589" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="49" t="s">
         <v>247</v>
       </c>
@@ -21599,7 +21668,7 @@
         <v>45724</v>
       </c>
       <c r="E590" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F590" s="49" t="s">
         <v>8</v>
@@ -21608,13 +21677,13 @@
         <v>9</v>
       </c>
       <c r="H590" s="51" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I590" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="49" t="s">
         <v>247</v>
       </c>
@@ -21628,7 +21697,7 @@
         <v>45724</v>
       </c>
       <c r="E591" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F591" s="49" t="s">
         <v>8</v>
@@ -21637,13 +21706,13 @@
         <v>11</v>
       </c>
       <c r="H591" s="51" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I591" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="49" t="s">
         <v>383</v>
       </c>
@@ -21657,7 +21726,7 @@
         <v>45723</v>
       </c>
       <c r="E592" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F592" s="49" t="s">
         <v>8</v>
@@ -21666,10 +21735,387 @@
         <v>6</v>
       </c>
       <c r="H592" s="51" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I592" s="26" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A593" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593" s="50">
+        <v>45614</v>
+      </c>
+      <c r="C593" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D593" s="50">
+        <v>45676</v>
+      </c>
+      <c r="E593" s="49" t="s">
+        <v>870</v>
+      </c>
+      <c r="F593" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G593" s="51">
+        <v>37</v>
+      </c>
+      <c r="H593" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="I593" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A594" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B594" s="50">
+        <v>45615</v>
+      </c>
+      <c r="C594" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D594" s="50">
+        <v>45675</v>
+      </c>
+      <c r="E594" s="49" t="s">
+        <v>872</v>
+      </c>
+      <c r="F594" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G594" s="51">
+        <v>74</v>
+      </c>
+      <c r="H594" s="51" t="s">
+        <v>873</v>
+      </c>
+      <c r="I594" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A595" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B595" s="50">
+        <v>45611</v>
+      </c>
+      <c r="C595" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D595" s="50">
+        <v>45667</v>
+      </c>
+      <c r="E595" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="F595" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G595" s="51">
+        <v>80</v>
+      </c>
+      <c r="H595" s="51" t="s">
+        <v>875</v>
+      </c>
+      <c r="I595" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A596" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B596" s="50">
+        <v>45611</v>
+      </c>
+      <c r="C596" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D596" s="50">
+        <v>45667</v>
+      </c>
+      <c r="E596" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="F596" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G596" s="51">
+        <v>255</v>
+      </c>
+      <c r="H596" s="51" t="s">
+        <v>876</v>
+      </c>
+      <c r="I596" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A597" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B597" s="50">
+        <v>45615</v>
+      </c>
+      <c r="C597" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D597" s="50">
+        <v>45674</v>
+      </c>
+      <c r="E597" s="49" t="s">
+        <v>877</v>
+      </c>
+      <c r="F597" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G597" s="51">
+        <v>311</v>
+      </c>
+      <c r="H597" s="51" t="s">
+        <v>878</v>
+      </c>
+      <c r="I597" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A598" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B598" s="50">
+        <v>45615</v>
+      </c>
+      <c r="C598" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D598" s="50">
+        <v>45665</v>
+      </c>
+      <c r="E598" s="49" t="s">
+        <v>879</v>
+      </c>
+      <c r="F598" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G598" s="51">
+        <v>108</v>
+      </c>
+      <c r="H598" s="51" t="s">
+        <v>880</v>
+      </c>
+      <c r="I598" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A599" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B599" s="50">
+        <v>45611</v>
+      </c>
+      <c r="C599" s="50">
+        <v>45615</v>
+      </c>
+      <c r="D599" s="50">
+        <v>45672</v>
+      </c>
+      <c r="E599" s="49" t="s">
+        <v>881</v>
+      </c>
+      <c r="F599" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G599" s="51">
+        <v>53</v>
+      </c>
+      <c r="H599" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="I599" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A600" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B600" s="50">
+        <v>45615</v>
+      </c>
+      <c r="C600" s="50">
+        <v>45616</v>
+      </c>
+      <c r="D600" s="50">
+        <v>45667</v>
+      </c>
+      <c r="E600" s="49" t="s">
+        <v>883</v>
+      </c>
+      <c r="F600" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G600" s="51">
+        <v>31</v>
+      </c>
+      <c r="H600" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="I600" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A601" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B601" s="50">
+        <v>45615</v>
+      </c>
+      <c r="C601" s="50">
+        <v>45616</v>
+      </c>
+      <c r="D601" s="50">
+        <v>45667</v>
+      </c>
+      <c r="E601" s="49" t="s">
+        <v>883</v>
+      </c>
+      <c r="F601" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G601" s="51">
+        <v>122</v>
+      </c>
+      <c r="H601" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="I601" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A602" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B602" s="50">
+        <v>45616</v>
+      </c>
+      <c r="C602" s="50">
+        <v>45616</v>
+      </c>
+      <c r="D602" s="50">
+        <v>45628</v>
+      </c>
+      <c r="E602" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="F602" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G602" s="51">
+        <v>50</v>
+      </c>
+      <c r="H602" s="51" t="s">
+        <v>887</v>
+      </c>
+      <c r="I602" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A603" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B603" s="50">
+        <v>45614</v>
+      </c>
+      <c r="C603" s="50">
+        <v>45616</v>
+      </c>
+      <c r="D603" s="50">
+        <v>45608</v>
+      </c>
+      <c r="E603" s="49" t="s">
+        <v>888</v>
+      </c>
+      <c r="F603" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G603" s="51">
+        <v>1</v>
+      </c>
+      <c r="H603" s="51" t="s">
+        <v>889</v>
+      </c>
+      <c r="I603" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A604" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B604" s="50">
+        <v>45614</v>
+      </c>
+      <c r="C604" s="50">
+        <v>45616</v>
+      </c>
+      <c r="D604" s="50">
+        <v>45608</v>
+      </c>
+      <c r="E604" s="49" t="s">
+        <v>888</v>
+      </c>
+      <c r="F604" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G604" s="51">
+        <v>89</v>
+      </c>
+      <c r="H604" s="51" t="s">
+        <v>890</v>
+      </c>
+      <c r="I604" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A605" s="49" t="s">
+        <v>854</v>
+      </c>
+      <c r="B605" s="50">
+        <v>45616</v>
+      </c>
+      <c r="C605" s="50">
+        <v>45616</v>
+      </c>
+      <c r="D605" s="50">
+        <v>45307</v>
+      </c>
+      <c r="E605" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="F605" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G605" s="51">
+        <v>64</v>
+      </c>
+      <c r="H605" s="51" t="s">
+        <v>892</v>
+      </c>
+      <c r="I605" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -21686,7 +22132,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I592</xm:sqref>
+          <xm:sqref>I3:I605</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21700,18 +22146,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -21719,7 +22165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
@@ -21728,7 +22174,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -21737,7 +22183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -21746,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -21755,7 +22201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -21764,7 +22210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -21773,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -21799,25 +22245,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>712</v>
+        <v>869</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -21843,7 +22289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -21885,117 +22331,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910FA70D-59A1-4DF5-8869-1DA99850AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCF586D5-9623-4F57-9BCB-C3CA4305B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="904">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2735,8 +2735,107 @@
     <t>320 Elm Street  Woodland CA 95695</t>
   </si>
   <si>
+    <t>Michaels Stores, Inc. dba Moskatels</t>
+  </si>
+  <si>
+    <t>738 Wall Street  Los Angeles CA 90014</t>
+  </si>
+  <si>
+    <t>Del Friscos Grille</t>
+  </si>
+  <si>
+    <t>772 Spectrum Center Dr  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>111 Pine Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>One Front Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>Urban Alchemy</t>
+  </si>
+  <si>
+    <t>255 Golden Gate Avenue  San Francisco CA 94102</t>
+  </si>
+  <si>
+    <t>Old Custom House, Inc.</t>
+  </si>
+  <si>
+    <t>404 Front Street  Avila Beach CA 93424</t>
+  </si>
+  <si>
+    <t>ABL Space Systems Company</t>
+  </si>
+  <si>
+    <t>140, 224, and 225 Oregon Street  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>23andMe, Inc.</t>
+  </si>
+  <si>
+    <t>349 Oyster Point Blvd.  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>223 North Mathilda Ave.  Sunnyvale CA 94086</t>
+  </si>
+  <si>
+    <t>Veritas Technologies, LLC</t>
+  </si>
+  <si>
+    <t>2625 Augustine Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>GoForward, Inc.</t>
+  </si>
+  <si>
+    <t>879 Newport Center Drive  Newport Beach CA 92660</t>
+  </si>
+  <si>
+    <t>550 Kearny, #600  San Francisco CA 94108</t>
+  </si>
+  <si>
+    <t>Joslyn Sunbank Company, LLC</t>
+  </si>
+  <si>
+    <t>1740 Commerce Way  Paso Robles CA 93446</t>
+  </si>
+  <si>
+    <t>LifeCare Assurance Company</t>
+  </si>
+  <si>
+    <t>Oxnard Street, Suite 1500  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>900 Metro Center Blvd  San Mateo CA 94404</t>
+  </si>
+  <si>
+    <t>Orora Packaging Solutions dba Manufactured Packaging Products</t>
+  </si>
+  <si>
+    <t>3200 Enterprise Street  Brea CA 92821</t>
+  </si>
+  <si>
+    <t>Universal Protection Service, LP dba Allied Universal Security Services</t>
+  </si>
+  <si>
+    <t>3440 E. La Palma Avenue  Anaheim CA 92806</t>
+  </si>
+  <si>
+    <t>6640 Alton Pkwy  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>2295 S Vineyard Avenue  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>2900 W Alameda Avenue  Burbank CA 91505</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/20/2024
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 11/25/2024
 </t>
     </r>
     <r>
@@ -2750,75 +2849,6 @@
     </r>
   </si>
   <si>
-    <t>Michaels Stores, Inc. dba Moskatels</t>
-  </si>
-  <si>
-    <t>738 Wall Street  Los Angeles CA 90014</t>
-  </si>
-  <si>
-    <t>Del Friscos Grille</t>
-  </si>
-  <si>
-    <t>772 Spectrum Center Dr  Irvine CA 92618</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase</t>
-  </si>
-  <si>
-    <t>111 Pine Street  San Francisco CA 94111</t>
-  </si>
-  <si>
-    <t>One Front Street  San Francisco CA 94111</t>
-  </si>
-  <si>
-    <t>Urban Alchemy</t>
-  </si>
-  <si>
-    <t>255 Golden Gate Avenue  San Francisco CA 94102</t>
-  </si>
-  <si>
-    <t>Old Custom House, Inc.</t>
-  </si>
-  <si>
-    <t>404 Front Street  Avila Beach CA 93424</t>
-  </si>
-  <si>
-    <t>ABL Space Systems Company</t>
-  </si>
-  <si>
-    <t>140, 224, and 225 Oregon Street  El Segundo CA 90245</t>
-  </si>
-  <si>
-    <t>23andMe, Inc.</t>
-  </si>
-  <si>
-    <t>349 Oyster Point Blvd.  South San Francisco CA 94080</t>
-  </si>
-  <si>
-    <t>223 North Mathilda Ave.  Sunnyvale CA 94086</t>
-  </si>
-  <si>
-    <t>Veritas Technologies, LLC</t>
-  </si>
-  <si>
-    <t>2625 Augustine Drive  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>GoForward, Inc.</t>
-  </si>
-  <si>
-    <t>879 Newport Center Drive  Newport Beach CA 92660</t>
-  </si>
-  <si>
-    <t>550 Kearny, #600  San Francisco CA 94108</t>
-  </si>
-  <si>
-    <t>Joslyn Sunbank Company, LLC</t>
-  </si>
-  <si>
-    <t>1740 Commerce Way  Santa Maria CA 93456</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -2830,7 +2860,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/24 to 11/20/24</t>
+      <t>07/01/24 to 11/25/24</t>
     </r>
     <r>
       <rPr>
@@ -2850,7 +2880,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I605.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I616.</t>
     </r>
   </si>
 </sst>
@@ -4077,8 +4107,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I605" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I605" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I616" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I616" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4435,37 +4465,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -4487,18 +4517,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -4506,25 +4536,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>32844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4533,7 +4563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4541,16 +4571,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -4559,7 +4589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4579,30 +4609,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I605"/>
+  <dimension ref="A1:I616"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="102.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="102.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -4660,7 +4690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -4689,7 +4719,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
@@ -4718,7 +4748,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
@@ -4776,7 +4806,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -4805,7 +4835,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>49</v>
       </c>
@@ -4834,7 +4864,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -4863,7 +4893,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -4892,7 +4922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -4921,7 +4951,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +4980,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -4979,7 +5009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5038,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -5037,7 +5067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>6</v>
       </c>
@@ -5066,7 +5096,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>6</v>
       </c>
@@ -5095,7 +5125,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>67</v>
       </c>
@@ -5124,7 +5154,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
@@ -5153,7 +5183,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>6</v>
       </c>
@@ -5182,7 +5212,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5241,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
@@ -5240,7 +5270,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -5269,7 +5299,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>79</v>
       </c>
@@ -5298,7 +5328,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -5327,7 +5357,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>84</v>
       </c>
@@ -5356,7 +5386,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>86</v>
       </c>
@@ -5385,7 +5415,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -5414,7 +5444,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>5</v>
       </c>
@@ -5443,7 +5473,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5502,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>5</v>
       </c>
@@ -5501,7 +5531,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>23</v>
       </c>
@@ -5530,7 +5560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>23</v>
       </c>
@@ -5559,7 +5589,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>5</v>
       </c>
@@ -5588,7 +5618,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>5</v>
       </c>
@@ -5617,7 +5647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>5</v>
       </c>
@@ -5646,7 +5676,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>5</v>
       </c>
@@ -5675,7 +5705,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>5</v>
       </c>
@@ -5704,7 +5734,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>5</v>
       </c>
@@ -5733,7 +5763,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>5</v>
       </c>
@@ -5762,7 +5792,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>5</v>
       </c>
@@ -5791,7 +5821,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
@@ -5820,7 +5850,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>106</v>
       </c>
@@ -5849,7 +5879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>106</v>
       </c>
@@ -5878,7 +5908,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -5907,7 +5937,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -5936,7 +5966,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>22</v>
       </c>
@@ -5965,7 +5995,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>22</v>
       </c>
@@ -5994,7 +6024,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>114</v>
       </c>
@@ -6023,7 +6053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -6052,7 +6082,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
@@ -6081,7 +6111,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>5</v>
       </c>
@@ -6110,7 +6140,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>79</v>
       </c>
@@ -6139,7 +6169,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -6168,7 +6198,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>5</v>
       </c>
@@ -6197,7 +6227,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>5</v>
       </c>
@@ -6226,7 +6256,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>5</v>
       </c>
@@ -6255,7 +6285,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>84</v>
       </c>
@@ -6284,7 +6314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
@@ -6313,7 +6343,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>23</v>
       </c>
@@ -6342,7 +6372,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>23</v>
       </c>
@@ -6371,7 +6401,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>23</v>
       </c>
@@ -6400,7 +6430,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>23</v>
       </c>
@@ -6429,7 +6459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>49</v>
       </c>
@@ -6458,7 +6488,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>139</v>
       </c>
@@ -6487,7 +6517,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>139</v>
       </c>
@@ -6516,7 +6546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>142</v>
       </c>
@@ -6545,7 +6575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -6574,7 +6604,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>144</v>
       </c>
@@ -6603,7 +6633,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>144</v>
       </c>
@@ -6632,7 +6662,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>144</v>
       </c>
@@ -6661,7 +6691,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>144</v>
       </c>
@@ -6690,7 +6720,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>144</v>
       </c>
@@ -6719,7 +6749,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>23</v>
       </c>
@@ -6748,7 +6778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>21</v>
       </c>
@@ -6777,7 +6807,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>155</v>
       </c>
@@ -6806,7 +6836,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>23</v>
       </c>
@@ -6835,7 +6865,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -6864,7 +6894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>79</v>
       </c>
@@ -6893,7 +6923,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>5</v>
       </c>
@@ -6922,7 +6952,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>21</v>
       </c>
@@ -6951,7 +6981,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>165</v>
       </c>
@@ -6980,7 +7010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>22</v>
       </c>
@@ -7009,7 +7039,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>6</v>
       </c>
@@ -7038,7 +7068,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>62</v>
       </c>
@@ -7067,7 +7097,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>84</v>
       </c>
@@ -7096,7 +7126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>62</v>
       </c>
@@ -7125,7 +7155,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>21</v>
       </c>
@@ -7154,7 +7184,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>114</v>
       </c>
@@ -7183,7 +7213,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>79</v>
       </c>
@@ -7212,7 +7242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>79</v>
       </c>
@@ -7241,7 +7271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>7</v>
       </c>
@@ -7270,7 +7300,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>5</v>
       </c>
@@ -7299,7 +7329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>5</v>
       </c>
@@ -7328,7 +7358,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
@@ -7357,7 +7387,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>5</v>
       </c>
@@ -7386,7 +7416,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
@@ -7415,7 +7445,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>5</v>
       </c>
@@ -7444,7 +7474,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>5</v>
       </c>
@@ -7473,7 +7503,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>86</v>
       </c>
@@ -7502,7 +7532,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>62</v>
       </c>
@@ -7531,7 +7561,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>62</v>
       </c>
@@ -7560,7 +7590,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>62</v>
       </c>
@@ -7589,7 +7619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>62</v>
       </c>
@@ -7618,7 +7648,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>165</v>
       </c>
@@ -7647,7 +7677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>6</v>
       </c>
@@ -7676,7 +7706,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>6</v>
       </c>
@@ -7705,7 +7735,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>84</v>
       </c>
@@ -7734,7 +7764,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>6</v>
       </c>
@@ -7763,7 +7793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>6</v>
       </c>
@@ -7792,7 +7822,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>84</v>
       </c>
@@ -7821,7 +7851,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>21</v>
       </c>
@@ -7850,7 +7880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>5</v>
       </c>
@@ -7879,7 +7909,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>84</v>
       </c>
@@ -7908,7 +7938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>21</v>
       </c>
@@ -7937,7 +7967,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
@@ -7966,7 +7996,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -7995,7 +8025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>5</v>
       </c>
@@ -8024,7 +8054,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>23</v>
       </c>
@@ -8053,7 +8083,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>5</v>
       </c>
@@ -8082,7 +8112,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>22</v>
       </c>
@@ -8111,7 +8141,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>114</v>
       </c>
@@ -8140,7 +8170,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>84</v>
       </c>
@@ -8169,7 +8199,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>247</v>
       </c>
@@ -8198,7 +8228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>5</v>
       </c>
@@ -8227,7 +8257,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>86</v>
       </c>
@@ -8256,7 +8286,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>62</v>
       </c>
@@ -8285,7 +8315,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
@@ -8314,7 +8344,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>22</v>
       </c>
@@ -8343,7 +8373,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>6</v>
       </c>
@@ -8372,7 +8402,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="39" t="s">
         <v>114</v>
       </c>
@@ -8401,7 +8431,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="39" t="s">
         <v>5</v>
       </c>
@@ -8430,7 +8460,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="39" t="s">
         <v>5</v>
       </c>
@@ -8459,7 +8489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="39" t="s">
         <v>5</v>
       </c>
@@ -8488,7 +8518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="39" t="s">
         <v>21</v>
       </c>
@@ -8517,7 +8547,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -8546,7 +8576,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="39" t="s">
         <v>23</v>
       </c>
@@ -8575,7 +8605,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="39" t="s">
         <v>6</v>
       </c>
@@ -8604,7 +8634,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="39" t="s">
         <v>79</v>
       </c>
@@ -8633,7 +8663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="39" t="s">
         <v>84</v>
       </c>
@@ -8662,7 +8692,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="39" t="s">
         <v>6</v>
       </c>
@@ -8691,7 +8721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>62</v>
       </c>
@@ -8720,7 +8750,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="39" t="s">
         <v>289</v>
       </c>
@@ -8749,7 +8779,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>292</v>
       </c>
@@ -8778,7 +8808,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="39" t="s">
         <v>5</v>
       </c>
@@ -8807,7 +8837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="39" t="s">
         <v>86</v>
       </c>
@@ -8836,7 +8866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="39" t="s">
         <v>289</v>
       </c>
@@ -8865,7 +8895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="39" t="s">
         <v>5</v>
       </c>
@@ -8894,7 +8924,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="39" t="s">
         <v>21</v>
       </c>
@@ -8923,7 +8953,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>79</v>
       </c>
@@ -8952,7 +8982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="39" t="s">
         <v>79</v>
       </c>
@@ -8981,7 +9011,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="39" t="s">
         <v>79</v>
       </c>
@@ -9010,7 +9040,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>5</v>
       </c>
@@ -9039,7 +9069,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="39" t="s">
         <v>247</v>
       </c>
@@ -9068,7 +9098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="39" t="s">
         <v>23</v>
       </c>
@@ -9097,7 +9127,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="39" t="s">
         <v>5</v>
       </c>
@@ -9126,7 +9156,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="39" t="s">
         <v>5</v>
       </c>
@@ -9155,7 +9185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="39" t="s">
         <v>5</v>
       </c>
@@ -9184,7 +9214,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="39" t="s">
         <v>5</v>
       </c>
@@ -9213,7 +9243,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="39" t="s">
         <v>5</v>
       </c>
@@ -9242,7 +9272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="39" t="s">
         <v>84</v>
       </c>
@@ -9271,7 +9301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="39" t="s">
         <v>86</v>
       </c>
@@ -9300,7 +9330,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="39" t="s">
         <v>62</v>
       </c>
@@ -9329,7 +9359,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="39" t="s">
         <v>292</v>
       </c>
@@ -9358,7 +9388,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="39" t="s">
         <v>5</v>
       </c>
@@ -9387,7 +9417,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="39" t="s">
         <v>21</v>
       </c>
@@ -9416,7 +9446,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
         <v>62</v>
       </c>
@@ -9445,7 +9475,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>62</v>
       </c>
@@ -9474,7 +9504,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>62</v>
       </c>
@@ -9503,7 +9533,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>62</v>
       </c>
@@ -9532,7 +9562,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="39" t="s">
         <v>6</v>
       </c>
@@ -9561,7 +9591,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="39" t="s">
         <v>5</v>
       </c>
@@ -9590,7 +9620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="39" t="s">
         <v>5</v>
       </c>
@@ -9619,7 +9649,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="39" t="s">
         <v>5</v>
       </c>
@@ -9648,7 +9678,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="39" t="s">
         <v>5</v>
       </c>
@@ -9677,7 +9707,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="39" t="s">
         <v>5</v>
       </c>
@@ -9706,7 +9736,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="39" t="s">
         <v>139</v>
       </c>
@@ -9735,7 +9765,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>344</v>
       </c>
@@ -9764,7 +9794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -9793,7 +9823,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>22</v>
       </c>
@@ -9822,7 +9852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="39" t="s">
         <v>22</v>
       </c>
@@ -9851,7 +9881,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="39" t="s">
         <v>6</v>
       </c>
@@ -9880,7 +9910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="39" t="s">
         <v>352</v>
       </c>
@@ -9909,7 +9939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="39" t="s">
         <v>352</v>
       </c>
@@ -9938,7 +9968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="39" t="s">
         <v>144</v>
       </c>
@@ -9967,7 +9997,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>23</v>
       </c>
@@ -9996,7 +10026,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>5</v>
       </c>
@@ -10025,7 +10055,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>21</v>
       </c>
@@ -10054,7 +10084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="39" t="s">
         <v>21</v>
       </c>
@@ -10083,7 +10113,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="39" t="s">
         <v>84</v>
       </c>
@@ -10112,7 +10142,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="39" t="s">
         <v>62</v>
       </c>
@@ -10141,7 +10171,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="39" t="s">
         <v>22</v>
       </c>
@@ -10170,7 +10200,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="39" t="s">
         <v>22</v>
       </c>
@@ -10199,7 +10229,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="39" t="s">
         <v>6</v>
       </c>
@@ -10228,7 +10258,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="39" t="s">
         <v>289</v>
       </c>
@@ -10257,7 +10287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="39" t="s">
         <v>22</v>
       </c>
@@ -10286,7 +10316,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="39" t="s">
         <v>23</v>
       </c>
@@ -10315,7 +10345,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="39" t="s">
         <v>5</v>
       </c>
@@ -10344,7 +10374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="39" t="s">
         <v>21</v>
       </c>
@@ -10373,7 +10403,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="39" t="s">
         <v>6</v>
       </c>
@@ -10402,7 +10432,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="39" t="s">
         <v>6</v>
       </c>
@@ -10431,7 +10461,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="39" t="s">
         <v>6</v>
       </c>
@@ -10460,7 +10490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="39" t="s">
         <v>383</v>
       </c>
@@ -10489,7 +10519,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="39" t="s">
         <v>5</v>
       </c>
@@ -10518,7 +10548,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -10547,7 +10577,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="26" t="s">
         <v>6</v>
       </c>
@@ -10576,7 +10606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="26" t="s">
         <v>84</v>
       </c>
@@ -10605,7 +10635,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="26" t="s">
         <v>62</v>
       </c>
@@ -10634,7 +10664,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="26" t="s">
         <v>106</v>
       </c>
@@ -10663,7 +10693,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="26" t="s">
         <v>22</v>
       </c>
@@ -10692,7 +10722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="26" t="s">
         <v>5</v>
       </c>
@@ -10721,7 +10751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="26" t="s">
         <v>5</v>
       </c>
@@ -10750,7 +10780,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="26" t="s">
         <v>21</v>
       </c>
@@ -10779,7 +10809,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="26" t="s">
         <v>21</v>
       </c>
@@ -10808,7 +10838,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="26" t="s">
         <v>23</v>
       </c>
@@ -10837,7 +10867,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
         <v>165</v>
       </c>
@@ -10866,7 +10896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="26" t="s">
         <v>22</v>
       </c>
@@ -10895,7 +10925,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -10924,7 +10954,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -10953,7 +10983,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="26" t="s">
         <v>247</v>
       </c>
@@ -10982,7 +11012,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="26" t="s">
         <v>84</v>
       </c>
@@ -11011,7 +11041,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="49" t="s">
         <v>84</v>
       </c>
@@ -11040,7 +11070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="49" t="s">
         <v>62</v>
       </c>
@@ -11069,7 +11099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="49" t="s">
         <v>62</v>
       </c>
@@ -11098,7 +11128,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="49" t="s">
         <v>62</v>
       </c>
@@ -11127,7 +11157,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="49" t="s">
         <v>415</v>
       </c>
@@ -11156,7 +11186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="49" t="s">
         <v>23</v>
       </c>
@@ -11185,7 +11215,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="49" t="s">
         <v>21</v>
       </c>
@@ -11214,7 +11244,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="49" t="s">
         <v>5</v>
       </c>
@@ -11243,7 +11273,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="49" t="s">
         <v>23</v>
       </c>
@@ -11272,7 +11302,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="49" t="s">
         <v>23</v>
       </c>
@@ -11301,7 +11331,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="49" t="s">
         <v>23</v>
       </c>
@@ -11330,7 +11360,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="49" t="s">
         <v>23</v>
       </c>
@@ -11359,7 +11389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="49" t="s">
         <v>23</v>
       </c>
@@ -11388,7 +11418,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="49" t="s">
         <v>79</v>
       </c>
@@ -11417,7 +11447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="49" t="s">
         <v>5</v>
       </c>
@@ -11446,7 +11476,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="49" t="s">
         <v>5</v>
       </c>
@@ -11475,7 +11505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="49" t="s">
         <v>5</v>
       </c>
@@ -11504,7 +11534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="49" t="s">
         <v>5</v>
       </c>
@@ -11533,7 +11563,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="49" t="s">
         <v>5</v>
       </c>
@@ -11562,7 +11592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="49" t="s">
         <v>21</v>
       </c>
@@ -11591,7 +11621,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="49" t="s">
         <v>106</v>
       </c>
@@ -11620,7 +11650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="49" t="s">
         <v>106</v>
       </c>
@@ -11649,7 +11679,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="49" t="s">
         <v>165</v>
       </c>
@@ -11678,7 +11708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="49" t="s">
         <v>165</v>
       </c>
@@ -11707,7 +11737,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="49" t="s">
         <v>86</v>
       </c>
@@ -11736,7 +11766,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="49" t="s">
         <v>144</v>
       </c>
@@ -11765,7 +11795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="49" t="s">
         <v>5</v>
       </c>
@@ -11794,7 +11824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="49" t="s">
         <v>5</v>
       </c>
@@ -11823,7 +11853,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="49" t="s">
         <v>5</v>
       </c>
@@ -11852,7 +11882,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="49" t="s">
         <v>62</v>
       </c>
@@ -11881,7 +11911,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="49" t="s">
         <v>79</v>
       </c>
@@ -11910,7 +11940,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="49" t="s">
         <v>292</v>
       </c>
@@ -11939,7 +11969,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="49" t="s">
         <v>5</v>
       </c>
@@ -11968,7 +11998,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="49" t="s">
         <v>5</v>
       </c>
@@ -11997,7 +12027,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="49" t="s">
         <v>5</v>
       </c>
@@ -12026,7 +12056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="49" t="s">
         <v>5</v>
       </c>
@@ -12055,7 +12085,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="49" t="s">
         <v>6</v>
       </c>
@@ -12084,7 +12114,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="49" t="s">
         <v>453</v>
       </c>
@@ -12113,7 +12143,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="49" t="s">
         <v>292</v>
       </c>
@@ -12142,7 +12172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="49" t="s">
         <v>453</v>
       </c>
@@ -12171,7 +12201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="49" t="s">
         <v>23</v>
       </c>
@@ -12200,7 +12230,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="49" t="s">
         <v>5</v>
       </c>
@@ -12229,7 +12259,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="49" t="s">
         <v>5</v>
       </c>
@@ -12258,7 +12288,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="49" t="s">
         <v>5</v>
       </c>
@@ -12287,7 +12317,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="49" t="s">
         <v>62</v>
       </c>
@@ -12316,7 +12346,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="49" t="s">
         <v>106</v>
       </c>
@@ -12345,7 +12375,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="49" t="s">
         <v>22</v>
       </c>
@@ -12374,7 +12404,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="49" t="s">
         <v>144</v>
       </c>
@@ -12403,7 +12433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="49" t="s">
         <v>5</v>
       </c>
@@ -12432,7 +12462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="49" t="s">
         <v>5</v>
       </c>
@@ -12461,7 +12491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="49" t="s">
         <v>21</v>
       </c>
@@ -12490,7 +12520,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="49" t="s">
         <v>106</v>
       </c>
@@ -12519,7 +12549,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="49" t="s">
         <v>6</v>
       </c>
@@ -12548,7 +12578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="49" t="s">
         <v>62</v>
       </c>
@@ -12577,7 +12607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="49" t="s">
         <v>62</v>
       </c>
@@ -12606,7 +12636,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="49" t="s">
         <v>242</v>
       </c>
@@ -12635,7 +12665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="49" t="s">
         <v>292</v>
       </c>
@@ -12664,7 +12694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="49" t="s">
         <v>482</v>
       </c>
@@ -12693,7 +12723,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="49" t="s">
         <v>247</v>
       </c>
@@ -12722,7 +12752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="49" t="s">
         <v>23</v>
       </c>
@@ -12751,7 +12781,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="49" t="s">
         <v>487</v>
       </c>
@@ -12780,7 +12810,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="49" t="s">
         <v>487</v>
       </c>
@@ -12809,7 +12839,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="49" t="s">
         <v>5</v>
       </c>
@@ -12838,7 +12868,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="49" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12897,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="49" t="s">
         <v>5</v>
       </c>
@@ -12896,7 +12926,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="49" t="s">
         <v>165</v>
       </c>
@@ -12925,7 +12955,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="49" t="s">
         <v>114</v>
       </c>
@@ -12954,7 +12984,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="49" t="s">
         <v>62</v>
       </c>
@@ -12983,7 +13013,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="49" t="s">
         <v>21</v>
       </c>
@@ -13012,7 +13042,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="49" t="s">
         <v>247</v>
       </c>
@@ -13041,7 +13071,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="49" t="s">
         <v>144</v>
       </c>
@@ -13070,7 +13100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="49" t="s">
         <v>5</v>
       </c>
@@ -13099,7 +13129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="49" t="s">
         <v>21</v>
       </c>
@@ -13128,7 +13158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="49" t="s">
         <v>21</v>
       </c>
@@ -13157,7 +13187,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="49" t="s">
         <v>144</v>
       </c>
@@ -13186,7 +13216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="49" t="s">
         <v>144</v>
       </c>
@@ -13215,7 +13245,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="49" t="s">
         <v>23</v>
       </c>
@@ -13244,7 +13274,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="49" t="s">
         <v>23</v>
       </c>
@@ -13273,7 +13303,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="49" t="s">
         <v>23</v>
       </c>
@@ -13302,7 +13332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="49" t="s">
         <v>79</v>
       </c>
@@ -13331,7 +13361,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="49" t="s">
         <v>5</v>
       </c>
@@ -13360,7 +13390,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="49" t="s">
         <v>5</v>
       </c>
@@ -13389,7 +13419,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="49" t="s">
         <v>22</v>
       </c>
@@ -13418,7 +13448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="49" t="s">
         <v>482</v>
       </c>
@@ -13447,7 +13477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="49" t="s">
         <v>106</v>
       </c>
@@ -13476,7 +13506,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="49" t="s">
         <v>6</v>
       </c>
@@ -13505,7 +13535,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="49" t="s">
         <v>6</v>
       </c>
@@ -13534,7 +13564,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="49" t="s">
         <v>5</v>
       </c>
@@ -13563,7 +13593,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="49" t="s">
         <v>247</v>
       </c>
@@ -13592,7 +13622,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="49" t="s">
         <v>5</v>
       </c>
@@ -13621,7 +13651,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="49" t="s">
         <v>5</v>
       </c>
@@ -13650,7 +13680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="49" t="s">
         <v>5</v>
       </c>
@@ -13679,7 +13709,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="49" t="s">
         <v>5</v>
       </c>
@@ -13708,7 +13738,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="49" t="s">
         <v>5</v>
       </c>
@@ -13737,7 +13767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="49" t="s">
         <v>5</v>
       </c>
@@ -13766,7 +13796,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
